--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-150" windowWidth="13905" windowHeight="4770" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-150" windowWidth="13905" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="assign" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
   <si>
     <t>IO11</t>
   </si>
@@ -457,12 +457,80 @@
     <t>SLG46826V</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:6]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO3 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO2 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO1 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO0 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +1035,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,11 +1366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" style="6"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
@@ -1293,13 +1386,13 @@
     <col min="14" max="14" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1455,7 @@
       <c r="M4" s="14"/>
       <c r="N4" s="15"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="B5" s="16" t="s">
         <v>44</v>
       </c>
@@ -1395,7 +1488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="B6" s="16" t="s">
         <v>45</v>
       </c>
@@ -1430,7 +1523,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="B7" s="16" t="s">
         <v>46</v>
       </c>
@@ -1463,7 +1556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
         <v>47</v>
       </c>
@@ -1498,7 +1591,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
@@ -1531,7 +1624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
@@ -1560,7 +1653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="B11" s="16" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1688,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
         <v>23</v>
@@ -1629,7 +1722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
@@ -1658,14 +1751,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="F14"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="B15" s="8" t="s">
         <v>105</v>
       </c>
@@ -1673,7 +1766,7 @@
       <c r="G15" s="8"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="F16" s="36" t="s">
@@ -1688,7 +1781,7 @@
       <c r="K16" s="37"/>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="2:12" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" customFormat="1" ht="14.25" thickBot="1">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="F17" s="45" t="s">
@@ -1711,7 +1804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:12" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" customFormat="1" ht="14.25" thickTop="1">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="F18" s="44" t="s">
@@ -1737,7 +1830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" customFormat="1">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="F19" s="34" t="s">
@@ -1763,7 +1856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="F20" s="34" t="s">
         <v>46</v>
       </c>
@@ -1787,7 +1880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12">
       <c r="F21" s="34" t="s">
         <v>47</v>
       </c>
@@ -1811,7 +1904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12">
       <c r="D23" s="6"/>
     </row>
   </sheetData>
@@ -1823,152 +1916,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:G18"/>
+  <dimension ref="B8:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="46.5" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" ht="27">
       <c r="B9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="E9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="27">
       <c r="B10" s="54"/>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="E10" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="54"/>
-    </row>
-    <row r="11" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="2:6" ht="27">
       <c r="B11" s="54"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="E11" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="54"/>
-    </row>
-    <row r="12" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="2:6" ht="27">
       <c r="B12" s="44"/>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="E12" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="44"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="E13" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="F13" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6">
       <c r="B14" s="54"/>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="E14" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="51"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="44"/>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="E15" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="2:6" ht="27">
       <c r="B16" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="E16" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="F16" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" ht="27">
       <c r="B17" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="E17" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="F17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="18" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="H17" s="57"/>
+    </row>
+    <row r="18" spans="2:8" ht="54">
       <c r="B18" s="52" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="E18" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="F18" s="52" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="58"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="58"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="58"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="58"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="59"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-150" windowWidth="13905" windowHeight="4770"/>
+    <workbookView xWindow="0" yWindow="-150" windowWidth="13785" windowHeight="6570"/>
   </bookViews>
   <sheets>
-    <sheet name="assign" sheetId="3" r:id="rId1"/>
+    <sheet name="pin assign" sheetId="3" r:id="rId1"/>
     <sheet name="register" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
   <si>
     <t>IO11</t>
   </si>
@@ -403,126 +403,147 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SO timing
+0x46: SPI mode 0 or 2, 0x50: SPI mode 1 or 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[6:2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x54</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x3F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bidirectional SO support for reading
+0x3F:normal, 0x5B:SS0, 0x6B:SS2, 0x6A:SS3, 0x55:SS0 and SS1, 0x56:SS0 and SS2, 0x42:SS1 and SS3, 0x40:always</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLG46826V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R/W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:6]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO3 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO2 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO1 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO0 input value 0:Low, 1: High</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xC8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>SCK polarity
 0x88: SPI mode 0 or 1, 0x87: SPI mode 2 or 3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[7:0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SO timing
-0x46: SPI mode 0 or 2, 0x50: SPI mode 1 or 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[6:2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x54</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x0C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[7:0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x3F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bidirectional SO support for reading
-0x3F:normal, 0x5B:SS0, 0x6B:SS2, 0x6A:SS3, 0x55:SS0 and SS1, 0x56:SS0 and SS2, 0x42:SS1 and SS3, 0x40:always</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I/O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLG46826V</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R/W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x75</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[7:6]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[1:0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>--</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reserve</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPIO3 input value 0:Low, 1: High</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPIO2 input value 0:Low, 1: High</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPIO1 input value 0:Low, 1: High</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GPIO0 input value 0:Low, 1: High</t>
+    <t>Software reset
+0x02:reset</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -861,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,23 +1066,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,7 +1471,7 @@
         <v>78</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>42</v>
@@ -1460,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>81</v>
@@ -1482,7 +1506,7 @@
         <v>77</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>41</v>
@@ -1493,7 +1517,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>79</v>
@@ -1515,7 +1539,7 @@
         <v>77</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>39</v>
@@ -1528,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>80</v>
@@ -1550,7 +1574,7 @@
         <v>77</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>40</v>
@@ -1561,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>81</v>
@@ -1618,7 +1642,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>37</v>
@@ -1629,7 +1653,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>15</v>
@@ -1680,7 +1704,7 @@
         <v>43</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>48</v>
@@ -1694,7 +1718,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>24</v>
@@ -1760,7 +1784,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="8"/>
       <c r="G15" s="8"/>
@@ -1916,245 +1940,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:H24"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="46.5" customWidth="1"/>
-    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:6">
-      <c r="B8" s="34" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="27">
-      <c r="B9" s="50" t="s">
+      <c r="D3" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="27">
+      <c r="B6" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="27">
+      <c r="B7" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="2:8" ht="54">
+      <c r="B8" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="27">
+      <c r="B9" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="27">
+      <c r="B10" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="C10" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="F10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="27">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="2:6" ht="27">
+    </row>
+    <row r="11" spans="2:8" ht="27">
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="27">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="F12" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="2:6" ht="27">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="34" t="s">
+    </row>
+    <row r="13" spans="2:8" ht="27">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="F13" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="44"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="2:6" ht="27">
-      <c r="B16" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="27">
-      <c r="B17" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="50" t="s">
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="57"/>
-    </row>
-    <row r="18" spans="2:8" ht="54">
-      <c r="B18" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="55" t="s">
+      <c r="C14" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="D14" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="F14" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="F15" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="66" t="s">
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="58"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="58"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="59" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="58"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="64"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="58"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="58"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="58"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="61"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="59"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-150" windowWidth="13785" windowHeight="6570"/>
+    <workbookView xWindow="345" yWindow="-15" windowWidth="13785" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
     <sheet name="register" sheetId="4" r:id="rId2"/>
+    <sheet name="TimingChart" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="174">
   <si>
     <t>IO11</t>
   </si>
@@ -199,10 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PU1M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SS0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -292,10 +289,6 @@
   </si>
   <si>
     <t>0x7A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[7]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -339,14 +332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PU1M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PU1M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PU10k</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Slave address[6:2] for SPI function</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0x00</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -379,26 +360,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x90</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x88</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SCK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x46</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[7:0]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -407,36 +372,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SO timing
-0x46: SPI mode 0 or 2, 0x50: SPI mode 1 or 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[6:2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x54</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x0C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[7:0]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x3F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bidirectional SO support for reading
-0x3F:normal, 0x5B:SS0, 0x6B:SS2, 0x6A:SS3, 0x55:SS0 and SS1, 0x56:SS0 and SS2, 0x42:SS1 and SS3, 0x40:always</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -534,16 +473,264 @@
   </si>
   <si>
     <t>[7:0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCK polarity
-0x88: SPI mode 0 or 1, 0x87: SPI mode 2 or 3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Software reset
 0x02:reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timing Chart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pgen[4:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ss[1:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d1[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d2[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>receive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Device Direction:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r1[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r2[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r2[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r3[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r2[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r4[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read with Write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SO timing
+0x4E: SPI mode 0 or 2, 0x4D: SPI mode 1 or 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SO timing
+0x66: SPI mode 0 or 2, 0x46: SPI mode 1 or 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x3A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x3B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x4E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x9B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bidirectional SO support for reading
+0x85:SI, 0x75:SO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x85</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slave address[6] for SPI function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4:1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slave address[5:2] for SPI function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x0B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCK polarity
+0x13: SPI mode 0 or 1, 0x03: SPI mode 2 or 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pull up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PU100k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PU100k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD100k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x9C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read FIFO depth select
+0x08:FIFO=9, 0x07:FIFO=8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(FIFO=8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(FIFO=9)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -551,7 +738,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,8 +794,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,8 +853,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -876,13 +1084,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1337,111 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,6 +1449,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1390,7 +1756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
@@ -1468,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>42</v>
@@ -1481,13 +1849,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
@@ -1503,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>41</v>
@@ -1514,13 +1882,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -1536,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>39</v>
@@ -1549,13 +1917,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>5</v>
@@ -1571,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>40</v>
@@ -1582,13 +1950,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>4</v>
@@ -1639,10 +2007,10 @@
         <v>18</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>37</v>
@@ -1653,7 +2021,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>15</v>
@@ -1701,13 +2069,13 @@
         <v>22</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="15"/>
@@ -1718,7 +2086,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>24</v>
@@ -1743,7 +2111,7 @@
         <v>26</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1784,7 +2152,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="8" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C15" s="8"/>
       <c r="G15" s="8"/>
@@ -1794,12 +2162,12 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="F16" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
       <c r="I16" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
@@ -1809,45 +2177,45 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="F17" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="45" t="s">
-        <v>52</v>
-      </c>
       <c r="I17" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" s="47"/>
       <c r="L17" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:12" customFormat="1" ht="14.25" thickTop="1">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="F18" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="44" t="s">
-        <v>50</v>
-      </c>
       <c r="I18" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="44">
         <v>1010100</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L18" s="42" t="str">
         <f>BIN2HEX(J18,2)</f>
@@ -1858,22 +2226,22 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="F19" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="I19" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="34">
         <v>1010101</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L19" s="38" t="str">
         <f>BIN2HEX(J19,2)</f>
@@ -1882,22 +2250,22 @@
     </row>
     <row r="20" spans="2:12">
       <c r="F20" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="I20" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="34">
         <v>1010110</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L20" s="38" t="str">
         <f>BIN2HEX(J20,2)</f>
@@ -1906,22 +2274,22 @@
     </row>
     <row r="21" spans="2:12">
       <c r="F21" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21" s="34">
         <v>1010111</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="38" t="str">
         <f>BIN2HEX(J21,2)</f>
@@ -1940,9 +2308,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1952,36 +2322,36 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="50" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -1989,10 +2359,10 @@
       <c r="C4" s="54"/>
       <c r="D4" s="51"/>
       <c r="E4" s="52" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2000,179 +2370,191 @@
       <c r="C5" s="44"/>
       <c r="D5" s="56"/>
       <c r="E5" s="52" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="27">
       <c r="B6" s="34" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D6" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="27">
+      <c r="B7" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="27">
+      <c r="B8" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="57"/>
+    </row>
+    <row r="9" spans="2:8" ht="27">
+      <c r="B9" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="27">
+      <c r="B10" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="27">
+      <c r="B11" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="27">
+      <c r="B12" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="D12" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="27">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="27">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="27">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="C16" s="65" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="27">
-      <c r="B7" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="57"/>
-    </row>
-    <row r="8" spans="2:8" ht="54">
-      <c r="B8" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="27">
-      <c r="B9" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="27">
-      <c r="B10" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="27">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="27">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="27">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="58"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="58"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>119</v>
+      <c r="D16" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="58"/>
       <c r="C17" s="60"/>
-      <c r="D17" s="58"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="51" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -2180,25 +2562,3905 @@
       <c r="C18" s="60"/>
       <c r="D18" s="58"/>
       <c r="E18" s="51" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F18" s="63" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="59"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>117</v>
+      <c r="B19" s="58"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="58"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="59"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:BL115"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BG21" sqref="BG21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="64" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:64">
+      <c r="C2" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="3:64">
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+    </row>
+    <row r="4" spans="3:64">
+      <c r="C4" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="3:64">
+      <c r="D5" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86">
+        <v>1</v>
+      </c>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86">
+        <v>2</v>
+      </c>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86">
+        <v>3</v>
+      </c>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86">
+        <v>4</v>
+      </c>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86">
+        <v>5</v>
+      </c>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86">
+        <v>6</v>
+      </c>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86">
+        <v>7</v>
+      </c>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86">
+        <v>8</v>
+      </c>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="86">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="86">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="86"/>
+      <c r="BE5" s="86">
+        <v>8</v>
+      </c>
+      <c r="BF5" s="86"/>
+      <c r="BG5" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH5" s="86"/>
+      <c r="BJ5" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="86"/>
+    </row>
+    <row r="7" spans="3:64">
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="70"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="70"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="70"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+    </row>
+    <row r="9" spans="3:64">
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="82"/>
+      <c r="W9" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="82"/>
+      <c r="BG9" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="101"/>
+      <c r="BJ9" s="100"/>
+      <c r="BK9" s="99"/>
+      <c r="BL9" s="97"/>
+    </row>
+    <row r="11" spans="3:64">
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
+      <c r="BD11" s="69"/>
+      <c r="BE11" s="69"/>
+      <c r="BF11" s="69"/>
+      <c r="BG11" s="69"/>
+      <c r="BH11" s="69"/>
+      <c r="BI11" s="69"/>
+      <c r="BJ11" s="69"/>
+      <c r="BK11" s="70"/>
+      <c r="BL11" s="68"/>
+    </row>
+    <row r="13" spans="3:64">
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="61"/>
+      <c r="BH13" s="69"/>
+      <c r="BI13" s="69"/>
+      <c r="BJ13" s="70"/>
+      <c r="BK13" s="61"/>
+      <c r="BL13" s="69"/>
+    </row>
+    <row r="15" spans="3:64">
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="89"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="89"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="80"/>
+      <c r="AQ15" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR15" s="89"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="89"/>
+      <c r="AY15" s="89"/>
+      <c r="AZ15" s="89"/>
+      <c r="BA15" s="89"/>
+      <c r="BB15" s="89"/>
+      <c r="BC15" s="89"/>
+      <c r="BD15" s="89"/>
+      <c r="BE15" s="89"/>
+      <c r="BF15" s="89"/>
+      <c r="BG15" s="85"/>
+      <c r="BH15" s="80"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="79"/>
+      <c r="BK15" s="80"/>
+      <c r="BL15" s="80"/>
+    </row>
+    <row r="17" spans="3:64">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="83"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="83"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="83"/>
+      <c r="BA17" s="83"/>
+      <c r="BB17" s="83"/>
+      <c r="BC17" s="83"/>
+      <c r="BD17" s="83"/>
+      <c r="BE17" s="83"/>
+      <c r="BF17" s="83"/>
+      <c r="BG17" s="82"/>
+      <c r="BH17" s="74"/>
+      <c r="BI17" s="74"/>
+      <c r="BJ17" s="75"/>
+      <c r="BK17" s="80"/>
+      <c r="BL17" s="80"/>
+    </row>
+    <row r="19" spans="3:64">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="69"/>
+      <c r="AO19" s="69"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="61"/>
+      <c r="BL19" s="69"/>
+    </row>
+    <row r="22" spans="3:64">
+      <c r="C22" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="3:64">
+      <c r="D23" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86">
+        <v>1</v>
+      </c>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86">
+        <v>2</v>
+      </c>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86">
+        <v>3</v>
+      </c>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86">
+        <v>4</v>
+      </c>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86">
+        <v>5</v>
+      </c>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86">
+        <v>6</v>
+      </c>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86">
+        <v>7</v>
+      </c>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86">
+        <v>8</v>
+      </c>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86">
+        <v>6</v>
+      </c>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86">
+        <v>7</v>
+      </c>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="86">
+        <v>8</v>
+      </c>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP23" s="86"/>
+      <c r="AQ23" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR23" s="86"/>
+      <c r="AS23" s="86"/>
+      <c r="AU23" s="86"/>
+      <c r="AV23" s="86"/>
+      <c r="AW23" s="86"/>
+      <c r="AX23" s="86"/>
+      <c r="AY23" s="86"/>
+      <c r="AZ23" s="86"/>
+      <c r="BA23" s="86"/>
+      <c r="BB23" s="86"/>
+      <c r="BC23" s="86"/>
+      <c r="BD23" s="86"/>
+      <c r="BE23" s="86"/>
+      <c r="BF23" s="86"/>
+      <c r="BG23" s="86"/>
+      <c r="BH23" s="86"/>
+    </row>
+    <row r="25" spans="3:64">
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="70"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="70"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="70"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="61"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="68"/>
+    </row>
+    <row r="27" spans="3:64">
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="V27" s="82"/>
+      <c r="W27" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP27" s="92"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="61"/>
+    </row>
+    <row r="29" spans="3:64">
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+    </row>
+    <row r="31" spans="3:64">
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="70"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="70"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="69"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="70"/>
+      <c r="AS31" s="61"/>
+    </row>
+    <row r="33" spans="3:64">
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="89"/>
+      <c r="AF33" s="89"/>
+      <c r="AG33" s="89"/>
+      <c r="AH33" s="89"/>
+      <c r="AI33" s="89"/>
+      <c r="AJ33" s="89"/>
+      <c r="AK33" s="89"/>
+      <c r="AL33" s="89"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="89"/>
+      <c r="AO33" s="85"/>
+      <c r="AP33" s="80"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="79"/>
+      <c r="AS33" s="80"/>
+    </row>
+    <row r="35" spans="3:64">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="83"/>
+      <c r="AG35" s="83"/>
+      <c r="AH35" s="83"/>
+      <c r="AI35" s="83"/>
+      <c r="AJ35" s="83"/>
+      <c r="AK35" s="83"/>
+      <c r="AL35" s="83"/>
+      <c r="AM35" s="83"/>
+      <c r="AN35" s="83"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="73"/>
+      <c r="AQ35" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="83"/>
+    </row>
+    <row r="37" spans="3:64">
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="69"/>
+      <c r="AD37" s="69"/>
+      <c r="AE37" s="69"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
+      <c r="AI37" s="69"/>
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="69"/>
+      <c r="AL37" s="69"/>
+      <c r="AM37" s="69"/>
+      <c r="AN37" s="69"/>
+      <c r="AO37" s="69"/>
+      <c r="AP37" s="69"/>
+      <c r="AQ37" s="70"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="68"/>
+    </row>
+    <row r="40" spans="3:64">
+      <c r="G40" s="86">
+        <v>1</v>
+      </c>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86">
+        <v>2</v>
+      </c>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86">
+        <v>3</v>
+      </c>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86">
+        <v>4</v>
+      </c>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86">
+        <v>5</v>
+      </c>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86">
+        <v>6</v>
+      </c>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86">
+        <v>7</v>
+      </c>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86">
+        <v>8</v>
+      </c>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="86">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="86">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="86">
+        <v>4</v>
+      </c>
+      <c r="AF40" s="86"/>
+      <c r="AG40" s="86">
+        <v>5</v>
+      </c>
+      <c r="AH40" s="86"/>
+      <c r="AI40" s="86">
+        <v>6</v>
+      </c>
+      <c r="AJ40" s="86"/>
+      <c r="AK40" s="86">
+        <v>7</v>
+      </c>
+      <c r="AL40" s="86"/>
+      <c r="AM40" s="86">
+        <v>8</v>
+      </c>
+      <c r="AN40" s="86"/>
+      <c r="AO40" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP40" s="86"/>
+      <c r="AQ40" s="86">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="86"/>
+      <c r="AS40" s="86">
+        <v>2</v>
+      </c>
+      <c r="AT40" s="86"/>
+      <c r="AU40" s="86">
+        <v>3</v>
+      </c>
+      <c r="AV40" s="86"/>
+      <c r="AW40" s="86">
+        <v>4</v>
+      </c>
+      <c r="AX40" s="86"/>
+      <c r="AY40" s="86">
+        <v>5</v>
+      </c>
+      <c r="AZ40" s="86"/>
+      <c r="BA40" s="86">
+        <v>6</v>
+      </c>
+      <c r="BB40" s="86"/>
+      <c r="BC40" s="86">
+        <v>7</v>
+      </c>
+      <c r="BD40" s="86"/>
+      <c r="BE40" s="86">
+        <v>8</v>
+      </c>
+      <c r="BF40" s="86"/>
+      <c r="BG40" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH40" s="86"/>
+      <c r="BI40" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ40" s="86"/>
+      <c r="BK40" s="86"/>
+      <c r="BL40" s="72"/>
+    </row>
+    <row r="42" spans="3:64">
+      <c r="F42" s="68"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="70"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="70"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="70"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="70"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="70"/>
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="70"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="70"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="70"/>
+      <c r="AU42" s="61"/>
+      <c r="AV42" s="70"/>
+      <c r="AW42" s="61"/>
+      <c r="AX42" s="70"/>
+      <c r="AY42" s="61"/>
+      <c r="AZ42" s="70"/>
+      <c r="BA42" s="61"/>
+      <c r="BB42" s="70"/>
+      <c r="BC42" s="61"/>
+      <c r="BD42" s="70"/>
+      <c r="BE42" s="61"/>
+      <c r="BF42" s="70"/>
+      <c r="BG42" s="61"/>
+      <c r="BH42" s="70"/>
+      <c r="BI42" s="61"/>
+      <c r="BJ42" s="70"/>
+      <c r="BK42" s="68"/>
+      <c r="BL42" s="68"/>
+    </row>
+    <row r="44" spans="3:64">
+      <c r="E44" s="1"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="R44" s="83"/>
+      <c r="S44" s="83"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="V44" s="82"/>
+      <c r="W44" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="89"/>
+      <c r="AB44" s="89"/>
+      <c r="AC44" s="89"/>
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="89"/>
+      <c r="AF44" s="89"/>
+      <c r="AG44" s="89"/>
+      <c r="AH44" s="89"/>
+      <c r="AI44" s="89"/>
+      <c r="AJ44" s="89"/>
+      <c r="AK44" s="89"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="89"/>
+      <c r="AN44" s="85"/>
+      <c r="AO44" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP44" s="94"/>
+      <c r="AQ44" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR44" s="89"/>
+      <c r="AS44" s="89"/>
+      <c r="AT44" s="89"/>
+      <c r="AU44" s="89"/>
+      <c r="AV44" s="89"/>
+      <c r="AW44" s="89"/>
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="89"/>
+      <c r="AZ44" s="89"/>
+      <c r="BA44" s="89"/>
+      <c r="BB44" s="89"/>
+      <c r="BC44" s="89"/>
+      <c r="BD44" s="89"/>
+      <c r="BE44" s="89"/>
+      <c r="BF44" s="85"/>
+      <c r="BG44" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH44" s="96"/>
+      <c r="BI44" s="101"/>
+      <c r="BJ44" s="100"/>
+      <c r="BK44" s="99"/>
+      <c r="BL44" s="97"/>
+    </row>
+    <row r="46" spans="3:64">
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
+      <c r="Z46" s="69"/>
+      <c r="AA46" s="69"/>
+      <c r="AB46" s="69"/>
+      <c r="AC46" s="69"/>
+      <c r="AD46" s="69"/>
+      <c r="AE46" s="69"/>
+      <c r="AF46" s="69"/>
+      <c r="AG46" s="69"/>
+      <c r="AH46" s="69"/>
+      <c r="AI46" s="69"/>
+      <c r="AJ46" s="69"/>
+      <c r="AK46" s="69"/>
+      <c r="AL46" s="69"/>
+      <c r="AM46" s="69"/>
+      <c r="AN46" s="69"/>
+      <c r="AO46" s="69"/>
+      <c r="AP46" s="69"/>
+      <c r="AQ46" s="69"/>
+      <c r="AR46" s="69"/>
+      <c r="AS46" s="69"/>
+      <c r="AT46" s="69"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="69"/>
+      <c r="AW46" s="69"/>
+      <c r="AX46" s="69"/>
+      <c r="AY46" s="69"/>
+      <c r="AZ46" s="69"/>
+      <c r="BA46" s="69"/>
+      <c r="BB46" s="69"/>
+      <c r="BC46" s="69"/>
+      <c r="BD46" s="69"/>
+      <c r="BE46" s="69"/>
+      <c r="BF46" s="69"/>
+      <c r="BG46" s="69"/>
+      <c r="BH46" s="69"/>
+      <c r="BI46" s="69"/>
+      <c r="BJ46" s="69"/>
+      <c r="BK46" s="70"/>
+      <c r="BL46" s="68"/>
+    </row>
+    <row r="48" spans="3:64">
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="70"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="70"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="70"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="70"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="70"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="70"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="70"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="70"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="69"/>
+      <c r="AQ48" s="69"/>
+      <c r="AR48" s="70"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="70"/>
+      <c r="AU48" s="61"/>
+      <c r="AV48" s="70"/>
+      <c r="AW48" s="61"/>
+      <c r="AX48" s="70"/>
+      <c r="AY48" s="61"/>
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="61"/>
+      <c r="BB48" s="70"/>
+      <c r="BC48" s="61"/>
+      <c r="BD48" s="70"/>
+      <c r="BE48" s="61"/>
+      <c r="BF48" s="70"/>
+      <c r="BG48" s="61"/>
+      <c r="BH48" s="69"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="70"/>
+      <c r="BK48" s="61"/>
+      <c r="BL48" s="69"/>
+    </row>
+    <row r="50" spans="3:64">
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="80"/>
+      <c r="AD50" s="80"/>
+      <c r="AE50" s="80"/>
+      <c r="AF50" s="80"/>
+      <c r="AG50" s="80"/>
+      <c r="AH50" s="80"/>
+      <c r="AI50" s="80"/>
+      <c r="AJ50" s="80"/>
+      <c r="AK50" s="80"/>
+      <c r="AL50" s="80"/>
+      <c r="AM50" s="80"/>
+      <c r="AN50" s="80"/>
+      <c r="AO50" s="80"/>
+      <c r="AP50" s="80"/>
+      <c r="AQ50" s="80"/>
+      <c r="AR50" s="80"/>
+      <c r="AS50" s="80"/>
+      <c r="AT50" s="80"/>
+      <c r="AU50" s="80"/>
+      <c r="AV50" s="80"/>
+      <c r="AW50" s="80"/>
+      <c r="AX50" s="80"/>
+      <c r="AY50" s="80"/>
+      <c r="AZ50" s="80"/>
+      <c r="BA50" s="80"/>
+      <c r="BB50" s="80"/>
+      <c r="BC50" s="80"/>
+      <c r="BD50" s="80"/>
+      <c r="BE50" s="80"/>
+      <c r="BF50" s="80"/>
+      <c r="BG50" s="80"/>
+      <c r="BH50" s="80"/>
+      <c r="BI50" s="80"/>
+      <c r="BJ50" s="80"/>
+      <c r="BK50" s="80"/>
+      <c r="BL50" s="80"/>
+    </row>
+    <row r="52" spans="3:64">
+      <c r="F52" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+      <c r="W52" s="83"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="83"/>
+      <c r="AA52" s="83"/>
+      <c r="AB52" s="83"/>
+      <c r="AC52" s="83"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="83"/>
+      <c r="AH52" s="83"/>
+      <c r="AI52" s="83"/>
+      <c r="AJ52" s="83"/>
+      <c r="AK52" s="83"/>
+      <c r="AL52" s="82"/>
+      <c r="AM52" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN52" s="83"/>
+      <c r="AO52" s="83"/>
+      <c r="AP52" s="83"/>
+      <c r="AQ52" s="83"/>
+      <c r="AR52" s="83"/>
+      <c r="AS52" s="83"/>
+      <c r="AT52" s="83"/>
+      <c r="AU52" s="83"/>
+      <c r="AV52" s="83"/>
+      <c r="AW52" s="83"/>
+      <c r="AX52" s="83"/>
+      <c r="AY52" s="83"/>
+      <c r="AZ52" s="83"/>
+      <c r="BA52" s="83"/>
+      <c r="BB52" s="83"/>
+      <c r="BC52" s="83"/>
+      <c r="BD52" s="82"/>
+      <c r="BE52" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF52" s="83"/>
+      <c r="BG52" s="83"/>
+      <c r="BH52" s="83"/>
+      <c r="BI52" s="83"/>
+      <c r="BJ52" s="82"/>
+      <c r="BK52" s="80"/>
+      <c r="BL52" s="80"/>
+    </row>
+    <row r="54" spans="3:64">
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="68"/>
+      <c r="AB54" s="68"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="68"/>
+      <c r="AF54" s="68"/>
+      <c r="AG54" s="68"/>
+      <c r="AH54" s="68"/>
+      <c r="AI54" s="68"/>
+      <c r="AJ54" s="68"/>
+      <c r="AK54" s="68"/>
+      <c r="AL54" s="68"/>
+      <c r="AM54" s="68"/>
+      <c r="AN54" s="68"/>
+      <c r="AO54" s="68"/>
+      <c r="AP54" s="68"/>
+      <c r="AQ54" s="68"/>
+      <c r="AR54" s="68"/>
+      <c r="AS54" s="68"/>
+      <c r="AT54" s="68"/>
+      <c r="AU54" s="68"/>
+      <c r="AV54" s="68"/>
+      <c r="AW54" s="68"/>
+      <c r="AX54" s="68"/>
+      <c r="AY54" s="68"/>
+      <c r="AZ54" s="68"/>
+      <c r="BA54" s="68"/>
+      <c r="BB54" s="68"/>
+      <c r="BC54" s="68"/>
+      <c r="BD54" s="68"/>
+      <c r="BE54" s="68"/>
+      <c r="BF54" s="68"/>
+      <c r="BG54" s="68"/>
+      <c r="BH54" s="68"/>
+      <c r="BI54" s="68"/>
+      <c r="BJ54" s="68"/>
+      <c r="BK54" s="61"/>
+      <c r="BL54" s="69"/>
+    </row>
+    <row r="55" spans="3:64">
+      <c r="E55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+    </row>
+    <row r="56" spans="3:64">
+      <c r="C56" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="3:64">
+      <c r="D57" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86">
+        <v>1</v>
+      </c>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86">
+        <v>2</v>
+      </c>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86">
+        <v>3</v>
+      </c>
+      <c r="L57" s="86"/>
+      <c r="M57" s="86">
+        <v>4</v>
+      </c>
+      <c r="N57" s="86"/>
+      <c r="O57" s="86">
+        <v>5</v>
+      </c>
+      <c r="P57" s="86"/>
+      <c r="Q57" s="86">
+        <v>6</v>
+      </c>
+      <c r="R57" s="86"/>
+      <c r="S57" s="86">
+        <v>7</v>
+      </c>
+      <c r="T57" s="86"/>
+      <c r="U57" s="86">
+        <v>8</v>
+      </c>
+      <c r="V57" s="86"/>
+      <c r="W57" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="X57" s="86"/>
+      <c r="Y57" s="86">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="86"/>
+      <c r="AA57" s="86">
+        <v>2</v>
+      </c>
+      <c r="AB57" s="86"/>
+      <c r="AC57" s="86">
+        <v>3</v>
+      </c>
+      <c r="AD57" s="86"/>
+      <c r="AE57" s="86">
+        <v>4</v>
+      </c>
+      <c r="AF57" s="86"/>
+      <c r="AG57" s="86">
+        <v>5</v>
+      </c>
+      <c r="AH57" s="86"/>
+      <c r="AI57" s="86">
+        <v>6</v>
+      </c>
+      <c r="AJ57" s="86"/>
+      <c r="AK57" s="86">
+        <v>7</v>
+      </c>
+      <c r="AL57" s="86"/>
+      <c r="AM57" s="86">
+        <v>8</v>
+      </c>
+      <c r="AN57" s="86"/>
+      <c r="AO57" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP57" s="86"/>
+      <c r="AQ57" s="86">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="86"/>
+      <c r="AS57" s="86">
+        <v>2</v>
+      </c>
+      <c r="AT57" s="86"/>
+      <c r="AU57" s="86">
+        <v>3</v>
+      </c>
+      <c r="AV57" s="86"/>
+      <c r="AW57" s="86">
+        <v>4</v>
+      </c>
+      <c r="AX57" s="86"/>
+      <c r="AY57" s="86">
+        <v>5</v>
+      </c>
+      <c r="AZ57" s="86"/>
+      <c r="BA57" s="86">
+        <v>6</v>
+      </c>
+      <c r="BB57" s="86"/>
+      <c r="BC57" s="86">
+        <v>7</v>
+      </c>
+      <c r="BD57" s="86"/>
+      <c r="BE57" s="86">
+        <v>8</v>
+      </c>
+      <c r="BF57" s="86"/>
+      <c r="BG57" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH57" s="86"/>
+      <c r="BI57" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ57" s="86"/>
+      <c r="BK57" s="86"/>
+      <c r="BL57" s="72"/>
+    </row>
+    <row r="59" spans="3:64">
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="70"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="70"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="70"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="70"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="70"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="70"/>
+      <c r="AC59" s="61"/>
+      <c r="AD59" s="70"/>
+      <c r="AE59" s="61"/>
+      <c r="AF59" s="70"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="70"/>
+      <c r="AI59" s="61"/>
+      <c r="AJ59" s="70"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="70"/>
+      <c r="AM59" s="61"/>
+      <c r="AN59" s="70"/>
+      <c r="AO59" s="61"/>
+      <c r="AP59" s="70"/>
+      <c r="AQ59" s="61"/>
+      <c r="AR59" s="70"/>
+      <c r="AS59" s="61"/>
+      <c r="AT59" s="70"/>
+      <c r="AU59" s="61"/>
+      <c r="AV59" s="70"/>
+      <c r="AW59" s="61"/>
+      <c r="AX59" s="70"/>
+      <c r="AY59" s="61"/>
+      <c r="AZ59" s="70"/>
+      <c r="BA59" s="61"/>
+      <c r="BB59" s="70"/>
+      <c r="BC59" s="61"/>
+      <c r="BD59" s="70"/>
+      <c r="BE59" s="61"/>
+      <c r="BF59" s="70"/>
+      <c r="BG59" s="61"/>
+      <c r="BH59" s="70"/>
+      <c r="BI59" s="61"/>
+      <c r="BJ59" s="70"/>
+      <c r="BK59" s="68"/>
+      <c r="BL59" s="68"/>
+    </row>
+    <row r="61" spans="3:64">
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="82"/>
+      <c r="Q61" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="82"/>
+      <c r="U61" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="V61" s="82"/>
+      <c r="W61" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="X61" s="92"/>
+      <c r="Y61" s="77"/>
+      <c r="Z61" s="78"/>
+      <c r="AA61" s="78"/>
+      <c r="AB61" s="78"/>
+      <c r="AC61" s="78"/>
+      <c r="AD61" s="78"/>
+      <c r="AE61" s="78"/>
+      <c r="AF61" s="78"/>
+      <c r="AG61" s="78"/>
+      <c r="AH61" s="78"/>
+      <c r="AI61" s="78"/>
+      <c r="AJ61" s="78"/>
+      <c r="AK61" s="78"/>
+      <c r="AL61" s="78"/>
+      <c r="AM61" s="78"/>
+      <c r="AN61" s="79"/>
+      <c r="AO61" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP61" s="94"/>
+      <c r="AQ61" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR61" s="89"/>
+      <c r="AS61" s="89"/>
+      <c r="AT61" s="89"/>
+      <c r="AU61" s="89"/>
+      <c r="AV61" s="89"/>
+      <c r="AW61" s="89"/>
+      <c r="AX61" s="89"/>
+      <c r="AY61" s="89"/>
+      <c r="AZ61" s="89"/>
+      <c r="BA61" s="89"/>
+      <c r="BB61" s="89"/>
+      <c r="BC61" s="89"/>
+      <c r="BD61" s="89"/>
+      <c r="BE61" s="89"/>
+      <c r="BF61" s="85"/>
+      <c r="BG61" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH61" s="96"/>
+      <c r="BI61" s="101"/>
+      <c r="BJ61" s="100"/>
+      <c r="BK61" s="99"/>
+      <c r="BL61" s="97"/>
+    </row>
+    <row r="63" spans="3:64">
+      <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="68"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="69"/>
+      <c r="W63" s="69"/>
+      <c r="X63" s="69"/>
+      <c r="Y63" s="69"/>
+      <c r="Z63" s="69"/>
+      <c r="AA63" s="69"/>
+      <c r="AB63" s="69"/>
+      <c r="AC63" s="69"/>
+      <c r="AD63" s="69"/>
+      <c r="AE63" s="69"/>
+      <c r="AF63" s="69"/>
+      <c r="AG63" s="69"/>
+      <c r="AH63" s="69"/>
+      <c r="AI63" s="69"/>
+      <c r="AJ63" s="69"/>
+      <c r="AK63" s="69"/>
+      <c r="AL63" s="69"/>
+      <c r="AM63" s="69"/>
+      <c r="AN63" s="69"/>
+      <c r="AO63" s="69"/>
+      <c r="AP63" s="69"/>
+      <c r="AQ63" s="69"/>
+      <c r="AR63" s="69"/>
+      <c r="AS63" s="69"/>
+      <c r="AT63" s="69"/>
+      <c r="AU63" s="69"/>
+      <c r="AV63" s="69"/>
+      <c r="AW63" s="69"/>
+      <c r="AX63" s="69"/>
+      <c r="AY63" s="69"/>
+      <c r="AZ63" s="69"/>
+      <c r="BA63" s="69"/>
+      <c r="BB63" s="69"/>
+      <c r="BC63" s="69"/>
+      <c r="BD63" s="69"/>
+      <c r="BE63" s="69"/>
+      <c r="BF63" s="69"/>
+      <c r="BG63" s="69"/>
+      <c r="BH63" s="69"/>
+      <c r="BI63" s="69"/>
+      <c r="BJ63" s="69"/>
+      <c r="BK63" s="70"/>
+      <c r="BL63" s="68"/>
+    </row>
+    <row r="65" spans="3:64">
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="69"/>
+      <c r="R65" s="69"/>
+      <c r="S65" s="69"/>
+      <c r="T65" s="69"/>
+      <c r="U65" s="69"/>
+      <c r="V65" s="69"/>
+      <c r="W65" s="69"/>
+      <c r="X65" s="69"/>
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="70"/>
+      <c r="AE65" s="61"/>
+      <c r="AF65" s="70"/>
+      <c r="AG65" s="61"/>
+      <c r="AH65" s="70"/>
+      <c r="AI65" s="61"/>
+      <c r="AJ65" s="70"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="70"/>
+      <c r="AM65" s="61"/>
+      <c r="AN65" s="70"/>
+      <c r="AO65" s="61"/>
+      <c r="AP65" s="69"/>
+      <c r="AQ65" s="69"/>
+      <c r="AR65" s="70"/>
+      <c r="AS65" s="61"/>
+      <c r="AT65" s="70"/>
+      <c r="AU65" s="61"/>
+      <c r="AV65" s="70"/>
+      <c r="AW65" s="61"/>
+      <c r="AX65" s="70"/>
+      <c r="AY65" s="61"/>
+      <c r="AZ65" s="70"/>
+      <c r="BA65" s="61"/>
+      <c r="BB65" s="70"/>
+      <c r="BC65" s="61"/>
+      <c r="BD65" s="70"/>
+      <c r="BE65" s="61"/>
+      <c r="BF65" s="70"/>
+      <c r="BG65" s="61"/>
+      <c r="BH65" s="69"/>
+      <c r="BI65" s="69"/>
+      <c r="BJ65" s="70"/>
+      <c r="BK65" s="61"/>
+      <c r="BL65" s="69"/>
+    </row>
+    <row r="67" spans="3:64">
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="80"/>
+      <c r="V67" s="80"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="80"/>
+      <c r="AA67" s="80"/>
+      <c r="AB67" s="80"/>
+      <c r="AC67" s="80"/>
+      <c r="AD67" s="80"/>
+      <c r="AE67" s="80"/>
+      <c r="AF67" s="80"/>
+      <c r="AG67" s="80"/>
+      <c r="AH67" s="80"/>
+      <c r="AI67" s="80"/>
+      <c r="AJ67" s="80"/>
+      <c r="AK67" s="80"/>
+      <c r="AL67" s="80"/>
+      <c r="AM67" s="80"/>
+      <c r="AN67" s="80"/>
+      <c r="AO67" s="80"/>
+      <c r="AP67" s="80"/>
+      <c r="AQ67" s="80"/>
+      <c r="AR67" s="80"/>
+      <c r="AS67" s="80"/>
+      <c r="AT67" s="80"/>
+      <c r="AU67" s="80"/>
+      <c r="AV67" s="80"/>
+      <c r="AW67" s="80"/>
+      <c r="AX67" s="80"/>
+      <c r="AY67" s="80"/>
+      <c r="AZ67" s="80"/>
+      <c r="BA67" s="80"/>
+      <c r="BB67" s="80"/>
+      <c r="BC67" s="80"/>
+      <c r="BD67" s="80"/>
+      <c r="BE67" s="80"/>
+      <c r="BF67" s="80"/>
+      <c r="BG67" s="80"/>
+      <c r="BH67" s="80"/>
+      <c r="BI67" s="80"/>
+      <c r="BJ67" s="80"/>
+      <c r="BK67" s="80"/>
+      <c r="BL67" s="80"/>
+    </row>
+    <row r="69" spans="3:64">
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="80"/>
+      <c r="S69" s="80"/>
+      <c r="T69" s="80"/>
+      <c r="U69" s="73"/>
+      <c r="V69" s="74"/>
+      <c r="W69" s="74"/>
+      <c r="X69" s="74"/>
+      <c r="Y69" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z69" s="83"/>
+      <c r="AA69" s="83"/>
+      <c r="AB69" s="83"/>
+      <c r="AC69" s="83"/>
+      <c r="AD69" s="83"/>
+      <c r="AE69" s="83"/>
+      <c r="AF69" s="83"/>
+      <c r="AG69" s="83"/>
+      <c r="AH69" s="83"/>
+      <c r="AI69" s="83"/>
+      <c r="AJ69" s="83"/>
+      <c r="AK69" s="83"/>
+      <c r="AL69" s="83"/>
+      <c r="AM69" s="83"/>
+      <c r="AN69" s="83"/>
+      <c r="AO69" s="82"/>
+      <c r="AP69" s="74"/>
+      <c r="AQ69" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR69" s="83"/>
+      <c r="AS69" s="83"/>
+      <c r="AT69" s="83"/>
+      <c r="AU69" s="83"/>
+      <c r="AV69" s="83"/>
+      <c r="AW69" s="83"/>
+      <c r="AX69" s="83"/>
+      <c r="AY69" s="83"/>
+      <c r="AZ69" s="83"/>
+      <c r="BA69" s="83"/>
+      <c r="BB69" s="83"/>
+      <c r="BC69" s="83"/>
+      <c r="BD69" s="83"/>
+      <c r="BE69" s="83"/>
+      <c r="BF69" s="83"/>
+      <c r="BG69" s="82"/>
+      <c r="BH69" s="74"/>
+      <c r="BI69" s="74"/>
+      <c r="BJ69" s="75"/>
+      <c r="BK69" s="80"/>
+      <c r="BL69" s="80"/>
+    </row>
+    <row r="71" spans="3:64">
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
+      <c r="R71" s="69"/>
+      <c r="S71" s="69"/>
+      <c r="T71" s="69"/>
+      <c r="U71" s="69"/>
+      <c r="V71" s="69"/>
+      <c r="W71" s="69"/>
+      <c r="X71" s="69"/>
+      <c r="Y71" s="69"/>
+      <c r="Z71" s="69"/>
+      <c r="AA71" s="69"/>
+      <c r="AB71" s="69"/>
+      <c r="AC71" s="69"/>
+      <c r="AD71" s="69"/>
+      <c r="AE71" s="69"/>
+      <c r="AF71" s="69"/>
+      <c r="AG71" s="69"/>
+      <c r="AH71" s="69"/>
+      <c r="AI71" s="69"/>
+      <c r="AJ71" s="69"/>
+      <c r="AK71" s="69"/>
+      <c r="AL71" s="69"/>
+      <c r="AM71" s="69"/>
+      <c r="AN71" s="69"/>
+      <c r="AO71" s="69"/>
+      <c r="AP71" s="69"/>
+      <c r="AQ71" s="70"/>
+      <c r="AR71" s="68"/>
+      <c r="AS71" s="68"/>
+      <c r="AT71" s="68"/>
+      <c r="AU71" s="68"/>
+      <c r="AV71" s="68"/>
+      <c r="AW71" s="68"/>
+      <c r="AX71" s="68"/>
+      <c r="AY71" s="68"/>
+      <c r="AZ71" s="68"/>
+      <c r="BA71" s="68"/>
+      <c r="BB71" s="68"/>
+      <c r="BC71" s="68"/>
+      <c r="BD71" s="68"/>
+      <c r="BE71" s="68"/>
+      <c r="BF71" s="68"/>
+      <c r="BG71" s="68"/>
+      <c r="BH71" s="68"/>
+      <c r="BI71" s="68"/>
+      <c r="BJ71" s="68"/>
+      <c r="BK71" s="61"/>
+      <c r="BL71" s="69"/>
+    </row>
+    <row r="74" spans="3:64">
+      <c r="C74" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+    </row>
+    <row r="76" spans="3:64">
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="69"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="69"/>
+      <c r="S76" s="69"/>
+      <c r="T76" s="69"/>
+      <c r="U76" s="69"/>
+      <c r="V76" s="69"/>
+      <c r="W76" s="69"/>
+      <c r="X76" s="69"/>
+      <c r="Y76" s="69"/>
+      <c r="Z76" s="69"/>
+      <c r="AA76" s="69"/>
+      <c r="AB76" s="69"/>
+      <c r="AC76" s="69"/>
+      <c r="AD76" s="69"/>
+      <c r="AE76" s="69"/>
+      <c r="AF76" s="69"/>
+      <c r="AG76" s="69"/>
+      <c r="AH76" s="69"/>
+      <c r="AI76" s="69"/>
+      <c r="AJ76" s="69"/>
+      <c r="AK76" s="69"/>
+      <c r="AL76" s="69"/>
+      <c r="AM76" s="69"/>
+      <c r="AN76" s="69"/>
+      <c r="AO76" s="69"/>
+      <c r="AP76" s="69"/>
+      <c r="AQ76" s="69"/>
+      <c r="AR76" s="70"/>
+      <c r="AS76" s="68"/>
+      <c r="AT76" s="68"/>
+    </row>
+    <row r="78" spans="3:64">
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="70"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="70"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="70"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="70"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="70"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="70"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="69"/>
+      <c r="Y78" s="69"/>
+      <c r="Z78" s="70"/>
+      <c r="AA78" s="61"/>
+      <c r="AB78" s="70"/>
+      <c r="AC78" s="61"/>
+      <c r="AD78" s="70"/>
+      <c r="AE78" s="61"/>
+      <c r="AF78" s="70"/>
+      <c r="AG78" s="61"/>
+      <c r="AH78" s="70"/>
+      <c r="AI78" s="61"/>
+      <c r="AJ78" s="70"/>
+      <c r="AK78" s="61"/>
+      <c r="AL78" s="70"/>
+      <c r="AM78" s="61"/>
+      <c r="AN78" s="70"/>
+      <c r="AO78" s="61"/>
+      <c r="AP78" s="69"/>
+      <c r="AQ78" s="69"/>
+      <c r="AR78" s="69"/>
+      <c r="AS78" s="69"/>
+      <c r="AT78" s="69"/>
+    </row>
+    <row r="80" spans="3:64">
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="84">
+        <v>7</v>
+      </c>
+      <c r="H80" s="85"/>
+      <c r="I80" s="84">
+        <v>6</v>
+      </c>
+      <c r="J80" s="85"/>
+      <c r="K80" s="84">
+        <v>5</v>
+      </c>
+      <c r="L80" s="85"/>
+      <c r="M80" s="84">
+        <v>4</v>
+      </c>
+      <c r="N80" s="85"/>
+      <c r="O80" s="84">
+        <v>3</v>
+      </c>
+      <c r="P80" s="85"/>
+      <c r="Q80" s="84">
+        <v>2</v>
+      </c>
+      <c r="R80" s="85"/>
+      <c r="S80" s="84">
+        <v>1</v>
+      </c>
+      <c r="T80" s="85"/>
+      <c r="U80" s="84">
+        <v>0</v>
+      </c>
+      <c r="V80" s="85"/>
+      <c r="W80" s="69"/>
+      <c r="X80" s="69"/>
+      <c r="Y80" s="84">
+        <v>7</v>
+      </c>
+      <c r="Z80" s="85"/>
+      <c r="AA80" s="84">
+        <v>6</v>
+      </c>
+      <c r="AB80" s="85"/>
+      <c r="AC80" s="84">
+        <v>5</v>
+      </c>
+      <c r="AD80" s="85"/>
+      <c r="AE80" s="84">
+        <v>4</v>
+      </c>
+      <c r="AF80" s="85"/>
+      <c r="AG80" s="84">
+        <v>3</v>
+      </c>
+      <c r="AH80" s="85"/>
+      <c r="AI80" s="84">
+        <v>2</v>
+      </c>
+      <c r="AJ80" s="85"/>
+      <c r="AK80" s="84">
+        <v>1</v>
+      </c>
+      <c r="AL80" s="85"/>
+      <c r="AM80" s="84">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="85"/>
+      <c r="AO80" s="69"/>
+      <c r="AP80" s="69"/>
+      <c r="AQ80" s="69"/>
+      <c r="AR80" s="69"/>
+      <c r="AS80" s="69"/>
+      <c r="AT80" s="69"/>
+    </row>
+    <row r="82" spans="3:64">
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="81">
+        <v>7</v>
+      </c>
+      <c r="I82" s="82"/>
+      <c r="J82" s="81">
+        <v>6</v>
+      </c>
+      <c r="K82" s="82"/>
+      <c r="L82" s="81">
+        <v>5</v>
+      </c>
+      <c r="M82" s="82"/>
+      <c r="N82" s="81">
+        <v>4</v>
+      </c>
+      <c r="O82" s="82"/>
+      <c r="P82" s="81">
+        <v>3</v>
+      </c>
+      <c r="Q82" s="82"/>
+      <c r="R82" s="81">
+        <v>2</v>
+      </c>
+      <c r="S82" s="82"/>
+      <c r="T82" s="81">
+        <v>1</v>
+      </c>
+      <c r="U82" s="82"/>
+      <c r="V82" s="81">
+        <v>0</v>
+      </c>
+      <c r="W82" s="82"/>
+      <c r="X82" s="69"/>
+      <c r="Y82" s="69"/>
+      <c r="Z82" s="81">
+        <v>7</v>
+      </c>
+      <c r="AA82" s="82"/>
+      <c r="AB82" s="81">
+        <v>6</v>
+      </c>
+      <c r="AC82" s="82"/>
+      <c r="AD82" s="81">
+        <v>5</v>
+      </c>
+      <c r="AE82" s="82"/>
+      <c r="AF82" s="81">
+        <v>4</v>
+      </c>
+      <c r="AG82" s="82"/>
+      <c r="AH82" s="81">
+        <v>3</v>
+      </c>
+      <c r="AI82" s="82"/>
+      <c r="AJ82" s="81">
+        <v>2</v>
+      </c>
+      <c r="AK82" s="82"/>
+      <c r="AL82" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM82" s="82"/>
+      <c r="AN82" s="81">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="82"/>
+      <c r="AP82" s="69"/>
+      <c r="AQ82" s="69"/>
+      <c r="AR82" s="69"/>
+      <c r="AS82" s="69"/>
+      <c r="AT82" s="69"/>
+    </row>
+    <row r="85" spans="3:64">
+      <c r="C85" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+    </row>
+    <row r="87" spans="3:64">
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="69"/>
+      <c r="Q87" s="69"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="69"/>
+      <c r="T87" s="69"/>
+      <c r="U87" s="69"/>
+      <c r="V87" s="69"/>
+      <c r="W87" s="69"/>
+      <c r="X87" s="69"/>
+      <c r="Y87" s="69"/>
+      <c r="Z87" s="69"/>
+      <c r="AA87" s="69"/>
+      <c r="AB87" s="69"/>
+      <c r="AC87" s="69"/>
+      <c r="AD87" s="69"/>
+      <c r="AE87" s="69"/>
+      <c r="AF87" s="69"/>
+      <c r="AG87" s="69"/>
+      <c r="AH87" s="69"/>
+      <c r="AI87" s="69"/>
+      <c r="AJ87" s="69"/>
+      <c r="AK87" s="69"/>
+      <c r="AL87" s="69"/>
+      <c r="AM87" s="69"/>
+      <c r="AN87" s="69"/>
+      <c r="AO87" s="69"/>
+      <c r="AP87" s="69"/>
+      <c r="AQ87" s="69"/>
+      <c r="AR87" s="70"/>
+      <c r="AS87" s="68"/>
+      <c r="AT87" s="68"/>
+    </row>
+    <row r="89" spans="3:64">
+      <c r="C89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="70"/>
+      <c r="S89" s="61"/>
+      <c r="T89" s="70"/>
+      <c r="U89" s="61"/>
+      <c r="V89" s="70"/>
+      <c r="W89" s="61"/>
+      <c r="X89" s="69"/>
+      <c r="Y89" s="69"/>
+      <c r="Z89" s="70"/>
+      <c r="AA89" s="61"/>
+      <c r="AB89" s="70"/>
+      <c r="AC89" s="61"/>
+      <c r="AD89" s="70"/>
+      <c r="AE89" s="61"/>
+      <c r="AF89" s="70"/>
+      <c r="AG89" s="61"/>
+      <c r="AH89" s="70"/>
+      <c r="AI89" s="61"/>
+      <c r="AJ89" s="70"/>
+      <c r="AK89" s="61"/>
+      <c r="AL89" s="70"/>
+      <c r="AM89" s="61"/>
+      <c r="AN89" s="70"/>
+      <c r="AO89" s="61"/>
+      <c r="AP89" s="69"/>
+      <c r="AQ89" s="69"/>
+      <c r="AR89" s="69"/>
+      <c r="AS89" s="69"/>
+      <c r="AT89" s="69"/>
+    </row>
+    <row r="91" spans="3:64">
+      <c r="C91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="84">
+        <v>7</v>
+      </c>
+      <c r="I91" s="85"/>
+      <c r="J91" s="84">
+        <v>6</v>
+      </c>
+      <c r="K91" s="85"/>
+      <c r="L91" s="84">
+        <v>5</v>
+      </c>
+      <c r="M91" s="85"/>
+      <c r="N91" s="84">
+        <v>4</v>
+      </c>
+      <c r="O91" s="85"/>
+      <c r="P91" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="84">
+        <v>2</v>
+      </c>
+      <c r="S91" s="85"/>
+      <c r="T91" s="84">
+        <v>1</v>
+      </c>
+      <c r="U91" s="85"/>
+      <c r="V91" s="84">
+        <v>0</v>
+      </c>
+      <c r="W91" s="85"/>
+      <c r="X91" s="69"/>
+      <c r="Y91" s="69"/>
+      <c r="Z91" s="84">
+        <v>7</v>
+      </c>
+      <c r="AA91" s="85"/>
+      <c r="AB91" s="84">
+        <v>6</v>
+      </c>
+      <c r="AC91" s="85"/>
+      <c r="AD91" s="84">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="85"/>
+      <c r="AF91" s="84">
+        <v>4</v>
+      </c>
+      <c r="AG91" s="85"/>
+      <c r="AH91" s="84">
+        <v>3</v>
+      </c>
+      <c r="AI91" s="85"/>
+      <c r="AJ91" s="84">
+        <v>2</v>
+      </c>
+      <c r="AK91" s="85"/>
+      <c r="AL91" s="84">
+        <v>1</v>
+      </c>
+      <c r="AM91" s="85"/>
+      <c r="AN91" s="84">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="85"/>
+      <c r="AP91" s="69"/>
+      <c r="AQ91" s="69"/>
+      <c r="AR91" s="69"/>
+      <c r="AS91" s="69"/>
+      <c r="AT91" s="69"/>
+    </row>
+    <row r="93" spans="3:64">
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="69"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="81">
+        <v>7</v>
+      </c>
+      <c r="H93" s="82"/>
+      <c r="I93" s="81">
+        <v>6</v>
+      </c>
+      <c r="J93" s="82"/>
+      <c r="K93" s="81">
+        <v>5</v>
+      </c>
+      <c r="L93" s="82"/>
+      <c r="M93" s="81">
+        <v>4</v>
+      </c>
+      <c r="N93" s="82"/>
+      <c r="O93" s="81">
+        <v>3</v>
+      </c>
+      <c r="P93" s="82"/>
+      <c r="Q93" s="81">
+        <v>2</v>
+      </c>
+      <c r="R93" s="82"/>
+      <c r="S93" s="81">
+        <v>1</v>
+      </c>
+      <c r="T93" s="82"/>
+      <c r="U93" s="81">
+        <v>0</v>
+      </c>
+      <c r="V93" s="82"/>
+      <c r="W93" s="69"/>
+      <c r="X93" s="69"/>
+      <c r="Y93" s="81">
+        <v>7</v>
+      </c>
+      <c r="Z93" s="82"/>
+      <c r="AA93" s="81">
+        <v>6</v>
+      </c>
+      <c r="AB93" s="82"/>
+      <c r="AC93" s="81">
+        <v>5</v>
+      </c>
+      <c r="AD93" s="82"/>
+      <c r="AE93" s="81">
+        <v>4</v>
+      </c>
+      <c r="AF93" s="82"/>
+      <c r="AG93" s="81">
+        <v>3</v>
+      </c>
+      <c r="AH93" s="82"/>
+      <c r="AI93" s="81">
+        <v>2</v>
+      </c>
+      <c r="AJ93" s="82"/>
+      <c r="AK93" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL93" s="82"/>
+      <c r="AM93" s="81">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="82"/>
+      <c r="AO93" s="69"/>
+      <c r="AP93" s="69"/>
+      <c r="AQ93" s="69"/>
+      <c r="AR93" s="69"/>
+      <c r="AS93" s="69"/>
+      <c r="AT93" s="69"/>
+    </row>
+    <row r="96" spans="3:64">
+      <c r="C96" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+    </row>
+    <row r="98" spans="3:64">
+      <c r="C98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
+      <c r="N98" s="69"/>
+      <c r="O98" s="69"/>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="69"/>
+      <c r="R98" s="69"/>
+      <c r="S98" s="69"/>
+      <c r="T98" s="69"/>
+      <c r="U98" s="69"/>
+      <c r="V98" s="69"/>
+      <c r="W98" s="69"/>
+      <c r="X98" s="69"/>
+      <c r="Y98" s="69"/>
+      <c r="Z98" s="69"/>
+      <c r="AA98" s="69"/>
+      <c r="AB98" s="69"/>
+      <c r="AC98" s="69"/>
+      <c r="AD98" s="69"/>
+      <c r="AE98" s="69"/>
+      <c r="AF98" s="69"/>
+      <c r="AG98" s="69"/>
+      <c r="AH98" s="69"/>
+      <c r="AI98" s="69"/>
+      <c r="AJ98" s="69"/>
+      <c r="AK98" s="69"/>
+      <c r="AL98" s="69"/>
+      <c r="AM98" s="69"/>
+      <c r="AN98" s="69"/>
+      <c r="AO98" s="69"/>
+      <c r="AP98" s="69"/>
+      <c r="AQ98" s="69"/>
+      <c r="AR98" s="70"/>
+      <c r="AS98" s="68"/>
+      <c r="AT98" s="68"/>
+    </row>
+    <row r="100" spans="3:64">
+      <c r="C100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="68"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="70"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="70"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="70"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="70"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="70"/>
+      <c r="R100" s="61"/>
+      <c r="S100" s="70"/>
+      <c r="T100" s="61"/>
+      <c r="U100" s="70"/>
+      <c r="V100" s="61"/>
+      <c r="W100" s="70"/>
+      <c r="X100" s="68"/>
+      <c r="Y100" s="76"/>
+      <c r="Z100" s="69"/>
+      <c r="AA100" s="70"/>
+      <c r="AB100" s="61"/>
+      <c r="AC100" s="70"/>
+      <c r="AD100" s="61"/>
+      <c r="AE100" s="70"/>
+      <c r="AF100" s="61"/>
+      <c r="AG100" s="70"/>
+      <c r="AH100" s="61"/>
+      <c r="AI100" s="70"/>
+      <c r="AJ100" s="61"/>
+      <c r="AK100" s="70"/>
+      <c r="AL100" s="61"/>
+      <c r="AM100" s="70"/>
+      <c r="AN100" s="61"/>
+      <c r="AO100" s="70"/>
+      <c r="AP100" s="68"/>
+      <c r="AQ100" s="68"/>
+      <c r="AR100" s="68"/>
+      <c r="AS100" s="68"/>
+      <c r="AT100" s="68"/>
+    </row>
+    <row r="102" spans="3:64">
+      <c r="C102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="84">
+        <v>7</v>
+      </c>
+      <c r="H102" s="85"/>
+      <c r="I102" s="84">
+        <v>6</v>
+      </c>
+      <c r="J102" s="85"/>
+      <c r="K102" s="84">
+        <v>5</v>
+      </c>
+      <c r="L102" s="85"/>
+      <c r="M102" s="84">
+        <v>4</v>
+      </c>
+      <c r="N102" s="85"/>
+      <c r="O102" s="84">
+        <v>3</v>
+      </c>
+      <c r="P102" s="85"/>
+      <c r="Q102" s="84">
+        <v>2</v>
+      </c>
+      <c r="R102" s="85"/>
+      <c r="S102" s="84">
+        <v>1</v>
+      </c>
+      <c r="T102" s="85"/>
+      <c r="U102" s="84">
+        <v>0</v>
+      </c>
+      <c r="V102" s="85"/>
+      <c r="W102" s="69"/>
+      <c r="X102" s="69"/>
+      <c r="Y102" s="84">
+        <v>7</v>
+      </c>
+      <c r="Z102" s="85"/>
+      <c r="AA102" s="84">
+        <v>6</v>
+      </c>
+      <c r="AB102" s="85"/>
+      <c r="AC102" s="84">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="85"/>
+      <c r="AE102" s="84">
+        <v>4</v>
+      </c>
+      <c r="AF102" s="85"/>
+      <c r="AG102" s="84">
+        <v>3</v>
+      </c>
+      <c r="AH102" s="85"/>
+      <c r="AI102" s="84">
+        <v>2</v>
+      </c>
+      <c r="AJ102" s="85"/>
+      <c r="AK102" s="84">
+        <v>1</v>
+      </c>
+      <c r="AL102" s="85"/>
+      <c r="AM102" s="84">
+        <v>0</v>
+      </c>
+      <c r="AN102" s="85"/>
+      <c r="AO102" s="69"/>
+      <c r="AP102" s="69"/>
+      <c r="AQ102" s="69"/>
+      <c r="AR102" s="69"/>
+      <c r="AS102" s="69"/>
+      <c r="AT102" s="69"/>
+    </row>
+    <row r="104" spans="3:64">
+      <c r="C104" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="81">
+        <v>7</v>
+      </c>
+      <c r="I104" s="82"/>
+      <c r="J104" s="81">
+        <v>6</v>
+      </c>
+      <c r="K104" s="82"/>
+      <c r="L104" s="81">
+        <v>5</v>
+      </c>
+      <c r="M104" s="82"/>
+      <c r="N104" s="81">
+        <v>4</v>
+      </c>
+      <c r="O104" s="82"/>
+      <c r="P104" s="81">
+        <v>3</v>
+      </c>
+      <c r="Q104" s="82"/>
+      <c r="R104" s="81">
+        <v>2</v>
+      </c>
+      <c r="S104" s="82"/>
+      <c r="T104" s="81">
+        <v>1</v>
+      </c>
+      <c r="U104" s="82"/>
+      <c r="V104" s="81">
+        <v>0</v>
+      </c>
+      <c r="W104" s="82"/>
+      <c r="X104" s="69"/>
+      <c r="Y104" s="69"/>
+      <c r="Z104" s="81">
+        <v>7</v>
+      </c>
+      <c r="AA104" s="82"/>
+      <c r="AB104" s="81">
+        <v>6</v>
+      </c>
+      <c r="AC104" s="82"/>
+      <c r="AD104" s="81">
+        <v>5</v>
+      </c>
+      <c r="AE104" s="82"/>
+      <c r="AF104" s="81">
+        <v>4</v>
+      </c>
+      <c r="AG104" s="82"/>
+      <c r="AH104" s="81">
+        <v>3</v>
+      </c>
+      <c r="AI104" s="82"/>
+      <c r="AJ104" s="81">
+        <v>2</v>
+      </c>
+      <c r="AK104" s="82"/>
+      <c r="AL104" s="81">
+        <v>1</v>
+      </c>
+      <c r="AM104" s="82"/>
+      <c r="AN104" s="81">
+        <v>0</v>
+      </c>
+      <c r="AO104" s="82"/>
+      <c r="AP104" s="69"/>
+      <c r="AQ104" s="69"/>
+      <c r="AR104" s="69"/>
+      <c r="AS104" s="69"/>
+      <c r="AT104" s="69"/>
+      <c r="AU104" s="69"/>
+    </row>
+    <row r="105" spans="3:64">
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="1"/>
+      <c r="BD105" s="1"/>
+      <c r="BE105" s="1"/>
+      <c r="BF105" s="1"/>
+      <c r="BG105" s="1"/>
+      <c r="BH105" s="1"/>
+      <c r="BI105" s="1"/>
+      <c r="BJ105" s="1"/>
+      <c r="BK105" s="1"/>
+      <c r="BL105" s="1"/>
+    </row>
+    <row r="107" spans="3:64">
+      <c r="C107" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="1"/>
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AU107" s="1"/>
+      <c r="AV107" s="1"/>
+      <c r="AW107" s="1"/>
+    </row>
+    <row r="109" spans="3:64">
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="69"/>
+      <c r="I109" s="69"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="69"/>
+      <c r="M109" s="69"/>
+      <c r="N109" s="69"/>
+      <c r="O109" s="69"/>
+      <c r="P109" s="69"/>
+      <c r="Q109" s="69"/>
+      <c r="R109" s="69"/>
+      <c r="S109" s="69"/>
+      <c r="T109" s="69"/>
+      <c r="U109" s="69"/>
+      <c r="V109" s="69"/>
+      <c r="W109" s="69"/>
+      <c r="X109" s="69"/>
+      <c r="Y109" s="69"/>
+      <c r="Z109" s="69"/>
+      <c r="AA109" s="69"/>
+      <c r="AB109" s="69"/>
+      <c r="AC109" s="69"/>
+      <c r="AD109" s="69"/>
+      <c r="AE109" s="69"/>
+      <c r="AF109" s="69"/>
+      <c r="AG109" s="69"/>
+      <c r="AH109" s="69"/>
+      <c r="AI109" s="69"/>
+      <c r="AJ109" s="69"/>
+      <c r="AK109" s="69"/>
+      <c r="AL109" s="69"/>
+      <c r="AM109" s="69"/>
+      <c r="AN109" s="69"/>
+      <c r="AO109" s="69"/>
+      <c r="AP109" s="69"/>
+      <c r="AQ109" s="69"/>
+      <c r="AR109" s="70"/>
+      <c r="AS109" s="68"/>
+      <c r="AT109" s="68"/>
+    </row>
+    <row r="111" spans="3:64">
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="70"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="70"/>
+      <c r="T111" s="61"/>
+      <c r="U111" s="70"/>
+      <c r="V111" s="61"/>
+      <c r="W111" s="70"/>
+      <c r="X111" s="68"/>
+      <c r="Y111" s="76"/>
+      <c r="Z111" s="69"/>
+      <c r="AA111" s="70"/>
+      <c r="AB111" s="61"/>
+      <c r="AC111" s="70"/>
+      <c r="AD111" s="61"/>
+      <c r="AE111" s="70"/>
+      <c r="AF111" s="61"/>
+      <c r="AG111" s="70"/>
+      <c r="AH111" s="61"/>
+      <c r="AI111" s="70"/>
+      <c r="AJ111" s="61"/>
+      <c r="AK111" s="70"/>
+      <c r="AL111" s="61"/>
+      <c r="AM111" s="70"/>
+      <c r="AN111" s="61"/>
+      <c r="AO111" s="70"/>
+      <c r="AP111" s="68"/>
+      <c r="AQ111" s="68"/>
+      <c r="AR111" s="68"/>
+      <c r="AS111" s="68"/>
+      <c r="AT111" s="68"/>
+    </row>
+    <row r="113" spans="3:46">
+      <c r="C113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="84">
+        <v>7</v>
+      </c>
+      <c r="I113" s="85"/>
+      <c r="J113" s="84">
+        <v>6</v>
+      </c>
+      <c r="K113" s="85"/>
+      <c r="L113" s="84">
+        <v>5</v>
+      </c>
+      <c r="M113" s="85"/>
+      <c r="N113" s="84">
+        <v>4</v>
+      </c>
+      <c r="O113" s="85"/>
+      <c r="P113" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q113" s="85"/>
+      <c r="R113" s="84">
+        <v>2</v>
+      </c>
+      <c r="S113" s="85"/>
+      <c r="T113" s="84">
+        <v>1</v>
+      </c>
+      <c r="U113" s="85"/>
+      <c r="V113" s="84">
+        <v>0</v>
+      </c>
+      <c r="W113" s="85"/>
+      <c r="X113" s="69"/>
+      <c r="Y113" s="69"/>
+      <c r="Z113" s="84">
+        <v>7</v>
+      </c>
+      <c r="AA113" s="85"/>
+      <c r="AB113" s="84">
+        <v>6</v>
+      </c>
+      <c r="AC113" s="85"/>
+      <c r="AD113" s="84">
+        <v>5</v>
+      </c>
+      <c r="AE113" s="85"/>
+      <c r="AF113" s="84">
+        <v>4</v>
+      </c>
+      <c r="AG113" s="85"/>
+      <c r="AH113" s="84">
+        <v>3</v>
+      </c>
+      <c r="AI113" s="85"/>
+      <c r="AJ113" s="84">
+        <v>2</v>
+      </c>
+      <c r="AK113" s="85"/>
+      <c r="AL113" s="84">
+        <v>1</v>
+      </c>
+      <c r="AM113" s="85"/>
+      <c r="AN113" s="84">
+        <v>0</v>
+      </c>
+      <c r="AO113" s="85"/>
+      <c r="AP113" s="69"/>
+      <c r="AQ113" s="69"/>
+      <c r="AR113" s="69"/>
+      <c r="AS113" s="69"/>
+      <c r="AT113" s="69"/>
+    </row>
+    <row r="115" spans="3:46">
+      <c r="C115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="81">
+        <v>7</v>
+      </c>
+      <c r="H115" s="82"/>
+      <c r="I115" s="81">
+        <v>6</v>
+      </c>
+      <c r="J115" s="82"/>
+      <c r="K115" s="81">
+        <v>5</v>
+      </c>
+      <c r="L115" s="82"/>
+      <c r="M115" s="81">
+        <v>4</v>
+      </c>
+      <c r="N115" s="82"/>
+      <c r="O115" s="81">
+        <v>3</v>
+      </c>
+      <c r="P115" s="82"/>
+      <c r="Q115" s="81">
+        <v>2</v>
+      </c>
+      <c r="R115" s="82"/>
+      <c r="S115" s="81">
+        <v>1</v>
+      </c>
+      <c r="T115" s="82"/>
+      <c r="U115" s="81">
+        <v>0</v>
+      </c>
+      <c r="V115" s="82"/>
+      <c r="W115" s="69"/>
+      <c r="X115" s="69"/>
+      <c r="Y115" s="81">
+        <v>7</v>
+      </c>
+      <c r="Z115" s="82"/>
+      <c r="AA115" s="81">
+        <v>6</v>
+      </c>
+      <c r="AB115" s="82"/>
+      <c r="AC115" s="81">
+        <v>5</v>
+      </c>
+      <c r="AD115" s="82"/>
+      <c r="AE115" s="81">
+        <v>4</v>
+      </c>
+      <c r="AF115" s="82"/>
+      <c r="AG115" s="81">
+        <v>3</v>
+      </c>
+      <c r="AH115" s="82"/>
+      <c r="AI115" s="81">
+        <v>2</v>
+      </c>
+      <c r="AJ115" s="82"/>
+      <c r="AK115" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL115" s="82"/>
+      <c r="AM115" s="81">
+        <v>0</v>
+      </c>
+      <c r="AN115" s="82"/>
+      <c r="AO115" s="69"/>
+      <c r="AP115" s="69"/>
+      <c r="AQ115" s="69"/>
+      <c r="AR115" s="69"/>
+      <c r="AS115" s="69"/>
+      <c r="AT115" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="285">
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="AY23:AZ23"/>
+    <mergeCell ref="AW23:AX23"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="BG23:BH23"/>
+    <mergeCell ref="BE23:BF23"/>
+    <mergeCell ref="BC23:BD23"/>
+    <mergeCell ref="AQ15:BG15"/>
+    <mergeCell ref="Y33:AO33"/>
+    <mergeCell ref="Y69:AO69"/>
+    <mergeCell ref="AQ69:BG69"/>
+    <mergeCell ref="Y35:AO35"/>
+    <mergeCell ref="Y17:AO17"/>
+    <mergeCell ref="AQ17:BG17"/>
+    <mergeCell ref="AQ23:AS23"/>
+    <mergeCell ref="AQ35:AS35"/>
+    <mergeCell ref="F52:AL52"/>
+    <mergeCell ref="AM52:BD52"/>
+    <mergeCell ref="BE52:BJ52"/>
+    <mergeCell ref="AQ61:BF61"/>
+    <mergeCell ref="BG61:BH61"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="G61:P61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="AO61:AP61"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="Y9:AN9"/>
+    <mergeCell ref="AQ9:BF9"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y15:AO15"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BG44:BH44"/>
+    <mergeCell ref="BI57:BK57"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="BI40:BK40"/>
+    <mergeCell ref="G44:P44"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:AN44"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:BF44"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AN27"/>
+    <mergeCell ref="AO27:AP27"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="AW57:AX57"/>
+    <mergeCell ref="AY57:AZ57"/>
+    <mergeCell ref="BA57:BB57"/>
+    <mergeCell ref="BC57:BD57"/>
+    <mergeCell ref="BE57:BF57"/>
+    <mergeCell ref="BG57:BH57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="AO57:AP57"/>
+    <mergeCell ref="AQ57:AR57"/>
+    <mergeCell ref="AS57:AT57"/>
+    <mergeCell ref="AU57:AV57"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="BE40:BF40"/>
+    <mergeCell ref="BG40:BH40"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="AS40:AT40"/>
+    <mergeCell ref="AU40:AV40"/>
+    <mergeCell ref="AW40:AX40"/>
+    <mergeCell ref="AY40:AZ40"/>
+    <mergeCell ref="BA40:BB40"/>
+    <mergeCell ref="BC40:BD40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AK80:AL80"/>
+    <mergeCell ref="AM80:AN80"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="Y80:Z80"/>
+    <mergeCell ref="AA80:AB80"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AE80:AF80"/>
+    <mergeCell ref="AM102:AN102"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="Y102:Z102"/>
+    <mergeCell ref="AA102:AB102"/>
+    <mergeCell ref="AC102:AD102"/>
+    <mergeCell ref="AE102:AF102"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="AG102:AH102"/>
+    <mergeCell ref="AI102:AJ102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="AH113:AI113"/>
+    <mergeCell ref="AJ113:AK113"/>
+    <mergeCell ref="AL113:AM113"/>
+    <mergeCell ref="AN113:AO113"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="Z113:AA113"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="AD113:AE113"/>
+    <mergeCell ref="AF113:AG113"/>
+    <mergeCell ref="AH91:AI91"/>
+    <mergeCell ref="AJ91:AK91"/>
+    <mergeCell ref="AL91:AM91"/>
+    <mergeCell ref="AN91:AO91"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="AA93:AB93"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AE93:AF93"/>
+    <mergeCell ref="AG93:AH93"/>
+    <mergeCell ref="AJ82:AK82"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AN82:AO82"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AB82:AC82"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AF82:AG82"/>
+    <mergeCell ref="AH82:AI82"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="Q115:R115"/>
+    <mergeCell ref="S115:T115"/>
+    <mergeCell ref="V104:W104"/>
+    <mergeCell ref="Z104:AA104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="AI115:AJ115"/>
+    <mergeCell ref="AK115:AL115"/>
+    <mergeCell ref="AM115:AN115"/>
+    <mergeCell ref="U115:V115"/>
+    <mergeCell ref="Y115:Z115"/>
+    <mergeCell ref="AA115:AB115"/>
+    <mergeCell ref="AC115:AD115"/>
+    <mergeCell ref="AE115:AF115"/>
+    <mergeCell ref="AG115:AH115"/>
+    <mergeCell ref="AJ104:AK104"/>
+    <mergeCell ref="AL104:AM104"/>
+    <mergeCell ref="AN104:AO104"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="AD104:AE104"/>
+    <mergeCell ref="AF104:AG104"/>
+    <mergeCell ref="AH104:AI104"/>
+    <mergeCell ref="AI93:AJ93"/>
+    <mergeCell ref="AK93:AL93"/>
+    <mergeCell ref="AM93:AN93"/>
+    <mergeCell ref="U93:V93"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -10,13 +10,14 @@
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
     <sheet name="register" sheetId="4" r:id="rId2"/>
     <sheet name="TimingChart" sheetId="5" r:id="rId3"/>
+    <sheet name="TimingChart_old" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="171">
   <si>
     <t>IO11</t>
   </si>
@@ -609,41 +610,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>r2[7:0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>r4[7:0]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Read with Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SO timing
-0x4E: SPI mode 0 or 2, 0x4D: SPI mode 1 or 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SO timing
-0x66: SPI mode 0 or 2, 0x46: SPI mode 1 or 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x3A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x3B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x66</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x4E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -713,24 +684,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x9C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x08</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>read FIFO depth select
-0x08:FIFO=9, 0x07:FIFO=8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(FIFO=8)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(FIFO=9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r1[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r2[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r?[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pull down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x9A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x58</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SO timing
+0x58: SPI mode 0 or 2, 0x78: SPI mode 1 or 3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,8 +852,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1127,13 +1120,30 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,22 +1387,88 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1401,44 +1477,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,11 +1491,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -1836,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>87</v>
@@ -1871,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>87</v>
@@ -1904,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>87</v>
@@ -1939,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>87</v>
@@ -2007,7 +2048,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>86</v>
@@ -2069,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>87</v>
@@ -2308,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2345,10 +2386,10 @@
         <v>91</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>81</v>
@@ -2359,10 +2400,10 @@
       <c r="C4" s="54"/>
       <c r="D4" s="51"/>
       <c r="E4" s="52" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2370,191 +2411,179 @@
       <c r="C5" s="44"/>
       <c r="D5" s="56"/>
       <c r="E5" s="52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="27">
       <c r="B6" s="34" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27">
-      <c r="B7" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>152</v>
+      <c r="B7" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="2:8" ht="27">
+      <c r="B8" s="52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="27">
-      <c r="B8" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>164</v>
+      <c r="D8" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="57"/>
+        <v>85</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="27">
-      <c r="B9" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>156</v>
+      <c r="B9" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="27">
-      <c r="B10" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>171</v>
+      <c r="B10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="27">
-      <c r="B11" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>111</v>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="27">
-      <c r="B12" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>80</v>
-      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="27">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="27">
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="27">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="49" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>102</v>
+      <c r="B16" s="58"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="58"/>
       <c r="C17" s="60"/>
-      <c r="D17" s="67"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -2562,42 +2591,20 @@
       <c r="C18" s="60"/>
       <c r="D18" s="58"/>
       <c r="E18" s="51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F18" s="63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="58"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="58"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="59"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="56" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F19" s="59" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2609,10 +2616,3877 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:BL116"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="67" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="3.75" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="64" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:64">
+      <c r="C2" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="3:64" ht="3.75" customHeight="1"/>
+    <row r="4" spans="3:64">
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+    </row>
+    <row r="5" spans="3:64">
+      <c r="C5" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="3:64">
+      <c r="D6" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95">
+        <v>1</v>
+      </c>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95">
+        <v>2</v>
+      </c>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95">
+        <v>3</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95">
+        <v>4</v>
+      </c>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95">
+        <v>5</v>
+      </c>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95">
+        <v>6</v>
+      </c>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95">
+        <v>7</v>
+      </c>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95">
+        <v>8</v>
+      </c>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="95">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="95">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95">
+        <v>7</v>
+      </c>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95">
+        <v>8</v>
+      </c>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH6" s="95"/>
+      <c r="BJ6" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK6" s="95"/>
+      <c r="BL6" s="95"/>
+    </row>
+    <row r="8" spans="3:64">
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="84"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="84"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="84"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="84"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="84"/>
+      <c r="BG8" s="83"/>
+      <c r="BH8" s="84"/>
+      <c r="BI8" s="83"/>
+      <c r="BJ8" s="84"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+    </row>
+    <row r="10" spans="3:64">
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" s="101"/>
+      <c r="W10" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="100"/>
+      <c r="AL10" s="100"/>
+      <c r="AM10" s="100"/>
+      <c r="AN10" s="101"/>
+      <c r="AO10" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR10" s="100"/>
+      <c r="AS10" s="100"/>
+      <c r="AT10" s="100"/>
+      <c r="AU10" s="100"/>
+      <c r="AV10" s="100"/>
+      <c r="AW10" s="100"/>
+      <c r="AX10" s="100"/>
+      <c r="AY10" s="100"/>
+      <c r="AZ10" s="100"/>
+      <c r="BA10" s="100"/>
+      <c r="BB10" s="100"/>
+      <c r="BC10" s="100"/>
+      <c r="BD10" s="100"/>
+      <c r="BE10" s="100"/>
+      <c r="BF10" s="101"/>
+      <c r="BG10" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH10" s="108"/>
+      <c r="BI10" s="86"/>
+      <c r="BJ10" s="85"/>
+      <c r="BK10" s="84"/>
+      <c r="BL10" s="82"/>
+    </row>
+    <row r="12" spans="3:64">
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="89"/>
+      <c r="BJ12" s="89"/>
+      <c r="BK12" s="90"/>
+      <c r="BL12" s="87"/>
+    </row>
+    <row r="14" spans="3:64">
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="88"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="89"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="90"/>
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="90"/>
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="90"/>
+      <c r="BE14" s="88"/>
+      <c r="BF14" s="90"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="90"/>
+      <c r="BI14" s="88"/>
+      <c r="BJ14" s="89"/>
+      <c r="BK14" s="89"/>
+      <c r="BL14" s="89"/>
+    </row>
+    <row r="16" spans="3:64">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="97">
+        <v>0</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="97"/>
+      <c r="AY16" s="97"/>
+      <c r="AZ16" s="97"/>
+      <c r="BA16" s="97"/>
+      <c r="BB16" s="97"/>
+      <c r="BC16" s="97"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="97"/>
+      <c r="BF16" s="97"/>
+      <c r="BG16" s="97"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="98"/>
+      <c r="BJ16" s="78"/>
+      <c r="BK16" s="96">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="97"/>
+    </row>
+    <row r="18" spans="3:64">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="100"/>
+      <c r="AN18" s="100"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="100"/>
+      <c r="AQ18" s="101"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT18" s="100"/>
+      <c r="AU18" s="100"/>
+      <c r="AV18" s="100"/>
+      <c r="AW18" s="100"/>
+      <c r="AX18" s="100"/>
+      <c r="AY18" s="100"/>
+      <c r="AZ18" s="100"/>
+      <c r="BA18" s="100"/>
+      <c r="BB18" s="100"/>
+      <c r="BC18" s="100"/>
+      <c r="BD18" s="100"/>
+      <c r="BE18" s="100"/>
+      <c r="BF18" s="100"/>
+      <c r="BG18" s="100"/>
+      <c r="BH18" s="100"/>
+      <c r="BI18" s="101"/>
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="93"/>
+      <c r="BL18" s="92"/>
+    </row>
+    <row r="20" spans="3:64">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="86"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="82"/>
+      <c r="AS20" s="82"/>
+      <c r="AT20" s="82"/>
+      <c r="AU20" s="82"/>
+      <c r="AV20" s="82"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="82"/>
+      <c r="BA20" s="82"/>
+      <c r="BB20" s="82"/>
+      <c r="BC20" s="82"/>
+      <c r="BD20" s="82"/>
+      <c r="BE20" s="82"/>
+      <c r="BF20" s="82"/>
+      <c r="BG20" s="82"/>
+      <c r="BH20" s="82"/>
+      <c r="BI20" s="82"/>
+      <c r="BJ20" s="82"/>
+      <c r="BK20" s="83"/>
+      <c r="BL20" s="86"/>
+    </row>
+    <row r="23" spans="3:64">
+      <c r="C23" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="3:64">
+      <c r="D24" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95">
+        <v>1</v>
+      </c>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95">
+        <v>2</v>
+      </c>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95">
+        <v>3</v>
+      </c>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95">
+        <v>4</v>
+      </c>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95">
+        <v>5</v>
+      </c>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95">
+        <v>6</v>
+      </c>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95">
+        <v>7</v>
+      </c>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95">
+        <v>8</v>
+      </c>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95">
+        <v>6</v>
+      </c>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95">
+        <v>7</v>
+      </c>
+      <c r="AL24" s="95"/>
+      <c r="AM24" s="95">
+        <v>8</v>
+      </c>
+      <c r="AN24" s="95"/>
+      <c r="AO24" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP24" s="95"/>
+      <c r="AQ24" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR24" s="95"/>
+      <c r="AS24" s="95"/>
+      <c r="AU24" s="95"/>
+      <c r="AV24" s="95"/>
+      <c r="AW24" s="95"/>
+      <c r="AX24" s="95"/>
+      <c r="AY24" s="95"/>
+      <c r="AZ24" s="95"/>
+      <c r="BA24" s="95"/>
+      <c r="BB24" s="95"/>
+      <c r="BC24" s="95"/>
+      <c r="BD24" s="95"/>
+      <c r="BE24" s="95"/>
+      <c r="BF24" s="95"/>
+      <c r="BG24" s="95"/>
+      <c r="BH24" s="95"/>
+    </row>
+    <row r="26" spans="3:64">
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="84"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="83"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="83"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="83"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="83"/>
+      <c r="AL26" s="84"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="84"/>
+      <c r="AO26" s="83"/>
+      <c r="AP26" s="84"/>
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="82"/>
+    </row>
+    <row r="28" spans="3:64">
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="V28" s="101"/>
+      <c r="W28" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="84"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="83"/>
+    </row>
+    <row r="30" spans="3:64">
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="89"/>
+      <c r="AJ30" s="89"/>
+      <c r="AK30" s="89"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="89"/>
+      <c r="AN30" s="89"/>
+      <c r="AO30" s="89"/>
+      <c r="AP30" s="89"/>
+      <c r="AQ30" s="89"/>
+      <c r="AR30" s="89"/>
+      <c r="AS30" s="89"/>
+    </row>
+    <row r="32" spans="3:64">
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="88"/>
+      <c r="AJ32" s="90"/>
+      <c r="AK32" s="88"/>
+      <c r="AL32" s="90"/>
+      <c r="AM32" s="88"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="88"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="88"/>
+      <c r="AR32" s="89"/>
+      <c r="AS32" s="89"/>
+    </row>
+    <row r="34" spans="3:64">
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="97">
+        <v>0</v>
+      </c>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="97"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="97"/>
+      <c r="AN34" s="97"/>
+      <c r="AO34" s="97"/>
+      <c r="AP34" s="97"/>
+      <c r="AQ34" s="98"/>
+      <c r="AR34" s="96">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="97"/>
+    </row>
+    <row r="36" spans="3:64">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="100"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="100"/>
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="100"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="100"/>
+      <c r="AK36" s="100"/>
+      <c r="AL36" s="100"/>
+      <c r="AM36" s="100"/>
+      <c r="AN36" s="100"/>
+      <c r="AO36" s="100"/>
+      <c r="AP36" s="100"/>
+      <c r="AQ36" s="101"/>
+      <c r="AR36" s="74"/>
+      <c r="AS36" s="74"/>
+    </row>
+    <row r="38" spans="3:64">
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="89"/>
+      <c r="AB38" s="89"/>
+      <c r="AC38" s="89"/>
+      <c r="AD38" s="89"/>
+      <c r="AE38" s="89"/>
+      <c r="AF38" s="89"/>
+      <c r="AG38" s="89"/>
+      <c r="AH38" s="89"/>
+      <c r="AI38" s="89"/>
+      <c r="AJ38" s="89"/>
+      <c r="AK38" s="89"/>
+      <c r="AL38" s="89"/>
+      <c r="AM38" s="89"/>
+      <c r="AN38" s="89"/>
+      <c r="AO38" s="89"/>
+      <c r="AP38" s="89"/>
+      <c r="AQ38" s="90"/>
+      <c r="AR38" s="87"/>
+      <c r="AS38" s="87"/>
+    </row>
+    <row r="41" spans="3:64">
+      <c r="G41" s="95">
+        <v>1</v>
+      </c>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95">
+        <v>2</v>
+      </c>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95">
+        <v>3</v>
+      </c>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95">
+        <v>4</v>
+      </c>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95">
+        <v>5</v>
+      </c>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95">
+        <v>6</v>
+      </c>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95">
+        <v>7</v>
+      </c>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95">
+        <v>8</v>
+      </c>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95">
+        <v>4</v>
+      </c>
+      <c r="AF41" s="95"/>
+      <c r="AG41" s="95">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="95"/>
+      <c r="AI41" s="95">
+        <v>6</v>
+      </c>
+      <c r="AJ41" s="95"/>
+      <c r="AK41" s="95">
+        <v>7</v>
+      </c>
+      <c r="AL41" s="95"/>
+      <c r="AM41" s="95">
+        <v>8</v>
+      </c>
+      <c r="AN41" s="95"/>
+      <c r="AO41" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP41" s="95"/>
+      <c r="AQ41" s="95">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="95"/>
+      <c r="AS41" s="95">
+        <v>2</v>
+      </c>
+      <c r="AT41" s="95"/>
+      <c r="AU41" s="95">
+        <v>3</v>
+      </c>
+      <c r="AV41" s="95"/>
+      <c r="AW41" s="95">
+        <v>4</v>
+      </c>
+      <c r="AX41" s="95"/>
+      <c r="AY41" s="95">
+        <v>5</v>
+      </c>
+      <c r="AZ41" s="95"/>
+      <c r="BA41" s="95">
+        <v>6</v>
+      </c>
+      <c r="BB41" s="95"/>
+      <c r="BC41" s="95">
+        <v>7</v>
+      </c>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="95">
+        <v>8</v>
+      </c>
+      <c r="BF41" s="95"/>
+      <c r="BG41" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH41" s="95"/>
+      <c r="BI41" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="72"/>
+    </row>
+    <row r="43" spans="3:64">
+      <c r="F43" s="82"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="84"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="84"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="84"/>
+      <c r="AC43" s="83"/>
+      <c r="AD43" s="84"/>
+      <c r="AE43" s="83"/>
+      <c r="AF43" s="84"/>
+      <c r="AG43" s="83"/>
+      <c r="AH43" s="84"/>
+      <c r="AI43" s="83"/>
+      <c r="AJ43" s="84"/>
+      <c r="AK43" s="83"/>
+      <c r="AL43" s="84"/>
+      <c r="AM43" s="83"/>
+      <c r="AN43" s="84"/>
+      <c r="AO43" s="83"/>
+      <c r="AP43" s="84"/>
+      <c r="AQ43" s="83"/>
+      <c r="AR43" s="84"/>
+      <c r="AS43" s="83"/>
+      <c r="AT43" s="84"/>
+      <c r="AU43" s="83"/>
+      <c r="AV43" s="84"/>
+      <c r="AW43" s="83"/>
+      <c r="AX43" s="84"/>
+      <c r="AY43" s="83"/>
+      <c r="AZ43" s="84"/>
+      <c r="BA43" s="83"/>
+      <c r="BB43" s="84"/>
+      <c r="BC43" s="83"/>
+      <c r="BD43" s="84"/>
+      <c r="BE43" s="83"/>
+      <c r="BF43" s="84"/>
+      <c r="BG43" s="83"/>
+      <c r="BH43" s="84"/>
+      <c r="BI43" s="83"/>
+      <c r="BJ43" s="84"/>
+      <c r="BK43" s="82"/>
+      <c r="BL43" s="82"/>
+    </row>
+    <row r="45" spans="3:64">
+      <c r="E45" s="1"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="R45" s="100"/>
+      <c r="S45" s="100"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="V45" s="101"/>
+      <c r="W45" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="97"/>
+      <c r="AK45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="97"/>
+      <c r="AN45" s="98"/>
+      <c r="AO45" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP45" s="107"/>
+      <c r="AQ45" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="97"/>
+      <c r="AX45" s="97"/>
+      <c r="AY45" s="97"/>
+      <c r="AZ45" s="97"/>
+      <c r="BA45" s="97"/>
+      <c r="BB45" s="97"/>
+      <c r="BC45" s="97"/>
+      <c r="BD45" s="97"/>
+      <c r="BE45" s="97"/>
+      <c r="BF45" s="98"/>
+      <c r="BG45" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH45" s="103"/>
+      <c r="BI45" s="86"/>
+      <c r="BJ45" s="85"/>
+      <c r="BK45" s="84"/>
+      <c r="BL45" s="82"/>
+    </row>
+    <row r="47" spans="3:64">
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="89"/>
+      <c r="Z47" s="89"/>
+      <c r="AA47" s="89"/>
+      <c r="AB47" s="89"/>
+      <c r="AC47" s="89"/>
+      <c r="AD47" s="89"/>
+      <c r="AE47" s="89"/>
+      <c r="AF47" s="89"/>
+      <c r="AG47" s="89"/>
+      <c r="AH47" s="89"/>
+      <c r="AI47" s="89"/>
+      <c r="AJ47" s="89"/>
+      <c r="AK47" s="89"/>
+      <c r="AL47" s="89"/>
+      <c r="AM47" s="89"/>
+      <c r="AN47" s="89"/>
+      <c r="AO47" s="89"/>
+      <c r="AP47" s="89"/>
+      <c r="AQ47" s="89"/>
+      <c r="AR47" s="89"/>
+      <c r="AS47" s="89"/>
+      <c r="AT47" s="89"/>
+      <c r="AU47" s="89"/>
+      <c r="AV47" s="89"/>
+      <c r="AW47" s="89"/>
+      <c r="AX47" s="89"/>
+      <c r="AY47" s="89"/>
+      <c r="AZ47" s="89"/>
+      <c r="BA47" s="89"/>
+      <c r="BB47" s="89"/>
+      <c r="BC47" s="89"/>
+      <c r="BD47" s="89"/>
+      <c r="BE47" s="89"/>
+      <c r="BF47" s="89"/>
+      <c r="BG47" s="89"/>
+      <c r="BH47" s="89"/>
+      <c r="BI47" s="89"/>
+      <c r="BJ47" s="89"/>
+      <c r="BK47" s="90"/>
+      <c r="BL47" s="87"/>
+    </row>
+    <row r="49" spans="3:64">
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="89"/>
+      <c r="AB49" s="90"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="90"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="90"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="90"/>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="90"/>
+      <c r="AM49" s="88"/>
+      <c r="AN49" s="90"/>
+      <c r="AO49" s="88"/>
+      <c r="AP49" s="90"/>
+      <c r="AQ49" s="88"/>
+      <c r="AR49" s="89"/>
+      <c r="AS49" s="89"/>
+      <c r="AT49" s="90"/>
+      <c r="AU49" s="88"/>
+      <c r="AV49" s="90"/>
+      <c r="AW49" s="88"/>
+      <c r="AX49" s="90"/>
+      <c r="AY49" s="88"/>
+      <c r="AZ49" s="90"/>
+      <c r="BA49" s="88"/>
+      <c r="BB49" s="90"/>
+      <c r="BC49" s="88"/>
+      <c r="BD49" s="90"/>
+      <c r="BE49" s="88"/>
+      <c r="BF49" s="90"/>
+      <c r="BG49" s="88"/>
+      <c r="BH49" s="90"/>
+      <c r="BI49" s="88"/>
+      <c r="BJ49" s="89"/>
+      <c r="BK49" s="89"/>
+      <c r="BL49" s="89"/>
+    </row>
+    <row r="51" spans="3:64">
+      <c r="F51" s="97">
+        <v>0</v>
+      </c>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="97"/>
+      <c r="M51" s="97"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="97"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="97"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="97"/>
+      <c r="U51" s="97"/>
+      <c r="V51" s="97"/>
+      <c r="W51" s="97"/>
+      <c r="X51" s="98"/>
+      <c r="Y51" s="94"/>
+      <c r="Z51" s="92"/>
+      <c r="AA51" s="92"/>
+      <c r="AB51" s="92"/>
+      <c r="AC51" s="92"/>
+      <c r="AD51" s="92"/>
+      <c r="AE51" s="92"/>
+      <c r="AF51" s="92"/>
+      <c r="AG51" s="92"/>
+      <c r="AH51" s="92"/>
+      <c r="AI51" s="92"/>
+      <c r="AJ51" s="92"/>
+      <c r="AK51" s="92"/>
+      <c r="AL51" s="92"/>
+      <c r="AM51" s="92"/>
+      <c r="AN51" s="92"/>
+      <c r="AO51" s="92"/>
+      <c r="AP51" s="92"/>
+      <c r="AQ51" s="92"/>
+      <c r="AR51" s="92"/>
+      <c r="AS51" s="92"/>
+      <c r="AT51" s="92"/>
+      <c r="AU51" s="92"/>
+      <c r="AV51" s="92"/>
+      <c r="AW51" s="92"/>
+      <c r="AX51" s="92"/>
+      <c r="AY51" s="92"/>
+      <c r="AZ51" s="92"/>
+      <c r="BA51" s="92"/>
+      <c r="BB51" s="92"/>
+      <c r="BC51" s="92"/>
+      <c r="BD51" s="92"/>
+      <c r="BE51" s="92"/>
+      <c r="BF51" s="92"/>
+      <c r="BG51" s="92"/>
+      <c r="BH51" s="92"/>
+      <c r="BI51" s="92"/>
+      <c r="BJ51" s="92"/>
+      <c r="BK51" s="96">
+        <v>0</v>
+      </c>
+      <c r="BL51" s="97"/>
+    </row>
+    <row r="53" spans="3:64">
+      <c r="F53" s="73"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="74"/>
+      <c r="U53" s="74"/>
+      <c r="V53" s="74"/>
+      <c r="W53" s="74"/>
+      <c r="X53" s="74"/>
+      <c r="Y53" s="74"/>
+      <c r="Z53" s="74"/>
+      <c r="AA53" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB53" s="100"/>
+      <c r="AC53" s="100"/>
+      <c r="AD53" s="100"/>
+      <c r="AE53" s="100"/>
+      <c r="AF53" s="100"/>
+      <c r="AG53" s="100"/>
+      <c r="AH53" s="100"/>
+      <c r="AI53" s="100"/>
+      <c r="AJ53" s="100"/>
+      <c r="AK53" s="100"/>
+      <c r="AL53" s="100"/>
+      <c r="AM53" s="100"/>
+      <c r="AN53" s="100"/>
+      <c r="AO53" s="100"/>
+      <c r="AP53" s="100"/>
+      <c r="AQ53" s="101"/>
+      <c r="AR53" s="74"/>
+      <c r="AS53" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT53" s="100"/>
+      <c r="AU53" s="100"/>
+      <c r="AV53" s="100"/>
+      <c r="AW53" s="100"/>
+      <c r="AX53" s="100"/>
+      <c r="AY53" s="100"/>
+      <c r="AZ53" s="100"/>
+      <c r="BA53" s="100"/>
+      <c r="BB53" s="100"/>
+      <c r="BC53" s="100"/>
+      <c r="BD53" s="100"/>
+      <c r="BE53" s="100"/>
+      <c r="BF53" s="100"/>
+      <c r="BG53" s="100"/>
+      <c r="BH53" s="100"/>
+      <c r="BI53" s="101"/>
+      <c r="BJ53" s="75"/>
+      <c r="BK53" s="92"/>
+      <c r="BL53" s="92"/>
+    </row>
+    <row r="55" spans="3:64">
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="87"/>
+      <c r="Y55" s="87"/>
+      <c r="Z55" s="87"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="87"/>
+      <c r="AC55" s="87"/>
+      <c r="AD55" s="87"/>
+      <c r="AE55" s="87"/>
+      <c r="AF55" s="87"/>
+      <c r="AG55" s="87"/>
+      <c r="AH55" s="87"/>
+      <c r="AI55" s="87"/>
+      <c r="AJ55" s="87"/>
+      <c r="AK55" s="87"/>
+      <c r="AL55" s="87"/>
+      <c r="AM55" s="87"/>
+      <c r="AN55" s="87"/>
+      <c r="AO55" s="87"/>
+      <c r="AP55" s="87"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="87"/>
+      <c r="AS55" s="87"/>
+      <c r="AT55" s="87"/>
+      <c r="AU55" s="87"/>
+      <c r="AV55" s="87"/>
+      <c r="AW55" s="87"/>
+      <c r="AX55" s="87"/>
+      <c r="AY55" s="87"/>
+      <c r="AZ55" s="87"/>
+      <c r="BA55" s="87"/>
+      <c r="BB55" s="87"/>
+      <c r="BC55" s="87"/>
+      <c r="BD55" s="87"/>
+      <c r="BE55" s="87"/>
+      <c r="BF55" s="87"/>
+      <c r="BG55" s="87"/>
+      <c r="BH55" s="87"/>
+      <c r="BI55" s="87"/>
+      <c r="BJ55" s="87"/>
+      <c r="BK55" s="88"/>
+      <c r="BL55" s="89"/>
+    </row>
+    <row r="56" spans="3:64">
+      <c r="E56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+    </row>
+    <row r="57" spans="3:64">
+      <c r="C57" s="71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="3:64">
+      <c r="D58" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95">
+        <v>1</v>
+      </c>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95">
+        <v>2</v>
+      </c>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95">
+        <v>3</v>
+      </c>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95">
+        <v>4</v>
+      </c>
+      <c r="N58" s="95"/>
+      <c r="O58" s="95">
+        <v>5</v>
+      </c>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="95">
+        <v>6</v>
+      </c>
+      <c r="R58" s="95"/>
+      <c r="S58" s="95">
+        <v>7</v>
+      </c>
+      <c r="T58" s="95"/>
+      <c r="U58" s="95">
+        <v>8</v>
+      </c>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="X58" s="95"/>
+      <c r="Y58" s="95">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95">
+        <v>2</v>
+      </c>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="95">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="95"/>
+      <c r="AE58" s="95">
+        <v>4</v>
+      </c>
+      <c r="AF58" s="95"/>
+      <c r="AG58" s="95">
+        <v>5</v>
+      </c>
+      <c r="AH58" s="95"/>
+      <c r="AI58" s="95">
+        <v>6</v>
+      </c>
+      <c r="AJ58" s="95"/>
+      <c r="AK58" s="95">
+        <v>7</v>
+      </c>
+      <c r="AL58" s="95"/>
+      <c r="AM58" s="95">
+        <v>8</v>
+      </c>
+      <c r="AN58" s="95"/>
+      <c r="AO58" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP58" s="95"/>
+      <c r="AQ58" s="95">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="95"/>
+      <c r="AS58" s="95">
+        <v>2</v>
+      </c>
+      <c r="AT58" s="95"/>
+      <c r="AU58" s="95">
+        <v>3</v>
+      </c>
+      <c r="AV58" s="95"/>
+      <c r="AW58" s="95">
+        <v>4</v>
+      </c>
+      <c r="AX58" s="95"/>
+      <c r="AY58" s="95">
+        <v>5</v>
+      </c>
+      <c r="AZ58" s="95"/>
+      <c r="BA58" s="95">
+        <v>6</v>
+      </c>
+      <c r="BB58" s="95"/>
+      <c r="BC58" s="95">
+        <v>7</v>
+      </c>
+      <c r="BD58" s="95"/>
+      <c r="BE58" s="95">
+        <v>8</v>
+      </c>
+      <c r="BF58" s="95"/>
+      <c r="BG58" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH58" s="95"/>
+      <c r="BI58" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ58" s="95"/>
+      <c r="BK58" s="95"/>
+      <c r="BL58" s="72"/>
+    </row>
+    <row r="60" spans="3:64">
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="84"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="84"/>
+      <c r="W60" s="83"/>
+      <c r="X60" s="84"/>
+      <c r="Y60" s="83"/>
+      <c r="Z60" s="84"/>
+      <c r="AA60" s="83"/>
+      <c r="AB60" s="84"/>
+      <c r="AC60" s="83"/>
+      <c r="AD60" s="84"/>
+      <c r="AE60" s="83"/>
+      <c r="AF60" s="84"/>
+      <c r="AG60" s="83"/>
+      <c r="AH60" s="84"/>
+      <c r="AI60" s="83"/>
+      <c r="AJ60" s="84"/>
+      <c r="AK60" s="83"/>
+      <c r="AL60" s="84"/>
+      <c r="AM60" s="83"/>
+      <c r="AN60" s="84"/>
+      <c r="AO60" s="83"/>
+      <c r="AP60" s="84"/>
+      <c r="AQ60" s="83"/>
+      <c r="AR60" s="84"/>
+      <c r="AS60" s="83"/>
+      <c r="AT60" s="84"/>
+      <c r="AU60" s="83"/>
+      <c r="AV60" s="84"/>
+      <c r="AW60" s="83"/>
+      <c r="AX60" s="84"/>
+      <c r="AY60" s="83"/>
+      <c r="AZ60" s="84"/>
+      <c r="BA60" s="83"/>
+      <c r="BB60" s="84"/>
+      <c r="BC60" s="83"/>
+      <c r="BD60" s="84"/>
+      <c r="BE60" s="83"/>
+      <c r="BF60" s="84"/>
+      <c r="BG60" s="83"/>
+      <c r="BH60" s="84"/>
+      <c r="BI60" s="83"/>
+      <c r="BJ60" s="84"/>
+      <c r="BK60" s="82"/>
+      <c r="BL60" s="82"/>
+    </row>
+    <row r="62" spans="3:64">
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="R62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="101"/>
+      <c r="U62" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="V62" s="101"/>
+      <c r="W62" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="X62" s="105"/>
+      <c r="Y62" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z62" s="97"/>
+      <c r="AA62" s="97"/>
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="97"/>
+      <c r="AD62" s="97"/>
+      <c r="AE62" s="97"/>
+      <c r="AF62" s="97"/>
+      <c r="AG62" s="97"/>
+      <c r="AH62" s="97"/>
+      <c r="AI62" s="97"/>
+      <c r="AJ62" s="97"/>
+      <c r="AK62" s="97"/>
+      <c r="AL62" s="97"/>
+      <c r="AM62" s="97"/>
+      <c r="AN62" s="98"/>
+      <c r="AO62" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP62" s="107"/>
+      <c r="AQ62" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR62" s="97"/>
+      <c r="AS62" s="97"/>
+      <c r="AT62" s="97"/>
+      <c r="AU62" s="97"/>
+      <c r="AV62" s="97"/>
+      <c r="AW62" s="97"/>
+      <c r="AX62" s="97"/>
+      <c r="AY62" s="97"/>
+      <c r="AZ62" s="97"/>
+      <c r="BA62" s="97"/>
+      <c r="BB62" s="97"/>
+      <c r="BC62" s="97"/>
+      <c r="BD62" s="97"/>
+      <c r="BE62" s="97"/>
+      <c r="BF62" s="98"/>
+      <c r="BG62" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH62" s="103"/>
+      <c r="BI62" s="86"/>
+      <c r="BJ62" s="85"/>
+      <c r="BK62" s="84"/>
+      <c r="BL62" s="82"/>
+    </row>
+    <row r="64" spans="3:64">
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="87"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="87"/>
+      <c r="N64" s="87"/>
+      <c r="O64" s="87"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="87"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="87"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="89"/>
+      <c r="W64" s="89"/>
+      <c r="X64" s="89"/>
+      <c r="Y64" s="89"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="89"/>
+      <c r="AB64" s="89"/>
+      <c r="AC64" s="89"/>
+      <c r="AD64" s="89"/>
+      <c r="AE64" s="89"/>
+      <c r="AF64" s="89"/>
+      <c r="AG64" s="89"/>
+      <c r="AH64" s="89"/>
+      <c r="AI64" s="89"/>
+      <c r="AJ64" s="89"/>
+      <c r="AK64" s="89"/>
+      <c r="AL64" s="89"/>
+      <c r="AM64" s="89"/>
+      <c r="AN64" s="89"/>
+      <c r="AO64" s="89"/>
+      <c r="AP64" s="89"/>
+      <c r="AQ64" s="89"/>
+      <c r="AR64" s="89"/>
+      <c r="AS64" s="89"/>
+      <c r="AT64" s="89"/>
+      <c r="AU64" s="89"/>
+      <c r="AV64" s="89"/>
+      <c r="AW64" s="89"/>
+      <c r="AX64" s="89"/>
+      <c r="AY64" s="89"/>
+      <c r="AZ64" s="89"/>
+      <c r="BA64" s="89"/>
+      <c r="BB64" s="89"/>
+      <c r="BC64" s="89"/>
+      <c r="BD64" s="89"/>
+      <c r="BE64" s="89"/>
+      <c r="BF64" s="89"/>
+      <c r="BG64" s="89"/>
+      <c r="BH64" s="89"/>
+      <c r="BI64" s="89"/>
+      <c r="BJ64" s="89"/>
+      <c r="BK64" s="90"/>
+      <c r="BL64" s="87"/>
+    </row>
+    <row r="66" spans="3:64">
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="89"/>
+      <c r="V66" s="89"/>
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
+      <c r="Z66" s="89"/>
+      <c r="AA66" s="89"/>
+      <c r="AB66" s="90"/>
+      <c r="AC66" s="88"/>
+      <c r="AD66" s="90"/>
+      <c r="AE66" s="88"/>
+      <c r="AF66" s="90"/>
+      <c r="AG66" s="88"/>
+      <c r="AH66" s="90"/>
+      <c r="AI66" s="88"/>
+      <c r="AJ66" s="90"/>
+      <c r="AK66" s="88"/>
+      <c r="AL66" s="90"/>
+      <c r="AM66" s="88"/>
+      <c r="AN66" s="90"/>
+      <c r="AO66" s="88"/>
+      <c r="AP66" s="90"/>
+      <c r="AQ66" s="88"/>
+      <c r="AR66" s="89"/>
+      <c r="AS66" s="89"/>
+      <c r="AT66" s="90"/>
+      <c r="AU66" s="88"/>
+      <c r="AV66" s="90"/>
+      <c r="AW66" s="88"/>
+      <c r="AX66" s="90"/>
+      <c r="AY66" s="88"/>
+      <c r="AZ66" s="90"/>
+      <c r="BA66" s="88"/>
+      <c r="BB66" s="90"/>
+      <c r="BC66" s="88"/>
+      <c r="BD66" s="90"/>
+      <c r="BE66" s="88"/>
+      <c r="BF66" s="90"/>
+      <c r="BG66" s="88"/>
+      <c r="BH66" s="90"/>
+      <c r="BI66" s="88"/>
+      <c r="BJ66" s="89"/>
+      <c r="BK66" s="89"/>
+      <c r="BL66" s="89"/>
+    </row>
+    <row r="68" spans="3:64">
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="97">
+        <v>0</v>
+      </c>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="97"/>
+      <c r="O68" s="97"/>
+      <c r="P68" s="97"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="97"/>
+      <c r="S68" s="97"/>
+      <c r="T68" s="97"/>
+      <c r="U68" s="97"/>
+      <c r="V68" s="97"/>
+      <c r="W68" s="97"/>
+      <c r="X68" s="98"/>
+      <c r="Y68" s="94"/>
+      <c r="Z68" s="92"/>
+      <c r="AA68" s="92"/>
+      <c r="AB68" s="92"/>
+      <c r="AC68" s="92"/>
+      <c r="AD68" s="92"/>
+      <c r="AE68" s="92"/>
+      <c r="AF68" s="92"/>
+      <c r="AG68" s="92"/>
+      <c r="AH68" s="92"/>
+      <c r="AI68" s="92"/>
+      <c r="AJ68" s="92"/>
+      <c r="AK68" s="92"/>
+      <c r="AL68" s="92"/>
+      <c r="AM68" s="92"/>
+      <c r="AN68" s="92"/>
+      <c r="AO68" s="92"/>
+      <c r="AP68" s="92"/>
+      <c r="AQ68" s="92"/>
+      <c r="AR68" s="92"/>
+      <c r="AS68" s="92"/>
+      <c r="AT68" s="92"/>
+      <c r="AU68" s="92"/>
+      <c r="AV68" s="92"/>
+      <c r="AW68" s="92"/>
+      <c r="AX68" s="92"/>
+      <c r="AY68" s="92"/>
+      <c r="AZ68" s="92"/>
+      <c r="BA68" s="92"/>
+      <c r="BB68" s="92"/>
+      <c r="BC68" s="92"/>
+      <c r="BD68" s="92"/>
+      <c r="BE68" s="92"/>
+      <c r="BF68" s="92"/>
+      <c r="BG68" s="92"/>
+      <c r="BH68" s="92"/>
+      <c r="BI68" s="92"/>
+      <c r="BJ68" s="92"/>
+      <c r="BK68" s="96">
+        <v>0</v>
+      </c>
+      <c r="BL68" s="97"/>
+    </row>
+    <row r="70" spans="3:64">
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="92"/>
+      <c r="L70" s="92"/>
+      <c r="M70" s="92"/>
+      <c r="N70" s="92"/>
+      <c r="O70" s="92"/>
+      <c r="P70" s="92"/>
+      <c r="Q70" s="92"/>
+      <c r="R70" s="92"/>
+      <c r="S70" s="92"/>
+      <c r="T70" s="92"/>
+      <c r="U70" s="73"/>
+      <c r="V70" s="74"/>
+      <c r="W70" s="74"/>
+      <c r="X70" s="74"/>
+      <c r="Y70" s="74"/>
+      <c r="Z70" s="74"/>
+      <c r="AA70" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB70" s="100"/>
+      <c r="AC70" s="100"/>
+      <c r="AD70" s="100"/>
+      <c r="AE70" s="100"/>
+      <c r="AF70" s="100"/>
+      <c r="AG70" s="100"/>
+      <c r="AH70" s="100"/>
+      <c r="AI70" s="100"/>
+      <c r="AJ70" s="100"/>
+      <c r="AK70" s="100"/>
+      <c r="AL70" s="100"/>
+      <c r="AM70" s="100"/>
+      <c r="AN70" s="100"/>
+      <c r="AO70" s="100"/>
+      <c r="AP70" s="100"/>
+      <c r="AQ70" s="101"/>
+      <c r="AR70" s="74"/>
+      <c r="AS70" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT70" s="100"/>
+      <c r="AU70" s="100"/>
+      <c r="AV70" s="100"/>
+      <c r="AW70" s="100"/>
+      <c r="AX70" s="100"/>
+      <c r="AY70" s="100"/>
+      <c r="AZ70" s="100"/>
+      <c r="BA70" s="100"/>
+      <c r="BB70" s="100"/>
+      <c r="BC70" s="100"/>
+      <c r="BD70" s="100"/>
+      <c r="BE70" s="100"/>
+      <c r="BF70" s="100"/>
+      <c r="BG70" s="100"/>
+      <c r="BH70" s="100"/>
+      <c r="BI70" s="101"/>
+      <c r="BJ70" s="75"/>
+      <c r="BK70" s="92"/>
+      <c r="BL70" s="92"/>
+    </row>
+    <row r="72" spans="3:64">
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="89"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="89"/>
+      <c r="P72" s="89"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="89"/>
+      <c r="S72" s="89"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="89"/>
+      <c r="V72" s="89"/>
+      <c r="W72" s="89"/>
+      <c r="X72" s="89"/>
+      <c r="Y72" s="89"/>
+      <c r="Z72" s="89"/>
+      <c r="AA72" s="89"/>
+      <c r="AB72" s="89"/>
+      <c r="AC72" s="89"/>
+      <c r="AD72" s="89"/>
+      <c r="AE72" s="89"/>
+      <c r="AF72" s="89"/>
+      <c r="AG72" s="89"/>
+      <c r="AH72" s="89"/>
+      <c r="AI72" s="89"/>
+      <c r="AJ72" s="89"/>
+      <c r="AK72" s="89"/>
+      <c r="AL72" s="89"/>
+      <c r="AM72" s="89"/>
+      <c r="AN72" s="89"/>
+      <c r="AO72" s="89"/>
+      <c r="AP72" s="89"/>
+      <c r="AQ72" s="90"/>
+      <c r="AR72" s="87"/>
+      <c r="AS72" s="87"/>
+      <c r="AT72" s="87"/>
+      <c r="AU72" s="87"/>
+      <c r="AV72" s="87"/>
+      <c r="AW72" s="87"/>
+      <c r="AX72" s="87"/>
+      <c r="AY72" s="87"/>
+      <c r="AZ72" s="87"/>
+      <c r="BA72" s="87"/>
+      <c r="BB72" s="87"/>
+      <c r="BC72" s="87"/>
+      <c r="BD72" s="87"/>
+      <c r="BE72" s="87"/>
+      <c r="BF72" s="87"/>
+      <c r="BG72" s="87"/>
+      <c r="BH72" s="87"/>
+      <c r="BI72" s="87"/>
+      <c r="BJ72" s="87"/>
+      <c r="BK72" s="88"/>
+      <c r="BL72" s="89"/>
+    </row>
+    <row r="75" spans="3:64">
+      <c r="C75" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+    </row>
+    <row r="77" spans="3:64">
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="69"/>
+      <c r="S77" s="69"/>
+      <c r="T77" s="69"/>
+      <c r="U77" s="69"/>
+      <c r="V77" s="69"/>
+      <c r="W77" s="69"/>
+      <c r="X77" s="69"/>
+      <c r="Y77" s="69"/>
+      <c r="Z77" s="69"/>
+      <c r="AA77" s="69"/>
+      <c r="AB77" s="69"/>
+      <c r="AC77" s="69"/>
+      <c r="AD77" s="69"/>
+      <c r="AE77" s="69"/>
+      <c r="AF77" s="69"/>
+      <c r="AG77" s="69"/>
+      <c r="AH77" s="69"/>
+      <c r="AI77" s="69"/>
+      <c r="AJ77" s="69"/>
+      <c r="AK77" s="69"/>
+      <c r="AL77" s="69"/>
+      <c r="AM77" s="69"/>
+      <c r="AN77" s="69"/>
+      <c r="AO77" s="69"/>
+      <c r="AP77" s="69"/>
+      <c r="AQ77" s="69"/>
+      <c r="AR77" s="70"/>
+      <c r="AS77" s="68"/>
+      <c r="AT77" s="68"/>
+    </row>
+    <row r="79" spans="3:64">
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="70"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="70"/>
+      <c r="S79" s="61"/>
+      <c r="T79" s="70"/>
+      <c r="U79" s="61"/>
+      <c r="V79" s="70"/>
+      <c r="W79" s="61"/>
+      <c r="X79" s="69"/>
+      <c r="Y79" s="69"/>
+      <c r="Z79" s="70"/>
+      <c r="AA79" s="61"/>
+      <c r="AB79" s="70"/>
+      <c r="AC79" s="61"/>
+      <c r="AD79" s="70"/>
+      <c r="AE79" s="61"/>
+      <c r="AF79" s="70"/>
+      <c r="AG79" s="61"/>
+      <c r="AH79" s="70"/>
+      <c r="AI79" s="61"/>
+      <c r="AJ79" s="70"/>
+      <c r="AK79" s="61"/>
+      <c r="AL79" s="70"/>
+      <c r="AM79" s="61"/>
+      <c r="AN79" s="70"/>
+      <c r="AO79" s="61"/>
+      <c r="AP79" s="69"/>
+      <c r="AQ79" s="69"/>
+      <c r="AR79" s="69"/>
+      <c r="AS79" s="69"/>
+      <c r="AT79" s="69"/>
+    </row>
+    <row r="81" spans="3:64">
+      <c r="C81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="96">
+        <v>7</v>
+      </c>
+      <c r="H81" s="98"/>
+      <c r="I81" s="96">
+        <v>6</v>
+      </c>
+      <c r="J81" s="98"/>
+      <c r="K81" s="96">
+        <v>5</v>
+      </c>
+      <c r="L81" s="98"/>
+      <c r="M81" s="96">
+        <v>4</v>
+      </c>
+      <c r="N81" s="98"/>
+      <c r="O81" s="96">
+        <v>3</v>
+      </c>
+      <c r="P81" s="98"/>
+      <c r="Q81" s="96">
+        <v>2</v>
+      </c>
+      <c r="R81" s="98"/>
+      <c r="S81" s="96">
+        <v>1</v>
+      </c>
+      <c r="T81" s="98"/>
+      <c r="U81" s="96">
+        <v>0</v>
+      </c>
+      <c r="V81" s="98"/>
+      <c r="W81" s="69"/>
+      <c r="X81" s="69"/>
+      <c r="Y81" s="96">
+        <v>7</v>
+      </c>
+      <c r="Z81" s="98"/>
+      <c r="AA81" s="96">
+        <v>6</v>
+      </c>
+      <c r="AB81" s="98"/>
+      <c r="AC81" s="96">
+        <v>5</v>
+      </c>
+      <c r="AD81" s="98"/>
+      <c r="AE81" s="96">
+        <v>4</v>
+      </c>
+      <c r="AF81" s="98"/>
+      <c r="AG81" s="96">
+        <v>3</v>
+      </c>
+      <c r="AH81" s="98"/>
+      <c r="AI81" s="96">
+        <v>2</v>
+      </c>
+      <c r="AJ81" s="98"/>
+      <c r="AK81" s="96">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="98"/>
+      <c r="AM81" s="96">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="98"/>
+      <c r="AO81" s="69"/>
+      <c r="AP81" s="69"/>
+      <c r="AQ81" s="69"/>
+      <c r="AR81" s="69"/>
+      <c r="AS81" s="69"/>
+      <c r="AT81" s="69"/>
+    </row>
+    <row r="83" spans="3:64">
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="99">
+        <v>7</v>
+      </c>
+      <c r="I83" s="101"/>
+      <c r="J83" s="99">
+        <v>6</v>
+      </c>
+      <c r="K83" s="101"/>
+      <c r="L83" s="99">
+        <v>5</v>
+      </c>
+      <c r="M83" s="101"/>
+      <c r="N83" s="99">
+        <v>4</v>
+      </c>
+      <c r="O83" s="101"/>
+      <c r="P83" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="101"/>
+      <c r="R83" s="99">
+        <v>2</v>
+      </c>
+      <c r="S83" s="101"/>
+      <c r="T83" s="99">
+        <v>1</v>
+      </c>
+      <c r="U83" s="101"/>
+      <c r="V83" s="99">
+        <v>0</v>
+      </c>
+      <c r="W83" s="101"/>
+      <c r="X83" s="69"/>
+      <c r="Y83" s="69"/>
+      <c r="Z83" s="99">
+        <v>7</v>
+      </c>
+      <c r="AA83" s="101"/>
+      <c r="AB83" s="99">
+        <v>6</v>
+      </c>
+      <c r="AC83" s="101"/>
+      <c r="AD83" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="101"/>
+      <c r="AF83" s="99">
+        <v>4</v>
+      </c>
+      <c r="AG83" s="101"/>
+      <c r="AH83" s="99">
+        <v>3</v>
+      </c>
+      <c r="AI83" s="101"/>
+      <c r="AJ83" s="99">
+        <v>2</v>
+      </c>
+      <c r="AK83" s="101"/>
+      <c r="AL83" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM83" s="101"/>
+      <c r="AN83" s="99">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="101"/>
+      <c r="AP83" s="69"/>
+      <c r="AQ83" s="69"/>
+      <c r="AR83" s="69"/>
+      <c r="AS83" s="69"/>
+      <c r="AT83" s="69"/>
+    </row>
+    <row r="86" spans="3:64">
+      <c r="C86" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+    </row>
+    <row r="88" spans="3:64">
+      <c r="C88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+      <c r="Q88" s="69"/>
+      <c r="R88" s="69"/>
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
+      <c r="V88" s="69"/>
+      <c r="W88" s="69"/>
+      <c r="X88" s="69"/>
+      <c r="Y88" s="69"/>
+      <c r="Z88" s="69"/>
+      <c r="AA88" s="69"/>
+      <c r="AB88" s="69"/>
+      <c r="AC88" s="69"/>
+      <c r="AD88" s="69"/>
+      <c r="AE88" s="69"/>
+      <c r="AF88" s="69"/>
+      <c r="AG88" s="69"/>
+      <c r="AH88" s="69"/>
+      <c r="AI88" s="69"/>
+      <c r="AJ88" s="69"/>
+      <c r="AK88" s="69"/>
+      <c r="AL88" s="69"/>
+      <c r="AM88" s="69"/>
+      <c r="AN88" s="69"/>
+      <c r="AO88" s="69"/>
+      <c r="AP88" s="69"/>
+      <c r="AQ88" s="69"/>
+      <c r="AR88" s="70"/>
+      <c r="AS88" s="68"/>
+      <c r="AT88" s="68"/>
+    </row>
+    <row r="90" spans="3:64">
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="70"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="70"/>
+      <c r="S90" s="61"/>
+      <c r="T90" s="70"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="70"/>
+      <c r="W90" s="61"/>
+      <c r="X90" s="69"/>
+      <c r="Y90" s="69"/>
+      <c r="Z90" s="70"/>
+      <c r="AA90" s="61"/>
+      <c r="AB90" s="70"/>
+      <c r="AC90" s="61"/>
+      <c r="AD90" s="70"/>
+      <c r="AE90" s="61"/>
+      <c r="AF90" s="70"/>
+      <c r="AG90" s="61"/>
+      <c r="AH90" s="70"/>
+      <c r="AI90" s="61"/>
+      <c r="AJ90" s="70"/>
+      <c r="AK90" s="61"/>
+      <c r="AL90" s="70"/>
+      <c r="AM90" s="61"/>
+      <c r="AN90" s="70"/>
+      <c r="AO90" s="61"/>
+      <c r="AP90" s="69"/>
+      <c r="AQ90" s="69"/>
+      <c r="AR90" s="69"/>
+      <c r="AS90" s="69"/>
+      <c r="AT90" s="69"/>
+    </row>
+    <row r="92" spans="3:64">
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="96">
+        <v>7</v>
+      </c>
+      <c r="I92" s="98"/>
+      <c r="J92" s="96">
+        <v>6</v>
+      </c>
+      <c r="K92" s="98"/>
+      <c r="L92" s="96">
+        <v>5</v>
+      </c>
+      <c r="M92" s="98"/>
+      <c r="N92" s="96">
+        <v>4</v>
+      </c>
+      <c r="O92" s="98"/>
+      <c r="P92" s="96">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="98"/>
+      <c r="R92" s="96">
+        <v>2</v>
+      </c>
+      <c r="S92" s="98"/>
+      <c r="T92" s="96">
+        <v>1</v>
+      </c>
+      <c r="U92" s="98"/>
+      <c r="V92" s="96">
+        <v>0</v>
+      </c>
+      <c r="W92" s="98"/>
+      <c r="X92" s="69"/>
+      <c r="Y92" s="69"/>
+      <c r="Z92" s="96">
+        <v>7</v>
+      </c>
+      <c r="AA92" s="98"/>
+      <c r="AB92" s="96">
+        <v>6</v>
+      </c>
+      <c r="AC92" s="98"/>
+      <c r="AD92" s="96">
+        <v>5</v>
+      </c>
+      <c r="AE92" s="98"/>
+      <c r="AF92" s="96">
+        <v>4</v>
+      </c>
+      <c r="AG92" s="98"/>
+      <c r="AH92" s="96">
+        <v>3</v>
+      </c>
+      <c r="AI92" s="98"/>
+      <c r="AJ92" s="96">
+        <v>2</v>
+      </c>
+      <c r="AK92" s="98"/>
+      <c r="AL92" s="96">
+        <v>1</v>
+      </c>
+      <c r="AM92" s="98"/>
+      <c r="AN92" s="96">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="98"/>
+      <c r="AP92" s="69"/>
+      <c r="AQ92" s="69"/>
+      <c r="AR92" s="69"/>
+      <c r="AS92" s="69"/>
+      <c r="AT92" s="69"/>
+    </row>
+    <row r="94" spans="3:64">
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="99">
+        <v>7</v>
+      </c>
+      <c r="H94" s="101"/>
+      <c r="I94" s="99">
+        <v>6</v>
+      </c>
+      <c r="J94" s="101"/>
+      <c r="K94" s="99">
+        <v>5</v>
+      </c>
+      <c r="L94" s="101"/>
+      <c r="M94" s="99">
+        <v>4</v>
+      </c>
+      <c r="N94" s="101"/>
+      <c r="O94" s="99">
+        <v>3</v>
+      </c>
+      <c r="P94" s="101"/>
+      <c r="Q94" s="99">
+        <v>2</v>
+      </c>
+      <c r="R94" s="101"/>
+      <c r="S94" s="99">
+        <v>1</v>
+      </c>
+      <c r="T94" s="101"/>
+      <c r="U94" s="99">
+        <v>0</v>
+      </c>
+      <c r="V94" s="101"/>
+      <c r="W94" s="69"/>
+      <c r="X94" s="69"/>
+      <c r="Y94" s="99">
+        <v>7</v>
+      </c>
+      <c r="Z94" s="101"/>
+      <c r="AA94" s="99">
+        <v>6</v>
+      </c>
+      <c r="AB94" s="101"/>
+      <c r="AC94" s="99">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="101"/>
+      <c r="AE94" s="99">
+        <v>4</v>
+      </c>
+      <c r="AF94" s="101"/>
+      <c r="AG94" s="99">
+        <v>3</v>
+      </c>
+      <c r="AH94" s="101"/>
+      <c r="AI94" s="99">
+        <v>2</v>
+      </c>
+      <c r="AJ94" s="101"/>
+      <c r="AK94" s="99">
+        <v>1</v>
+      </c>
+      <c r="AL94" s="101"/>
+      <c r="AM94" s="99">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="101"/>
+      <c r="AO94" s="69"/>
+      <c r="AP94" s="69"/>
+      <c r="AQ94" s="69"/>
+      <c r="AR94" s="69"/>
+      <c r="AS94" s="69"/>
+      <c r="AT94" s="69"/>
+    </row>
+    <row r="97" spans="3:64">
+      <c r="C97" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+    </row>
+    <row r="99" spans="3:64">
+      <c r="C99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
+      <c r="S99" s="69"/>
+      <c r="T99" s="69"/>
+      <c r="U99" s="69"/>
+      <c r="V99" s="69"/>
+      <c r="W99" s="69"/>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="69"/>
+      <c r="Z99" s="69"/>
+      <c r="AA99" s="69"/>
+      <c r="AB99" s="69"/>
+      <c r="AC99" s="69"/>
+      <c r="AD99" s="69"/>
+      <c r="AE99" s="69"/>
+      <c r="AF99" s="69"/>
+      <c r="AG99" s="69"/>
+      <c r="AH99" s="69"/>
+      <c r="AI99" s="69"/>
+      <c r="AJ99" s="69"/>
+      <c r="AK99" s="69"/>
+      <c r="AL99" s="69"/>
+      <c r="AM99" s="69"/>
+      <c r="AN99" s="69"/>
+      <c r="AO99" s="69"/>
+      <c r="AP99" s="69"/>
+      <c r="AQ99" s="69"/>
+      <c r="AR99" s="70"/>
+      <c r="AS99" s="68"/>
+      <c r="AT99" s="68"/>
+    </row>
+    <row r="101" spans="3:64">
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="70"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="70"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="70"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="70"/>
+      <c r="R101" s="61"/>
+      <c r="S101" s="70"/>
+      <c r="T101" s="61"/>
+      <c r="U101" s="70"/>
+      <c r="V101" s="61"/>
+      <c r="W101" s="70"/>
+      <c r="X101" s="68"/>
+      <c r="Y101" s="76"/>
+      <c r="Z101" s="69"/>
+      <c r="AA101" s="70"/>
+      <c r="AB101" s="61"/>
+      <c r="AC101" s="70"/>
+      <c r="AD101" s="61"/>
+      <c r="AE101" s="70"/>
+      <c r="AF101" s="61"/>
+      <c r="AG101" s="70"/>
+      <c r="AH101" s="61"/>
+      <c r="AI101" s="70"/>
+      <c r="AJ101" s="61"/>
+      <c r="AK101" s="70"/>
+      <c r="AL101" s="61"/>
+      <c r="AM101" s="70"/>
+      <c r="AN101" s="61"/>
+      <c r="AO101" s="70"/>
+      <c r="AP101" s="68"/>
+      <c r="AQ101" s="68"/>
+      <c r="AR101" s="68"/>
+      <c r="AS101" s="68"/>
+      <c r="AT101" s="68"/>
+    </row>
+    <row r="103" spans="3:64">
+      <c r="C103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="96">
+        <v>7</v>
+      </c>
+      <c r="H103" s="98"/>
+      <c r="I103" s="96">
+        <v>6</v>
+      </c>
+      <c r="J103" s="98"/>
+      <c r="K103" s="96">
+        <v>5</v>
+      </c>
+      <c r="L103" s="98"/>
+      <c r="M103" s="96">
+        <v>4</v>
+      </c>
+      <c r="N103" s="98"/>
+      <c r="O103" s="96">
+        <v>3</v>
+      </c>
+      <c r="P103" s="98"/>
+      <c r="Q103" s="96">
+        <v>2</v>
+      </c>
+      <c r="R103" s="98"/>
+      <c r="S103" s="96">
+        <v>1</v>
+      </c>
+      <c r="T103" s="98"/>
+      <c r="U103" s="96">
+        <v>0</v>
+      </c>
+      <c r="V103" s="98"/>
+      <c r="W103" s="69"/>
+      <c r="X103" s="69"/>
+      <c r="Y103" s="96">
+        <v>7</v>
+      </c>
+      <c r="Z103" s="98"/>
+      <c r="AA103" s="96">
+        <v>6</v>
+      </c>
+      <c r="AB103" s="98"/>
+      <c r="AC103" s="96">
+        <v>5</v>
+      </c>
+      <c r="AD103" s="98"/>
+      <c r="AE103" s="96">
+        <v>4</v>
+      </c>
+      <c r="AF103" s="98"/>
+      <c r="AG103" s="96">
+        <v>3</v>
+      </c>
+      <c r="AH103" s="98"/>
+      <c r="AI103" s="96">
+        <v>2</v>
+      </c>
+      <c r="AJ103" s="98"/>
+      <c r="AK103" s="96">
+        <v>1</v>
+      </c>
+      <c r="AL103" s="98"/>
+      <c r="AM103" s="96">
+        <v>0</v>
+      </c>
+      <c r="AN103" s="98"/>
+      <c r="AO103" s="69"/>
+      <c r="AP103" s="69"/>
+      <c r="AQ103" s="69"/>
+      <c r="AR103" s="69"/>
+      <c r="AS103" s="69"/>
+      <c r="AT103" s="69"/>
+    </row>
+    <row r="105" spans="3:64">
+      <c r="C105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="99">
+        <v>7</v>
+      </c>
+      <c r="I105" s="101"/>
+      <c r="J105" s="99">
+        <v>6</v>
+      </c>
+      <c r="K105" s="101"/>
+      <c r="L105" s="99">
+        <v>5</v>
+      </c>
+      <c r="M105" s="101"/>
+      <c r="N105" s="99">
+        <v>4</v>
+      </c>
+      <c r="O105" s="101"/>
+      <c r="P105" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q105" s="101"/>
+      <c r="R105" s="99">
+        <v>2</v>
+      </c>
+      <c r="S105" s="101"/>
+      <c r="T105" s="99">
+        <v>1</v>
+      </c>
+      <c r="U105" s="101"/>
+      <c r="V105" s="99">
+        <v>0</v>
+      </c>
+      <c r="W105" s="101"/>
+      <c r="X105" s="69"/>
+      <c r="Y105" s="69"/>
+      <c r="Z105" s="99">
+        <v>7</v>
+      </c>
+      <c r="AA105" s="101"/>
+      <c r="AB105" s="99">
+        <v>6</v>
+      </c>
+      <c r="AC105" s="101"/>
+      <c r="AD105" s="99">
+        <v>5</v>
+      </c>
+      <c r="AE105" s="101"/>
+      <c r="AF105" s="99">
+        <v>4</v>
+      </c>
+      <c r="AG105" s="101"/>
+      <c r="AH105" s="99">
+        <v>3</v>
+      </c>
+      <c r="AI105" s="101"/>
+      <c r="AJ105" s="99">
+        <v>2</v>
+      </c>
+      <c r="AK105" s="101"/>
+      <c r="AL105" s="99">
+        <v>1</v>
+      </c>
+      <c r="AM105" s="101"/>
+      <c r="AN105" s="99">
+        <v>0</v>
+      </c>
+      <c r="AO105" s="101"/>
+      <c r="AP105" s="69"/>
+      <c r="AQ105" s="69"/>
+      <c r="AR105" s="69"/>
+      <c r="AS105" s="69"/>
+      <c r="AT105" s="69"/>
+      <c r="AU105" s="69"/>
+    </row>
+    <row r="106" spans="3:64">
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="1"/>
+      <c r="BE106" s="1"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
+    </row>
+    <row r="108" spans="3:64">
+      <c r="C108" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1"/>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="1"/>
+    </row>
+    <row r="110" spans="3:64">
+      <c r="C110" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="69"/>
+      <c r="I110" s="69"/>
+      <c r="J110" s="69"/>
+      <c r="K110" s="69"/>
+      <c r="L110" s="69"/>
+      <c r="M110" s="69"/>
+      <c r="N110" s="69"/>
+      <c r="O110" s="69"/>
+      <c r="P110" s="69"/>
+      <c r="Q110" s="69"/>
+      <c r="R110" s="69"/>
+      <c r="S110" s="69"/>
+      <c r="T110" s="69"/>
+      <c r="U110" s="69"/>
+      <c r="V110" s="69"/>
+      <c r="W110" s="69"/>
+      <c r="X110" s="69"/>
+      <c r="Y110" s="69"/>
+      <c r="Z110" s="69"/>
+      <c r="AA110" s="69"/>
+      <c r="AB110" s="69"/>
+      <c r="AC110" s="69"/>
+      <c r="AD110" s="69"/>
+      <c r="AE110" s="69"/>
+      <c r="AF110" s="69"/>
+      <c r="AG110" s="69"/>
+      <c r="AH110" s="69"/>
+      <c r="AI110" s="69"/>
+      <c r="AJ110" s="69"/>
+      <c r="AK110" s="69"/>
+      <c r="AL110" s="69"/>
+      <c r="AM110" s="69"/>
+      <c r="AN110" s="69"/>
+      <c r="AO110" s="69"/>
+      <c r="AP110" s="69"/>
+      <c r="AQ110" s="69"/>
+      <c r="AR110" s="70"/>
+      <c r="AS110" s="68"/>
+      <c r="AT110" s="68"/>
+    </row>
+    <row r="112" spans="3:64">
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="61"/>
+      <c r="O112" s="70"/>
+      <c r="P112" s="61"/>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="61"/>
+      <c r="S112" s="70"/>
+      <c r="T112" s="61"/>
+      <c r="U112" s="70"/>
+      <c r="V112" s="61"/>
+      <c r="W112" s="70"/>
+      <c r="X112" s="68"/>
+      <c r="Y112" s="76"/>
+      <c r="Z112" s="69"/>
+      <c r="AA112" s="70"/>
+      <c r="AB112" s="61"/>
+      <c r="AC112" s="70"/>
+      <c r="AD112" s="61"/>
+      <c r="AE112" s="70"/>
+      <c r="AF112" s="61"/>
+      <c r="AG112" s="70"/>
+      <c r="AH112" s="61"/>
+      <c r="AI112" s="70"/>
+      <c r="AJ112" s="61"/>
+      <c r="AK112" s="70"/>
+      <c r="AL112" s="61"/>
+      <c r="AM112" s="70"/>
+      <c r="AN112" s="61"/>
+      <c r="AO112" s="70"/>
+      <c r="AP112" s="68"/>
+      <c r="AQ112" s="68"/>
+      <c r="AR112" s="68"/>
+      <c r="AS112" s="68"/>
+      <c r="AT112" s="68"/>
+    </row>
+    <row r="114" spans="3:46">
+      <c r="C114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="69"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="96">
+        <v>7</v>
+      </c>
+      <c r="I114" s="98"/>
+      <c r="J114" s="96">
+        <v>6</v>
+      </c>
+      <c r="K114" s="98"/>
+      <c r="L114" s="96">
+        <v>5</v>
+      </c>
+      <c r="M114" s="98"/>
+      <c r="N114" s="96">
+        <v>4</v>
+      </c>
+      <c r="O114" s="98"/>
+      <c r="P114" s="96">
+        <v>3</v>
+      </c>
+      <c r="Q114" s="98"/>
+      <c r="R114" s="96">
+        <v>2</v>
+      </c>
+      <c r="S114" s="98"/>
+      <c r="T114" s="96">
+        <v>1</v>
+      </c>
+      <c r="U114" s="98"/>
+      <c r="V114" s="96">
+        <v>0</v>
+      </c>
+      <c r="W114" s="98"/>
+      <c r="X114" s="69"/>
+      <c r="Y114" s="69"/>
+      <c r="Z114" s="96">
+        <v>7</v>
+      </c>
+      <c r="AA114" s="98"/>
+      <c r="AB114" s="96">
+        <v>6</v>
+      </c>
+      <c r="AC114" s="98"/>
+      <c r="AD114" s="96">
+        <v>5</v>
+      </c>
+      <c r="AE114" s="98"/>
+      <c r="AF114" s="96">
+        <v>4</v>
+      </c>
+      <c r="AG114" s="98"/>
+      <c r="AH114" s="96">
+        <v>3</v>
+      </c>
+      <c r="AI114" s="98"/>
+      <c r="AJ114" s="96">
+        <v>2</v>
+      </c>
+      <c r="AK114" s="98"/>
+      <c r="AL114" s="96">
+        <v>1</v>
+      </c>
+      <c r="AM114" s="98"/>
+      <c r="AN114" s="96">
+        <v>0</v>
+      </c>
+      <c r="AO114" s="98"/>
+      <c r="AP114" s="69"/>
+      <c r="AQ114" s="69"/>
+      <c r="AR114" s="69"/>
+      <c r="AS114" s="69"/>
+      <c r="AT114" s="69"/>
+    </row>
+    <row r="116" spans="3:46">
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="99">
+        <v>7</v>
+      </c>
+      <c r="H116" s="101"/>
+      <c r="I116" s="99">
+        <v>6</v>
+      </c>
+      <c r="J116" s="101"/>
+      <c r="K116" s="99">
+        <v>5</v>
+      </c>
+      <c r="L116" s="101"/>
+      <c r="M116" s="99">
+        <v>4</v>
+      </c>
+      <c r="N116" s="101"/>
+      <c r="O116" s="99">
+        <v>3</v>
+      </c>
+      <c r="P116" s="101"/>
+      <c r="Q116" s="99">
+        <v>2</v>
+      </c>
+      <c r="R116" s="101"/>
+      <c r="S116" s="99">
+        <v>1</v>
+      </c>
+      <c r="T116" s="101"/>
+      <c r="U116" s="99">
+        <v>0</v>
+      </c>
+      <c r="V116" s="101"/>
+      <c r="W116" s="69"/>
+      <c r="X116" s="69"/>
+      <c r="Y116" s="99">
+        <v>7</v>
+      </c>
+      <c r="Z116" s="101"/>
+      <c r="AA116" s="99">
+        <v>6</v>
+      </c>
+      <c r="AB116" s="101"/>
+      <c r="AC116" s="99">
+        <v>5</v>
+      </c>
+      <c r="AD116" s="101"/>
+      <c r="AE116" s="99">
+        <v>4</v>
+      </c>
+      <c r="AF116" s="101"/>
+      <c r="AG116" s="99">
+        <v>3</v>
+      </c>
+      <c r="AH116" s="101"/>
+      <c r="AI116" s="99">
+        <v>2</v>
+      </c>
+      <c r="AJ116" s="101"/>
+      <c r="AK116" s="99">
+        <v>1</v>
+      </c>
+      <c r="AL116" s="101"/>
+      <c r="AM116" s="99">
+        <v>0</v>
+      </c>
+      <c r="AN116" s="101"/>
+      <c r="AO116" s="69"/>
+      <c r="AP116" s="69"/>
+      <c r="AQ116" s="69"/>
+      <c r="AR116" s="69"/>
+      <c r="AS116" s="69"/>
+      <c r="AT116" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="292">
+    <mergeCell ref="AS53:BI53"/>
+    <mergeCell ref="Y62:AN62"/>
+    <mergeCell ref="BK16:BL16"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BK68:BL68"/>
+    <mergeCell ref="D68:X68"/>
+    <mergeCell ref="D34:Z34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="F51:X51"/>
+    <mergeCell ref="D16:Z16"/>
+    <mergeCell ref="BE41:BF41"/>
+    <mergeCell ref="BG41:BH41"/>
+    <mergeCell ref="AY41:AZ41"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BC41:BD41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="AY58:AZ58"/>
+    <mergeCell ref="BA58:BB58"/>
+    <mergeCell ref="BC58:BD58"/>
+    <mergeCell ref="BE58:BF58"/>
+    <mergeCell ref="BG58:BH58"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="AI116:AJ116"/>
+    <mergeCell ref="AK116:AL116"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="Y116:Z116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AE116:AF116"/>
+    <mergeCell ref="AG116:AH116"/>
+    <mergeCell ref="AJ105:AK105"/>
+    <mergeCell ref="AL105:AM105"/>
+    <mergeCell ref="AN105:AO105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AF105:AG105"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AI94:AJ94"/>
+    <mergeCell ref="AK94:AL94"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="AA53:AQ53"/>
+    <mergeCell ref="AN83:AO83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="V105:W105"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AH83:AI83"/>
+    <mergeCell ref="AN114:AO114"/>
+    <mergeCell ref="T114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="Z114:AA114"/>
+    <mergeCell ref="AB114:AC114"/>
+    <mergeCell ref="AD114:AE114"/>
+    <mergeCell ref="AF114:AG114"/>
+    <mergeCell ref="AH92:AI92"/>
+    <mergeCell ref="AJ92:AK92"/>
+    <mergeCell ref="AL92:AM92"/>
+    <mergeCell ref="AN92:AO92"/>
+    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="AG94:AH94"/>
+    <mergeCell ref="AI103:AJ103"/>
+    <mergeCell ref="AK103:AL103"/>
+    <mergeCell ref="AH114:AI114"/>
+    <mergeCell ref="AJ114:AK114"/>
+    <mergeCell ref="AL114:AM114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="Y103:Z103"/>
+    <mergeCell ref="AA103:AB103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="AE103:AF103"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AG103:AH103"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AK81:AL81"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AE81:AF81"/>
+    <mergeCell ref="AM103:AN103"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AW41:AX41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AQ58:AR58"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="BI41:BK41"/>
+    <mergeCell ref="G45:P45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:AN45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AQ45:BF45"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AN28"/>
+    <mergeCell ref="AO28:AP28"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="Y10:AN10"/>
+    <mergeCell ref="AQ10:BF10"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G62:P62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="AA70:AQ70"/>
+    <mergeCell ref="AS70:BI70"/>
+    <mergeCell ref="AA36:AQ36"/>
+    <mergeCell ref="AA18:AQ18"/>
+    <mergeCell ref="AS18:BI18"/>
+    <mergeCell ref="AQ24:AS24"/>
+    <mergeCell ref="AQ62:BF62"/>
+    <mergeCell ref="BG62:BH62"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="AO62:AP62"/>
+    <mergeCell ref="BG45:BH45"/>
+    <mergeCell ref="BI58:BK58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="AA58:AB58"/>
+    <mergeCell ref="AC58:AD58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="AW58:AX58"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="AW24:AX24"/>
+    <mergeCell ref="AU24:AV24"/>
+    <mergeCell ref="BG24:BH24"/>
+    <mergeCell ref="BE24:BF24"/>
+    <mergeCell ref="BC24:BD24"/>
+    <mergeCell ref="AS16:BI16"/>
+    <mergeCell ref="AA34:AQ34"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AO24:AP24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:BL115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BG21" sqref="BG21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -2631,22 +6505,22 @@
       <c r="I3" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="87" t="s">
+      <c r="O3" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="88" t="s">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
     </row>
     <row r="4" spans="3:64">
       <c r="C4" s="71" t="s">
@@ -2654,128 +6528,128 @@
       </c>
     </row>
     <row r="5" spans="3:64">
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86">
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95">
         <v>1</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86">
+      <c r="H5" s="95"/>
+      <c r="I5" s="95">
         <v>2</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95">
         <v>3</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86">
+      <c r="L5" s="95"/>
+      <c r="M5" s="95">
         <v>4</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86">
+      <c r="N5" s="95"/>
+      <c r="O5" s="95">
         <v>5</v>
       </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86">
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95">
         <v>6</v>
       </c>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86">
+      <c r="R5" s="95"/>
+      <c r="S5" s="95">
         <v>7</v>
       </c>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86">
+      <c r="T5" s="95"/>
+      <c r="U5" s="95">
         <v>8</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86" t="s">
+      <c r="V5" s="95"/>
+      <c r="W5" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86">
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95">
         <v>1</v>
       </c>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86">
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95">
         <v>2</v>
       </c>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86">
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95">
         <v>3</v>
       </c>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86">
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95">
         <v>4</v>
       </c>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86">
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95">
         <v>5</v>
       </c>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86">
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95">
         <v>6</v>
       </c>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86">
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95">
         <v>7</v>
       </c>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86">
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95">
         <v>8</v>
       </c>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="86" t="s">
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86">
+      <c r="AP5" s="95"/>
+      <c r="AQ5" s="95">
         <v>1</v>
       </c>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86">
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95">
         <v>2</v>
       </c>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86">
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95">
         <v>3</v>
       </c>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="86">
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95">
         <v>4</v>
       </c>
-      <c r="AX5" s="86"/>
-      <c r="AY5" s="86">
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95">
         <v>5</v>
       </c>
-      <c r="AZ5" s="86"/>
-      <c r="BA5" s="86">
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95">
         <v>6</v>
       </c>
-      <c r="BB5" s="86"/>
-      <c r="BC5" s="86">
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95">
         <v>7</v>
       </c>
-      <c r="BD5" s="86"/>
-      <c r="BE5" s="86">
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95">
         <v>8</v>
       </c>
-      <c r="BF5" s="86"/>
-      <c r="BG5" s="86" t="s">
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="BH5" s="86"/>
-      <c r="BJ5" s="86" t="s">
+      <c r="BH5" s="95"/>
+      <c r="BJ5" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="BK5" s="86"/>
-      <c r="BL5" s="86"/>
+      <c r="BK5" s="95"/>
+      <c r="BL5" s="95"/>
     </row>
     <row r="7" spans="3:64">
       <c r="C7" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
@@ -2841,85 +6715,85 @@
     </row>
     <row r="9" spans="3:64">
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="81" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="V9" s="82"/>
-      <c r="W9" s="90" t="s">
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="101"/>
+      <c r="W9" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="81" t="s">
+      <c r="X9" s="105"/>
+      <c r="Y9" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="90" t="s">
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="100"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="101"/>
+      <c r="AO9" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="81" t="s">
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="82"/>
-      <c r="BG9" s="90" t="s">
+      <c r="AR9" s="100"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="100"/>
+      <c r="AY9" s="100"/>
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="100"/>
+      <c r="BF9" s="101"/>
+      <c r="BG9" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="101"/>
-      <c r="BJ9" s="100"/>
-      <c r="BK9" s="99"/>
-      <c r="BL9" s="97"/>
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="84"/>
+      <c r="BL9" s="82"/>
     </row>
     <row r="11" spans="3:64">
       <c r="C11" t="s">
@@ -2989,7 +6863,7 @@
     </row>
     <row r="13" spans="3:64">
       <c r="C13" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
@@ -3078,45 +6952,45 @@
       <c r="V15" s="80"/>
       <c r="W15" s="80"/>
       <c r="X15" s="80"/>
-      <c r="Y15" s="84" t="s">
+      <c r="Y15" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="85"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="98"/>
       <c r="AP15" s="80"/>
-      <c r="AQ15" s="84" t="s">
+      <c r="AQ15" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="89"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="89"/>
-      <c r="BA15" s="89"/>
-      <c r="BB15" s="89"/>
-      <c r="BC15" s="89"/>
-      <c r="BD15" s="89"/>
-      <c r="BE15" s="89"/>
-      <c r="BF15" s="89"/>
-      <c r="BG15" s="85"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="97"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="97"/>
+      <c r="AW15" s="97"/>
+      <c r="AX15" s="97"/>
+      <c r="AY15" s="97"/>
+      <c r="AZ15" s="97"/>
+      <c r="BA15" s="97"/>
+      <c r="BB15" s="97"/>
+      <c r="BC15" s="97"/>
+      <c r="BD15" s="97"/>
+      <c r="BE15" s="97"/>
+      <c r="BF15" s="97"/>
+      <c r="BG15" s="98"/>
       <c r="BH15" s="80"/>
       <c r="BI15" s="77"/>
       <c r="BJ15" s="79"/>
@@ -3148,45 +7022,45 @@
       <c r="V17" s="74"/>
       <c r="W17" s="74"/>
       <c r="X17" s="74"/>
-      <c r="Y17" s="81" t="s">
+      <c r="Y17" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="83"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="83"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="82"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="100"/>
+      <c r="AM17" s="100"/>
+      <c r="AN17" s="100"/>
+      <c r="AO17" s="101"/>
       <c r="AP17" s="74"/>
-      <c r="AQ17" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="83"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="83"/>
-      <c r="AY17" s="83"/>
-      <c r="AZ17" s="83"/>
-      <c r="BA17" s="83"/>
-      <c r="BB17" s="83"/>
-      <c r="BC17" s="83"/>
-      <c r="BD17" s="83"/>
-      <c r="BE17" s="83"/>
-      <c r="BF17" s="83"/>
-      <c r="BG17" s="82"/>
+      <c r="AQ17" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR17" s="100"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="100"/>
+      <c r="AU17" s="100"/>
+      <c r="AV17" s="100"/>
+      <c r="AW17" s="100"/>
+      <c r="AX17" s="100"/>
+      <c r="AY17" s="100"/>
+      <c r="AZ17" s="100"/>
+      <c r="BA17" s="100"/>
+      <c r="BB17" s="100"/>
+      <c r="BC17" s="100"/>
+      <c r="BD17" s="100"/>
+      <c r="BE17" s="100"/>
+      <c r="BF17" s="100"/>
+      <c r="BG17" s="101"/>
       <c r="BH17" s="74"/>
       <c r="BI17" s="74"/>
       <c r="BJ17" s="75"/>
@@ -3261,113 +7135,113 @@
     </row>
     <row r="22" spans="3:64">
       <c r="C22" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="3:64">
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86">
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95">
         <v>1</v>
       </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86">
+      <c r="H23" s="95"/>
+      <c r="I23" s="95">
         <v>2</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86">
+      <c r="J23" s="95"/>
+      <c r="K23" s="95">
         <v>3</v>
       </c>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86">
+      <c r="L23" s="95"/>
+      <c r="M23" s="95">
         <v>4</v>
       </c>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86">
+      <c r="N23" s="95"/>
+      <c r="O23" s="95">
         <v>5</v>
       </c>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86">
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95">
         <v>6</v>
       </c>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86">
+      <c r="R23" s="95"/>
+      <c r="S23" s="95">
         <v>7</v>
       </c>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86">
+      <c r="T23" s="95"/>
+      <c r="U23" s="95">
         <v>8</v>
       </c>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86" t="s">
+      <c r="V23" s="95"/>
+      <c r="W23" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86">
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95">
         <v>1</v>
       </c>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86">
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95">
         <v>2</v>
       </c>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86">
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95">
         <v>3</v>
       </c>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86">
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95">
         <v>4</v>
       </c>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86">
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95">
         <v>5</v>
       </c>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86">
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95">
         <v>6</v>
       </c>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86">
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95">
         <v>7</v>
       </c>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="86">
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="95">
         <v>8</v>
       </c>
-      <c r="AN23" s="86"/>
-      <c r="AO23" s="86" t="s">
+      <c r="AN23" s="95"/>
+      <c r="AO23" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="AP23" s="86"/>
-      <c r="AQ23" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AU23" s="86"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="86"/>
-      <c r="AX23" s="86"/>
-      <c r="AY23" s="86"/>
-      <c r="AZ23" s="86"/>
-      <c r="BA23" s="86"/>
-      <c r="BB23" s="86"/>
-      <c r="BC23" s="86"/>
-      <c r="BD23" s="86"/>
-      <c r="BE23" s="86"/>
-      <c r="BF23" s="86"/>
-      <c r="BG23" s="86"/>
-      <c r="BH23" s="86"/>
+      <c r="AP23" s="95"/>
+      <c r="AQ23" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR23" s="95"/>
+      <c r="AS23" s="95"/>
+      <c r="AU23" s="95"/>
+      <c r="AV23" s="95"/>
+      <c r="AW23" s="95"/>
+      <c r="AX23" s="95"/>
+      <c r="AY23" s="95"/>
+      <c r="AZ23" s="95"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="95"/>
+      <c r="BC23" s="95"/>
+      <c r="BD23" s="95"/>
+      <c r="BE23" s="95"/>
+      <c r="BF23" s="95"/>
+      <c r="BG23" s="95"/>
+      <c r="BH23" s="95"/>
     </row>
     <row r="25" spans="3:64">
       <c r="C25" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -3414,59 +7288,59 @@
     </row>
     <row r="27" spans="3:64">
       <c r="C27" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
       <c r="F27" s="61"/>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="81" t="s">
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="V27" s="82"/>
-      <c r="W27" s="90" t="s">
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" s="101"/>
+      <c r="W27" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="81" t="s">
+      <c r="X27" s="105"/>
+      <c r="Y27" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="90" t="s">
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="101"/>
+      <c r="AO27" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="AP27" s="92"/>
+      <c r="AP27" s="105"/>
       <c r="AQ27" s="70"/>
       <c r="AR27" s="68"/>
       <c r="AS27" s="61"/>
@@ -3520,7 +7394,7 @@
     </row>
     <row r="31" spans="3:64">
       <c r="C31" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D31" s="69"/>
       <c r="E31" s="69"/>
@@ -3590,25 +7464,25 @@
       <c r="V33" s="80"/>
       <c r="W33" s="80"/>
       <c r="X33" s="80"/>
-      <c r="Y33" s="84" t="s">
+      <c r="Y33" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="89"/>
-      <c r="AE33" s="89"/>
-      <c r="AF33" s="89"/>
-      <c r="AG33" s="89"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="89"/>
-      <c r="AJ33" s="89"/>
-      <c r="AK33" s="89"/>
-      <c r="AL33" s="89"/>
-      <c r="AM33" s="89"/>
-      <c r="AN33" s="89"/>
-      <c r="AO33" s="85"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="97"/>
+      <c r="AL33" s="97"/>
+      <c r="AM33" s="97"/>
+      <c r="AN33" s="97"/>
+      <c r="AO33" s="98"/>
       <c r="AP33" s="80"/>
       <c r="AQ33" s="77"/>
       <c r="AR33" s="79"/>
@@ -3639,31 +7513,31 @@
       <c r="V35" s="74"/>
       <c r="W35" s="74"/>
       <c r="X35" s="74"/>
-      <c r="Y35" s="81" t="s">
+      <c r="Y35" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="83"/>
-      <c r="AI35" s="83"/>
-      <c r="AJ35" s="83"/>
-      <c r="AK35" s="83"/>
-      <c r="AL35" s="83"/>
-      <c r="AM35" s="83"/>
-      <c r="AN35" s="83"/>
-      <c r="AO35" s="82"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="100"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="100"/>
+      <c r="AN35" s="100"/>
+      <c r="AO35" s="101"/>
       <c r="AP35" s="73"/>
-      <c r="AQ35" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR35" s="83"/>
-      <c r="AS35" s="83"/>
+      <c r="AQ35" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="100"/>
     </row>
     <row r="37" spans="3:64">
       <c r="C37" t="s">
@@ -3713,120 +7587,120 @@
       <c r="AS37" s="68"/>
     </row>
     <row r="40" spans="3:64">
-      <c r="G40" s="86">
+      <c r="G40" s="95">
         <v>1</v>
       </c>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86">
+      <c r="H40" s="95"/>
+      <c r="I40" s="95">
         <v>2</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86">
+      <c r="J40" s="95"/>
+      <c r="K40" s="95">
         <v>3</v>
       </c>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86">
+      <c r="L40" s="95"/>
+      <c r="M40" s="95">
         <v>4</v>
       </c>
-      <c r="N40" s="86"/>
-      <c r="O40" s="86">
+      <c r="N40" s="95"/>
+      <c r="O40" s="95">
         <v>5</v>
       </c>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86">
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95">
         <v>6</v>
       </c>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86">
+      <c r="R40" s="95"/>
+      <c r="S40" s="95">
         <v>7</v>
       </c>
-      <c r="T40" s="86"/>
-      <c r="U40" s="86">
+      <c r="T40" s="95"/>
+      <c r="U40" s="95">
         <v>8</v>
       </c>
-      <c r="V40" s="86"/>
-      <c r="W40" s="86" t="s">
+      <c r="V40" s="95"/>
+      <c r="W40" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="X40" s="86"/>
-      <c r="Y40" s="86">
+      <c r="X40" s="95"/>
+      <c r="Y40" s="95">
         <v>1</v>
       </c>
-      <c r="Z40" s="86"/>
-      <c r="AA40" s="86">
+      <c r="Z40" s="95"/>
+      <c r="AA40" s="95">
         <v>2</v>
       </c>
-      <c r="AB40" s="86"/>
-      <c r="AC40" s="86">
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="95">
         <v>3</v>
       </c>
-      <c r="AD40" s="86"/>
-      <c r="AE40" s="86">
+      <c r="AD40" s="95"/>
+      <c r="AE40" s="95">
         <v>4</v>
       </c>
-      <c r="AF40" s="86"/>
-      <c r="AG40" s="86">
+      <c r="AF40" s="95"/>
+      <c r="AG40" s="95">
         <v>5</v>
       </c>
-      <c r="AH40" s="86"/>
-      <c r="AI40" s="86">
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="95">
         <v>6</v>
       </c>
-      <c r="AJ40" s="86"/>
-      <c r="AK40" s="86">
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="95">
         <v>7</v>
       </c>
-      <c r="AL40" s="86"/>
-      <c r="AM40" s="86">
+      <c r="AL40" s="95"/>
+      <c r="AM40" s="95">
         <v>8</v>
       </c>
-      <c r="AN40" s="86"/>
-      <c r="AO40" s="86" t="s">
+      <c r="AN40" s="95"/>
+      <c r="AO40" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="AP40" s="86"/>
-      <c r="AQ40" s="86">
+      <c r="AP40" s="95"/>
+      <c r="AQ40" s="95">
         <v>1</v>
       </c>
-      <c r="AR40" s="86"/>
-      <c r="AS40" s="86">
+      <c r="AR40" s="95"/>
+      <c r="AS40" s="95">
         <v>2</v>
       </c>
-      <c r="AT40" s="86"/>
-      <c r="AU40" s="86">
+      <c r="AT40" s="95"/>
+      <c r="AU40" s="95">
         <v>3</v>
       </c>
-      <c r="AV40" s="86"/>
-      <c r="AW40" s="86">
+      <c r="AV40" s="95"/>
+      <c r="AW40" s="95">
         <v>4</v>
       </c>
-      <c r="AX40" s="86"/>
-      <c r="AY40" s="86">
+      <c r="AX40" s="95"/>
+      <c r="AY40" s="95">
         <v>5</v>
       </c>
-      <c r="AZ40" s="86"/>
-      <c r="BA40" s="86">
+      <c r="AZ40" s="95"/>
+      <c r="BA40" s="95">
         <v>6</v>
       </c>
-      <c r="BB40" s="86"/>
-      <c r="BC40" s="86">
+      <c r="BB40" s="95"/>
+      <c r="BC40" s="95">
         <v>7</v>
       </c>
-      <c r="BD40" s="86"/>
-      <c r="BE40" s="86">
+      <c r="BD40" s="95"/>
+      <c r="BE40" s="95">
         <v>8</v>
       </c>
-      <c r="BF40" s="86"/>
-      <c r="BG40" s="86" t="s">
+      <c r="BF40" s="95"/>
+      <c r="BG40" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="BH40" s="86"/>
-      <c r="BI40" s="86" t="s">
+      <c r="BH40" s="95"/>
+      <c r="BI40" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="BJ40" s="86"/>
-      <c r="BK40" s="86"/>
-      <c r="BL40" s="72"/>
+      <c r="BJ40" s="95"/>
+      <c r="BK40" s="95"/>
+      <c r="BL40" s="81"/>
     </row>
     <row r="42" spans="3:64">
       <c r="F42" s="68"/>
@@ -3892,80 +7766,80 @@
     <row r="44" spans="3:64">
       <c r="E44" s="1"/>
       <c r="F44" s="42"/>
-      <c r="G44" s="81" t="s">
+      <c r="G44" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="81" t="s">
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="V44" s="82"/>
-      <c r="W44" s="90" t="s">
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="V44" s="101"/>
+      <c r="W44" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="84" t="s">
+      <c r="X44" s="105"/>
+      <c r="Y44" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="85"/>
-      <c r="AO44" s="93" t="s">
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+      <c r="AH44" s="97"/>
+      <c r="AI44" s="97"/>
+      <c r="AJ44" s="97"/>
+      <c r="AK44" s="97"/>
+      <c r="AL44" s="97"/>
+      <c r="AM44" s="97"/>
+      <c r="AN44" s="98"/>
+      <c r="AO44" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="AP44" s="94"/>
-      <c r="AQ44" s="84" t="s">
+      <c r="AP44" s="107"/>
+      <c r="AQ44" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="AR44" s="89"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
-      <c r="AV44" s="89"/>
-      <c r="AW44" s="89"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="89"/>
-      <c r="BA44" s="89"/>
-      <c r="BB44" s="89"/>
-      <c r="BC44" s="89"/>
-      <c r="BD44" s="89"/>
-      <c r="BE44" s="89"/>
-      <c r="BF44" s="85"/>
-      <c r="BG44" s="95" t="s">
+      <c r="AR44" s="97"/>
+      <c r="AS44" s="97"/>
+      <c r="AT44" s="97"/>
+      <c r="AU44" s="97"/>
+      <c r="AV44" s="97"/>
+      <c r="AW44" s="97"/>
+      <c r="AX44" s="97"/>
+      <c r="AY44" s="97"/>
+      <c r="AZ44" s="97"/>
+      <c r="BA44" s="97"/>
+      <c r="BB44" s="97"/>
+      <c r="BC44" s="97"/>
+      <c r="BD44" s="97"/>
+      <c r="BE44" s="97"/>
+      <c r="BF44" s="98"/>
+      <c r="BG44" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="BH44" s="96"/>
-      <c r="BI44" s="101"/>
-      <c r="BJ44" s="100"/>
-      <c r="BK44" s="99"/>
-      <c r="BL44" s="97"/>
+      <c r="BH44" s="103"/>
+      <c r="BI44" s="86"/>
+      <c r="BJ44" s="85"/>
+      <c r="BK44" s="84"/>
+      <c r="BL44" s="82"/>
     </row>
     <row r="46" spans="3:64">
       <c r="F46" s="69"/>
@@ -4151,69 +8025,69 @@
       <c r="BL50" s="80"/>
     </row>
     <row r="52" spans="3:64">
-      <c r="F52" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="83"/>
-      <c r="V52" s="83"/>
-      <c r="W52" s="83"/>
-      <c r="X52" s="83"/>
-      <c r="Y52" s="83"/>
-      <c r="Z52" s="83"/>
-      <c r="AA52" s="83"/>
-      <c r="AB52" s="83"/>
-      <c r="AC52" s="83"/>
-      <c r="AD52" s="83"/>
-      <c r="AE52" s="83"/>
-      <c r="AF52" s="83"/>
-      <c r="AG52" s="83"/>
-      <c r="AH52" s="83"/>
-      <c r="AI52" s="83"/>
-      <c r="AJ52" s="83"/>
-      <c r="AK52" s="83"/>
-      <c r="AL52" s="82"/>
-      <c r="AM52" s="81" t="s">
+      <c r="F52" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="100"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="100"/>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="100"/>
+      <c r="AB52" s="100"/>
+      <c r="AC52" s="100"/>
+      <c r="AD52" s="100"/>
+      <c r="AE52" s="100"/>
+      <c r="AF52" s="100"/>
+      <c r="AG52" s="100"/>
+      <c r="AH52" s="100"/>
+      <c r="AI52" s="100"/>
+      <c r="AJ52" s="100"/>
+      <c r="AK52" s="100"/>
+      <c r="AL52" s="101"/>
+      <c r="AM52" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="AN52" s="83"/>
-      <c r="AO52" s="83"/>
-      <c r="AP52" s="83"/>
-      <c r="AQ52" s="83"/>
-      <c r="AR52" s="83"/>
-      <c r="AS52" s="83"/>
-      <c r="AT52" s="83"/>
-      <c r="AU52" s="83"/>
-      <c r="AV52" s="83"/>
-      <c r="AW52" s="83"/>
-      <c r="AX52" s="83"/>
-      <c r="AY52" s="83"/>
-      <c r="AZ52" s="83"/>
-      <c r="BA52" s="83"/>
-      <c r="BB52" s="83"/>
-      <c r="BC52" s="83"/>
-      <c r="BD52" s="82"/>
-      <c r="BE52" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="BF52" s="83"/>
-      <c r="BG52" s="83"/>
-      <c r="BH52" s="83"/>
-      <c r="BI52" s="83"/>
-      <c r="BJ52" s="82"/>
+      <c r="AN52" s="100"/>
+      <c r="AO52" s="100"/>
+      <c r="AP52" s="100"/>
+      <c r="AQ52" s="100"/>
+      <c r="AR52" s="100"/>
+      <c r="AS52" s="100"/>
+      <c r="AT52" s="100"/>
+      <c r="AU52" s="100"/>
+      <c r="AV52" s="100"/>
+      <c r="AW52" s="100"/>
+      <c r="AX52" s="100"/>
+      <c r="AY52" s="100"/>
+      <c r="AZ52" s="100"/>
+      <c r="BA52" s="100"/>
+      <c r="BB52" s="100"/>
+      <c r="BC52" s="100"/>
+      <c r="BD52" s="101"/>
+      <c r="BE52" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF52" s="100"/>
+      <c r="BG52" s="100"/>
+      <c r="BH52" s="100"/>
+      <c r="BI52" s="100"/>
+      <c r="BJ52" s="101"/>
       <c r="BK52" s="80"/>
       <c r="BL52" s="80"/>
     </row>
@@ -4297,133 +8171,133 @@
         <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="3:64">
-      <c r="D57" s="86" t="s">
+      <c r="D57" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86">
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95">
         <v>1</v>
       </c>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86">
+      <c r="H57" s="95"/>
+      <c r="I57" s="95">
         <v>2</v>
       </c>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86">
+      <c r="J57" s="95"/>
+      <c r="K57" s="95">
         <v>3</v>
       </c>
-      <c r="L57" s="86"/>
-      <c r="M57" s="86">
+      <c r="L57" s="95"/>
+      <c r="M57" s="95">
         <v>4</v>
       </c>
-      <c r="N57" s="86"/>
-      <c r="O57" s="86">
+      <c r="N57" s="95"/>
+      <c r="O57" s="95">
         <v>5</v>
       </c>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="86">
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95">
         <v>6</v>
       </c>
-      <c r="R57" s="86"/>
-      <c r="S57" s="86">
+      <c r="R57" s="95"/>
+      <c r="S57" s="95">
         <v>7</v>
       </c>
-      <c r="T57" s="86"/>
-      <c r="U57" s="86">
+      <c r="T57" s="95"/>
+      <c r="U57" s="95">
         <v>8</v>
       </c>
-      <c r="V57" s="86"/>
-      <c r="W57" s="86" t="s">
+      <c r="V57" s="95"/>
+      <c r="W57" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="X57" s="86"/>
-      <c r="Y57" s="86">
+      <c r="X57" s="95"/>
+      <c r="Y57" s="95">
         <v>1</v>
       </c>
-      <c r="Z57" s="86"/>
-      <c r="AA57" s="86">
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95">
         <v>2</v>
       </c>
-      <c r="AB57" s="86"/>
-      <c r="AC57" s="86">
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="95">
         <v>3</v>
       </c>
-      <c r="AD57" s="86"/>
-      <c r="AE57" s="86">
+      <c r="AD57" s="95"/>
+      <c r="AE57" s="95">
         <v>4</v>
       </c>
-      <c r="AF57" s="86"/>
-      <c r="AG57" s="86">
+      <c r="AF57" s="95"/>
+      <c r="AG57" s="95">
         <v>5</v>
       </c>
-      <c r="AH57" s="86"/>
-      <c r="AI57" s="86">
+      <c r="AH57" s="95"/>
+      <c r="AI57" s="95">
         <v>6</v>
       </c>
-      <c r="AJ57" s="86"/>
-      <c r="AK57" s="86">
+      <c r="AJ57" s="95"/>
+      <c r="AK57" s="95">
         <v>7</v>
       </c>
-      <c r="AL57" s="86"/>
-      <c r="AM57" s="86">
+      <c r="AL57" s="95"/>
+      <c r="AM57" s="95">
         <v>8</v>
       </c>
-      <c r="AN57" s="86"/>
-      <c r="AO57" s="86" t="s">
+      <c r="AN57" s="95"/>
+      <c r="AO57" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="AP57" s="86"/>
-      <c r="AQ57" s="86">
+      <c r="AP57" s="95"/>
+      <c r="AQ57" s="95">
         <v>1</v>
       </c>
-      <c r="AR57" s="86"/>
-      <c r="AS57" s="86">
+      <c r="AR57" s="95"/>
+      <c r="AS57" s="95">
         <v>2</v>
       </c>
-      <c r="AT57" s="86"/>
-      <c r="AU57" s="86">
+      <c r="AT57" s="95"/>
+      <c r="AU57" s="95">
         <v>3</v>
       </c>
-      <c r="AV57" s="86"/>
-      <c r="AW57" s="86">
+      <c r="AV57" s="95"/>
+      <c r="AW57" s="95">
         <v>4</v>
       </c>
-      <c r="AX57" s="86"/>
-      <c r="AY57" s="86">
+      <c r="AX57" s="95"/>
+      <c r="AY57" s="95">
         <v>5</v>
       </c>
-      <c r="AZ57" s="86"/>
-      <c r="BA57" s="86">
+      <c r="AZ57" s="95"/>
+      <c r="BA57" s="95">
         <v>6</v>
       </c>
-      <c r="BB57" s="86"/>
-      <c r="BC57" s="86">
+      <c r="BB57" s="95"/>
+      <c r="BC57" s="95">
         <v>7</v>
       </c>
-      <c r="BD57" s="86"/>
-      <c r="BE57" s="86">
+      <c r="BD57" s="95"/>
+      <c r="BE57" s="95">
         <v>8</v>
       </c>
-      <c r="BF57" s="86"/>
-      <c r="BG57" s="86" t="s">
+      <c r="BF57" s="95"/>
+      <c r="BG57" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="BH57" s="86"/>
-      <c r="BI57" s="86" t="s">
+      <c r="BH57" s="95"/>
+      <c r="BI57" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="BJ57" s="86"/>
-      <c r="BK57" s="86"/>
-      <c r="BL57" s="72"/>
+      <c r="BJ57" s="95"/>
+      <c r="BK57" s="95"/>
+      <c r="BL57" s="81"/>
     </row>
     <row r="59" spans="3:64">
       <c r="C59" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D59" s="68"/>
       <c r="E59" s="68"/>
@@ -4489,37 +8363,37 @@
     </row>
     <row r="61" spans="3:64">
       <c r="C61" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D61" s="68"/>
       <c r="E61" s="68"/>
       <c r="F61" s="61"/>
-      <c r="G61" s="81" t="s">
+      <c r="G61" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="81" t="s">
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="82"/>
-      <c r="U61" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="V61" s="82"/>
-      <c r="W61" s="90" t="s">
+      <c r="R61" s="100"/>
+      <c r="S61" s="100"/>
+      <c r="T61" s="101"/>
+      <c r="U61" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="V61" s="101"/>
+      <c r="W61" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="X61" s="92"/>
+      <c r="X61" s="105"/>
       <c r="Y61" s="77"/>
       <c r="Z61" s="78"/>
       <c r="AA61" s="78"/>
@@ -4536,36 +8410,36 @@
       <c r="AL61" s="78"/>
       <c r="AM61" s="78"/>
       <c r="AN61" s="79"/>
-      <c r="AO61" s="93" t="s">
+      <c r="AO61" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="AP61" s="94"/>
-      <c r="AQ61" s="84" t="s">
+      <c r="AP61" s="107"/>
+      <c r="AQ61" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="AR61" s="89"/>
-      <c r="AS61" s="89"/>
-      <c r="AT61" s="89"/>
-      <c r="AU61" s="89"/>
-      <c r="AV61" s="89"/>
-      <c r="AW61" s="89"/>
-      <c r="AX61" s="89"/>
-      <c r="AY61" s="89"/>
-      <c r="AZ61" s="89"/>
-      <c r="BA61" s="89"/>
-      <c r="BB61" s="89"/>
-      <c r="BC61" s="89"/>
-      <c r="BD61" s="89"/>
-      <c r="BE61" s="89"/>
-      <c r="BF61" s="85"/>
-      <c r="BG61" s="95" t="s">
+      <c r="AR61" s="97"/>
+      <c r="AS61" s="97"/>
+      <c r="AT61" s="97"/>
+      <c r="AU61" s="97"/>
+      <c r="AV61" s="97"/>
+      <c r="AW61" s="97"/>
+      <c r="AX61" s="97"/>
+      <c r="AY61" s="97"/>
+      <c r="AZ61" s="97"/>
+      <c r="BA61" s="97"/>
+      <c r="BB61" s="97"/>
+      <c r="BC61" s="97"/>
+      <c r="BD61" s="97"/>
+      <c r="BE61" s="97"/>
+      <c r="BF61" s="98"/>
+      <c r="BG61" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="BH61" s="96"/>
-      <c r="BI61" s="101"/>
-      <c r="BJ61" s="100"/>
-      <c r="BK61" s="99"/>
-      <c r="BL61" s="97"/>
+      <c r="BH61" s="103"/>
+      <c r="BI61" s="86"/>
+      <c r="BJ61" s="85"/>
+      <c r="BK61" s="84"/>
+      <c r="BL61" s="82"/>
     </row>
     <row r="63" spans="3:64">
       <c r="C63" t="s">
@@ -4635,7 +8509,7 @@
     </row>
     <row r="65" spans="3:64">
       <c r="C65" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D65" s="69"/>
       <c r="E65" s="69"/>
@@ -4790,45 +8664,45 @@
       <c r="V69" s="74"/>
       <c r="W69" s="74"/>
       <c r="X69" s="74"/>
-      <c r="Y69" s="81" t="s">
+      <c r="Y69" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="Z69" s="83"/>
-      <c r="AA69" s="83"/>
-      <c r="AB69" s="83"/>
-      <c r="AC69" s="83"/>
-      <c r="AD69" s="83"/>
-      <c r="AE69" s="83"/>
-      <c r="AF69" s="83"/>
-      <c r="AG69" s="83"/>
-      <c r="AH69" s="83"/>
-      <c r="AI69" s="83"/>
-      <c r="AJ69" s="83"/>
-      <c r="AK69" s="83"/>
-      <c r="AL69" s="83"/>
-      <c r="AM69" s="83"/>
-      <c r="AN69" s="83"/>
-      <c r="AO69" s="82"/>
+      <c r="Z69" s="100"/>
+      <c r="AA69" s="100"/>
+      <c r="AB69" s="100"/>
+      <c r="AC69" s="100"/>
+      <c r="AD69" s="100"/>
+      <c r="AE69" s="100"/>
+      <c r="AF69" s="100"/>
+      <c r="AG69" s="100"/>
+      <c r="AH69" s="100"/>
+      <c r="AI69" s="100"/>
+      <c r="AJ69" s="100"/>
+      <c r="AK69" s="100"/>
+      <c r="AL69" s="100"/>
+      <c r="AM69" s="100"/>
+      <c r="AN69" s="100"/>
+      <c r="AO69" s="101"/>
       <c r="AP69" s="74"/>
-      <c r="AQ69" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR69" s="83"/>
-      <c r="AS69" s="83"/>
-      <c r="AT69" s="83"/>
-      <c r="AU69" s="83"/>
-      <c r="AV69" s="83"/>
-      <c r="AW69" s="83"/>
-      <c r="AX69" s="83"/>
-      <c r="AY69" s="83"/>
-      <c r="AZ69" s="83"/>
-      <c r="BA69" s="83"/>
-      <c r="BB69" s="83"/>
-      <c r="BC69" s="83"/>
-      <c r="BD69" s="83"/>
-      <c r="BE69" s="83"/>
-      <c r="BF69" s="83"/>
-      <c r="BG69" s="82"/>
+      <c r="AQ69" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR69" s="100"/>
+      <c r="AS69" s="100"/>
+      <c r="AT69" s="100"/>
+      <c r="AU69" s="100"/>
+      <c r="AV69" s="100"/>
+      <c r="AW69" s="100"/>
+      <c r="AX69" s="100"/>
+      <c r="AY69" s="100"/>
+      <c r="AZ69" s="100"/>
+      <c r="BA69" s="100"/>
+      <c r="BB69" s="100"/>
+      <c r="BC69" s="100"/>
+      <c r="BD69" s="100"/>
+      <c r="BE69" s="100"/>
+      <c r="BF69" s="100"/>
+      <c r="BG69" s="101"/>
       <c r="BH69" s="74"/>
       <c r="BI69" s="74"/>
       <c r="BJ69" s="75"/>
@@ -5000,7 +8874,7 @@
     </row>
     <row r="78" spans="3:64">
       <c r="C78" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D78" s="69"/>
       <c r="E78" s="69"/>
@@ -5053,72 +8927,72 @@
       <c r="D80" s="69"/>
       <c r="E80" s="69"/>
       <c r="F80" s="69"/>
-      <c r="G80" s="84">
+      <c r="G80" s="96">
         <v>7</v>
       </c>
-      <c r="H80" s="85"/>
-      <c r="I80" s="84">
+      <c r="H80" s="98"/>
+      <c r="I80" s="96">
         <v>6</v>
       </c>
-      <c r="J80" s="85"/>
-      <c r="K80" s="84">
+      <c r="J80" s="98"/>
+      <c r="K80" s="96">
         <v>5</v>
       </c>
-      <c r="L80" s="85"/>
-      <c r="M80" s="84">
+      <c r="L80" s="98"/>
+      <c r="M80" s="96">
         <v>4</v>
       </c>
-      <c r="N80" s="85"/>
-      <c r="O80" s="84">
+      <c r="N80" s="98"/>
+      <c r="O80" s="96">
         <v>3</v>
       </c>
-      <c r="P80" s="85"/>
-      <c r="Q80" s="84">
+      <c r="P80" s="98"/>
+      <c r="Q80" s="96">
         <v>2</v>
       </c>
-      <c r="R80" s="85"/>
-      <c r="S80" s="84">
+      <c r="R80" s="98"/>
+      <c r="S80" s="96">
         <v>1</v>
       </c>
-      <c r="T80" s="85"/>
-      <c r="U80" s="84">
+      <c r="T80" s="98"/>
+      <c r="U80" s="96">
         <v>0</v>
       </c>
-      <c r="V80" s="85"/>
+      <c r="V80" s="98"/>
       <c r="W80" s="69"/>
       <c r="X80" s="69"/>
-      <c r="Y80" s="84">
+      <c r="Y80" s="96">
         <v>7</v>
       </c>
-      <c r="Z80" s="85"/>
-      <c r="AA80" s="84">
+      <c r="Z80" s="98"/>
+      <c r="AA80" s="96">
         <v>6</v>
       </c>
-      <c r="AB80" s="85"/>
-      <c r="AC80" s="84">
+      <c r="AB80" s="98"/>
+      <c r="AC80" s="96">
         <v>5</v>
       </c>
-      <c r="AD80" s="85"/>
-      <c r="AE80" s="84">
+      <c r="AD80" s="98"/>
+      <c r="AE80" s="96">
         <v>4</v>
       </c>
-      <c r="AF80" s="85"/>
-      <c r="AG80" s="84">
+      <c r="AF80" s="98"/>
+      <c r="AG80" s="96">
         <v>3</v>
       </c>
-      <c r="AH80" s="85"/>
-      <c r="AI80" s="84">
+      <c r="AH80" s="98"/>
+      <c r="AI80" s="96">
         <v>2</v>
       </c>
-      <c r="AJ80" s="85"/>
-      <c r="AK80" s="84">
+      <c r="AJ80" s="98"/>
+      <c r="AK80" s="96">
         <v>1</v>
       </c>
-      <c r="AL80" s="85"/>
-      <c r="AM80" s="84">
+      <c r="AL80" s="98"/>
+      <c r="AM80" s="96">
         <v>0</v>
       </c>
-      <c r="AN80" s="85"/>
+      <c r="AN80" s="98"/>
       <c r="AO80" s="69"/>
       <c r="AP80" s="69"/>
       <c r="AQ80" s="69"/>
@@ -5134,72 +9008,72 @@
       <c r="E82" s="69"/>
       <c r="F82" s="69"/>
       <c r="G82" s="69"/>
-      <c r="H82" s="81">
+      <c r="H82" s="99">
         <v>7</v>
       </c>
-      <c r="I82" s="82"/>
-      <c r="J82" s="81">
+      <c r="I82" s="101"/>
+      <c r="J82" s="99">
         <v>6</v>
       </c>
-      <c r="K82" s="82"/>
-      <c r="L82" s="81">
+      <c r="K82" s="101"/>
+      <c r="L82" s="99">
         <v>5</v>
       </c>
-      <c r="M82" s="82"/>
-      <c r="N82" s="81">
+      <c r="M82" s="101"/>
+      <c r="N82" s="99">
         <v>4</v>
       </c>
-      <c r="O82" s="82"/>
-      <c r="P82" s="81">
+      <c r="O82" s="101"/>
+      <c r="P82" s="99">
         <v>3</v>
       </c>
-      <c r="Q82" s="82"/>
-      <c r="R82" s="81">
+      <c r="Q82" s="101"/>
+      <c r="R82" s="99">
         <v>2</v>
       </c>
-      <c r="S82" s="82"/>
-      <c r="T82" s="81">
+      <c r="S82" s="101"/>
+      <c r="T82" s="99">
         <v>1</v>
       </c>
-      <c r="U82" s="82"/>
-      <c r="V82" s="81">
+      <c r="U82" s="101"/>
+      <c r="V82" s="99">
         <v>0</v>
       </c>
-      <c r="W82" s="82"/>
+      <c r="W82" s="101"/>
       <c r="X82" s="69"/>
       <c r="Y82" s="69"/>
-      <c r="Z82" s="81">
+      <c r="Z82" s="99">
         <v>7</v>
       </c>
-      <c r="AA82" s="82"/>
-      <c r="AB82" s="81">
+      <c r="AA82" s="101"/>
+      <c r="AB82" s="99">
         <v>6</v>
       </c>
-      <c r="AC82" s="82"/>
-      <c r="AD82" s="81">
+      <c r="AC82" s="101"/>
+      <c r="AD82" s="99">
         <v>5</v>
       </c>
-      <c r="AE82" s="82"/>
-      <c r="AF82" s="81">
+      <c r="AE82" s="101"/>
+      <c r="AF82" s="99">
         <v>4</v>
       </c>
-      <c r="AG82" s="82"/>
-      <c r="AH82" s="81">
+      <c r="AG82" s="101"/>
+      <c r="AH82" s="99">
         <v>3</v>
       </c>
-      <c r="AI82" s="82"/>
-      <c r="AJ82" s="81">
+      <c r="AI82" s="101"/>
+      <c r="AJ82" s="99">
         <v>2</v>
       </c>
-      <c r="AK82" s="82"/>
-      <c r="AL82" s="81">
+      <c r="AK82" s="101"/>
+      <c r="AL82" s="99">
         <v>1</v>
       </c>
-      <c r="AM82" s="82"/>
-      <c r="AN82" s="81">
+      <c r="AM82" s="101"/>
+      <c r="AN82" s="99">
         <v>0</v>
       </c>
-      <c r="AO82" s="82"/>
+      <c r="AO82" s="101"/>
       <c r="AP82" s="69"/>
       <c r="AQ82" s="69"/>
       <c r="AR82" s="69"/>
@@ -5321,7 +9195,7 @@
     </row>
     <row r="89" spans="3:64">
       <c r="C89" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D89" s="69"/>
       <c r="E89" s="69"/>
@@ -5375,72 +9249,72 @@
       <c r="E91" s="69"/>
       <c r="F91" s="69"/>
       <c r="G91" s="69"/>
-      <c r="H91" s="84">
+      <c r="H91" s="96">
         <v>7</v>
       </c>
-      <c r="I91" s="85"/>
-      <c r="J91" s="84">
+      <c r="I91" s="98"/>
+      <c r="J91" s="96">
         <v>6</v>
       </c>
-      <c r="K91" s="85"/>
-      <c r="L91" s="84">
+      <c r="K91" s="98"/>
+      <c r="L91" s="96">
         <v>5</v>
       </c>
-      <c r="M91" s="85"/>
-      <c r="N91" s="84">
+      <c r="M91" s="98"/>
+      <c r="N91" s="96">
         <v>4</v>
       </c>
-      <c r="O91" s="85"/>
-      <c r="P91" s="84">
+      <c r="O91" s="98"/>
+      <c r="P91" s="96">
         <v>3</v>
       </c>
-      <c r="Q91" s="85"/>
-      <c r="R91" s="84">
+      <c r="Q91" s="98"/>
+      <c r="R91" s="96">
         <v>2</v>
       </c>
-      <c r="S91" s="85"/>
-      <c r="T91" s="84">
+      <c r="S91" s="98"/>
+      <c r="T91" s="96">
         <v>1</v>
       </c>
-      <c r="U91" s="85"/>
-      <c r="V91" s="84">
+      <c r="U91" s="98"/>
+      <c r="V91" s="96">
         <v>0</v>
       </c>
-      <c r="W91" s="85"/>
+      <c r="W91" s="98"/>
       <c r="X91" s="69"/>
       <c r="Y91" s="69"/>
-      <c r="Z91" s="84">
+      <c r="Z91" s="96">
         <v>7</v>
       </c>
-      <c r="AA91" s="85"/>
-      <c r="AB91" s="84">
+      <c r="AA91" s="98"/>
+      <c r="AB91" s="96">
         <v>6</v>
       </c>
-      <c r="AC91" s="85"/>
-      <c r="AD91" s="84">
+      <c r="AC91" s="98"/>
+      <c r="AD91" s="96">
         <v>5</v>
       </c>
-      <c r="AE91" s="85"/>
-      <c r="AF91" s="84">
+      <c r="AE91" s="98"/>
+      <c r="AF91" s="96">
         <v>4</v>
       </c>
-      <c r="AG91" s="85"/>
-      <c r="AH91" s="84">
+      <c r="AG91" s="98"/>
+      <c r="AH91" s="96">
         <v>3</v>
       </c>
-      <c r="AI91" s="85"/>
-      <c r="AJ91" s="84">
+      <c r="AI91" s="98"/>
+      <c r="AJ91" s="96">
         <v>2</v>
       </c>
-      <c r="AK91" s="85"/>
-      <c r="AL91" s="84">
+      <c r="AK91" s="98"/>
+      <c r="AL91" s="96">
         <v>1</v>
       </c>
-      <c r="AM91" s="85"/>
-      <c r="AN91" s="84">
+      <c r="AM91" s="98"/>
+      <c r="AN91" s="96">
         <v>0</v>
       </c>
-      <c r="AO91" s="85"/>
+      <c r="AO91" s="98"/>
       <c r="AP91" s="69"/>
       <c r="AQ91" s="69"/>
       <c r="AR91" s="69"/>
@@ -5454,72 +9328,72 @@
       <c r="D93" s="69"/>
       <c r="E93" s="69"/>
       <c r="F93" s="69"/>
-      <c r="G93" s="81">
+      <c r="G93" s="99">
         <v>7</v>
       </c>
-      <c r="H93" s="82"/>
-      <c r="I93" s="81">
+      <c r="H93" s="101"/>
+      <c r="I93" s="99">
         <v>6</v>
       </c>
-      <c r="J93" s="82"/>
-      <c r="K93" s="81">
+      <c r="J93" s="101"/>
+      <c r="K93" s="99">
         <v>5</v>
       </c>
-      <c r="L93" s="82"/>
-      <c r="M93" s="81">
+      <c r="L93" s="101"/>
+      <c r="M93" s="99">
         <v>4</v>
       </c>
-      <c r="N93" s="82"/>
-      <c r="O93" s="81">
+      <c r="N93" s="101"/>
+      <c r="O93" s="99">
         <v>3</v>
       </c>
-      <c r="P93" s="82"/>
-      <c r="Q93" s="81">
+      <c r="P93" s="101"/>
+      <c r="Q93" s="99">
         <v>2</v>
       </c>
-      <c r="R93" s="82"/>
-      <c r="S93" s="81">
+      <c r="R93" s="101"/>
+      <c r="S93" s="99">
         <v>1</v>
       </c>
-      <c r="T93" s="82"/>
-      <c r="U93" s="81">
+      <c r="T93" s="101"/>
+      <c r="U93" s="99">
         <v>0</v>
       </c>
-      <c r="V93" s="82"/>
+      <c r="V93" s="101"/>
       <c r="W93" s="69"/>
       <c r="X93" s="69"/>
-      <c r="Y93" s="81">
+      <c r="Y93" s="99">
         <v>7</v>
       </c>
-      <c r="Z93" s="82"/>
-      <c r="AA93" s="81">
+      <c r="Z93" s="101"/>
+      <c r="AA93" s="99">
         <v>6</v>
       </c>
-      <c r="AB93" s="82"/>
-      <c r="AC93" s="81">
+      <c r="AB93" s="101"/>
+      <c r="AC93" s="99">
         <v>5</v>
       </c>
-      <c r="AD93" s="82"/>
-      <c r="AE93" s="81">
+      <c r="AD93" s="101"/>
+      <c r="AE93" s="99">
         <v>4</v>
       </c>
-      <c r="AF93" s="82"/>
-      <c r="AG93" s="81">
+      <c r="AF93" s="101"/>
+      <c r="AG93" s="99">
         <v>3</v>
       </c>
-      <c r="AH93" s="82"/>
-      <c r="AI93" s="81">
+      <c r="AH93" s="101"/>
+      <c r="AI93" s="99">
         <v>2</v>
       </c>
-      <c r="AJ93" s="82"/>
-      <c r="AK93" s="81">
+      <c r="AJ93" s="101"/>
+      <c r="AK93" s="99">
         <v>1</v>
       </c>
-      <c r="AL93" s="82"/>
-      <c r="AM93" s="81">
+      <c r="AL93" s="101"/>
+      <c r="AM93" s="99">
         <v>0</v>
       </c>
-      <c r="AN93" s="82"/>
+      <c r="AN93" s="101"/>
       <c r="AO93" s="69"/>
       <c r="AP93" s="69"/>
       <c r="AQ93" s="69"/>
@@ -5641,7 +9515,7 @@
     </row>
     <row r="100" spans="3:64">
       <c r="C100" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D100" s="68"/>
       <c r="E100" s="68"/>
@@ -5694,72 +9568,72 @@
       <c r="D102" s="69"/>
       <c r="E102" s="69"/>
       <c r="F102" s="69"/>
-      <c r="G102" s="84">
+      <c r="G102" s="96">
         <v>7</v>
       </c>
-      <c r="H102" s="85"/>
-      <c r="I102" s="84">
+      <c r="H102" s="98"/>
+      <c r="I102" s="96">
         <v>6</v>
       </c>
-      <c r="J102" s="85"/>
-      <c r="K102" s="84">
+      <c r="J102" s="98"/>
+      <c r="K102" s="96">
         <v>5</v>
       </c>
-      <c r="L102" s="85"/>
-      <c r="M102" s="84">
+      <c r="L102" s="98"/>
+      <c r="M102" s="96">
         <v>4</v>
       </c>
-      <c r="N102" s="85"/>
-      <c r="O102" s="84">
+      <c r="N102" s="98"/>
+      <c r="O102" s="96">
         <v>3</v>
       </c>
-      <c r="P102" s="85"/>
-      <c r="Q102" s="84">
+      <c r="P102" s="98"/>
+      <c r="Q102" s="96">
         <v>2</v>
       </c>
-      <c r="R102" s="85"/>
-      <c r="S102" s="84">
+      <c r="R102" s="98"/>
+      <c r="S102" s="96">
         <v>1</v>
       </c>
-      <c r="T102" s="85"/>
-      <c r="U102" s="84">
+      <c r="T102" s="98"/>
+      <c r="U102" s="96">
         <v>0</v>
       </c>
-      <c r="V102" s="85"/>
+      <c r="V102" s="98"/>
       <c r="W102" s="69"/>
       <c r="X102" s="69"/>
-      <c r="Y102" s="84">
+      <c r="Y102" s="96">
         <v>7</v>
       </c>
-      <c r="Z102" s="85"/>
-      <c r="AA102" s="84">
+      <c r="Z102" s="98"/>
+      <c r="AA102" s="96">
         <v>6</v>
       </c>
-      <c r="AB102" s="85"/>
-      <c r="AC102" s="84">
+      <c r="AB102" s="98"/>
+      <c r="AC102" s="96">
         <v>5</v>
       </c>
-      <c r="AD102" s="85"/>
-      <c r="AE102" s="84">
+      <c r="AD102" s="98"/>
+      <c r="AE102" s="96">
         <v>4</v>
       </c>
-      <c r="AF102" s="85"/>
-      <c r="AG102" s="84">
+      <c r="AF102" s="98"/>
+      <c r="AG102" s="96">
         <v>3</v>
       </c>
-      <c r="AH102" s="85"/>
-      <c r="AI102" s="84">
+      <c r="AH102" s="98"/>
+      <c r="AI102" s="96">
         <v>2</v>
       </c>
-      <c r="AJ102" s="85"/>
-      <c r="AK102" s="84">
+      <c r="AJ102" s="98"/>
+      <c r="AK102" s="96">
         <v>1</v>
       </c>
-      <c r="AL102" s="85"/>
-      <c r="AM102" s="84">
+      <c r="AL102" s="98"/>
+      <c r="AM102" s="96">
         <v>0</v>
       </c>
-      <c r="AN102" s="85"/>
+      <c r="AN102" s="98"/>
       <c r="AO102" s="69"/>
       <c r="AP102" s="69"/>
       <c r="AQ102" s="69"/>
@@ -5775,72 +9649,72 @@
       <c r="E104" s="69"/>
       <c r="F104" s="69"/>
       <c r="G104" s="69"/>
-      <c r="H104" s="81">
+      <c r="H104" s="99">
         <v>7</v>
       </c>
-      <c r="I104" s="82"/>
-      <c r="J104" s="81">
+      <c r="I104" s="101"/>
+      <c r="J104" s="99">
         <v>6</v>
       </c>
-      <c r="K104" s="82"/>
-      <c r="L104" s="81">
+      <c r="K104" s="101"/>
+      <c r="L104" s="99">
         <v>5</v>
       </c>
-      <c r="M104" s="82"/>
-      <c r="N104" s="81">
+      <c r="M104" s="101"/>
+      <c r="N104" s="99">
         <v>4</v>
       </c>
-      <c r="O104" s="82"/>
-      <c r="P104" s="81">
+      <c r="O104" s="101"/>
+      <c r="P104" s="99">
         <v>3</v>
       </c>
-      <c r="Q104" s="82"/>
-      <c r="R104" s="81">
+      <c r="Q104" s="101"/>
+      <c r="R104" s="99">
         <v>2</v>
       </c>
-      <c r="S104" s="82"/>
-      <c r="T104" s="81">
+      <c r="S104" s="101"/>
+      <c r="T104" s="99">
         <v>1</v>
       </c>
-      <c r="U104" s="82"/>
-      <c r="V104" s="81">
+      <c r="U104" s="101"/>
+      <c r="V104" s="99">
         <v>0</v>
       </c>
-      <c r="W104" s="82"/>
+      <c r="W104" s="101"/>
       <c r="X104" s="69"/>
       <c r="Y104" s="69"/>
-      <c r="Z104" s="81">
+      <c r="Z104" s="99">
         <v>7</v>
       </c>
-      <c r="AA104" s="82"/>
-      <c r="AB104" s="81">
+      <c r="AA104" s="101"/>
+      <c r="AB104" s="99">
         <v>6</v>
       </c>
-      <c r="AC104" s="82"/>
-      <c r="AD104" s="81">
+      <c r="AC104" s="101"/>
+      <c r="AD104" s="99">
         <v>5</v>
       </c>
-      <c r="AE104" s="82"/>
-      <c r="AF104" s="81">
+      <c r="AE104" s="101"/>
+      <c r="AF104" s="99">
         <v>4</v>
       </c>
-      <c r="AG104" s="82"/>
-      <c r="AH104" s="81">
+      <c r="AG104" s="101"/>
+      <c r="AH104" s="99">
         <v>3</v>
       </c>
-      <c r="AI104" s="82"/>
-      <c r="AJ104" s="81">
+      <c r="AI104" s="101"/>
+      <c r="AJ104" s="99">
         <v>2</v>
       </c>
-      <c r="AK104" s="82"/>
-      <c r="AL104" s="81">
+      <c r="AK104" s="101"/>
+      <c r="AL104" s="99">
         <v>1</v>
       </c>
-      <c r="AM104" s="82"/>
-      <c r="AN104" s="81">
+      <c r="AM104" s="101"/>
+      <c r="AN104" s="99">
         <v>0</v>
       </c>
-      <c r="AO104" s="82"/>
+      <c r="AO104" s="101"/>
       <c r="AP104" s="69"/>
       <c r="AQ104" s="69"/>
       <c r="AR104" s="69"/>
@@ -5965,7 +9839,7 @@
     </row>
     <row r="111" spans="3:64">
       <c r="C111" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D111" s="68"/>
       <c r="E111" s="68"/>
@@ -6019,72 +9893,72 @@
       <c r="E113" s="69"/>
       <c r="F113" s="69"/>
       <c r="G113" s="69"/>
-      <c r="H113" s="84">
+      <c r="H113" s="96">
         <v>7</v>
       </c>
-      <c r="I113" s="85"/>
-      <c r="J113" s="84">
+      <c r="I113" s="98"/>
+      <c r="J113" s="96">
         <v>6</v>
       </c>
-      <c r="K113" s="85"/>
-      <c r="L113" s="84">
+      <c r="K113" s="98"/>
+      <c r="L113" s="96">
         <v>5</v>
       </c>
-      <c r="M113" s="85"/>
-      <c r="N113" s="84">
+      <c r="M113" s="98"/>
+      <c r="N113" s="96">
         <v>4</v>
       </c>
-      <c r="O113" s="85"/>
-      <c r="P113" s="84">
+      <c r="O113" s="98"/>
+      <c r="P113" s="96">
         <v>3</v>
       </c>
-      <c r="Q113" s="85"/>
-      <c r="R113" s="84">
+      <c r="Q113" s="98"/>
+      <c r="R113" s="96">
         <v>2</v>
       </c>
-      <c r="S113" s="85"/>
-      <c r="T113" s="84">
+      <c r="S113" s="98"/>
+      <c r="T113" s="96">
         <v>1</v>
       </c>
-      <c r="U113" s="85"/>
-      <c r="V113" s="84">
+      <c r="U113" s="98"/>
+      <c r="V113" s="96">
         <v>0</v>
       </c>
-      <c r="W113" s="85"/>
+      <c r="W113" s="98"/>
       <c r="X113" s="69"/>
       <c r="Y113" s="69"/>
-      <c r="Z113" s="84">
+      <c r="Z113" s="96">
         <v>7</v>
       </c>
-      <c r="AA113" s="85"/>
-      <c r="AB113" s="84">
+      <c r="AA113" s="98"/>
+      <c r="AB113" s="96">
         <v>6</v>
       </c>
-      <c r="AC113" s="85"/>
-      <c r="AD113" s="84">
+      <c r="AC113" s="98"/>
+      <c r="AD113" s="96">
         <v>5</v>
       </c>
-      <c r="AE113" s="85"/>
-      <c r="AF113" s="84">
+      <c r="AE113" s="98"/>
+      <c r="AF113" s="96">
         <v>4</v>
       </c>
-      <c r="AG113" s="85"/>
-      <c r="AH113" s="84">
+      <c r="AG113" s="98"/>
+      <c r="AH113" s="96">
         <v>3</v>
       </c>
-      <c r="AI113" s="85"/>
-      <c r="AJ113" s="84">
+      <c r="AI113" s="98"/>
+      <c r="AJ113" s="96">
         <v>2</v>
       </c>
-      <c r="AK113" s="85"/>
-      <c r="AL113" s="84">
+      <c r="AK113" s="98"/>
+      <c r="AL113" s="96">
         <v>1</v>
       </c>
-      <c r="AM113" s="85"/>
-      <c r="AN113" s="84">
+      <c r="AM113" s="98"/>
+      <c r="AN113" s="96">
         <v>0</v>
       </c>
-      <c r="AO113" s="85"/>
+      <c r="AO113" s="98"/>
       <c r="AP113" s="69"/>
       <c r="AQ113" s="69"/>
       <c r="AR113" s="69"/>
@@ -6098,72 +9972,72 @@
       <c r="D115" s="69"/>
       <c r="E115" s="69"/>
       <c r="F115" s="69"/>
-      <c r="G115" s="81">
+      <c r="G115" s="99">
         <v>7</v>
       </c>
-      <c r="H115" s="82"/>
-      <c r="I115" s="81">
+      <c r="H115" s="101"/>
+      <c r="I115" s="99">
         <v>6</v>
       </c>
-      <c r="J115" s="82"/>
-      <c r="K115" s="81">
+      <c r="J115" s="101"/>
+      <c r="K115" s="99">
         <v>5</v>
       </c>
-      <c r="L115" s="82"/>
-      <c r="M115" s="81">
+      <c r="L115" s="101"/>
+      <c r="M115" s="99">
         <v>4</v>
       </c>
-      <c r="N115" s="82"/>
-      <c r="O115" s="81">
+      <c r="N115" s="101"/>
+      <c r="O115" s="99">
         <v>3</v>
       </c>
-      <c r="P115" s="82"/>
-      <c r="Q115" s="81">
+      <c r="P115" s="101"/>
+      <c r="Q115" s="99">
         <v>2</v>
       </c>
-      <c r="R115" s="82"/>
-      <c r="S115" s="81">
+      <c r="R115" s="101"/>
+      <c r="S115" s="99">
         <v>1</v>
       </c>
-      <c r="T115" s="82"/>
-      <c r="U115" s="81">
+      <c r="T115" s="101"/>
+      <c r="U115" s="99">
         <v>0</v>
       </c>
-      <c r="V115" s="82"/>
+      <c r="V115" s="101"/>
       <c r="W115" s="69"/>
       <c r="X115" s="69"/>
-      <c r="Y115" s="81">
+      <c r="Y115" s="99">
         <v>7</v>
       </c>
-      <c r="Z115" s="82"/>
-      <c r="AA115" s="81">
+      <c r="Z115" s="101"/>
+      <c r="AA115" s="99">
         <v>6</v>
       </c>
-      <c r="AB115" s="82"/>
-      <c r="AC115" s="81">
+      <c r="AB115" s="101"/>
+      <c r="AC115" s="99">
         <v>5</v>
       </c>
-      <c r="AD115" s="82"/>
-      <c r="AE115" s="81">
+      <c r="AD115" s="101"/>
+      <c r="AE115" s="99">
         <v>4</v>
       </c>
-      <c r="AF115" s="82"/>
-      <c r="AG115" s="81">
+      <c r="AF115" s="101"/>
+      <c r="AG115" s="99">
         <v>3</v>
       </c>
-      <c r="AH115" s="82"/>
-      <c r="AI115" s="81">
+      <c r="AH115" s="101"/>
+      <c r="AI115" s="99">
         <v>2</v>
       </c>
-      <c r="AJ115" s="82"/>
-      <c r="AK115" s="81">
+      <c r="AJ115" s="101"/>
+      <c r="AK115" s="99">
         <v>1</v>
       </c>
-      <c r="AL115" s="82"/>
-      <c r="AM115" s="81">
+      <c r="AL115" s="101"/>
+      <c r="AM115" s="99">
         <v>0</v>
       </c>
-      <c r="AN115" s="82"/>
+      <c r="AN115" s="101"/>
       <c r="AO115" s="69"/>
       <c r="AP115" s="69"/>
       <c r="AQ115" s="69"/>
@@ -6173,73 +10047,178 @@
     </row>
   </sheetData>
   <mergeCells count="285">
-    <mergeCell ref="BA23:BB23"/>
-    <mergeCell ref="AY23:AZ23"/>
-    <mergeCell ref="AW23:AX23"/>
-    <mergeCell ref="AU23:AV23"/>
-    <mergeCell ref="BG23:BH23"/>
-    <mergeCell ref="BE23:BF23"/>
-    <mergeCell ref="BC23:BD23"/>
-    <mergeCell ref="AQ15:BG15"/>
-    <mergeCell ref="Y33:AO33"/>
+    <mergeCell ref="AG115:AH115"/>
+    <mergeCell ref="AI115:AJ115"/>
+    <mergeCell ref="AK115:AL115"/>
+    <mergeCell ref="AM115:AN115"/>
+    <mergeCell ref="S115:T115"/>
+    <mergeCell ref="U115:V115"/>
+    <mergeCell ref="Y115:Z115"/>
+    <mergeCell ref="AA115:AB115"/>
+    <mergeCell ref="AC115:AD115"/>
+    <mergeCell ref="AE115:AF115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="Q115:R115"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="Z113:AA113"/>
+    <mergeCell ref="AH104:AI104"/>
+    <mergeCell ref="AJ104:AK104"/>
+    <mergeCell ref="AL104:AM104"/>
+    <mergeCell ref="AN104:AO104"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="V104:W104"/>
+    <mergeCell ref="Z104:AA104"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="AD104:AE104"/>
+    <mergeCell ref="AF104:AG104"/>
+    <mergeCell ref="AH113:AI113"/>
+    <mergeCell ref="AJ113:AK113"/>
+    <mergeCell ref="AL113:AM113"/>
+    <mergeCell ref="AN113:AO113"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="AD113:AE113"/>
+    <mergeCell ref="AF113:AG113"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="Y102:Z102"/>
+    <mergeCell ref="AG93:AH93"/>
+    <mergeCell ref="AI93:AJ93"/>
+    <mergeCell ref="AK93:AL93"/>
+    <mergeCell ref="AM93:AN93"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="AA93:AB93"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AE93:AF93"/>
+    <mergeCell ref="AG102:AH102"/>
+    <mergeCell ref="AI102:AJ102"/>
+    <mergeCell ref="AK102:AL102"/>
+    <mergeCell ref="AM102:AN102"/>
+    <mergeCell ref="AA102:AB102"/>
+    <mergeCell ref="AC102:AD102"/>
+    <mergeCell ref="AE102:AF102"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="AH82:AI82"/>
+    <mergeCell ref="AJ82:AK82"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AN82:AO82"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AB82:AC82"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AF82:AG82"/>
+    <mergeCell ref="AH91:AI91"/>
+    <mergeCell ref="AJ91:AK91"/>
+    <mergeCell ref="AL91:AM91"/>
+    <mergeCell ref="AN91:AO91"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="AF91:AG91"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="Y80:Z80"/>
+    <mergeCell ref="BG61:BH61"/>
     <mergeCell ref="Y69:AO69"/>
     <mergeCell ref="AQ69:BG69"/>
-    <mergeCell ref="Y35:AO35"/>
-    <mergeCell ref="Y17:AO17"/>
-    <mergeCell ref="AQ17:BG17"/>
-    <mergeCell ref="AQ23:AS23"/>
-    <mergeCell ref="AQ35:AS35"/>
-    <mergeCell ref="F52:AL52"/>
-    <mergeCell ref="AM52:BD52"/>
-    <mergeCell ref="BE52:BJ52"/>
-    <mergeCell ref="AQ61:BF61"/>
-    <mergeCell ref="BG61:BH61"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AK80:AL80"/>
+    <mergeCell ref="AM80:AN80"/>
+    <mergeCell ref="AA80:AB80"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AE80:AF80"/>
     <mergeCell ref="G61:P61"/>
     <mergeCell ref="Q61:T61"/>
     <mergeCell ref="U61:V61"/>
     <mergeCell ref="W61:X61"/>
     <mergeCell ref="AO61:AP61"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="Y9:AN9"/>
-    <mergeCell ref="AQ9:BF9"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y15:AO15"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AO57:AP57"/>
+    <mergeCell ref="AQ57:AR57"/>
+    <mergeCell ref="AS57:AT57"/>
+    <mergeCell ref="AU57:AV57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="AQ61:BF61"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
     <mergeCell ref="BG44:BH44"/>
+    <mergeCell ref="F52:AL52"/>
+    <mergeCell ref="AM52:BD52"/>
+    <mergeCell ref="BE52:BJ52"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="BA57:BB57"/>
+    <mergeCell ref="BC57:BD57"/>
+    <mergeCell ref="BE57:BF57"/>
+    <mergeCell ref="BG57:BH57"/>
     <mergeCell ref="BI57:BK57"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AW57:AX57"/>
+    <mergeCell ref="AY57:AZ57"/>
+    <mergeCell ref="BE40:BF40"/>
+    <mergeCell ref="BG40:BH40"/>
     <mergeCell ref="BI40:BK40"/>
     <mergeCell ref="G44:P44"/>
     <mergeCell ref="Q44:T44"/>
@@ -6248,77 +10227,6 @@
     <mergeCell ref="Y44:AN44"/>
     <mergeCell ref="AO44:AP44"/>
     <mergeCell ref="AQ44:BF44"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AN27"/>
-    <mergeCell ref="AO27:AP27"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="AW57:AX57"/>
-    <mergeCell ref="AY57:AZ57"/>
-    <mergeCell ref="BA57:BB57"/>
-    <mergeCell ref="BC57:BD57"/>
-    <mergeCell ref="BE57:BF57"/>
-    <mergeCell ref="BG57:BH57"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AO57:AP57"/>
-    <mergeCell ref="AQ57:AR57"/>
-    <mergeCell ref="AS57:AT57"/>
-    <mergeCell ref="AU57:AV57"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="BE40:BF40"/>
-    <mergeCell ref="BG40:BH40"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="Q80:R80"/>
     <mergeCell ref="AS40:AT40"/>
     <mergeCell ref="AU40:AV40"/>
     <mergeCell ref="AW40:AX40"/>
@@ -6335,132 +10243,97 @@
     <mergeCell ref="W40:X40"/>
     <mergeCell ref="Y40:Z40"/>
     <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AK80:AL80"/>
-    <mergeCell ref="AM80:AN80"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="O102:P102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="Y80:Z80"/>
-    <mergeCell ref="AA80:AB80"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="AE80:AF80"/>
-    <mergeCell ref="AM102:AN102"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="U102:V102"/>
-    <mergeCell ref="Y102:Z102"/>
-    <mergeCell ref="AA102:AB102"/>
-    <mergeCell ref="AC102:AD102"/>
-    <mergeCell ref="AE102:AF102"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="AF91:AG91"/>
-    <mergeCell ref="AG102:AH102"/>
-    <mergeCell ref="AI102:AJ102"/>
-    <mergeCell ref="AK102:AL102"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="AH113:AI113"/>
-    <mergeCell ref="AJ113:AK113"/>
-    <mergeCell ref="AL113:AM113"/>
-    <mergeCell ref="AN113:AO113"/>
-    <mergeCell ref="T113:U113"/>
-    <mergeCell ref="V113:W113"/>
-    <mergeCell ref="Z113:AA113"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="AD113:AE113"/>
-    <mergeCell ref="AF113:AG113"/>
-    <mergeCell ref="AH91:AI91"/>
-    <mergeCell ref="AJ91:AK91"/>
-    <mergeCell ref="AL91:AM91"/>
-    <mergeCell ref="AN91:AO91"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AE93:AF93"/>
-    <mergeCell ref="AG93:AH93"/>
-    <mergeCell ref="AJ82:AK82"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AN82:AO82"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="AB82:AC82"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AF82:AG82"/>
-    <mergeCell ref="AH82:AI82"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="O115:P115"/>
-    <mergeCell ref="Q115:R115"/>
-    <mergeCell ref="S115:T115"/>
-    <mergeCell ref="V104:W104"/>
-    <mergeCell ref="Z104:AA104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="R104:S104"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="Y33:AO33"/>
+    <mergeCell ref="Y35:AO35"/>
+    <mergeCell ref="AQ35:AS35"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="BC23:BD23"/>
+    <mergeCell ref="BE23:BF23"/>
+    <mergeCell ref="BG23:BH23"/>
+    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AN27"/>
+    <mergeCell ref="AO27:AP27"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="AQ23:AS23"/>
+    <mergeCell ref="AU23:AV23"/>
+    <mergeCell ref="AW23:AX23"/>
+    <mergeCell ref="AY23:AZ23"/>
+    <mergeCell ref="BA23:BB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="AQ9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="Y15:AO15"/>
+    <mergeCell ref="AQ15:BG15"/>
+    <mergeCell ref="Y17:AO17"/>
+    <mergeCell ref="AQ17:BG17"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="U3:X3"/>
-    <mergeCell ref="AI115:AJ115"/>
-    <mergeCell ref="AK115:AL115"/>
-    <mergeCell ref="AM115:AN115"/>
-    <mergeCell ref="U115:V115"/>
-    <mergeCell ref="Y115:Z115"/>
-    <mergeCell ref="AA115:AB115"/>
-    <mergeCell ref="AC115:AD115"/>
-    <mergeCell ref="AE115:AF115"/>
-    <mergeCell ref="AG115:AH115"/>
-    <mergeCell ref="AJ104:AK104"/>
-    <mergeCell ref="AL104:AM104"/>
-    <mergeCell ref="AN104:AO104"/>
-    <mergeCell ref="AB104:AC104"/>
-    <mergeCell ref="AD104:AE104"/>
-    <mergeCell ref="AF104:AG104"/>
-    <mergeCell ref="AH104:AI104"/>
-    <mergeCell ref="AI93:AJ93"/>
-    <mergeCell ref="AK93:AL93"/>
-    <mergeCell ref="AM93:AN93"/>
-    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-15" windowWidth="13785" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="345" yWindow="-15" windowWidth="13785" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="166">
   <si>
     <t>IO11</t>
   </si>
@@ -581,11 +581,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bidirectional SO support for reading
-0x85:SI, 0x75:SO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0x85</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,6 +686,24 @@
   </si>
   <si>
     <t>0x00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x3B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xFC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bidirectional SO support for reading
+0x85:read by SI, 0x75:read by SO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bidirectional SO support for reading
+0xFC:SO is output only, 0xB4:SO is bidirectional</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1384,6 +1397,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,19 +1418,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1414,25 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1749,7 +1762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
@@ -1827,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>78</v>
@@ -1862,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>78</v>
@@ -1895,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>78</v>
@@ -1930,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>78</v>
@@ -1998,7 +2013,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>77</v>
@@ -2060,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>78</v>
@@ -2299,9 +2314,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2334,10 +2351,10 @@
         <v>82</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>72</v>
@@ -2348,10 +2365,10 @@
       <c r="C4" s="54"/>
       <c r="D4" s="51"/>
       <c r="E4" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2359,27 +2376,27 @@
       <c r="C5" s="44"/>
       <c r="D5" s="56"/>
       <c r="E5" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>140</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="27">
       <c r="B6" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27">
@@ -2390,13 +2407,13 @@
         <v>83</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="57"/>
     </row>
@@ -2408,97 +2425,103 @@
         <v>83</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="27">
+      <c r="B9" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="27">
-      <c r="B9" s="34" t="s">
+      <c r="F9" s="53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="27">
+      <c r="B10" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C10" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E10" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F10" s="53" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="81">
-      <c r="B10" s="50" t="s">
+    <row r="11" spans="2:8" ht="81">
+      <c r="B11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C11" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="D11" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="81">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F12" s="49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="81">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="55" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C13" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D13" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E13" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F13" s="62" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="58"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="58"/>
       <c r="C14" s="60"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -2506,10 +2529,10 @@
       <c r="C15" s="60"/>
       <c r="D15" s="58"/>
       <c r="E15" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -2517,20 +2540,31 @@
       <c r="C16" s="60"/>
       <c r="D16" s="58"/>
       <c r="E16" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F17" s="63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="59"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="56" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="59"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F18" s="59" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2544,7 +2578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:BL116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="67" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <cols>
@@ -2563,22 +2597,22 @@
       <c r="I4" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
     </row>
     <row r="5" spans="3:64">
       <c r="C5" s="71" t="s">
@@ -2586,124 +2620,124 @@
       </c>
     </row>
     <row r="6" spans="3:64">
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91">
         <v>1</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97">
+      <c r="H6" s="91"/>
+      <c r="I6" s="91">
         <v>2</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97">
+      <c r="J6" s="91"/>
+      <c r="K6" s="91">
         <v>3</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97">
+      <c r="L6" s="91"/>
+      <c r="M6" s="91">
         <v>4</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97">
+      <c r="N6" s="91"/>
+      <c r="O6" s="91">
         <v>5</v>
       </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97">
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91">
         <v>6</v>
       </c>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97">
+      <c r="R6" s="91"/>
+      <c r="S6" s="91">
         <v>7</v>
       </c>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97">
+      <c r="T6" s="91"/>
+      <c r="U6" s="91">
         <v>8</v>
       </c>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97" t="s">
+      <c r="V6" s="91"/>
+      <c r="W6" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97">
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91">
         <v>1</v>
       </c>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97">
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91">
         <v>2</v>
       </c>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97">
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91">
         <v>3</v>
       </c>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97">
+      <c r="AD6" s="91"/>
+      <c r="AE6" s="91">
         <v>4</v>
       </c>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97">
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91">
         <v>5</v>
       </c>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97">
+      <c r="AH6" s="91"/>
+      <c r="AI6" s="91">
         <v>6</v>
       </c>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97">
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91">
         <v>7</v>
       </c>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97">
+      <c r="AL6" s="91"/>
+      <c r="AM6" s="91">
         <v>8</v>
       </c>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97" t="s">
+      <c r="AN6" s="91"/>
+      <c r="AO6" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97">
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="91">
         <v>1</v>
       </c>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97">
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91">
         <v>2</v>
       </c>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97">
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91">
         <v>3</v>
       </c>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="97">
+      <c r="AV6" s="91"/>
+      <c r="AW6" s="91">
         <v>4</v>
       </c>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97">
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="91">
         <v>5</v>
       </c>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="97">
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="91">
         <v>6</v>
       </c>
-      <c r="BB6" s="97"/>
-      <c r="BC6" s="97">
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="91">
         <v>7</v>
       </c>
-      <c r="BD6" s="97"/>
-      <c r="BE6" s="97">
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91">
         <v>8</v>
       </c>
-      <c r="BF6" s="97"/>
-      <c r="BG6" s="97" t="s">
+      <c r="BF6" s="91"/>
+      <c r="BG6" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="BH6" s="97"/>
-      <c r="BJ6" s="97" t="s">
+      <c r="BH6" s="91"/>
+      <c r="BJ6" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="BK6" s="97"/>
-      <c r="BL6" s="97"/>
+      <c r="BK6" s="91"/>
+      <c r="BL6" s="91"/>
     </row>
     <row r="8" spans="3:64">
       <c r="C8" t="s">
@@ -2778,76 +2812,76 @@
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="79"/>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="91" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="91" t="s">
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="101" t="s">
+      <c r="V10" s="97"/>
+      <c r="W10" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="91" t="s">
+      <c r="X10" s="101"/>
+      <c r="Y10" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="101" t="s">
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="91" t="s">
+      <c r="AP10" s="101"/>
+      <c r="AQ10" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="93"/>
-      <c r="BG10" s="101" t="s">
+      <c r="AR10" s="96"/>
+      <c r="AS10" s="96"/>
+      <c r="AT10" s="96"/>
+      <c r="AU10" s="96"/>
+      <c r="AV10" s="96"/>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="96"/>
+      <c r="AY10" s="96"/>
+      <c r="AZ10" s="96"/>
+      <c r="BA10" s="96"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="96"/>
+      <c r="BD10" s="96"/>
+      <c r="BE10" s="96"/>
+      <c r="BF10" s="97"/>
+      <c r="BG10" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="BH10" s="105"/>
+      <c r="BH10" s="104"/>
       <c r="BI10" s="82"/>
       <c r="BJ10" s="81"/>
       <c r="BK10" s="80"/>
@@ -2989,75 +3023,75 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="93">
         <v>0</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="94" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="96"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="94"/>
       <c r="AR16" s="77"/>
-      <c r="AS16" s="94" t="s">
+      <c r="AS16" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="96"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="94"/>
       <c r="BJ16" s="77"/>
-      <c r="BK16" s="94">
+      <c r="BK16" s="92">
         <v>0</v>
       </c>
-      <c r="BL16" s="95"/>
+      <c r="BL16" s="93"/>
     </row>
     <row r="18" spans="3:64">
       <c r="C18" t="s">
@@ -3086,45 +3120,45 @@
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
-      <c r="AA18" s="91" t="s">
+      <c r="AA18" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="92"/>
-      <c r="AO18" s="92"/>
-      <c r="AP18" s="92"/>
-      <c r="AQ18" s="93"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="96"/>
+      <c r="AO18" s="96"/>
+      <c r="AP18" s="96"/>
+      <c r="AQ18" s="97"/>
       <c r="AR18" s="74"/>
-      <c r="AS18" s="91" t="s">
+      <c r="AS18" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="AT18" s="92"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="92"/>
-      <c r="AW18" s="92"/>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="92"/>
-      <c r="AZ18" s="92"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="92"/>
-      <c r="BD18" s="92"/>
-      <c r="BE18" s="92"/>
-      <c r="BF18" s="92"/>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="92"/>
-      <c r="BI18" s="93"/>
+      <c r="AT18" s="96"/>
+      <c r="AU18" s="96"/>
+      <c r="AV18" s="96"/>
+      <c r="AW18" s="96"/>
+      <c r="AX18" s="96"/>
+      <c r="AY18" s="96"/>
+      <c r="AZ18" s="96"/>
+      <c r="BA18" s="96"/>
+      <c r="BB18" s="96"/>
+      <c r="BC18" s="96"/>
+      <c r="BD18" s="96"/>
+      <c r="BE18" s="96"/>
+      <c r="BF18" s="96"/>
+      <c r="BG18" s="96"/>
+      <c r="BH18" s="96"/>
+      <c r="BI18" s="97"/>
       <c r="BJ18" s="74"/>
       <c r="BK18" s="89"/>
       <c r="BL18" s="88"/>
@@ -3201,102 +3235,102 @@
       </c>
     </row>
     <row r="24" spans="3:64">
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97">
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91">
         <v>1</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97">
+      <c r="H24" s="91"/>
+      <c r="I24" s="91">
         <v>2</v>
       </c>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97">
+      <c r="J24" s="91"/>
+      <c r="K24" s="91">
         <v>3</v>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97">
+      <c r="L24" s="91"/>
+      <c r="M24" s="91">
         <v>4</v>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97">
+      <c r="N24" s="91"/>
+      <c r="O24" s="91">
         <v>5</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97">
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91">
         <v>6</v>
       </c>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97">
+      <c r="R24" s="91"/>
+      <c r="S24" s="91">
         <v>7</v>
       </c>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97">
+      <c r="T24" s="91"/>
+      <c r="U24" s="91">
         <v>8</v>
       </c>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97" t="s">
+      <c r="V24" s="91"/>
+      <c r="W24" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97">
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91">
         <v>1</v>
       </c>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97">
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91">
         <v>2</v>
       </c>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97">
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91">
         <v>3</v>
       </c>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97">
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="91">
         <v>4</v>
       </c>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="97">
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="91">
         <v>5</v>
       </c>
-      <c r="AH24" s="97"/>
-      <c r="AI24" s="97">
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="91">
         <v>6</v>
       </c>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="97">
+      <c r="AJ24" s="91"/>
+      <c r="AK24" s="91">
         <v>7</v>
       </c>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="97">
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="91">
         <v>8</v>
       </c>
-      <c r="AN24" s="97"/>
-      <c r="AO24" s="97" t="s">
+      <c r="AN24" s="91"/>
+      <c r="AO24" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AP24" s="97"/>
-      <c r="AQ24" s="97" t="s">
+      <c r="AP24" s="91"/>
+      <c r="AQ24" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="AR24" s="97"/>
-      <c r="AS24" s="97"/>
-      <c r="AU24" s="97"/>
-      <c r="AV24" s="97"/>
-      <c r="AW24" s="97"/>
-      <c r="AX24" s="97"/>
-      <c r="AY24" s="97"/>
-      <c r="AZ24" s="97"/>
-      <c r="BA24" s="97"/>
-      <c r="BB24" s="97"/>
-      <c r="BC24" s="97"/>
-      <c r="BD24" s="97"/>
-      <c r="BE24" s="97"/>
-      <c r="BF24" s="97"/>
-      <c r="BG24" s="97"/>
-      <c r="BH24" s="97"/>
+      <c r="AR24" s="91"/>
+      <c r="AS24" s="91"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="91"/>
+      <c r="AZ24" s="91"/>
+      <c r="BA24" s="91"/>
+      <c r="BB24" s="91"/>
+      <c r="BC24" s="91"/>
+      <c r="BD24" s="91"/>
+      <c r="BE24" s="91"/>
+      <c r="BF24" s="91"/>
+      <c r="BG24" s="91"/>
+      <c r="BH24" s="91"/>
     </row>
     <row r="26" spans="3:64">
       <c r="C26" t="s">
@@ -3352,54 +3386,54 @@
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="91" t="s">
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="91" t="s">
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="V28" s="93"/>
-      <c r="W28" s="101" t="s">
+      <c r="V28" s="97"/>
+      <c r="W28" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="91" t="s">
+      <c r="X28" s="101"/>
+      <c r="Y28" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="93"/>
-      <c r="AO28" s="101" t="s">
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="96"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="96"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="96"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="96"/>
+      <c r="AN28" s="97"/>
+      <c r="AO28" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="AP28" s="102"/>
+      <c r="AP28" s="101"/>
       <c r="AQ28" s="80"/>
       <c r="AR28" s="78"/>
       <c r="AS28" s="79"/>
@@ -3502,54 +3536,54 @@
       <c r="C34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="95">
+      <c r="D34" s="93">
         <v>0</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="94" t="s">
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="96"/>
-      <c r="AR34" s="94">
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="93"/>
+      <c r="AI34" s="93"/>
+      <c r="AJ34" s="93"/>
+      <c r="AK34" s="93"/>
+      <c r="AL34" s="93"/>
+      <c r="AM34" s="93"/>
+      <c r="AN34" s="93"/>
+      <c r="AO34" s="93"/>
+      <c r="AP34" s="93"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="92">
         <v>0</v>
       </c>
-      <c r="AS34" s="95"/>
+      <c r="AS34" s="93"/>
     </row>
     <row r="36" spans="3:64">
       <c r="C36" t="s">
@@ -3578,25 +3612,25 @@
       <c r="X36" s="74"/>
       <c r="Y36" s="74"/>
       <c r="Z36" s="74"/>
-      <c r="AA36" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB36" s="92"/>
-      <c r="AC36" s="92"/>
-      <c r="AD36" s="92"/>
-      <c r="AE36" s="92"/>
-      <c r="AF36" s="92"/>
-      <c r="AG36" s="92"/>
-      <c r="AH36" s="92"/>
-      <c r="AI36" s="92"/>
-      <c r="AJ36" s="92"/>
-      <c r="AK36" s="92"/>
-      <c r="AL36" s="92"/>
-      <c r="AM36" s="92"/>
-      <c r="AN36" s="92"/>
-      <c r="AO36" s="92"/>
-      <c r="AP36" s="92"/>
-      <c r="AQ36" s="93"/>
+      <c r="AA36" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="96"/>
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="96"/>
+      <c r="AG36" s="96"/>
+      <c r="AH36" s="96"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="96"/>
+      <c r="AK36" s="96"/>
+      <c r="AL36" s="96"/>
+      <c r="AM36" s="96"/>
+      <c r="AN36" s="96"/>
+      <c r="AO36" s="96"/>
+      <c r="AP36" s="96"/>
+      <c r="AQ36" s="97"/>
       <c r="AR36" s="74"/>
       <c r="AS36" s="74"/>
     </row>
@@ -3648,119 +3682,119 @@
       <c r="AS38" s="83"/>
     </row>
     <row r="41" spans="3:64">
-      <c r="G41" s="97">
+      <c r="G41" s="91">
         <v>1</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97">
+      <c r="H41" s="91"/>
+      <c r="I41" s="91">
         <v>2</v>
       </c>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97">
+      <c r="J41" s="91"/>
+      <c r="K41" s="91">
         <v>3</v>
       </c>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97">
+      <c r="L41" s="91"/>
+      <c r="M41" s="91">
         <v>4</v>
       </c>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97">
+      <c r="N41" s="91"/>
+      <c r="O41" s="91">
         <v>5</v>
       </c>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97">
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91">
         <v>6</v>
       </c>
-      <c r="R41" s="97"/>
-      <c r="S41" s="97">
+      <c r="R41" s="91"/>
+      <c r="S41" s="91">
         <v>7</v>
       </c>
-      <c r="T41" s="97"/>
-      <c r="U41" s="97">
+      <c r="T41" s="91"/>
+      <c r="U41" s="91">
         <v>8</v>
       </c>
-      <c r="V41" s="97"/>
-      <c r="W41" s="97" t="s">
+      <c r="V41" s="91"/>
+      <c r="W41" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="97">
+      <c r="X41" s="91"/>
+      <c r="Y41" s="91">
         <v>1</v>
       </c>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="97">
+      <c r="Z41" s="91"/>
+      <c r="AA41" s="91">
         <v>2</v>
       </c>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97">
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="91">
         <v>3</v>
       </c>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97">
+      <c r="AD41" s="91"/>
+      <c r="AE41" s="91">
         <v>4</v>
       </c>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="97">
+      <c r="AF41" s="91"/>
+      <c r="AG41" s="91">
         <v>5</v>
       </c>
-      <c r="AH41" s="97"/>
-      <c r="AI41" s="97">
+      <c r="AH41" s="91"/>
+      <c r="AI41" s="91">
         <v>6</v>
       </c>
-      <c r="AJ41" s="97"/>
-      <c r="AK41" s="97">
+      <c r="AJ41" s="91"/>
+      <c r="AK41" s="91">
         <v>7</v>
       </c>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97">
+      <c r="AL41" s="91"/>
+      <c r="AM41" s="91">
         <v>8</v>
       </c>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="97" t="s">
+      <c r="AN41" s="91"/>
+      <c r="AO41" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AP41" s="97"/>
-      <c r="AQ41" s="97">
+      <c r="AP41" s="91"/>
+      <c r="AQ41" s="91">
         <v>1</v>
       </c>
-      <c r="AR41" s="97"/>
-      <c r="AS41" s="97">
+      <c r="AR41" s="91"/>
+      <c r="AS41" s="91">
         <v>2</v>
       </c>
-      <c r="AT41" s="97"/>
-      <c r="AU41" s="97">
+      <c r="AT41" s="91"/>
+      <c r="AU41" s="91">
         <v>3</v>
       </c>
-      <c r="AV41" s="97"/>
-      <c r="AW41" s="97">
+      <c r="AV41" s="91"/>
+      <c r="AW41" s="91">
         <v>4</v>
       </c>
-      <c r="AX41" s="97"/>
-      <c r="AY41" s="97">
+      <c r="AX41" s="91"/>
+      <c r="AY41" s="91">
         <v>5</v>
       </c>
-      <c r="AZ41" s="97"/>
-      <c r="BA41" s="97">
+      <c r="AZ41" s="91"/>
+      <c r="BA41" s="91">
         <v>6</v>
       </c>
-      <c r="BB41" s="97"/>
-      <c r="BC41" s="97">
+      <c r="BB41" s="91"/>
+      <c r="BC41" s="91">
         <v>7</v>
       </c>
-      <c r="BD41" s="97"/>
-      <c r="BE41" s="97">
+      <c r="BD41" s="91"/>
+      <c r="BE41" s="91">
         <v>8</v>
       </c>
-      <c r="BF41" s="97"/>
-      <c r="BG41" s="97" t="s">
+      <c r="BF41" s="91"/>
+      <c r="BG41" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="BH41" s="97"/>
-      <c r="BI41" s="97" t="s">
+      <c r="BH41" s="91"/>
+      <c r="BI41" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="BJ41" s="97"/>
-      <c r="BK41" s="97"/>
+      <c r="BJ41" s="91"/>
+      <c r="BK41" s="91"/>
       <c r="BL41" s="72"/>
     </row>
     <row r="43" spans="3:64">
@@ -3827,76 +3861,76 @@
     <row r="45" spans="3:64">
       <c r="E45" s="1"/>
       <c r="F45" s="81"/>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="91" t="s">
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="91" t="s">
+      <c r="R45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="V45" s="93"/>
-      <c r="W45" s="101" t="s">
+      <c r="V45" s="97"/>
+      <c r="W45" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="X45" s="102"/>
-      <c r="Y45" s="94" t="s">
+      <c r="X45" s="101"/>
+      <c r="Y45" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
-      <c r="AO45" s="103" t="s">
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="93"/>
+      <c r="AC45" s="93"/>
+      <c r="AD45" s="93"/>
+      <c r="AE45" s="93"/>
+      <c r="AF45" s="93"/>
+      <c r="AG45" s="93"/>
+      <c r="AH45" s="93"/>
+      <c r="AI45" s="93"/>
+      <c r="AJ45" s="93"/>
+      <c r="AK45" s="93"/>
+      <c r="AL45" s="93"/>
+      <c r="AM45" s="93"/>
+      <c r="AN45" s="94"/>
+      <c r="AO45" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="AP45" s="104"/>
-      <c r="AQ45" s="94" t="s">
+      <c r="AP45" s="103"/>
+      <c r="AQ45" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
-      <c r="BF45" s="96"/>
-      <c r="BG45" s="106" t="s">
+      <c r="AR45" s="93"/>
+      <c r="AS45" s="93"/>
+      <c r="AT45" s="93"/>
+      <c r="AU45" s="93"/>
+      <c r="AV45" s="93"/>
+      <c r="AW45" s="93"/>
+      <c r="AX45" s="93"/>
+      <c r="AY45" s="93"/>
+      <c r="AZ45" s="93"/>
+      <c r="BA45" s="93"/>
+      <c r="BB45" s="93"/>
+      <c r="BC45" s="93"/>
+      <c r="BD45" s="93"/>
+      <c r="BE45" s="93"/>
+      <c r="BF45" s="94"/>
+      <c r="BG45" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="BH45" s="107"/>
+      <c r="BH45" s="99"/>
       <c r="BI45" s="82"/>
       <c r="BJ45" s="81"/>
       <c r="BK45" s="80"/>
@@ -4025,27 +4059,27 @@
       <c r="BL49" s="85"/>
     </row>
     <row r="51" spans="3:64">
-      <c r="F51" s="95">
+      <c r="F51" s="93">
         <v>0</v>
       </c>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="95"/>
-      <c r="U51" s="95"/>
-      <c r="V51" s="95"/>
-      <c r="W51" s="95"/>
-      <c r="X51" s="96"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="94"/>
       <c r="Y51" s="90"/>
       <c r="Z51" s="88"/>
       <c r="AA51" s="88"/>
@@ -4084,10 +4118,10 @@
       <c r="BH51" s="88"/>
       <c r="BI51" s="88"/>
       <c r="BJ51" s="88"/>
-      <c r="BK51" s="94">
+      <c r="BK51" s="92">
         <v>0</v>
       </c>
-      <c r="BL51" s="95"/>
+      <c r="BL51" s="93"/>
     </row>
     <row r="53" spans="3:64">
       <c r="F53" s="73"/>
@@ -4111,45 +4145,45 @@
       <c r="X53" s="74"/>
       <c r="Y53" s="74"/>
       <c r="Z53" s="74"/>
-      <c r="AA53" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB53" s="92"/>
-      <c r="AC53" s="92"/>
-      <c r="AD53" s="92"/>
-      <c r="AE53" s="92"/>
-      <c r="AF53" s="92"/>
-      <c r="AG53" s="92"/>
-      <c r="AH53" s="92"/>
-      <c r="AI53" s="92"/>
-      <c r="AJ53" s="92"/>
-      <c r="AK53" s="92"/>
-      <c r="AL53" s="92"/>
-      <c r="AM53" s="92"/>
-      <c r="AN53" s="92"/>
-      <c r="AO53" s="92"/>
-      <c r="AP53" s="92"/>
-      <c r="AQ53" s="93"/>
+      <c r="AA53" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB53" s="96"/>
+      <c r="AC53" s="96"/>
+      <c r="AD53" s="96"/>
+      <c r="AE53" s="96"/>
+      <c r="AF53" s="96"/>
+      <c r="AG53" s="96"/>
+      <c r="AH53" s="96"/>
+      <c r="AI53" s="96"/>
+      <c r="AJ53" s="96"/>
+      <c r="AK53" s="96"/>
+      <c r="AL53" s="96"/>
+      <c r="AM53" s="96"/>
+      <c r="AN53" s="96"/>
+      <c r="AO53" s="96"/>
+      <c r="AP53" s="96"/>
+      <c r="AQ53" s="97"/>
       <c r="AR53" s="74"/>
-      <c r="AS53" s="91" t="s">
+      <c r="AS53" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="AT53" s="92"/>
-      <c r="AU53" s="92"/>
-      <c r="AV53" s="92"/>
-      <c r="AW53" s="92"/>
-      <c r="AX53" s="92"/>
-      <c r="AY53" s="92"/>
-      <c r="AZ53" s="92"/>
-      <c r="BA53" s="92"/>
-      <c r="BB53" s="92"/>
-      <c r="BC53" s="92"/>
-      <c r="BD53" s="92"/>
-      <c r="BE53" s="92"/>
-      <c r="BF53" s="92"/>
-      <c r="BG53" s="92"/>
-      <c r="BH53" s="92"/>
-      <c r="BI53" s="93"/>
+      <c r="AT53" s="96"/>
+      <c r="AU53" s="96"/>
+      <c r="AV53" s="96"/>
+      <c r="AW53" s="96"/>
+      <c r="AX53" s="96"/>
+      <c r="AY53" s="96"/>
+      <c r="AZ53" s="96"/>
+      <c r="BA53" s="96"/>
+      <c r="BB53" s="96"/>
+      <c r="BC53" s="96"/>
+      <c r="BD53" s="96"/>
+      <c r="BE53" s="96"/>
+      <c r="BF53" s="96"/>
+      <c r="BG53" s="96"/>
+      <c r="BH53" s="96"/>
+      <c r="BI53" s="97"/>
       <c r="BJ53" s="75"/>
       <c r="BK53" s="88"/>
       <c r="BL53" s="88"/>
@@ -4230,124 +4264,124 @@
       </c>
     </row>
     <row r="58" spans="3:64">
-      <c r="D58" s="97" t="s">
+      <c r="D58" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97">
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91">
         <v>1</v>
       </c>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97">
+      <c r="H58" s="91"/>
+      <c r="I58" s="91">
         <v>2</v>
       </c>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97">
+      <c r="J58" s="91"/>
+      <c r="K58" s="91">
         <v>3</v>
       </c>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97">
+      <c r="L58" s="91"/>
+      <c r="M58" s="91">
         <v>4</v>
       </c>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97">
+      <c r="N58" s="91"/>
+      <c r="O58" s="91">
         <v>5</v>
       </c>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97">
+      <c r="P58" s="91"/>
+      <c r="Q58" s="91">
         <v>6</v>
       </c>
-      <c r="R58" s="97"/>
-      <c r="S58" s="97">
+      <c r="R58" s="91"/>
+      <c r="S58" s="91">
         <v>7</v>
       </c>
-      <c r="T58" s="97"/>
-      <c r="U58" s="97">
+      <c r="T58" s="91"/>
+      <c r="U58" s="91">
         <v>8</v>
       </c>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97" t="s">
+      <c r="V58" s="91"/>
+      <c r="W58" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="X58" s="97"/>
-      <c r="Y58" s="97">
+      <c r="X58" s="91"/>
+      <c r="Y58" s="91">
         <v>1</v>
       </c>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="97">
+      <c r="Z58" s="91"/>
+      <c r="AA58" s="91">
         <v>2</v>
       </c>
-      <c r="AB58" s="97"/>
-      <c r="AC58" s="97">
+      <c r="AB58" s="91"/>
+      <c r="AC58" s="91">
         <v>3</v>
       </c>
-      <c r="AD58" s="97"/>
-      <c r="AE58" s="97">
+      <c r="AD58" s="91"/>
+      <c r="AE58" s="91">
         <v>4</v>
       </c>
-      <c r="AF58" s="97"/>
-      <c r="AG58" s="97">
+      <c r="AF58" s="91"/>
+      <c r="AG58" s="91">
         <v>5</v>
       </c>
-      <c r="AH58" s="97"/>
-      <c r="AI58" s="97">
+      <c r="AH58" s="91"/>
+      <c r="AI58" s="91">
         <v>6</v>
       </c>
-      <c r="AJ58" s="97"/>
-      <c r="AK58" s="97">
+      <c r="AJ58" s="91"/>
+      <c r="AK58" s="91">
         <v>7</v>
       </c>
-      <c r="AL58" s="97"/>
-      <c r="AM58" s="97">
+      <c r="AL58" s="91"/>
+      <c r="AM58" s="91">
         <v>8</v>
       </c>
-      <c r="AN58" s="97"/>
-      <c r="AO58" s="97" t="s">
+      <c r="AN58" s="91"/>
+      <c r="AO58" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="AP58" s="97"/>
-      <c r="AQ58" s="97">
+      <c r="AP58" s="91"/>
+      <c r="AQ58" s="91">
         <v>1</v>
       </c>
-      <c r="AR58" s="97"/>
-      <c r="AS58" s="97">
+      <c r="AR58" s="91"/>
+      <c r="AS58" s="91">
         <v>2</v>
       </c>
-      <c r="AT58" s="97"/>
-      <c r="AU58" s="97">
+      <c r="AT58" s="91"/>
+      <c r="AU58" s="91">
         <v>3</v>
       </c>
-      <c r="AV58" s="97"/>
-      <c r="AW58" s="97">
+      <c r="AV58" s="91"/>
+      <c r="AW58" s="91">
         <v>4</v>
       </c>
-      <c r="AX58" s="97"/>
-      <c r="AY58" s="97">
+      <c r="AX58" s="91"/>
+      <c r="AY58" s="91">
         <v>5</v>
       </c>
-      <c r="AZ58" s="97"/>
-      <c r="BA58" s="97">
+      <c r="AZ58" s="91"/>
+      <c r="BA58" s="91">
         <v>6</v>
       </c>
-      <c r="BB58" s="97"/>
-      <c r="BC58" s="97">
+      <c r="BB58" s="91"/>
+      <c r="BC58" s="91">
         <v>7</v>
       </c>
-      <c r="BD58" s="97"/>
-      <c r="BE58" s="97">
+      <c r="BD58" s="91"/>
+      <c r="BE58" s="91">
         <v>8</v>
       </c>
-      <c r="BF58" s="97"/>
-      <c r="BG58" s="97" t="s">
+      <c r="BF58" s="91"/>
+      <c r="BG58" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="BH58" s="97"/>
-      <c r="BI58" s="97" t="s">
+      <c r="BH58" s="91"/>
+      <c r="BI58" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="BJ58" s="97"/>
-      <c r="BK58" s="97"/>
+      <c r="BJ58" s="91"/>
+      <c r="BK58" s="91"/>
       <c r="BL58" s="72"/>
     </row>
     <row r="60" spans="3:64">
@@ -4423,76 +4457,76 @@
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
       <c r="F62" s="79"/>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
-      <c r="K62" s="92"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="92"/>
-      <c r="N62" s="92"/>
-      <c r="O62" s="92"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="91" t="s">
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="97"/>
+      <c r="Q62" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="R62" s="92"/>
-      <c r="S62" s="92"/>
-      <c r="T62" s="93"/>
-      <c r="U62" s="91" t="s">
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="97"/>
+      <c r="U62" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="V62" s="93"/>
-      <c r="W62" s="101" t="s">
+      <c r="V62" s="97"/>
+      <c r="W62" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="X62" s="102"/>
-      <c r="Y62" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z62" s="95"/>
-      <c r="AA62" s="95"/>
-      <c r="AB62" s="95"/>
-      <c r="AC62" s="95"/>
-      <c r="AD62" s="95"/>
-      <c r="AE62" s="95"/>
-      <c r="AF62" s="95"/>
-      <c r="AG62" s="95"/>
-      <c r="AH62" s="95"/>
-      <c r="AI62" s="95"/>
-      <c r="AJ62" s="95"/>
-      <c r="AK62" s="95"/>
-      <c r="AL62" s="95"/>
-      <c r="AM62" s="95"/>
-      <c r="AN62" s="96"/>
-      <c r="AO62" s="103" t="s">
+      <c r="X62" s="101"/>
+      <c r="Y62" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="93"/>
+      <c r="AC62" s="93"/>
+      <c r="AD62" s="93"/>
+      <c r="AE62" s="93"/>
+      <c r="AF62" s="93"/>
+      <c r="AG62" s="93"/>
+      <c r="AH62" s="93"/>
+      <c r="AI62" s="93"/>
+      <c r="AJ62" s="93"/>
+      <c r="AK62" s="93"/>
+      <c r="AL62" s="93"/>
+      <c r="AM62" s="93"/>
+      <c r="AN62" s="94"/>
+      <c r="AO62" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="AP62" s="104"/>
-      <c r="AQ62" s="94" t="s">
+      <c r="AP62" s="103"/>
+      <c r="AQ62" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="AR62" s="95"/>
-      <c r="AS62" s="95"/>
-      <c r="AT62" s="95"/>
-      <c r="AU62" s="95"/>
-      <c r="AV62" s="95"/>
-      <c r="AW62" s="95"/>
-      <c r="AX62" s="95"/>
-      <c r="AY62" s="95"/>
-      <c r="AZ62" s="95"/>
-      <c r="BA62" s="95"/>
-      <c r="BB62" s="95"/>
-      <c r="BC62" s="95"/>
-      <c r="BD62" s="95"/>
-      <c r="BE62" s="95"/>
-      <c r="BF62" s="96"/>
-      <c r="BG62" s="106" t="s">
+      <c r="AR62" s="93"/>
+      <c r="AS62" s="93"/>
+      <c r="AT62" s="93"/>
+      <c r="AU62" s="93"/>
+      <c r="AV62" s="93"/>
+      <c r="AW62" s="93"/>
+      <c r="AX62" s="93"/>
+      <c r="AY62" s="93"/>
+      <c r="AZ62" s="93"/>
+      <c r="BA62" s="93"/>
+      <c r="BB62" s="93"/>
+      <c r="BC62" s="93"/>
+      <c r="BD62" s="93"/>
+      <c r="BE62" s="93"/>
+      <c r="BF62" s="94"/>
+      <c r="BG62" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="BH62" s="107"/>
+      <c r="BH62" s="99"/>
       <c r="BI62" s="82"/>
       <c r="BJ62" s="81"/>
       <c r="BK62" s="80"/>
@@ -4634,29 +4668,29 @@
       <c r="C68" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="95">
+      <c r="D68" s="93">
         <v>0</v>
       </c>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
-      <c r="R68" s="95"/>
-      <c r="S68" s="95"/>
-      <c r="T68" s="95"/>
-      <c r="U68" s="95"/>
-      <c r="V68" s="95"/>
-      <c r="W68" s="95"/>
-      <c r="X68" s="96"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="93"/>
+      <c r="M68" s="93"/>
+      <c r="N68" s="93"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="93"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="93"/>
+      <c r="S68" s="93"/>
+      <c r="T68" s="93"/>
+      <c r="U68" s="93"/>
+      <c r="V68" s="93"/>
+      <c r="W68" s="93"/>
+      <c r="X68" s="94"/>
       <c r="Y68" s="90"/>
       <c r="Z68" s="88"/>
       <c r="AA68" s="88"/>
@@ -4695,10 +4729,10 @@
       <c r="BH68" s="88"/>
       <c r="BI68" s="88"/>
       <c r="BJ68" s="88"/>
-      <c r="BK68" s="94">
+      <c r="BK68" s="92">
         <v>0</v>
       </c>
-      <c r="BL68" s="95"/>
+      <c r="BL68" s="93"/>
     </row>
     <row r="70" spans="3:64">
       <c r="C70" t="s">
@@ -4727,45 +4761,45 @@
       <c r="X70" s="74"/>
       <c r="Y70" s="74"/>
       <c r="Z70" s="74"/>
-      <c r="AA70" s="91" t="s">
+      <c r="AA70" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="AB70" s="92"/>
-      <c r="AC70" s="92"/>
-      <c r="AD70" s="92"/>
-      <c r="AE70" s="92"/>
-      <c r="AF70" s="92"/>
-      <c r="AG70" s="92"/>
-      <c r="AH70" s="92"/>
-      <c r="AI70" s="92"/>
-      <c r="AJ70" s="92"/>
-      <c r="AK70" s="92"/>
-      <c r="AL70" s="92"/>
-      <c r="AM70" s="92"/>
-      <c r="AN70" s="92"/>
-      <c r="AO70" s="92"/>
-      <c r="AP70" s="92"/>
-      <c r="AQ70" s="93"/>
+      <c r="AB70" s="96"/>
+      <c r="AC70" s="96"/>
+      <c r="AD70" s="96"/>
+      <c r="AE70" s="96"/>
+      <c r="AF70" s="96"/>
+      <c r="AG70" s="96"/>
+      <c r="AH70" s="96"/>
+      <c r="AI70" s="96"/>
+      <c r="AJ70" s="96"/>
+      <c r="AK70" s="96"/>
+      <c r="AL70" s="96"/>
+      <c r="AM70" s="96"/>
+      <c r="AN70" s="96"/>
+      <c r="AO70" s="96"/>
+      <c r="AP70" s="96"/>
+      <c r="AQ70" s="97"/>
       <c r="AR70" s="74"/>
-      <c r="AS70" s="91" t="s">
+      <c r="AS70" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="AT70" s="92"/>
-      <c r="AU70" s="92"/>
-      <c r="AV70" s="92"/>
-      <c r="AW70" s="92"/>
-      <c r="AX70" s="92"/>
-      <c r="AY70" s="92"/>
-      <c r="AZ70" s="92"/>
-      <c r="BA70" s="92"/>
-      <c r="BB70" s="92"/>
-      <c r="BC70" s="92"/>
-      <c r="BD70" s="92"/>
-      <c r="BE70" s="92"/>
-      <c r="BF70" s="92"/>
-      <c r="BG70" s="92"/>
-      <c r="BH70" s="92"/>
-      <c r="BI70" s="93"/>
+      <c r="AT70" s="96"/>
+      <c r="AU70" s="96"/>
+      <c r="AV70" s="96"/>
+      <c r="AW70" s="96"/>
+      <c r="AX70" s="96"/>
+      <c r="AY70" s="96"/>
+      <c r="AZ70" s="96"/>
+      <c r="BA70" s="96"/>
+      <c r="BB70" s="96"/>
+      <c r="BC70" s="96"/>
+      <c r="BD70" s="96"/>
+      <c r="BE70" s="96"/>
+      <c r="BF70" s="96"/>
+      <c r="BG70" s="96"/>
+      <c r="BH70" s="96"/>
+      <c r="BI70" s="97"/>
       <c r="BJ70" s="75"/>
       <c r="BK70" s="88"/>
       <c r="BL70" s="88"/>
@@ -4988,72 +5022,72 @@
       <c r="D81" s="69"/>
       <c r="E81" s="69"/>
       <c r="F81" s="69"/>
-      <c r="G81" s="94">
+      <c r="G81" s="92">
         <v>7</v>
       </c>
-      <c r="H81" s="96"/>
-      <c r="I81" s="94">
+      <c r="H81" s="94"/>
+      <c r="I81" s="92">
         <v>6</v>
       </c>
-      <c r="J81" s="96"/>
-      <c r="K81" s="94">
+      <c r="J81" s="94"/>
+      <c r="K81" s="92">
         <v>5</v>
       </c>
-      <c r="L81" s="96"/>
-      <c r="M81" s="94">
+      <c r="L81" s="94"/>
+      <c r="M81" s="92">
         <v>4</v>
       </c>
-      <c r="N81" s="96"/>
-      <c r="O81" s="94">
+      <c r="N81" s="94"/>
+      <c r="O81" s="92">
         <v>3</v>
       </c>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="94">
+      <c r="P81" s="94"/>
+      <c r="Q81" s="92">
         <v>2</v>
       </c>
-      <c r="R81" s="96"/>
-      <c r="S81" s="94">
+      <c r="R81" s="94"/>
+      <c r="S81" s="92">
         <v>1</v>
       </c>
-      <c r="T81" s="96"/>
-      <c r="U81" s="94">
+      <c r="T81" s="94"/>
+      <c r="U81" s="92">
         <v>0</v>
       </c>
-      <c r="V81" s="96"/>
+      <c r="V81" s="94"/>
       <c r="W81" s="69"/>
       <c r="X81" s="69"/>
-      <c r="Y81" s="94">
+      <c r="Y81" s="92">
         <v>7</v>
       </c>
-      <c r="Z81" s="96"/>
-      <c r="AA81" s="94">
+      <c r="Z81" s="94"/>
+      <c r="AA81" s="92">
         <v>6</v>
       </c>
-      <c r="AB81" s="96"/>
-      <c r="AC81" s="94">
+      <c r="AB81" s="94"/>
+      <c r="AC81" s="92">
         <v>5</v>
       </c>
-      <c r="AD81" s="96"/>
-      <c r="AE81" s="94">
+      <c r="AD81" s="94"/>
+      <c r="AE81" s="92">
         <v>4</v>
       </c>
-      <c r="AF81" s="96"/>
-      <c r="AG81" s="94">
+      <c r="AF81" s="94"/>
+      <c r="AG81" s="92">
         <v>3</v>
       </c>
-      <c r="AH81" s="96"/>
-      <c r="AI81" s="94">
+      <c r="AH81" s="94"/>
+      <c r="AI81" s="92">
         <v>2</v>
       </c>
-      <c r="AJ81" s="96"/>
-      <c r="AK81" s="94">
+      <c r="AJ81" s="94"/>
+      <c r="AK81" s="92">
         <v>1</v>
       </c>
-      <c r="AL81" s="96"/>
-      <c r="AM81" s="94">
+      <c r="AL81" s="94"/>
+      <c r="AM81" s="92">
         <v>0</v>
       </c>
-      <c r="AN81" s="96"/>
+      <c r="AN81" s="94"/>
       <c r="AO81" s="69"/>
       <c r="AP81" s="69"/>
       <c r="AQ81" s="69"/>
@@ -5069,72 +5103,72 @@
       <c r="E83" s="69"/>
       <c r="F83" s="69"/>
       <c r="G83" s="69"/>
-      <c r="H83" s="91">
+      <c r="H83" s="95">
         <v>7</v>
       </c>
-      <c r="I83" s="93"/>
-      <c r="J83" s="91">
+      <c r="I83" s="97"/>
+      <c r="J83" s="95">
         <v>6</v>
       </c>
-      <c r="K83" s="93"/>
-      <c r="L83" s="91">
+      <c r="K83" s="97"/>
+      <c r="L83" s="95">
         <v>5</v>
       </c>
-      <c r="M83" s="93"/>
-      <c r="N83" s="91">
+      <c r="M83" s="97"/>
+      <c r="N83" s="95">
         <v>4</v>
       </c>
-      <c r="O83" s="93"/>
-      <c r="P83" s="91">
+      <c r="O83" s="97"/>
+      <c r="P83" s="95">
         <v>3</v>
       </c>
-      <c r="Q83" s="93"/>
-      <c r="R83" s="91">
+      <c r="Q83" s="97"/>
+      <c r="R83" s="95">
         <v>2</v>
       </c>
-      <c r="S83" s="93"/>
-      <c r="T83" s="91">
+      <c r="S83" s="97"/>
+      <c r="T83" s="95">
         <v>1</v>
       </c>
-      <c r="U83" s="93"/>
-      <c r="V83" s="91">
+      <c r="U83" s="97"/>
+      <c r="V83" s="95">
         <v>0</v>
       </c>
-      <c r="W83" s="93"/>
+      <c r="W83" s="97"/>
       <c r="X83" s="69"/>
       <c r="Y83" s="69"/>
-      <c r="Z83" s="91">
+      <c r="Z83" s="95">
         <v>7</v>
       </c>
-      <c r="AA83" s="93"/>
-      <c r="AB83" s="91">
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="95">
         <v>6</v>
       </c>
-      <c r="AC83" s="93"/>
-      <c r="AD83" s="91">
+      <c r="AC83" s="97"/>
+      <c r="AD83" s="95">
         <v>5</v>
       </c>
-      <c r="AE83" s="93"/>
-      <c r="AF83" s="91">
+      <c r="AE83" s="97"/>
+      <c r="AF83" s="95">
         <v>4</v>
       </c>
-      <c r="AG83" s="93"/>
-      <c r="AH83" s="91">
+      <c r="AG83" s="97"/>
+      <c r="AH83" s="95">
         <v>3</v>
       </c>
-      <c r="AI83" s="93"/>
-      <c r="AJ83" s="91">
+      <c r="AI83" s="97"/>
+      <c r="AJ83" s="95">
         <v>2</v>
       </c>
-      <c r="AK83" s="93"/>
-      <c r="AL83" s="91">
+      <c r="AK83" s="97"/>
+      <c r="AL83" s="95">
         <v>1</v>
       </c>
-      <c r="AM83" s="93"/>
-      <c r="AN83" s="91">
+      <c r="AM83" s="97"/>
+      <c r="AN83" s="95">
         <v>0</v>
       </c>
-      <c r="AO83" s="93"/>
+      <c r="AO83" s="97"/>
       <c r="AP83" s="69"/>
       <c r="AQ83" s="69"/>
       <c r="AR83" s="69"/>
@@ -5310,72 +5344,72 @@
       <c r="E92" s="69"/>
       <c r="F92" s="69"/>
       <c r="G92" s="69"/>
-      <c r="H92" s="94">
+      <c r="H92" s="92">
         <v>7</v>
       </c>
-      <c r="I92" s="96"/>
-      <c r="J92" s="94">
+      <c r="I92" s="94"/>
+      <c r="J92" s="92">
         <v>6</v>
       </c>
-      <c r="K92" s="96"/>
-      <c r="L92" s="94">
+      <c r="K92" s="94"/>
+      <c r="L92" s="92">
         <v>5</v>
       </c>
-      <c r="M92" s="96"/>
-      <c r="N92" s="94">
+      <c r="M92" s="94"/>
+      <c r="N92" s="92">
         <v>4</v>
       </c>
-      <c r="O92" s="96"/>
-      <c r="P92" s="94">
+      <c r="O92" s="94"/>
+      <c r="P92" s="92">
         <v>3</v>
       </c>
-      <c r="Q92" s="96"/>
-      <c r="R92" s="94">
+      <c r="Q92" s="94"/>
+      <c r="R92" s="92">
         <v>2</v>
       </c>
-      <c r="S92" s="96"/>
-      <c r="T92" s="94">
+      <c r="S92" s="94"/>
+      <c r="T92" s="92">
         <v>1</v>
       </c>
-      <c r="U92" s="96"/>
-      <c r="V92" s="94">
+      <c r="U92" s="94"/>
+      <c r="V92" s="92">
         <v>0</v>
       </c>
-      <c r="W92" s="96"/>
+      <c r="W92" s="94"/>
       <c r="X92" s="69"/>
       <c r="Y92" s="69"/>
-      <c r="Z92" s="94">
+      <c r="Z92" s="92">
         <v>7</v>
       </c>
-      <c r="AA92" s="96"/>
-      <c r="AB92" s="94">
+      <c r="AA92" s="94"/>
+      <c r="AB92" s="92">
         <v>6</v>
       </c>
-      <c r="AC92" s="96"/>
-      <c r="AD92" s="94">
+      <c r="AC92" s="94"/>
+      <c r="AD92" s="92">
         <v>5</v>
       </c>
-      <c r="AE92" s="96"/>
-      <c r="AF92" s="94">
+      <c r="AE92" s="94"/>
+      <c r="AF92" s="92">
         <v>4</v>
       </c>
-      <c r="AG92" s="96"/>
-      <c r="AH92" s="94">
+      <c r="AG92" s="94"/>
+      <c r="AH92" s="92">
         <v>3</v>
       </c>
-      <c r="AI92" s="96"/>
-      <c r="AJ92" s="94">
+      <c r="AI92" s="94"/>
+      <c r="AJ92" s="92">
         <v>2</v>
       </c>
-      <c r="AK92" s="96"/>
-      <c r="AL92" s="94">
+      <c r="AK92" s="94"/>
+      <c r="AL92" s="92">
         <v>1</v>
       </c>
-      <c r="AM92" s="96"/>
-      <c r="AN92" s="94">
+      <c r="AM92" s="94"/>
+      <c r="AN92" s="92">
         <v>0</v>
       </c>
-      <c r="AO92" s="96"/>
+      <c r="AO92" s="94"/>
       <c r="AP92" s="69"/>
       <c r="AQ92" s="69"/>
       <c r="AR92" s="69"/>
@@ -5389,72 +5423,72 @@
       <c r="D94" s="69"/>
       <c r="E94" s="69"/>
       <c r="F94" s="69"/>
-      <c r="G94" s="91">
+      <c r="G94" s="95">
         <v>7</v>
       </c>
-      <c r="H94" s="93"/>
-      <c r="I94" s="91">
+      <c r="H94" s="97"/>
+      <c r="I94" s="95">
         <v>6</v>
       </c>
-      <c r="J94" s="93"/>
-      <c r="K94" s="91">
+      <c r="J94" s="97"/>
+      <c r="K94" s="95">
         <v>5</v>
       </c>
-      <c r="L94" s="93"/>
-      <c r="M94" s="91">
+      <c r="L94" s="97"/>
+      <c r="M94" s="95">
         <v>4</v>
       </c>
-      <c r="N94" s="93"/>
-      <c r="O94" s="91">
+      <c r="N94" s="97"/>
+      <c r="O94" s="95">
         <v>3</v>
       </c>
-      <c r="P94" s="93"/>
-      <c r="Q94" s="91">
+      <c r="P94" s="97"/>
+      <c r="Q94" s="95">
         <v>2</v>
       </c>
-      <c r="R94" s="93"/>
-      <c r="S94" s="91">
+      <c r="R94" s="97"/>
+      <c r="S94" s="95">
         <v>1</v>
       </c>
-      <c r="T94" s="93"/>
-      <c r="U94" s="91">
+      <c r="T94" s="97"/>
+      <c r="U94" s="95">
         <v>0</v>
       </c>
-      <c r="V94" s="93"/>
+      <c r="V94" s="97"/>
       <c r="W94" s="69"/>
       <c r="X94" s="69"/>
-      <c r="Y94" s="91">
+      <c r="Y94" s="95">
         <v>7</v>
       </c>
-      <c r="Z94" s="93"/>
-      <c r="AA94" s="91">
+      <c r="Z94" s="97"/>
+      <c r="AA94" s="95">
         <v>6</v>
       </c>
-      <c r="AB94" s="93"/>
-      <c r="AC94" s="91">
+      <c r="AB94" s="97"/>
+      <c r="AC94" s="95">
         <v>5</v>
       </c>
-      <c r="AD94" s="93"/>
-      <c r="AE94" s="91">
+      <c r="AD94" s="97"/>
+      <c r="AE94" s="95">
         <v>4</v>
       </c>
-      <c r="AF94" s="93"/>
-      <c r="AG94" s="91">
+      <c r="AF94" s="97"/>
+      <c r="AG94" s="95">
         <v>3</v>
       </c>
-      <c r="AH94" s="93"/>
-      <c r="AI94" s="91">
+      <c r="AH94" s="97"/>
+      <c r="AI94" s="95">
         <v>2</v>
       </c>
-      <c r="AJ94" s="93"/>
-      <c r="AK94" s="91">
+      <c r="AJ94" s="97"/>
+      <c r="AK94" s="95">
         <v>1</v>
       </c>
-      <c r="AL94" s="93"/>
-      <c r="AM94" s="91">
+      <c r="AL94" s="97"/>
+      <c r="AM94" s="95">
         <v>0</v>
       </c>
-      <c r="AN94" s="93"/>
+      <c r="AN94" s="97"/>
       <c r="AO94" s="69"/>
       <c r="AP94" s="69"/>
       <c r="AQ94" s="69"/>
@@ -5629,72 +5663,72 @@
       <c r="D103" s="69"/>
       <c r="E103" s="69"/>
       <c r="F103" s="69"/>
-      <c r="G103" s="94">
+      <c r="G103" s="92">
         <v>7</v>
       </c>
-      <c r="H103" s="96"/>
-      <c r="I103" s="94">
+      <c r="H103" s="94"/>
+      <c r="I103" s="92">
         <v>6</v>
       </c>
-      <c r="J103" s="96"/>
-      <c r="K103" s="94">
+      <c r="J103" s="94"/>
+      <c r="K103" s="92">
         <v>5</v>
       </c>
-      <c r="L103" s="96"/>
-      <c r="M103" s="94">
+      <c r="L103" s="94"/>
+      <c r="M103" s="92">
         <v>4</v>
       </c>
-      <c r="N103" s="96"/>
-      <c r="O103" s="94">
+      <c r="N103" s="94"/>
+      <c r="O103" s="92">
         <v>3</v>
       </c>
-      <c r="P103" s="96"/>
-      <c r="Q103" s="94">
+      <c r="P103" s="94"/>
+      <c r="Q103" s="92">
         <v>2</v>
       </c>
-      <c r="R103" s="96"/>
-      <c r="S103" s="94">
+      <c r="R103" s="94"/>
+      <c r="S103" s="92">
         <v>1</v>
       </c>
-      <c r="T103" s="96"/>
-      <c r="U103" s="94">
+      <c r="T103" s="94"/>
+      <c r="U103" s="92">
         <v>0</v>
       </c>
-      <c r="V103" s="96"/>
+      <c r="V103" s="94"/>
       <c r="W103" s="69"/>
       <c r="X103" s="69"/>
-      <c r="Y103" s="94">
+      <c r="Y103" s="92">
         <v>7</v>
       </c>
-      <c r="Z103" s="96"/>
-      <c r="AA103" s="94">
+      <c r="Z103" s="94"/>
+      <c r="AA103" s="92">
         <v>6</v>
       </c>
-      <c r="AB103" s="96"/>
-      <c r="AC103" s="94">
+      <c r="AB103" s="94"/>
+      <c r="AC103" s="92">
         <v>5</v>
       </c>
-      <c r="AD103" s="96"/>
-      <c r="AE103" s="94">
+      <c r="AD103" s="94"/>
+      <c r="AE103" s="92">
         <v>4</v>
       </c>
-      <c r="AF103" s="96"/>
-      <c r="AG103" s="94">
+      <c r="AF103" s="94"/>
+      <c r="AG103" s="92">
         <v>3</v>
       </c>
-      <c r="AH103" s="96"/>
-      <c r="AI103" s="94">
+      <c r="AH103" s="94"/>
+      <c r="AI103" s="92">
         <v>2</v>
       </c>
-      <c r="AJ103" s="96"/>
-      <c r="AK103" s="94">
+      <c r="AJ103" s="94"/>
+      <c r="AK103" s="92">
         <v>1</v>
       </c>
-      <c r="AL103" s="96"/>
-      <c r="AM103" s="94">
+      <c r="AL103" s="94"/>
+      <c r="AM103" s="92">
         <v>0</v>
       </c>
-      <c r="AN103" s="96"/>
+      <c r="AN103" s="94"/>
       <c r="AO103" s="69"/>
       <c r="AP103" s="69"/>
       <c r="AQ103" s="69"/>
@@ -5710,72 +5744,72 @@
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
       <c r="G105" s="69"/>
-      <c r="H105" s="91">
+      <c r="H105" s="95">
         <v>7</v>
       </c>
-      <c r="I105" s="93"/>
-      <c r="J105" s="91">
+      <c r="I105" s="97"/>
+      <c r="J105" s="95">
         <v>6</v>
       </c>
-      <c r="K105" s="93"/>
-      <c r="L105" s="91">
+      <c r="K105" s="97"/>
+      <c r="L105" s="95">
         <v>5</v>
       </c>
-      <c r="M105" s="93"/>
-      <c r="N105" s="91">
+      <c r="M105" s="97"/>
+      <c r="N105" s="95">
         <v>4</v>
       </c>
-      <c r="O105" s="93"/>
-      <c r="P105" s="91">
+      <c r="O105" s="97"/>
+      <c r="P105" s="95">
         <v>3</v>
       </c>
-      <c r="Q105" s="93"/>
-      <c r="R105" s="91">
+      <c r="Q105" s="97"/>
+      <c r="R105" s="95">
         <v>2</v>
       </c>
-      <c r="S105" s="93"/>
-      <c r="T105" s="91">
+      <c r="S105" s="97"/>
+      <c r="T105" s="95">
         <v>1</v>
       </c>
-      <c r="U105" s="93"/>
-      <c r="V105" s="91">
+      <c r="U105" s="97"/>
+      <c r="V105" s="95">
         <v>0</v>
       </c>
-      <c r="W105" s="93"/>
+      <c r="W105" s="97"/>
       <c r="X105" s="69"/>
       <c r="Y105" s="69"/>
-      <c r="Z105" s="91">
+      <c r="Z105" s="95">
         <v>7</v>
       </c>
-      <c r="AA105" s="93"/>
-      <c r="AB105" s="91">
+      <c r="AA105" s="97"/>
+      <c r="AB105" s="95">
         <v>6</v>
       </c>
-      <c r="AC105" s="93"/>
-      <c r="AD105" s="91">
+      <c r="AC105" s="97"/>
+      <c r="AD105" s="95">
         <v>5</v>
       </c>
-      <c r="AE105" s="93"/>
-      <c r="AF105" s="91">
+      <c r="AE105" s="97"/>
+      <c r="AF105" s="95">
         <v>4</v>
       </c>
-      <c r="AG105" s="93"/>
-      <c r="AH105" s="91">
+      <c r="AG105" s="97"/>
+      <c r="AH105" s="95">
         <v>3</v>
       </c>
-      <c r="AI105" s="93"/>
-      <c r="AJ105" s="91">
+      <c r="AI105" s="97"/>
+      <c r="AJ105" s="95">
         <v>2</v>
       </c>
-      <c r="AK105" s="93"/>
-      <c r="AL105" s="91">
+      <c r="AK105" s="97"/>
+      <c r="AL105" s="95">
         <v>1</v>
       </c>
-      <c r="AM105" s="93"/>
-      <c r="AN105" s="91">
+      <c r="AM105" s="97"/>
+      <c r="AN105" s="95">
         <v>0</v>
       </c>
-      <c r="AO105" s="93"/>
+      <c r="AO105" s="97"/>
       <c r="AP105" s="69"/>
       <c r="AQ105" s="69"/>
       <c r="AR105" s="69"/>
@@ -5954,72 +5988,72 @@
       <c r="E114" s="69"/>
       <c r="F114" s="69"/>
       <c r="G114" s="69"/>
-      <c r="H114" s="94">
+      <c r="H114" s="92">
         <v>7</v>
       </c>
-      <c r="I114" s="96"/>
-      <c r="J114" s="94">
+      <c r="I114" s="94"/>
+      <c r="J114" s="92">
         <v>6</v>
       </c>
-      <c r="K114" s="96"/>
-      <c r="L114" s="94">
+      <c r="K114" s="94"/>
+      <c r="L114" s="92">
         <v>5</v>
       </c>
-      <c r="M114" s="96"/>
-      <c r="N114" s="94">
+      <c r="M114" s="94"/>
+      <c r="N114" s="92">
         <v>4</v>
       </c>
-      <c r="O114" s="96"/>
-      <c r="P114" s="94">
+      <c r="O114" s="94"/>
+      <c r="P114" s="92">
         <v>3</v>
       </c>
-      <c r="Q114" s="96"/>
-      <c r="R114" s="94">
+      <c r="Q114" s="94"/>
+      <c r="R114" s="92">
         <v>2</v>
       </c>
-      <c r="S114" s="96"/>
-      <c r="T114" s="94">
+      <c r="S114" s="94"/>
+      <c r="T114" s="92">
         <v>1</v>
       </c>
-      <c r="U114" s="96"/>
-      <c r="V114" s="94">
+      <c r="U114" s="94"/>
+      <c r="V114" s="92">
         <v>0</v>
       </c>
-      <c r="W114" s="96"/>
+      <c r="W114" s="94"/>
       <c r="X114" s="69"/>
       <c r="Y114" s="69"/>
-      <c r="Z114" s="94">
+      <c r="Z114" s="92">
         <v>7</v>
       </c>
-      <c r="AA114" s="96"/>
-      <c r="AB114" s="94">
+      <c r="AA114" s="94"/>
+      <c r="AB114" s="92">
         <v>6</v>
       </c>
-      <c r="AC114" s="96"/>
-      <c r="AD114" s="94">
+      <c r="AC114" s="94"/>
+      <c r="AD114" s="92">
         <v>5</v>
       </c>
-      <c r="AE114" s="96"/>
-      <c r="AF114" s="94">
+      <c r="AE114" s="94"/>
+      <c r="AF114" s="92">
         <v>4</v>
       </c>
-      <c r="AG114" s="96"/>
-      <c r="AH114" s="94">
+      <c r="AG114" s="94"/>
+      <c r="AH114" s="92">
         <v>3</v>
       </c>
-      <c r="AI114" s="96"/>
-      <c r="AJ114" s="94">
+      <c r="AI114" s="94"/>
+      <c r="AJ114" s="92">
         <v>2</v>
       </c>
-      <c r="AK114" s="96"/>
-      <c r="AL114" s="94">
+      <c r="AK114" s="94"/>
+      <c r="AL114" s="92">
         <v>1</v>
       </c>
-      <c r="AM114" s="96"/>
-      <c r="AN114" s="94">
+      <c r="AM114" s="94"/>
+      <c r="AN114" s="92">
         <v>0</v>
       </c>
-      <c r="AO114" s="96"/>
+      <c r="AO114" s="94"/>
       <c r="AP114" s="69"/>
       <c r="AQ114" s="69"/>
       <c r="AR114" s="69"/>
@@ -6033,72 +6067,72 @@
       <c r="D116" s="69"/>
       <c r="E116" s="69"/>
       <c r="F116" s="69"/>
-      <c r="G116" s="91">
+      <c r="G116" s="95">
         <v>7</v>
       </c>
-      <c r="H116" s="93"/>
-      <c r="I116" s="91">
+      <c r="H116" s="97"/>
+      <c r="I116" s="95">
         <v>6</v>
       </c>
-      <c r="J116" s="93"/>
-      <c r="K116" s="91">
+      <c r="J116" s="97"/>
+      <c r="K116" s="95">
         <v>5</v>
       </c>
-      <c r="L116" s="93"/>
-      <c r="M116" s="91">
+      <c r="L116" s="97"/>
+      <c r="M116" s="95">
         <v>4</v>
       </c>
-      <c r="N116" s="93"/>
-      <c r="O116" s="91">
+      <c r="N116" s="97"/>
+      <c r="O116" s="95">
         <v>3</v>
       </c>
-      <c r="P116" s="93"/>
-      <c r="Q116" s="91">
+      <c r="P116" s="97"/>
+      <c r="Q116" s="95">
         <v>2</v>
       </c>
-      <c r="R116" s="93"/>
-      <c r="S116" s="91">
+      <c r="R116" s="97"/>
+      <c r="S116" s="95">
         <v>1</v>
       </c>
-      <c r="T116" s="93"/>
-      <c r="U116" s="91">
+      <c r="T116" s="97"/>
+      <c r="U116" s="95">
         <v>0</v>
       </c>
-      <c r="V116" s="93"/>
+      <c r="V116" s="97"/>
       <c r="W116" s="69"/>
       <c r="X116" s="69"/>
-      <c r="Y116" s="91">
+      <c r="Y116" s="95">
         <v>7</v>
       </c>
-      <c r="Z116" s="93"/>
-      <c r="AA116" s="91">
+      <c r="Z116" s="97"/>
+      <c r="AA116" s="95">
         <v>6</v>
       </c>
-      <c r="AB116" s="93"/>
-      <c r="AC116" s="91">
+      <c r="AB116" s="97"/>
+      <c r="AC116" s="95">
         <v>5</v>
       </c>
-      <c r="AD116" s="93"/>
-      <c r="AE116" s="91">
+      <c r="AD116" s="97"/>
+      <c r="AE116" s="95">
         <v>4</v>
       </c>
-      <c r="AF116" s="93"/>
-      <c r="AG116" s="91">
+      <c r="AF116" s="97"/>
+      <c r="AG116" s="95">
         <v>3</v>
       </c>
-      <c r="AH116" s="93"/>
-      <c r="AI116" s="91">
+      <c r="AH116" s="97"/>
+      <c r="AI116" s="95">
         <v>2</v>
       </c>
-      <c r="AJ116" s="93"/>
-      <c r="AK116" s="91">
+      <c r="AJ116" s="97"/>
+      <c r="AK116" s="95">
         <v>1</v>
       </c>
-      <c r="AL116" s="93"/>
-      <c r="AM116" s="91">
+      <c r="AL116" s="97"/>
+      <c r="AM116" s="95">
         <v>0</v>
       </c>
-      <c r="AN116" s="93"/>
+      <c r="AN116" s="97"/>
       <c r="AO116" s="69"/>
       <c r="AP116" s="69"/>
       <c r="AQ116" s="69"/>
@@ -6108,17 +6142,263 @@
     </row>
   </sheetData>
   <mergeCells count="292">
-    <mergeCell ref="BG24:BH24"/>
-    <mergeCell ref="BE24:BF24"/>
-    <mergeCell ref="BC24:BD24"/>
-    <mergeCell ref="AS16:BI16"/>
-    <mergeCell ref="AA34:AQ34"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AS53:BI53"/>
+    <mergeCell ref="Y62:AN62"/>
+    <mergeCell ref="BK16:BL16"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BK68:BL68"/>
+    <mergeCell ref="D68:X68"/>
+    <mergeCell ref="D34:Z34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="F51:X51"/>
+    <mergeCell ref="D16:Z16"/>
+    <mergeCell ref="BE41:BF41"/>
+    <mergeCell ref="BG41:BH41"/>
+    <mergeCell ref="AY41:AZ41"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BC41:BD41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="AY58:AZ58"/>
+    <mergeCell ref="BA58:BB58"/>
+    <mergeCell ref="BC58:BD58"/>
+    <mergeCell ref="BE58:BF58"/>
+    <mergeCell ref="BG58:BH58"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="AI116:AJ116"/>
+    <mergeCell ref="AK116:AL116"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="Y116:Z116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AE116:AF116"/>
+    <mergeCell ref="AG116:AH116"/>
+    <mergeCell ref="AJ105:AK105"/>
+    <mergeCell ref="AL105:AM105"/>
+    <mergeCell ref="AN105:AO105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AF105:AG105"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AI94:AJ94"/>
+    <mergeCell ref="AK94:AL94"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="AA53:AQ53"/>
+    <mergeCell ref="AN83:AO83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="V105:W105"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="AN114:AO114"/>
+    <mergeCell ref="T114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="Z114:AA114"/>
+    <mergeCell ref="AB114:AC114"/>
+    <mergeCell ref="AD114:AE114"/>
+    <mergeCell ref="AF114:AG114"/>
+    <mergeCell ref="AH92:AI92"/>
+    <mergeCell ref="AJ92:AK92"/>
+    <mergeCell ref="AL92:AM92"/>
+    <mergeCell ref="AN92:AO92"/>
+    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="AG94:AH94"/>
+    <mergeCell ref="AI103:AJ103"/>
+    <mergeCell ref="AK103:AL103"/>
+    <mergeCell ref="AH114:AI114"/>
+    <mergeCell ref="AJ114:AK114"/>
+    <mergeCell ref="AL114:AM114"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="Y103:Z103"/>
+    <mergeCell ref="AA103:AB103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="AE103:AF103"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AG103:AH103"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AH83:AI83"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AK81:AL81"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AE81:AF81"/>
+    <mergeCell ref="AM103:AN103"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AW41:AX41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AQ58:AR58"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="BI41:BK41"/>
+    <mergeCell ref="G45:P45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:AN45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AQ45:BF45"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AN28"/>
+    <mergeCell ref="AO28:AP28"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="Y10:AN10"/>
+    <mergeCell ref="AQ10:BF10"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G62:P62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="AA70:AQ70"/>
     <mergeCell ref="AS70:BI70"/>
     <mergeCell ref="AA36:AQ36"/>
@@ -6143,263 +6423,17 @@
     <mergeCell ref="AY24:AZ24"/>
     <mergeCell ref="AW24:AX24"/>
     <mergeCell ref="AU24:AV24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="G62:P62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="Y10:AN10"/>
-    <mergeCell ref="AQ10:BF10"/>
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA16:AQ16"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AO58:AP58"/>
-    <mergeCell ref="AQ58:AR58"/>
-    <mergeCell ref="AS58:AT58"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="BI41:BK41"/>
-    <mergeCell ref="G45:P45"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:AN45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AQ45:BF45"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AN28"/>
-    <mergeCell ref="AO28:AP28"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AU41:AV41"/>
-    <mergeCell ref="AW41:AX41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AP41"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AK81:AL81"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="Y81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AE81:AF81"/>
-    <mergeCell ref="AM103:AN103"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="U103:V103"/>
-    <mergeCell ref="Y103:Z103"/>
-    <mergeCell ref="AA103:AB103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="AE103:AF103"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AG103:AH103"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AH83:AI83"/>
-    <mergeCell ref="AN114:AO114"/>
-    <mergeCell ref="T114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="Z114:AA114"/>
-    <mergeCell ref="AB114:AC114"/>
-    <mergeCell ref="AD114:AE114"/>
-    <mergeCell ref="AF114:AG114"/>
-    <mergeCell ref="AH92:AI92"/>
-    <mergeCell ref="AJ92:AK92"/>
-    <mergeCell ref="AL92:AM92"/>
-    <mergeCell ref="AN92:AO92"/>
-    <mergeCell ref="Y94:Z94"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="AG94:AH94"/>
-    <mergeCell ref="AI103:AJ103"/>
-    <mergeCell ref="AK103:AL103"/>
-    <mergeCell ref="AH114:AI114"/>
-    <mergeCell ref="AJ114:AK114"/>
-    <mergeCell ref="AL114:AM114"/>
-    <mergeCell ref="AJ83:AK83"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:T116"/>
-    <mergeCell ref="V105:W105"/>
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="R114:S114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="AI116:AJ116"/>
-    <mergeCell ref="AK116:AL116"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="U116:V116"/>
-    <mergeCell ref="Y116:Z116"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AE116:AF116"/>
-    <mergeCell ref="AG116:AH116"/>
-    <mergeCell ref="AJ105:AK105"/>
-    <mergeCell ref="AL105:AM105"/>
-    <mergeCell ref="AN105:AO105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="AD105:AE105"/>
-    <mergeCell ref="AF105:AG105"/>
-    <mergeCell ref="AH105:AI105"/>
-    <mergeCell ref="AI94:AJ94"/>
-    <mergeCell ref="AK94:AL94"/>
-    <mergeCell ref="AM94:AN94"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="AA53:AQ53"/>
-    <mergeCell ref="AN83:AO83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="AS53:BI53"/>
-    <mergeCell ref="Y62:AN62"/>
-    <mergeCell ref="BK16:BL16"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BK68:BL68"/>
-    <mergeCell ref="D68:X68"/>
-    <mergeCell ref="D34:Z34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="F51:X51"/>
-    <mergeCell ref="D16:Z16"/>
-    <mergeCell ref="BE41:BF41"/>
-    <mergeCell ref="BG41:BH41"/>
-    <mergeCell ref="AY41:AZ41"/>
-    <mergeCell ref="BA41:BB41"/>
-    <mergeCell ref="BC41:BD41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="AY58:AZ58"/>
-    <mergeCell ref="BA58:BB58"/>
-    <mergeCell ref="BC58:BD58"/>
-    <mergeCell ref="BE58:BF58"/>
-    <mergeCell ref="BG58:BH58"/>
+    <mergeCell ref="BG24:BH24"/>
+    <mergeCell ref="BE24:BF24"/>
+    <mergeCell ref="BC24:BD24"/>
+    <mergeCell ref="AS16:BI16"/>
+    <mergeCell ref="AA34:AQ34"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AO24:AP24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="162">
   <si>
     <t>IO11</t>
   </si>
@@ -332,10 +332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[7:0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -689,21 +685,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x3B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0xFC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bidirectional SO support for reading
 0x85:read by SI, 0x75:read by SO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bidirectional SO support for reading
-0xFC:SO is output only, 0xB4:SO is bidirectional</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1397,55 +1380,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1842,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>42</v>
@@ -1858,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>69</v>
@@ -1877,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>41</v>
@@ -1891,7 +1874,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>67</v>
@@ -1910,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="19" t="s">
         <v>39</v>
@@ -1926,7 +1909,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>68</v>
@@ -1945,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>40</v>
@@ -1959,7 +1942,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>69</v>
@@ -2013,10 +1996,10 @@
         <v>18</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>37</v>
@@ -2027,7 +2010,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>15</v>
@@ -2075,10 +2058,10 @@
         <v>22</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>47</v>
@@ -2092,7 +2075,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>24</v>
@@ -2158,7 +2141,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8"/>
       <c r="G15" s="8"/>
@@ -2314,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2331,7 +2314,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>66</v>
@@ -2348,13 +2331,13 @@
         <v>71</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>72</v>
@@ -2365,10 +2348,10 @@
       <c r="C4" s="54"/>
       <c r="D4" s="51"/>
       <c r="E4" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2376,108 +2359,102 @@
       <c r="C5" s="44"/>
       <c r="D5" s="56"/>
       <c r="E5" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>139</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="27">
       <c r="B6" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27">
       <c r="B7" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="57"/>
     </row>
     <row r="8" spans="2:8" ht="27">
       <c r="B8" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>137</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>138</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="27">
-      <c r="B9" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>163</v>
+      <c r="B9" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="27">
-      <c r="B10" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="53" t="s">
-        <v>102</v>
+    </row>
+    <row r="10" spans="2:8" ht="81">
+      <c r="B10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="81">
-      <c r="B11" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>161</v>
-      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="34" t="s">
         <v>157</v>
       </c>
@@ -2485,38 +2462,38 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="81">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>160</v>
+    <row r="12" spans="2:8">
+      <c r="B12" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="55" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="63" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="58"/>
       <c r="C14" s="60"/>
-      <c r="D14" s="67"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="51" t="s">
         <v>87</v>
       </c>
@@ -2547,25 +2524,14 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="51" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="59"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>93</v>
+      <c r="F17" s="59" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2589,159 +2555,159 @@
   <sheetData>
     <row r="2" spans="3:64">
       <c r="C2" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="3:64" ht="3.75" customHeight="1"/>
     <row r="4" spans="3:64">
       <c r="I4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
     </row>
     <row r="5" spans="3:64">
       <c r="C5" s="71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="3:64">
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97">
+        <v>1</v>
+      </c>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97">
+        <v>2</v>
+      </c>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97">
+        <v>3</v>
+      </c>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97">
+        <v>4</v>
+      </c>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97">
+        <v>5</v>
+      </c>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97">
+        <v>6</v>
+      </c>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97">
+        <v>7</v>
+      </c>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97">
+        <v>8</v>
+      </c>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="97">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="97"/>
+      <c r="BC6" s="97">
+        <v>7</v>
+      </c>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="97">
+        <v>8</v>
+      </c>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH6" s="97"/>
+      <c r="BJ6" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91">
-        <v>1</v>
-      </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91">
-        <v>2</v>
-      </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91">
-        <v>3</v>
-      </c>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91">
-        <v>4</v>
-      </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91">
-        <v>5</v>
-      </c>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91">
-        <v>6</v>
-      </c>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91">
-        <v>7</v>
-      </c>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91">
-        <v>8</v>
-      </c>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="91">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="91"/>
-      <c r="AG6" s="91">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="91"/>
-      <c r="AI6" s="91">
-        <v>6</v>
-      </c>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91">
-        <v>7</v>
-      </c>
-      <c r="AL6" s="91"/>
-      <c r="AM6" s="91">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="91"/>
-      <c r="AO6" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP6" s="91"/>
-      <c r="AQ6" s="91">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="91"/>
-      <c r="AS6" s="91">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91">
-        <v>3</v>
-      </c>
-      <c r="AV6" s="91"/>
-      <c r="AW6" s="91">
-        <v>4</v>
-      </c>
-      <c r="AX6" s="91"/>
-      <c r="AY6" s="91">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="91"/>
-      <c r="BA6" s="91">
-        <v>6</v>
-      </c>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="91">
-        <v>7</v>
-      </c>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91">
-        <v>8</v>
-      </c>
-      <c r="BF6" s="91"/>
-      <c r="BG6" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH6" s="91"/>
-      <c r="BJ6" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK6" s="91"/>
-      <c r="BL6" s="91"/>
+      <c r="BK6" s="97"/>
+      <c r="BL6" s="97"/>
     </row>
     <row r="8" spans="3:64">
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
@@ -2807,81 +2773,81 @@
     </row>
     <row r="10" spans="3:64">
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="79"/>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="95" t="s">
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" s="93"/>
+      <c r="W10" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="V10" s="97"/>
-      <c r="W10" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="95" t="s">
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP10" s="101"/>
-      <c r="AQ10" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="96"/>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="96"/>
-      <c r="AZ10" s="96"/>
-      <c r="BA10" s="96"/>
-      <c r="BB10" s="96"/>
-      <c r="BC10" s="96"/>
-      <c r="BD10" s="96"/>
-      <c r="BE10" s="96"/>
-      <c r="BF10" s="97"/>
-      <c r="BG10" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH10" s="104"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH10" s="105"/>
       <c r="BI10" s="82"/>
       <c r="BJ10" s="81"/>
       <c r="BK10" s="80"/>
@@ -2889,7 +2855,7 @@
     </row>
     <row r="12" spans="3:64">
       <c r="C12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="83"/>
       <c r="E12" s="83"/>
@@ -2955,7 +2921,7 @@
     </row>
     <row r="14" spans="3:64">
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
@@ -3023,75 +2989,75 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="95">
         <v>0</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="92" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="96"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="93"/>
-      <c r="BG16" s="93"/>
-      <c r="BH16" s="93"/>
-      <c r="BI16" s="94"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="95"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="95"/>
+      <c r="BA16" s="95"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="95"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="95"/>
+      <c r="BI16" s="96"/>
       <c r="BJ16" s="77"/>
-      <c r="BK16" s="92">
+      <c r="BK16" s="94">
         <v>0</v>
       </c>
-      <c r="BL16" s="93"/>
+      <c r="BL16" s="95"/>
     </row>
     <row r="18" spans="3:64">
       <c r="C18" t="s">
@@ -3120,45 +3086,45 @@
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
-      <c r="AA18" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="96"/>
-      <c r="AJ18" s="96"/>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="97"/>
+      <c r="AA18" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="92"/>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="93"/>
       <c r="AR18" s="74"/>
-      <c r="AS18" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="96"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="96"/>
-      <c r="AX18" s="96"/>
-      <c r="AY18" s="96"/>
-      <c r="AZ18" s="96"/>
-      <c r="BA18" s="96"/>
-      <c r="BB18" s="96"/>
-      <c r="BC18" s="96"/>
-      <c r="BD18" s="96"/>
-      <c r="BE18" s="96"/>
-      <c r="BF18" s="96"/>
-      <c r="BG18" s="96"/>
-      <c r="BH18" s="96"/>
-      <c r="BI18" s="97"/>
+      <c r="AS18" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="92"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="92"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="92"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="92"/>
+      <c r="BH18" s="92"/>
+      <c r="BI18" s="93"/>
       <c r="BJ18" s="74"/>
       <c r="BK18" s="89"/>
       <c r="BL18" s="88"/>
@@ -3231,110 +3197,110 @@
     </row>
     <row r="23" spans="3:64">
       <c r="C23" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="3:64">
-      <c r="D24" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91">
+      <c r="D24" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97">
         <v>1</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91">
+      <c r="H24" s="97"/>
+      <c r="I24" s="97">
         <v>2</v>
       </c>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91">
+      <c r="J24" s="97"/>
+      <c r="K24" s="97">
         <v>3</v>
       </c>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91">
+      <c r="L24" s="97"/>
+      <c r="M24" s="97">
         <v>4</v>
       </c>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91">
+      <c r="N24" s="97"/>
+      <c r="O24" s="97">
         <v>5</v>
       </c>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91">
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97">
         <v>6</v>
       </c>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91">
+      <c r="R24" s="97"/>
+      <c r="S24" s="97">
         <v>7</v>
       </c>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91">
+      <c r="T24" s="97"/>
+      <c r="U24" s="97">
         <v>8</v>
       </c>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91">
+      <c r="V24" s="97"/>
+      <c r="W24" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97">
         <v>1</v>
       </c>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="91">
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="97">
         <v>2</v>
       </c>
-      <c r="AB24" s="91"/>
-      <c r="AC24" s="91">
+      <c r="AB24" s="97"/>
+      <c r="AC24" s="97">
         <v>3</v>
       </c>
-      <c r="AD24" s="91"/>
-      <c r="AE24" s="91">
+      <c r="AD24" s="97"/>
+      <c r="AE24" s="97">
         <v>4</v>
       </c>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="91">
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="97">
         <v>5</v>
       </c>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="91">
+      <c r="AH24" s="97"/>
+      <c r="AI24" s="97">
         <v>6</v>
       </c>
-      <c r="AJ24" s="91"/>
-      <c r="AK24" s="91">
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="97">
         <v>7</v>
       </c>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="91">
+      <c r="AL24" s="97"/>
+      <c r="AM24" s="97">
         <v>8</v>
       </c>
-      <c r="AN24" s="91"/>
-      <c r="AO24" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP24" s="91"/>
-      <c r="AQ24" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR24" s="91"/>
-      <c r="AS24" s="91"/>
-      <c r="AU24" s="91"/>
-      <c r="AV24" s="91"/>
-      <c r="AW24" s="91"/>
-      <c r="AX24" s="91"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="91"/>
-      <c r="BA24" s="91"/>
-      <c r="BB24" s="91"/>
-      <c r="BC24" s="91"/>
-      <c r="BD24" s="91"/>
-      <c r="BE24" s="91"/>
-      <c r="BF24" s="91"/>
-      <c r="BG24" s="91"/>
-      <c r="BH24" s="91"/>
+      <c r="AN24" s="97"/>
+      <c r="AO24" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP24" s="97"/>
+      <c r="AQ24" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR24" s="97"/>
+      <c r="AS24" s="97"/>
+      <c r="AU24" s="97"/>
+      <c r="AV24" s="97"/>
+      <c r="AW24" s="97"/>
+      <c r="AX24" s="97"/>
+      <c r="AY24" s="97"/>
+      <c r="AZ24" s="97"/>
+      <c r="BA24" s="97"/>
+      <c r="BB24" s="97"/>
+      <c r="BC24" s="97"/>
+      <c r="BD24" s="97"/>
+      <c r="BE24" s="97"/>
+      <c r="BF24" s="97"/>
+      <c r="BG24" s="97"/>
+      <c r="BH24" s="97"/>
     </row>
     <row r="26" spans="3:64">
       <c r="C26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="78"/>
@@ -3381,66 +3347,66 @@
     </row>
     <row r="28" spans="3:64">
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="95" t="s">
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="V28" s="93"/>
+      <c r="W28" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="V28" s="97"/>
-      <c r="W28" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z28" s="96"/>
-      <c r="AA28" s="96"/>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="96"/>
-      <c r="AD28" s="96"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="96"/>
-      <c r="AG28" s="96"/>
-      <c r="AH28" s="96"/>
-      <c r="AI28" s="96"/>
-      <c r="AJ28" s="96"/>
-      <c r="AK28" s="96"/>
-      <c r="AL28" s="96"/>
-      <c r="AM28" s="96"/>
-      <c r="AN28" s="97"/>
-      <c r="AO28" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP28" s="101"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="92"/>
+      <c r="AN28" s="93"/>
+      <c r="AO28" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP28" s="102"/>
       <c r="AQ28" s="80"/>
       <c r="AR28" s="78"/>
       <c r="AS28" s="79"/>
     </row>
     <row r="30" spans="3:64">
       <c r="C30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="83"/>
       <c r="E30" s="83"/>
@@ -3487,7 +3453,7 @@
     </row>
     <row r="32" spans="3:64">
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="85"/>
       <c r="E32" s="85"/>
@@ -3536,54 +3502,54 @@
       <c r="C34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="93">
+      <c r="D34" s="95">
         <v>0</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="93"/>
-      <c r="AF34" s="93"/>
-      <c r="AG34" s="93"/>
-      <c r="AH34" s="93"/>
-      <c r="AI34" s="93"/>
-      <c r="AJ34" s="93"/>
-      <c r="AK34" s="93"/>
-      <c r="AL34" s="93"/>
-      <c r="AM34" s="93"/>
-      <c r="AN34" s="93"/>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="93"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="92">
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="96"/>
+      <c r="AA34" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="95"/>
+      <c r="AQ34" s="96"/>
+      <c r="AR34" s="94">
         <v>0</v>
       </c>
-      <c r="AS34" s="93"/>
+      <c r="AS34" s="95"/>
     </row>
     <row r="36" spans="3:64">
       <c r="C36" t="s">
@@ -3612,25 +3578,25 @@
       <c r="X36" s="74"/>
       <c r="Y36" s="74"/>
       <c r="Z36" s="74"/>
-      <c r="AA36" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96"/>
-      <c r="AH36" s="96"/>
-      <c r="AI36" s="96"/>
-      <c r="AJ36" s="96"/>
-      <c r="AK36" s="96"/>
-      <c r="AL36" s="96"/>
-      <c r="AM36" s="96"/>
-      <c r="AN36" s="96"/>
-      <c r="AO36" s="96"/>
-      <c r="AP36" s="96"/>
-      <c r="AQ36" s="97"/>
+      <c r="AA36" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="92"/>
+      <c r="AG36" s="92"/>
+      <c r="AH36" s="92"/>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="92"/>
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="92"/>
+      <c r="AN36" s="92"/>
+      <c r="AO36" s="92"/>
+      <c r="AP36" s="92"/>
+      <c r="AQ36" s="93"/>
       <c r="AR36" s="74"/>
       <c r="AS36" s="74"/>
     </row>
@@ -3682,119 +3648,119 @@
       <c r="AS38" s="83"/>
     </row>
     <row r="41" spans="3:64">
-      <c r="G41" s="91">
+      <c r="G41" s="97">
         <v>1</v>
       </c>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91">
+      <c r="H41" s="97"/>
+      <c r="I41" s="97">
         <v>2</v>
       </c>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91">
+      <c r="J41" s="97"/>
+      <c r="K41" s="97">
         <v>3</v>
       </c>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91">
+      <c r="L41" s="97"/>
+      <c r="M41" s="97">
         <v>4</v>
       </c>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91">
+      <c r="N41" s="97"/>
+      <c r="O41" s="97">
         <v>5</v>
       </c>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91">
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97">
         <v>6</v>
       </c>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91">
+      <c r="R41" s="97"/>
+      <c r="S41" s="97">
         <v>7</v>
       </c>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91">
+      <c r="T41" s="97"/>
+      <c r="U41" s="97">
         <v>8</v>
       </c>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91" t="s">
+      <c r="V41" s="97"/>
+      <c r="W41" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="97">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="97">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97">
+        <v>4</v>
+      </c>
+      <c r="AF41" s="97"/>
+      <c r="AG41" s="97">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="97"/>
+      <c r="AI41" s="97">
+        <v>6</v>
+      </c>
+      <c r="AJ41" s="97"/>
+      <c r="AK41" s="97">
+        <v>7</v>
+      </c>
+      <c r="AL41" s="97"/>
+      <c r="AM41" s="97">
+        <v>8</v>
+      </c>
+      <c r="AN41" s="97"/>
+      <c r="AO41" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP41" s="97"/>
+      <c r="AQ41" s="97">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="97"/>
+      <c r="AS41" s="97">
+        <v>2</v>
+      </c>
+      <c r="AT41" s="97"/>
+      <c r="AU41" s="97">
+        <v>3</v>
+      </c>
+      <c r="AV41" s="97"/>
+      <c r="AW41" s="97">
+        <v>4</v>
+      </c>
+      <c r="AX41" s="97"/>
+      <c r="AY41" s="97">
+        <v>5</v>
+      </c>
+      <c r="AZ41" s="97"/>
+      <c r="BA41" s="97">
+        <v>6</v>
+      </c>
+      <c r="BB41" s="97"/>
+      <c r="BC41" s="97">
+        <v>7</v>
+      </c>
+      <c r="BD41" s="97"/>
+      <c r="BE41" s="97">
+        <v>8</v>
+      </c>
+      <c r="BF41" s="97"/>
+      <c r="BG41" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="91">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="91"/>
-      <c r="AA41" s="91">
-        <v>2</v>
-      </c>
-      <c r="AB41" s="91"/>
-      <c r="AC41" s="91">
-        <v>3</v>
-      </c>
-      <c r="AD41" s="91"/>
-      <c r="AE41" s="91">
-        <v>4</v>
-      </c>
-      <c r="AF41" s="91"/>
-      <c r="AG41" s="91">
-        <v>5</v>
-      </c>
-      <c r="AH41" s="91"/>
-      <c r="AI41" s="91">
-        <v>6</v>
-      </c>
-      <c r="AJ41" s="91"/>
-      <c r="AK41" s="91">
-        <v>7</v>
-      </c>
-      <c r="AL41" s="91"/>
-      <c r="AM41" s="91">
-        <v>8</v>
-      </c>
-      <c r="AN41" s="91"/>
-      <c r="AO41" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP41" s="91"/>
-      <c r="AQ41" s="91">
-        <v>1</v>
-      </c>
-      <c r="AR41" s="91"/>
-      <c r="AS41" s="91">
-        <v>2</v>
-      </c>
-      <c r="AT41" s="91"/>
-      <c r="AU41" s="91">
-        <v>3</v>
-      </c>
-      <c r="AV41" s="91"/>
-      <c r="AW41" s="91">
-        <v>4</v>
-      </c>
-      <c r="AX41" s="91"/>
-      <c r="AY41" s="91">
-        <v>5</v>
-      </c>
-      <c r="AZ41" s="91"/>
-      <c r="BA41" s="91">
-        <v>6</v>
-      </c>
-      <c r="BB41" s="91"/>
-      <c r="BC41" s="91">
-        <v>7</v>
-      </c>
-      <c r="BD41" s="91"/>
-      <c r="BE41" s="91">
-        <v>8</v>
-      </c>
-      <c r="BF41" s="91"/>
-      <c r="BG41" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH41" s="91"/>
-      <c r="BI41" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ41" s="91"/>
-      <c r="BK41" s="91"/>
+      <c r="BH41" s="97"/>
+      <c r="BI41" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ41" s="97"/>
+      <c r="BK41" s="97"/>
       <c r="BL41" s="72"/>
     </row>
     <row r="43" spans="3:64">
@@ -3861,76 +3827,76 @@
     <row r="45" spans="3:64">
       <c r="E45" s="1"/>
       <c r="F45" s="81"/>
-      <c r="G45" s="95" t="s">
+      <c r="G45" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="95" t="s">
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="93"/>
+      <c r="U45" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="V45" s="93"/>
+      <c r="W45" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="X45" s="102"/>
+      <c r="Y45" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="95"/>
+      <c r="AD45" s="95"/>
+      <c r="AE45" s="95"/>
+      <c r="AF45" s="95"/>
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="95"/>
+      <c r="AJ45" s="95"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="95"/>
+      <c r="AM45" s="95"/>
+      <c r="AN45" s="96"/>
+      <c r="AO45" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR45" s="95"/>
+      <c r="AS45" s="95"/>
+      <c r="AT45" s="95"/>
+      <c r="AU45" s="95"/>
+      <c r="AV45" s="95"/>
+      <c r="AW45" s="95"/>
+      <c r="AX45" s="95"/>
+      <c r="AY45" s="95"/>
+      <c r="AZ45" s="95"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="95"/>
+      <c r="BC45" s="95"/>
+      <c r="BD45" s="95"/>
+      <c r="BE45" s="95"/>
+      <c r="BF45" s="96"/>
+      <c r="BG45" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="V45" s="97"/>
-      <c r="W45" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z45" s="93"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="93"/>
-      <c r="AC45" s="93"/>
-      <c r="AD45" s="93"/>
-      <c r="AE45" s="93"/>
-      <c r="AF45" s="93"/>
-      <c r="AG45" s="93"/>
-      <c r="AH45" s="93"/>
-      <c r="AI45" s="93"/>
-      <c r="AJ45" s="93"/>
-      <c r="AK45" s="93"/>
-      <c r="AL45" s="93"/>
-      <c r="AM45" s="93"/>
-      <c r="AN45" s="94"/>
-      <c r="AO45" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP45" s="103"/>
-      <c r="AQ45" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR45" s="93"/>
-      <c r="AS45" s="93"/>
-      <c r="AT45" s="93"/>
-      <c r="AU45" s="93"/>
-      <c r="AV45" s="93"/>
-      <c r="AW45" s="93"/>
-      <c r="AX45" s="93"/>
-      <c r="AY45" s="93"/>
-      <c r="AZ45" s="93"/>
-      <c r="BA45" s="93"/>
-      <c r="BB45" s="93"/>
-      <c r="BC45" s="93"/>
-      <c r="BD45" s="93"/>
-      <c r="BE45" s="93"/>
-      <c r="BF45" s="94"/>
-      <c r="BG45" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH45" s="99"/>
+      <c r="BH45" s="107"/>
       <c r="BI45" s="82"/>
       <c r="BJ45" s="81"/>
       <c r="BK45" s="80"/>
@@ -4059,27 +4025,27 @@
       <c r="BL49" s="85"/>
     </row>
     <row r="51" spans="3:64">
-      <c r="F51" s="93">
+      <c r="F51" s="95">
         <v>0</v>
       </c>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="93"/>
-      <c r="T51" s="93"/>
-      <c r="U51" s="93"/>
-      <c r="V51" s="93"/>
-      <c r="W51" s="93"/>
-      <c r="X51" s="94"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="96"/>
       <c r="Y51" s="90"/>
       <c r="Z51" s="88"/>
       <c r="AA51" s="88"/>
@@ -4118,10 +4084,10 @@
       <c r="BH51" s="88"/>
       <c r="BI51" s="88"/>
       <c r="BJ51" s="88"/>
-      <c r="BK51" s="92">
+      <c r="BK51" s="94">
         <v>0</v>
       </c>
-      <c r="BL51" s="93"/>
+      <c r="BL51" s="95"/>
     </row>
     <row r="53" spans="3:64">
       <c r="F53" s="73"/>
@@ -4145,45 +4111,45 @@
       <c r="X53" s="74"/>
       <c r="Y53" s="74"/>
       <c r="Z53" s="74"/>
-      <c r="AA53" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB53" s="96"/>
-      <c r="AC53" s="96"/>
-      <c r="AD53" s="96"/>
-      <c r="AE53" s="96"/>
-      <c r="AF53" s="96"/>
-      <c r="AG53" s="96"/>
-      <c r="AH53" s="96"/>
-      <c r="AI53" s="96"/>
-      <c r="AJ53" s="96"/>
-      <c r="AK53" s="96"/>
-      <c r="AL53" s="96"/>
-      <c r="AM53" s="96"/>
-      <c r="AN53" s="96"/>
-      <c r="AO53" s="96"/>
-      <c r="AP53" s="96"/>
-      <c r="AQ53" s="97"/>
+      <c r="AA53" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB53" s="92"/>
+      <c r="AC53" s="92"/>
+      <c r="AD53" s="92"/>
+      <c r="AE53" s="92"/>
+      <c r="AF53" s="92"/>
+      <c r="AG53" s="92"/>
+      <c r="AH53" s="92"/>
+      <c r="AI53" s="92"/>
+      <c r="AJ53" s="92"/>
+      <c r="AK53" s="92"/>
+      <c r="AL53" s="92"/>
+      <c r="AM53" s="92"/>
+      <c r="AN53" s="92"/>
+      <c r="AO53" s="92"/>
+      <c r="AP53" s="92"/>
+      <c r="AQ53" s="93"/>
       <c r="AR53" s="74"/>
-      <c r="AS53" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT53" s="96"/>
-      <c r="AU53" s="96"/>
-      <c r="AV53" s="96"/>
-      <c r="AW53" s="96"/>
-      <c r="AX53" s="96"/>
-      <c r="AY53" s="96"/>
-      <c r="AZ53" s="96"/>
-      <c r="BA53" s="96"/>
-      <c r="BB53" s="96"/>
-      <c r="BC53" s="96"/>
-      <c r="BD53" s="96"/>
-      <c r="BE53" s="96"/>
-      <c r="BF53" s="96"/>
-      <c r="BG53" s="96"/>
-      <c r="BH53" s="96"/>
-      <c r="BI53" s="97"/>
+      <c r="AS53" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT53" s="92"/>
+      <c r="AU53" s="92"/>
+      <c r="AV53" s="92"/>
+      <c r="AW53" s="92"/>
+      <c r="AX53" s="92"/>
+      <c r="AY53" s="92"/>
+      <c r="AZ53" s="92"/>
+      <c r="BA53" s="92"/>
+      <c r="BB53" s="92"/>
+      <c r="BC53" s="92"/>
+      <c r="BD53" s="92"/>
+      <c r="BE53" s="92"/>
+      <c r="BF53" s="92"/>
+      <c r="BG53" s="92"/>
+      <c r="BH53" s="92"/>
+      <c r="BI53" s="93"/>
       <c r="BJ53" s="75"/>
       <c r="BK53" s="88"/>
       <c r="BL53" s="88"/>
@@ -4260,133 +4226,133 @@
     </row>
     <row r="57" spans="3:64">
       <c r="C57" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="3:64">
-      <c r="D58" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91">
+      <c r="D58" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97">
         <v>1</v>
       </c>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91">
+      <c r="H58" s="97"/>
+      <c r="I58" s="97">
         <v>2</v>
       </c>
-      <c r="J58" s="91"/>
-      <c r="K58" s="91">
+      <c r="J58" s="97"/>
+      <c r="K58" s="97">
         <v>3</v>
       </c>
-      <c r="L58" s="91"/>
-      <c r="M58" s="91">
+      <c r="L58" s="97"/>
+      <c r="M58" s="97">
         <v>4</v>
       </c>
-      <c r="N58" s="91"/>
-      <c r="O58" s="91">
+      <c r="N58" s="97"/>
+      <c r="O58" s="97">
         <v>5</v>
       </c>
-      <c r="P58" s="91"/>
-      <c r="Q58" s="91">
+      <c r="P58" s="97"/>
+      <c r="Q58" s="97">
         <v>6</v>
       </c>
-      <c r="R58" s="91"/>
-      <c r="S58" s="91">
+      <c r="R58" s="97"/>
+      <c r="S58" s="97">
         <v>7</v>
       </c>
-      <c r="T58" s="91"/>
-      <c r="U58" s="91">
+      <c r="T58" s="97"/>
+      <c r="U58" s="97">
         <v>8</v>
       </c>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91" t="s">
+      <c r="V58" s="97"/>
+      <c r="W58" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="X58" s="97"/>
+      <c r="Y58" s="97">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="97"/>
+      <c r="AA58" s="97">
+        <v>2</v>
+      </c>
+      <c r="AB58" s="97"/>
+      <c r="AC58" s="97">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="97"/>
+      <c r="AE58" s="97">
+        <v>4</v>
+      </c>
+      <c r="AF58" s="97"/>
+      <c r="AG58" s="97">
+        <v>5</v>
+      </c>
+      <c r="AH58" s="97"/>
+      <c r="AI58" s="97">
+        <v>6</v>
+      </c>
+      <c r="AJ58" s="97"/>
+      <c r="AK58" s="97">
+        <v>7</v>
+      </c>
+      <c r="AL58" s="97"/>
+      <c r="AM58" s="97">
+        <v>8</v>
+      </c>
+      <c r="AN58" s="97"/>
+      <c r="AO58" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP58" s="97"/>
+      <c r="AQ58" s="97">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="97"/>
+      <c r="AS58" s="97">
+        <v>2</v>
+      </c>
+      <c r="AT58" s="97"/>
+      <c r="AU58" s="97">
+        <v>3</v>
+      </c>
+      <c r="AV58" s="97"/>
+      <c r="AW58" s="97">
+        <v>4</v>
+      </c>
+      <c r="AX58" s="97"/>
+      <c r="AY58" s="97">
+        <v>5</v>
+      </c>
+      <c r="AZ58" s="97"/>
+      <c r="BA58" s="97">
+        <v>6</v>
+      </c>
+      <c r="BB58" s="97"/>
+      <c r="BC58" s="97">
+        <v>7</v>
+      </c>
+      <c r="BD58" s="97"/>
+      <c r="BE58" s="97">
+        <v>8</v>
+      </c>
+      <c r="BF58" s="97"/>
+      <c r="BG58" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="X58" s="91"/>
-      <c r="Y58" s="91">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="91"/>
-      <c r="AA58" s="91">
-        <v>2</v>
-      </c>
-      <c r="AB58" s="91"/>
-      <c r="AC58" s="91">
-        <v>3</v>
-      </c>
-      <c r="AD58" s="91"/>
-      <c r="AE58" s="91">
-        <v>4</v>
-      </c>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91">
-        <v>5</v>
-      </c>
-      <c r="AH58" s="91"/>
-      <c r="AI58" s="91">
-        <v>6</v>
-      </c>
-      <c r="AJ58" s="91"/>
-      <c r="AK58" s="91">
-        <v>7</v>
-      </c>
-      <c r="AL58" s="91"/>
-      <c r="AM58" s="91">
-        <v>8</v>
-      </c>
-      <c r="AN58" s="91"/>
-      <c r="AO58" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP58" s="91"/>
-      <c r="AQ58" s="91">
-        <v>1</v>
-      </c>
-      <c r="AR58" s="91"/>
-      <c r="AS58" s="91">
-        <v>2</v>
-      </c>
-      <c r="AT58" s="91"/>
-      <c r="AU58" s="91">
-        <v>3</v>
-      </c>
-      <c r="AV58" s="91"/>
-      <c r="AW58" s="91">
-        <v>4</v>
-      </c>
-      <c r="AX58" s="91"/>
-      <c r="AY58" s="91">
-        <v>5</v>
-      </c>
-      <c r="AZ58" s="91"/>
-      <c r="BA58" s="91">
-        <v>6</v>
-      </c>
-      <c r="BB58" s="91"/>
-      <c r="BC58" s="91">
-        <v>7</v>
-      </c>
-      <c r="BD58" s="91"/>
-      <c r="BE58" s="91">
-        <v>8</v>
-      </c>
-      <c r="BF58" s="91"/>
-      <c r="BG58" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH58" s="91"/>
-      <c r="BI58" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ58" s="91"/>
-      <c r="BK58" s="91"/>
+      <c r="BH58" s="97"/>
+      <c r="BI58" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ58" s="97"/>
+      <c r="BK58" s="97"/>
       <c r="BL58" s="72"/>
     </row>
     <row r="60" spans="3:64">
       <c r="C60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -4452,81 +4418,81 @@
     </row>
     <row r="62" spans="3:64">
       <c r="C62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
       <c r="F62" s="79"/>
-      <c r="G62" s="95" t="s">
+      <c r="G62" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="92"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="92"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="96"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="R62" s="96"/>
-      <c r="S62" s="96"/>
-      <c r="T62" s="97"/>
-      <c r="U62" s="95" t="s">
+      <c r="R62" s="92"/>
+      <c r="S62" s="92"/>
+      <c r="T62" s="93"/>
+      <c r="U62" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="V62" s="93"/>
+      <c r="W62" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="X62" s="102"/>
+      <c r="Y62" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z62" s="95"/>
+      <c r="AA62" s="95"/>
+      <c r="AB62" s="95"/>
+      <c r="AC62" s="95"/>
+      <c r="AD62" s="95"/>
+      <c r="AE62" s="95"/>
+      <c r="AF62" s="95"/>
+      <c r="AG62" s="95"/>
+      <c r="AH62" s="95"/>
+      <c r="AI62" s="95"/>
+      <c r="AJ62" s="95"/>
+      <c r="AK62" s="95"/>
+      <c r="AL62" s="95"/>
+      <c r="AM62" s="95"/>
+      <c r="AN62" s="96"/>
+      <c r="AO62" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP62" s="104"/>
+      <c r="AQ62" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR62" s="95"/>
+      <c r="AS62" s="95"/>
+      <c r="AT62" s="95"/>
+      <c r="AU62" s="95"/>
+      <c r="AV62" s="95"/>
+      <c r="AW62" s="95"/>
+      <c r="AX62" s="95"/>
+      <c r="AY62" s="95"/>
+      <c r="AZ62" s="95"/>
+      <c r="BA62" s="95"/>
+      <c r="BB62" s="95"/>
+      <c r="BC62" s="95"/>
+      <c r="BD62" s="95"/>
+      <c r="BE62" s="95"/>
+      <c r="BF62" s="96"/>
+      <c r="BG62" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="V62" s="97"/>
-      <c r="W62" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="X62" s="101"/>
-      <c r="Y62" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z62" s="93"/>
-      <c r="AA62" s="93"/>
-      <c r="AB62" s="93"/>
-      <c r="AC62" s="93"/>
-      <c r="AD62" s="93"/>
-      <c r="AE62" s="93"/>
-      <c r="AF62" s="93"/>
-      <c r="AG62" s="93"/>
-      <c r="AH62" s="93"/>
-      <c r="AI62" s="93"/>
-      <c r="AJ62" s="93"/>
-      <c r="AK62" s="93"/>
-      <c r="AL62" s="93"/>
-      <c r="AM62" s="93"/>
-      <c r="AN62" s="94"/>
-      <c r="AO62" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP62" s="103"/>
-      <c r="AQ62" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR62" s="93"/>
-      <c r="AS62" s="93"/>
-      <c r="AT62" s="93"/>
-      <c r="AU62" s="93"/>
-      <c r="AV62" s="93"/>
-      <c r="AW62" s="93"/>
-      <c r="AX62" s="93"/>
-      <c r="AY62" s="93"/>
-      <c r="AZ62" s="93"/>
-      <c r="BA62" s="93"/>
-      <c r="BB62" s="93"/>
-      <c r="BC62" s="93"/>
-      <c r="BD62" s="93"/>
-      <c r="BE62" s="93"/>
-      <c r="BF62" s="94"/>
-      <c r="BG62" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH62" s="99"/>
+      <c r="BH62" s="107"/>
       <c r="BI62" s="82"/>
       <c r="BJ62" s="81"/>
       <c r="BK62" s="80"/>
@@ -4534,7 +4500,7 @@
     </row>
     <row r="64" spans="3:64">
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="83"/>
       <c r="E64" s="83"/>
@@ -4600,7 +4566,7 @@
     </row>
     <row r="66" spans="3:64">
       <c r="C66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="85"/>
       <c r="E66" s="85"/>
@@ -4668,29 +4634,29 @@
       <c r="C68" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="93">
+      <c r="D68" s="95">
         <v>0</v>
       </c>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="93"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="93"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="93"/>
-      <c r="P68" s="93"/>
-      <c r="Q68" s="93"/>
-      <c r="R68" s="93"/>
-      <c r="S68" s="93"/>
-      <c r="T68" s="93"/>
-      <c r="U68" s="93"/>
-      <c r="V68" s="93"/>
-      <c r="W68" s="93"/>
-      <c r="X68" s="94"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="95"/>
+      <c r="N68" s="95"/>
+      <c r="O68" s="95"/>
+      <c r="P68" s="95"/>
+      <c r="Q68" s="95"/>
+      <c r="R68" s="95"/>
+      <c r="S68" s="95"/>
+      <c r="T68" s="95"/>
+      <c r="U68" s="95"/>
+      <c r="V68" s="95"/>
+      <c r="W68" s="95"/>
+      <c r="X68" s="96"/>
       <c r="Y68" s="90"/>
       <c r="Z68" s="88"/>
       <c r="AA68" s="88"/>
@@ -4729,10 +4695,10 @@
       <c r="BH68" s="88"/>
       <c r="BI68" s="88"/>
       <c r="BJ68" s="88"/>
-      <c r="BK68" s="92">
+      <c r="BK68" s="94">
         <v>0</v>
       </c>
-      <c r="BL68" s="93"/>
+      <c r="BL68" s="95"/>
     </row>
     <row r="70" spans="3:64">
       <c r="C70" t="s">
@@ -4761,45 +4727,45 @@
       <c r="X70" s="74"/>
       <c r="Y70" s="74"/>
       <c r="Z70" s="74"/>
-      <c r="AA70" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB70" s="96"/>
-      <c r="AC70" s="96"/>
-      <c r="AD70" s="96"/>
-      <c r="AE70" s="96"/>
-      <c r="AF70" s="96"/>
-      <c r="AG70" s="96"/>
-      <c r="AH70" s="96"/>
-      <c r="AI70" s="96"/>
-      <c r="AJ70" s="96"/>
-      <c r="AK70" s="96"/>
-      <c r="AL70" s="96"/>
-      <c r="AM70" s="96"/>
-      <c r="AN70" s="96"/>
-      <c r="AO70" s="96"/>
-      <c r="AP70" s="96"/>
-      <c r="AQ70" s="97"/>
+      <c r="AA70" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB70" s="92"/>
+      <c r="AC70" s="92"/>
+      <c r="AD70" s="92"/>
+      <c r="AE70" s="92"/>
+      <c r="AF70" s="92"/>
+      <c r="AG70" s="92"/>
+      <c r="AH70" s="92"/>
+      <c r="AI70" s="92"/>
+      <c r="AJ70" s="92"/>
+      <c r="AK70" s="92"/>
+      <c r="AL70" s="92"/>
+      <c r="AM70" s="92"/>
+      <c r="AN70" s="92"/>
+      <c r="AO70" s="92"/>
+      <c r="AP70" s="92"/>
+      <c r="AQ70" s="93"/>
       <c r="AR70" s="74"/>
-      <c r="AS70" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT70" s="96"/>
-      <c r="AU70" s="96"/>
-      <c r="AV70" s="96"/>
-      <c r="AW70" s="96"/>
-      <c r="AX70" s="96"/>
-      <c r="AY70" s="96"/>
-      <c r="AZ70" s="96"/>
-      <c r="BA70" s="96"/>
-      <c r="BB70" s="96"/>
-      <c r="BC70" s="96"/>
-      <c r="BD70" s="96"/>
-      <c r="BE70" s="96"/>
-      <c r="BF70" s="96"/>
-      <c r="BG70" s="96"/>
-      <c r="BH70" s="96"/>
-      <c r="BI70" s="97"/>
+      <c r="AS70" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT70" s="92"/>
+      <c r="AU70" s="92"/>
+      <c r="AV70" s="92"/>
+      <c r="AW70" s="92"/>
+      <c r="AX70" s="92"/>
+      <c r="AY70" s="92"/>
+      <c r="AZ70" s="92"/>
+      <c r="BA70" s="92"/>
+      <c r="BB70" s="92"/>
+      <c r="BC70" s="92"/>
+      <c r="BD70" s="92"/>
+      <c r="BE70" s="92"/>
+      <c r="BF70" s="92"/>
+      <c r="BG70" s="92"/>
+      <c r="BH70" s="92"/>
+      <c r="BI70" s="93"/>
       <c r="BJ70" s="75"/>
       <c r="BK70" s="88"/>
       <c r="BL70" s="88"/>
@@ -4872,7 +4838,7 @@
     </row>
     <row r="75" spans="3:64">
       <c r="C75" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -4921,7 +4887,7 @@
     </row>
     <row r="77" spans="3:64">
       <c r="C77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="68"/>
       <c r="E77" s="68"/>
@@ -4969,7 +4935,7 @@
     </row>
     <row r="79" spans="3:64">
       <c r="C79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D79" s="69"/>
       <c r="E79" s="69"/>
@@ -5022,72 +4988,72 @@
       <c r="D81" s="69"/>
       <c r="E81" s="69"/>
       <c r="F81" s="69"/>
-      <c r="G81" s="92">
+      <c r="G81" s="94">
         <v>7</v>
       </c>
-      <c r="H81" s="94"/>
-      <c r="I81" s="92">
+      <c r="H81" s="96"/>
+      <c r="I81" s="94">
         <v>6</v>
       </c>
-      <c r="J81" s="94"/>
-      <c r="K81" s="92">
+      <c r="J81" s="96"/>
+      <c r="K81" s="94">
         <v>5</v>
       </c>
-      <c r="L81" s="94"/>
-      <c r="M81" s="92">
+      <c r="L81" s="96"/>
+      <c r="M81" s="94">
         <v>4</v>
       </c>
-      <c r="N81" s="94"/>
-      <c r="O81" s="92">
+      <c r="N81" s="96"/>
+      <c r="O81" s="94">
         <v>3</v>
       </c>
-      <c r="P81" s="94"/>
-      <c r="Q81" s="92">
+      <c r="P81" s="96"/>
+      <c r="Q81" s="94">
         <v>2</v>
       </c>
-      <c r="R81" s="94"/>
-      <c r="S81" s="92">
+      <c r="R81" s="96"/>
+      <c r="S81" s="94">
         <v>1</v>
       </c>
-      <c r="T81" s="94"/>
-      <c r="U81" s="92">
+      <c r="T81" s="96"/>
+      <c r="U81" s="94">
         <v>0</v>
       </c>
-      <c r="V81" s="94"/>
+      <c r="V81" s="96"/>
       <c r="W81" s="69"/>
       <c r="X81" s="69"/>
-      <c r="Y81" s="92">
+      <c r="Y81" s="94">
         <v>7</v>
       </c>
-      <c r="Z81" s="94"/>
-      <c r="AA81" s="92">
+      <c r="Z81" s="96"/>
+      <c r="AA81" s="94">
         <v>6</v>
       </c>
-      <c r="AB81" s="94"/>
-      <c r="AC81" s="92">
+      <c r="AB81" s="96"/>
+      <c r="AC81" s="94">
         <v>5</v>
       </c>
-      <c r="AD81" s="94"/>
-      <c r="AE81" s="92">
+      <c r="AD81" s="96"/>
+      <c r="AE81" s="94">
         <v>4</v>
       </c>
-      <c r="AF81" s="94"/>
-      <c r="AG81" s="92">
+      <c r="AF81" s="96"/>
+      <c r="AG81" s="94">
         <v>3</v>
       </c>
-      <c r="AH81" s="94"/>
-      <c r="AI81" s="92">
+      <c r="AH81" s="96"/>
+      <c r="AI81" s="94">
         <v>2</v>
       </c>
-      <c r="AJ81" s="94"/>
-      <c r="AK81" s="92">
+      <c r="AJ81" s="96"/>
+      <c r="AK81" s="94">
         <v>1</v>
       </c>
-      <c r="AL81" s="94"/>
-      <c r="AM81" s="92">
+      <c r="AL81" s="96"/>
+      <c r="AM81" s="94">
         <v>0</v>
       </c>
-      <c r="AN81" s="94"/>
+      <c r="AN81" s="96"/>
       <c r="AO81" s="69"/>
       <c r="AP81" s="69"/>
       <c r="AQ81" s="69"/>
@@ -5103,72 +5069,72 @@
       <c r="E83" s="69"/>
       <c r="F83" s="69"/>
       <c r="G83" s="69"/>
-      <c r="H83" s="95">
+      <c r="H83" s="91">
         <v>7</v>
       </c>
-      <c r="I83" s="97"/>
-      <c r="J83" s="95">
+      <c r="I83" s="93"/>
+      <c r="J83" s="91">
         <v>6</v>
       </c>
-      <c r="K83" s="97"/>
-      <c r="L83" s="95">
+      <c r="K83" s="93"/>
+      <c r="L83" s="91">
         <v>5</v>
       </c>
-      <c r="M83" s="97"/>
-      <c r="N83" s="95">
+      <c r="M83" s="93"/>
+      <c r="N83" s="91">
         <v>4</v>
       </c>
-      <c r="O83" s="97"/>
-      <c r="P83" s="95">
+      <c r="O83" s="93"/>
+      <c r="P83" s="91">
         <v>3</v>
       </c>
-      <c r="Q83" s="97"/>
-      <c r="R83" s="95">
+      <c r="Q83" s="93"/>
+      <c r="R83" s="91">
         <v>2</v>
       </c>
-      <c r="S83" s="97"/>
-      <c r="T83" s="95">
+      <c r="S83" s="93"/>
+      <c r="T83" s="91">
         <v>1</v>
       </c>
-      <c r="U83" s="97"/>
-      <c r="V83" s="95">
+      <c r="U83" s="93"/>
+      <c r="V83" s="91">
         <v>0</v>
       </c>
-      <c r="W83" s="97"/>
+      <c r="W83" s="93"/>
       <c r="X83" s="69"/>
       <c r="Y83" s="69"/>
-      <c r="Z83" s="95">
+      <c r="Z83" s="91">
         <v>7</v>
       </c>
-      <c r="AA83" s="97"/>
-      <c r="AB83" s="95">
+      <c r="AA83" s="93"/>
+      <c r="AB83" s="91">
         <v>6</v>
       </c>
-      <c r="AC83" s="97"/>
-      <c r="AD83" s="95">
+      <c r="AC83" s="93"/>
+      <c r="AD83" s="91">
         <v>5</v>
       </c>
-      <c r="AE83" s="97"/>
-      <c r="AF83" s="95">
+      <c r="AE83" s="93"/>
+      <c r="AF83" s="91">
         <v>4</v>
       </c>
-      <c r="AG83" s="97"/>
-      <c r="AH83" s="95">
+      <c r="AG83" s="93"/>
+      <c r="AH83" s="91">
         <v>3</v>
       </c>
-      <c r="AI83" s="97"/>
-      <c r="AJ83" s="95">
+      <c r="AI83" s="93"/>
+      <c r="AJ83" s="91">
         <v>2</v>
       </c>
-      <c r="AK83" s="97"/>
-      <c r="AL83" s="95">
+      <c r="AK83" s="93"/>
+      <c r="AL83" s="91">
         <v>1</v>
       </c>
-      <c r="AM83" s="97"/>
-      <c r="AN83" s="95">
+      <c r="AM83" s="93"/>
+      <c r="AN83" s="91">
         <v>0</v>
       </c>
-      <c r="AO83" s="97"/>
+      <c r="AO83" s="93"/>
       <c r="AP83" s="69"/>
       <c r="AQ83" s="69"/>
       <c r="AR83" s="69"/>
@@ -5177,7 +5143,7 @@
     </row>
     <row r="86" spans="3:64">
       <c r="C86" s="71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -5242,7 +5208,7 @@
     </row>
     <row r="88" spans="3:64">
       <c r="C88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D88" s="68"/>
       <c r="E88" s="68"/>
@@ -5290,7 +5256,7 @@
     </row>
     <row r="90" spans="3:64">
       <c r="C90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="69"/>
       <c r="E90" s="69"/>
@@ -5344,72 +5310,72 @@
       <c r="E92" s="69"/>
       <c r="F92" s="69"/>
       <c r="G92" s="69"/>
-      <c r="H92" s="92">
+      <c r="H92" s="94">
         <v>7</v>
       </c>
-      <c r="I92" s="94"/>
-      <c r="J92" s="92">
+      <c r="I92" s="96"/>
+      <c r="J92" s="94">
         <v>6</v>
       </c>
-      <c r="K92" s="94"/>
-      <c r="L92" s="92">
+      <c r="K92" s="96"/>
+      <c r="L92" s="94">
         <v>5</v>
       </c>
-      <c r="M92" s="94"/>
-      <c r="N92" s="92">
+      <c r="M92" s="96"/>
+      <c r="N92" s="94">
         <v>4</v>
       </c>
-      <c r="O92" s="94"/>
-      <c r="P92" s="92">
+      <c r="O92" s="96"/>
+      <c r="P92" s="94">
         <v>3</v>
       </c>
-      <c r="Q92" s="94"/>
-      <c r="R92" s="92">
+      <c r="Q92" s="96"/>
+      <c r="R92" s="94">
         <v>2</v>
       </c>
-      <c r="S92" s="94"/>
-      <c r="T92" s="92">
+      <c r="S92" s="96"/>
+      <c r="T92" s="94">
         <v>1</v>
       </c>
-      <c r="U92" s="94"/>
-      <c r="V92" s="92">
+      <c r="U92" s="96"/>
+      <c r="V92" s="94">
         <v>0</v>
       </c>
-      <c r="W92" s="94"/>
+      <c r="W92" s="96"/>
       <c r="X92" s="69"/>
       <c r="Y92" s="69"/>
-      <c r="Z92" s="92">
+      <c r="Z92" s="94">
         <v>7</v>
       </c>
-      <c r="AA92" s="94"/>
-      <c r="AB92" s="92">
+      <c r="AA92" s="96"/>
+      <c r="AB92" s="94">
         <v>6</v>
       </c>
-      <c r="AC92" s="94"/>
-      <c r="AD92" s="92">
+      <c r="AC92" s="96"/>
+      <c r="AD92" s="94">
         <v>5</v>
       </c>
-      <c r="AE92" s="94"/>
-      <c r="AF92" s="92">
+      <c r="AE92" s="96"/>
+      <c r="AF92" s="94">
         <v>4</v>
       </c>
-      <c r="AG92" s="94"/>
-      <c r="AH92" s="92">
+      <c r="AG92" s="96"/>
+      <c r="AH92" s="94">
         <v>3</v>
       </c>
-      <c r="AI92" s="94"/>
-      <c r="AJ92" s="92">
+      <c r="AI92" s="96"/>
+      <c r="AJ92" s="94">
         <v>2</v>
       </c>
-      <c r="AK92" s="94"/>
-      <c r="AL92" s="92">
+      <c r="AK92" s="96"/>
+      <c r="AL92" s="94">
         <v>1</v>
       </c>
-      <c r="AM92" s="94"/>
-      <c r="AN92" s="92">
+      <c r="AM92" s="96"/>
+      <c r="AN92" s="94">
         <v>0</v>
       </c>
-      <c r="AO92" s="94"/>
+      <c r="AO92" s="96"/>
       <c r="AP92" s="69"/>
       <c r="AQ92" s="69"/>
       <c r="AR92" s="69"/>
@@ -5423,72 +5389,72 @@
       <c r="D94" s="69"/>
       <c r="E94" s="69"/>
       <c r="F94" s="69"/>
-      <c r="G94" s="95">
+      <c r="G94" s="91">
         <v>7</v>
       </c>
-      <c r="H94" s="97"/>
-      <c r="I94" s="95">
+      <c r="H94" s="93"/>
+      <c r="I94" s="91">
         <v>6</v>
       </c>
-      <c r="J94" s="97"/>
-      <c r="K94" s="95">
+      <c r="J94" s="93"/>
+      <c r="K94" s="91">
         <v>5</v>
       </c>
-      <c r="L94" s="97"/>
-      <c r="M94" s="95">
+      <c r="L94" s="93"/>
+      <c r="M94" s="91">
         <v>4</v>
       </c>
-      <c r="N94" s="97"/>
-      <c r="O94" s="95">
+      <c r="N94" s="93"/>
+      <c r="O94" s="91">
         <v>3</v>
       </c>
-      <c r="P94" s="97"/>
-      <c r="Q94" s="95">
+      <c r="P94" s="93"/>
+      <c r="Q94" s="91">
         <v>2</v>
       </c>
-      <c r="R94" s="97"/>
-      <c r="S94" s="95">
+      <c r="R94" s="93"/>
+      <c r="S94" s="91">
         <v>1</v>
       </c>
-      <c r="T94" s="97"/>
-      <c r="U94" s="95">
+      <c r="T94" s="93"/>
+      <c r="U94" s="91">
         <v>0</v>
       </c>
-      <c r="V94" s="97"/>
+      <c r="V94" s="93"/>
       <c r="W94" s="69"/>
       <c r="X94" s="69"/>
-      <c r="Y94" s="95">
+      <c r="Y94" s="91">
         <v>7</v>
       </c>
-      <c r="Z94" s="97"/>
-      <c r="AA94" s="95">
+      <c r="Z94" s="93"/>
+      <c r="AA94" s="91">
         <v>6</v>
       </c>
-      <c r="AB94" s="97"/>
-      <c r="AC94" s="95">
+      <c r="AB94" s="93"/>
+      <c r="AC94" s="91">
         <v>5</v>
       </c>
-      <c r="AD94" s="97"/>
-      <c r="AE94" s="95">
+      <c r="AD94" s="93"/>
+      <c r="AE94" s="91">
         <v>4</v>
       </c>
-      <c r="AF94" s="97"/>
-      <c r="AG94" s="95">
+      <c r="AF94" s="93"/>
+      <c r="AG94" s="91">
         <v>3</v>
       </c>
-      <c r="AH94" s="97"/>
-      <c r="AI94" s="95">
+      <c r="AH94" s="93"/>
+      <c r="AI94" s="91">
         <v>2</v>
       </c>
-      <c r="AJ94" s="97"/>
-      <c r="AK94" s="95">
+      <c r="AJ94" s="93"/>
+      <c r="AK94" s="91">
         <v>1</v>
       </c>
-      <c r="AL94" s="97"/>
-      <c r="AM94" s="95">
+      <c r="AL94" s="93"/>
+      <c r="AM94" s="91">
         <v>0</v>
       </c>
-      <c r="AN94" s="97"/>
+      <c r="AN94" s="93"/>
       <c r="AO94" s="69"/>
       <c r="AP94" s="69"/>
       <c r="AQ94" s="69"/>
@@ -5498,7 +5464,7 @@
     </row>
     <row r="97" spans="3:64">
       <c r="C97" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5562,7 +5528,7 @@
     </row>
     <row r="99" spans="3:64">
       <c r="C99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="68"/>
       <c r="E99" s="68"/>
@@ -5610,7 +5576,7 @@
     </row>
     <row r="101" spans="3:64">
       <c r="C101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="68"/>
       <c r="E101" s="68"/>
@@ -5663,72 +5629,72 @@
       <c r="D103" s="69"/>
       <c r="E103" s="69"/>
       <c r="F103" s="69"/>
-      <c r="G103" s="92">
+      <c r="G103" s="94">
         <v>7</v>
       </c>
-      <c r="H103" s="94"/>
-      <c r="I103" s="92">
+      <c r="H103" s="96"/>
+      <c r="I103" s="94">
         <v>6</v>
       </c>
-      <c r="J103" s="94"/>
-      <c r="K103" s="92">
+      <c r="J103" s="96"/>
+      <c r="K103" s="94">
         <v>5</v>
       </c>
-      <c r="L103" s="94"/>
-      <c r="M103" s="92">
+      <c r="L103" s="96"/>
+      <c r="M103" s="94">
         <v>4</v>
       </c>
-      <c r="N103" s="94"/>
-      <c r="O103" s="92">
+      <c r="N103" s="96"/>
+      <c r="O103" s="94">
         <v>3</v>
       </c>
-      <c r="P103" s="94"/>
-      <c r="Q103" s="92">
+      <c r="P103" s="96"/>
+      <c r="Q103" s="94">
         <v>2</v>
       </c>
-      <c r="R103" s="94"/>
-      <c r="S103" s="92">
+      <c r="R103" s="96"/>
+      <c r="S103" s="94">
         <v>1</v>
       </c>
-      <c r="T103" s="94"/>
-      <c r="U103" s="92">
+      <c r="T103" s="96"/>
+      <c r="U103" s="94">
         <v>0</v>
       </c>
-      <c r="V103" s="94"/>
+      <c r="V103" s="96"/>
       <c r="W103" s="69"/>
       <c r="X103" s="69"/>
-      <c r="Y103" s="92">
+      <c r="Y103" s="94">
         <v>7</v>
       </c>
-      <c r="Z103" s="94"/>
-      <c r="AA103" s="92">
+      <c r="Z103" s="96"/>
+      <c r="AA103" s="94">
         <v>6</v>
       </c>
-      <c r="AB103" s="94"/>
-      <c r="AC103" s="92">
+      <c r="AB103" s="96"/>
+      <c r="AC103" s="94">
         <v>5</v>
       </c>
-      <c r="AD103" s="94"/>
-      <c r="AE103" s="92">
+      <c r="AD103" s="96"/>
+      <c r="AE103" s="94">
         <v>4</v>
       </c>
-      <c r="AF103" s="94"/>
-      <c r="AG103" s="92">
+      <c r="AF103" s="96"/>
+      <c r="AG103" s="94">
         <v>3</v>
       </c>
-      <c r="AH103" s="94"/>
-      <c r="AI103" s="92">
+      <c r="AH103" s="96"/>
+      <c r="AI103" s="94">
         <v>2</v>
       </c>
-      <c r="AJ103" s="94"/>
-      <c r="AK103" s="92">
+      <c r="AJ103" s="96"/>
+      <c r="AK103" s="94">
         <v>1</v>
       </c>
-      <c r="AL103" s="94"/>
-      <c r="AM103" s="92">
+      <c r="AL103" s="96"/>
+      <c r="AM103" s="94">
         <v>0</v>
       </c>
-      <c r="AN103" s="94"/>
+      <c r="AN103" s="96"/>
       <c r="AO103" s="69"/>
       <c r="AP103" s="69"/>
       <c r="AQ103" s="69"/>
@@ -5744,72 +5710,72 @@
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
       <c r="G105" s="69"/>
-      <c r="H105" s="95">
+      <c r="H105" s="91">
         <v>7</v>
       </c>
-      <c r="I105" s="97"/>
-      <c r="J105" s="95">
+      <c r="I105" s="93"/>
+      <c r="J105" s="91">
         <v>6</v>
       </c>
-      <c r="K105" s="97"/>
-      <c r="L105" s="95">
+      <c r="K105" s="93"/>
+      <c r="L105" s="91">
         <v>5</v>
       </c>
-      <c r="M105" s="97"/>
-      <c r="N105" s="95">
+      <c r="M105" s="93"/>
+      <c r="N105" s="91">
         <v>4</v>
       </c>
-      <c r="O105" s="97"/>
-      <c r="P105" s="95">
+      <c r="O105" s="93"/>
+      <c r="P105" s="91">
         <v>3</v>
       </c>
-      <c r="Q105" s="97"/>
-      <c r="R105" s="95">
+      <c r="Q105" s="93"/>
+      <c r="R105" s="91">
         <v>2</v>
       </c>
-      <c r="S105" s="97"/>
-      <c r="T105" s="95">
+      <c r="S105" s="93"/>
+      <c r="T105" s="91">
         <v>1</v>
       </c>
-      <c r="U105" s="97"/>
-      <c r="V105" s="95">
+      <c r="U105" s="93"/>
+      <c r="V105" s="91">
         <v>0</v>
       </c>
-      <c r="W105" s="97"/>
+      <c r="W105" s="93"/>
       <c r="X105" s="69"/>
       <c r="Y105" s="69"/>
-      <c r="Z105" s="95">
+      <c r="Z105" s="91">
         <v>7</v>
       </c>
-      <c r="AA105" s="97"/>
-      <c r="AB105" s="95">
+      <c r="AA105" s="93"/>
+      <c r="AB105" s="91">
         <v>6</v>
       </c>
-      <c r="AC105" s="97"/>
-      <c r="AD105" s="95">
+      <c r="AC105" s="93"/>
+      <c r="AD105" s="91">
         <v>5</v>
       </c>
-      <c r="AE105" s="97"/>
-      <c r="AF105" s="95">
+      <c r="AE105" s="93"/>
+      <c r="AF105" s="91">
         <v>4</v>
       </c>
-      <c r="AG105" s="97"/>
-      <c r="AH105" s="95">
+      <c r="AG105" s="93"/>
+      <c r="AH105" s="91">
         <v>3</v>
       </c>
-      <c r="AI105" s="97"/>
-      <c r="AJ105" s="95">
+      <c r="AI105" s="93"/>
+      <c r="AJ105" s="91">
         <v>2</v>
       </c>
-      <c r="AK105" s="97"/>
-      <c r="AL105" s="95">
+      <c r="AK105" s="93"/>
+      <c r="AL105" s="91">
         <v>1</v>
       </c>
-      <c r="AM105" s="97"/>
-      <c r="AN105" s="95">
+      <c r="AM105" s="93"/>
+      <c r="AN105" s="91">
         <v>0</v>
       </c>
-      <c r="AO105" s="97"/>
+      <c r="AO105" s="93"/>
       <c r="AP105" s="69"/>
       <c r="AQ105" s="69"/>
       <c r="AR105" s="69"/>
@@ -5836,7 +5802,7 @@
     </row>
     <row r="108" spans="3:64">
       <c r="C108" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -5886,7 +5852,7 @@
     </row>
     <row r="110" spans="3:64">
       <c r="C110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110" s="68"/>
       <c r="E110" s="68"/>
@@ -5934,7 +5900,7 @@
     </row>
     <row r="112" spans="3:64">
       <c r="C112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="68"/>
       <c r="E112" s="68"/>
@@ -5988,72 +5954,72 @@
       <c r="E114" s="69"/>
       <c r="F114" s="69"/>
       <c r="G114" s="69"/>
-      <c r="H114" s="92">
+      <c r="H114" s="94">
         <v>7</v>
       </c>
-      <c r="I114" s="94"/>
-      <c r="J114" s="92">
+      <c r="I114" s="96"/>
+      <c r="J114" s="94">
         <v>6</v>
       </c>
-      <c r="K114" s="94"/>
-      <c r="L114" s="92">
+      <c r="K114" s="96"/>
+      <c r="L114" s="94">
         <v>5</v>
       </c>
-      <c r="M114" s="94"/>
-      <c r="N114" s="92">
+      <c r="M114" s="96"/>
+      <c r="N114" s="94">
         <v>4</v>
       </c>
-      <c r="O114" s="94"/>
-      <c r="P114" s="92">
+      <c r="O114" s="96"/>
+      <c r="P114" s="94">
         <v>3</v>
       </c>
-      <c r="Q114" s="94"/>
-      <c r="R114" s="92">
+      <c r="Q114" s="96"/>
+      <c r="R114" s="94">
         <v>2</v>
       </c>
-      <c r="S114" s="94"/>
-      <c r="T114" s="92">
+      <c r="S114" s="96"/>
+      <c r="T114" s="94">
         <v>1</v>
       </c>
-      <c r="U114" s="94"/>
-      <c r="V114" s="92">
+      <c r="U114" s="96"/>
+      <c r="V114" s="94">
         <v>0</v>
       </c>
-      <c r="W114" s="94"/>
+      <c r="W114" s="96"/>
       <c r="X114" s="69"/>
       <c r="Y114" s="69"/>
-      <c r="Z114" s="92">
+      <c r="Z114" s="94">
         <v>7</v>
       </c>
-      <c r="AA114" s="94"/>
-      <c r="AB114" s="92">
+      <c r="AA114" s="96"/>
+      <c r="AB114" s="94">
         <v>6</v>
       </c>
-      <c r="AC114" s="94"/>
-      <c r="AD114" s="92">
+      <c r="AC114" s="96"/>
+      <c r="AD114" s="94">
         <v>5</v>
       </c>
-      <c r="AE114" s="94"/>
-      <c r="AF114" s="92">
+      <c r="AE114" s="96"/>
+      <c r="AF114" s="94">
         <v>4</v>
       </c>
-      <c r="AG114" s="94"/>
-      <c r="AH114" s="92">
+      <c r="AG114" s="96"/>
+      <c r="AH114" s="94">
         <v>3</v>
       </c>
-      <c r="AI114" s="94"/>
-      <c r="AJ114" s="92">
+      <c r="AI114" s="96"/>
+      <c r="AJ114" s="94">
         <v>2</v>
       </c>
-      <c r="AK114" s="94"/>
-      <c r="AL114" s="92">
+      <c r="AK114" s="96"/>
+      <c r="AL114" s="94">
         <v>1</v>
       </c>
-      <c r="AM114" s="94"/>
-      <c r="AN114" s="92">
+      <c r="AM114" s="96"/>
+      <c r="AN114" s="94">
         <v>0</v>
       </c>
-      <c r="AO114" s="94"/>
+      <c r="AO114" s="96"/>
       <c r="AP114" s="69"/>
       <c r="AQ114" s="69"/>
       <c r="AR114" s="69"/>
@@ -6067,72 +6033,72 @@
       <c r="D116" s="69"/>
       <c r="E116" s="69"/>
       <c r="F116" s="69"/>
-      <c r="G116" s="95">
+      <c r="G116" s="91">
         <v>7</v>
       </c>
-      <c r="H116" s="97"/>
-      <c r="I116" s="95">
+      <c r="H116" s="93"/>
+      <c r="I116" s="91">
         <v>6</v>
       </c>
-      <c r="J116" s="97"/>
-      <c r="K116" s="95">
+      <c r="J116" s="93"/>
+      <c r="K116" s="91">
         <v>5</v>
       </c>
-      <c r="L116" s="97"/>
-      <c r="M116" s="95">
+      <c r="L116" s="93"/>
+      <c r="M116" s="91">
         <v>4</v>
       </c>
-      <c r="N116" s="97"/>
-      <c r="O116" s="95">
+      <c r="N116" s="93"/>
+      <c r="O116" s="91">
         <v>3</v>
       </c>
-      <c r="P116" s="97"/>
-      <c r="Q116" s="95">
+      <c r="P116" s="93"/>
+      <c r="Q116" s="91">
         <v>2</v>
       </c>
-      <c r="R116" s="97"/>
-      <c r="S116" s="95">
+      <c r="R116" s="93"/>
+      <c r="S116" s="91">
         <v>1</v>
       </c>
-      <c r="T116" s="97"/>
-      <c r="U116" s="95">
+      <c r="T116" s="93"/>
+      <c r="U116" s="91">
         <v>0</v>
       </c>
-      <c r="V116" s="97"/>
+      <c r="V116" s="93"/>
       <c r="W116" s="69"/>
       <c r="X116" s="69"/>
-      <c r="Y116" s="95">
+      <c r="Y116" s="91">
         <v>7</v>
       </c>
-      <c r="Z116" s="97"/>
-      <c r="AA116" s="95">
+      <c r="Z116" s="93"/>
+      <c r="AA116" s="91">
         <v>6</v>
       </c>
-      <c r="AB116" s="97"/>
-      <c r="AC116" s="95">
+      <c r="AB116" s="93"/>
+      <c r="AC116" s="91">
         <v>5</v>
       </c>
-      <c r="AD116" s="97"/>
-      <c r="AE116" s="95">
+      <c r="AD116" s="93"/>
+      <c r="AE116" s="91">
         <v>4</v>
       </c>
-      <c r="AF116" s="97"/>
-      <c r="AG116" s="95">
+      <c r="AF116" s="93"/>
+      <c r="AG116" s="91">
         <v>3</v>
       </c>
-      <c r="AH116" s="97"/>
-      <c r="AI116" s="95">
+      <c r="AH116" s="93"/>
+      <c r="AI116" s="91">
         <v>2</v>
       </c>
-      <c r="AJ116" s="97"/>
-      <c r="AK116" s="95">
+      <c r="AJ116" s="93"/>
+      <c r="AK116" s="91">
         <v>1</v>
       </c>
-      <c r="AL116" s="97"/>
-      <c r="AM116" s="95">
+      <c r="AL116" s="93"/>
+      <c r="AM116" s="91">
         <v>0</v>
       </c>
-      <c r="AN116" s="97"/>
+      <c r="AN116" s="93"/>
       <c r="AO116" s="69"/>
       <c r="AP116" s="69"/>
       <c r="AQ116" s="69"/>
@@ -6142,6 +6108,274 @@
     </row>
   </sheetData>
   <mergeCells count="292">
+    <mergeCell ref="BG24:BH24"/>
+    <mergeCell ref="BE24:BF24"/>
+    <mergeCell ref="BC24:BD24"/>
+    <mergeCell ref="AS16:BI16"/>
+    <mergeCell ref="AA34:AQ34"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AA70:AQ70"/>
+    <mergeCell ref="AS70:BI70"/>
+    <mergeCell ref="AA36:AQ36"/>
+    <mergeCell ref="AA18:AQ18"/>
+    <mergeCell ref="AS18:BI18"/>
+    <mergeCell ref="AQ24:AS24"/>
+    <mergeCell ref="AQ62:BF62"/>
+    <mergeCell ref="BG62:BH62"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="AO62:AP62"/>
+    <mergeCell ref="BG45:BH45"/>
+    <mergeCell ref="BI58:BK58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="AA58:AB58"/>
+    <mergeCell ref="AC58:AD58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="AW58:AX58"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="AW24:AX24"/>
+    <mergeCell ref="AU24:AV24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G62:P62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="Y10:AN10"/>
+    <mergeCell ref="AQ10:BF10"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AQ58:AR58"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="BI41:BK41"/>
+    <mergeCell ref="G45:P45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:AN45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AQ45:BF45"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AN28"/>
+    <mergeCell ref="AO28:AP28"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AW41:AX41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AK81:AL81"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AE81:AF81"/>
+    <mergeCell ref="AM103:AN103"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="Y103:Z103"/>
+    <mergeCell ref="AA103:AB103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="AE103:AF103"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AG103:AH103"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AH83:AI83"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AN114:AO114"/>
+    <mergeCell ref="T114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="Z114:AA114"/>
+    <mergeCell ref="AB114:AC114"/>
+    <mergeCell ref="AD114:AE114"/>
+    <mergeCell ref="AF114:AG114"/>
+    <mergeCell ref="AH92:AI92"/>
+    <mergeCell ref="AJ92:AK92"/>
+    <mergeCell ref="AL92:AM92"/>
+    <mergeCell ref="AN92:AO92"/>
+    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="AG94:AH94"/>
+    <mergeCell ref="AI103:AJ103"/>
+    <mergeCell ref="AK103:AL103"/>
+    <mergeCell ref="AH114:AI114"/>
+    <mergeCell ref="AJ114:AK114"/>
+    <mergeCell ref="AL114:AM114"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="V105:W105"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="AI116:AJ116"/>
+    <mergeCell ref="AK116:AL116"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="Y116:Z116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AE116:AF116"/>
+    <mergeCell ref="AG116:AH116"/>
+    <mergeCell ref="AJ105:AK105"/>
+    <mergeCell ref="AL105:AM105"/>
+    <mergeCell ref="AN105:AO105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AF105:AG105"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AI94:AJ94"/>
+    <mergeCell ref="AK94:AL94"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="AA53:AQ53"/>
+    <mergeCell ref="AN83:AO83"/>
+    <mergeCell ref="V83:W83"/>
     <mergeCell ref="AS53:BI53"/>
     <mergeCell ref="Y62:AN62"/>
     <mergeCell ref="BK16:BL16"/>
@@ -6166,274 +6400,6 @@
     <mergeCell ref="BC58:BD58"/>
     <mergeCell ref="BE58:BF58"/>
     <mergeCell ref="BG58:BH58"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="AI116:AJ116"/>
-    <mergeCell ref="AK116:AL116"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="U116:V116"/>
-    <mergeCell ref="Y116:Z116"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AE116:AF116"/>
-    <mergeCell ref="AG116:AH116"/>
-    <mergeCell ref="AJ105:AK105"/>
-    <mergeCell ref="AL105:AM105"/>
-    <mergeCell ref="AN105:AO105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="AD105:AE105"/>
-    <mergeCell ref="AF105:AG105"/>
-    <mergeCell ref="AH105:AI105"/>
-    <mergeCell ref="AI94:AJ94"/>
-    <mergeCell ref="AK94:AL94"/>
-    <mergeCell ref="AM94:AN94"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="AA53:AQ53"/>
-    <mergeCell ref="AN83:AO83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:T116"/>
-    <mergeCell ref="V105:W105"/>
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="R114:S114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="AN114:AO114"/>
-    <mergeCell ref="T114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="Z114:AA114"/>
-    <mergeCell ref="AB114:AC114"/>
-    <mergeCell ref="AD114:AE114"/>
-    <mergeCell ref="AF114:AG114"/>
-    <mergeCell ref="AH92:AI92"/>
-    <mergeCell ref="AJ92:AK92"/>
-    <mergeCell ref="AL92:AM92"/>
-    <mergeCell ref="AN92:AO92"/>
-    <mergeCell ref="Y94:Z94"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="AG94:AH94"/>
-    <mergeCell ref="AI103:AJ103"/>
-    <mergeCell ref="AK103:AL103"/>
-    <mergeCell ref="AH114:AI114"/>
-    <mergeCell ref="AJ114:AK114"/>
-    <mergeCell ref="AL114:AM114"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="U103:V103"/>
-    <mergeCell ref="Y103:Z103"/>
-    <mergeCell ref="AA103:AB103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="AE103:AF103"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AG103:AH103"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AH83:AI83"/>
-    <mergeCell ref="AJ83:AK83"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AK81:AL81"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="Y81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AE81:AF81"/>
-    <mergeCell ref="AM103:AN103"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AU41:AV41"/>
-    <mergeCell ref="AW41:AX41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AP41"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AO58:AP58"/>
-    <mergeCell ref="AQ58:AR58"/>
-    <mergeCell ref="AS58:AT58"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="BI41:BK41"/>
-    <mergeCell ref="G45:P45"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:AN45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AQ45:BF45"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AN28"/>
-    <mergeCell ref="AO28:AP28"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="Y10:AN10"/>
-    <mergeCell ref="AQ10:BF10"/>
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA16:AQ16"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="G62:P62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="AA70:AQ70"/>
-    <mergeCell ref="AS70:BI70"/>
-    <mergeCell ref="AA36:AQ36"/>
-    <mergeCell ref="AA18:AQ18"/>
-    <mergeCell ref="AS18:BI18"/>
-    <mergeCell ref="AQ24:AS24"/>
-    <mergeCell ref="AQ62:BF62"/>
-    <mergeCell ref="BG62:BH62"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="AO62:AP62"/>
-    <mergeCell ref="BG45:BH45"/>
-    <mergeCell ref="BI58:BK58"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="AA58:AB58"/>
-    <mergeCell ref="AC58:AD58"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="AW58:AX58"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="AY24:AZ24"/>
-    <mergeCell ref="AW24:AX24"/>
-    <mergeCell ref="AU24:AV24"/>
-    <mergeCell ref="BG24:BH24"/>
-    <mergeCell ref="BE24:BF24"/>
-    <mergeCell ref="BC24:BD24"/>
-    <mergeCell ref="AS16:BI16"/>
-    <mergeCell ref="AA34:AQ34"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AO24:AP24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-15" windowWidth="13785" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="-15" windowWidth="13785" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="175">
   <si>
     <t>IO11</t>
   </si>
@@ -687,6 +687,66 @@
   <si>
     <t>Bidirectional SO support for reading
 0x85:read by SI, 0x75:read by SO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[7:0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0xB2
+0x3D
+0xDF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x42
+0x43
+0x44</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO2/SS2, GPIO3/SS3 pin funtion select
+0xB2,0x3D,0xDF: GPIO2, GPIO3
+0xCF,0x3F,0xDF: SS2, GPIO3
+0xB2,0x0D,0xFD: GPIO2, SS3
+0xCF,0x0F,0xFD: SS2, SS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2CSPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2CSPI-A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLA0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO2/SS2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIO3/SS3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1106,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1440,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,47 +1464,38 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -1762,531 +1828,956 @@
     <col min="9" max="9" width="8.875" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
-      <c r="B2" s="6"/>
+      <c r="B2" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="F3"/>
+      <c r="L3" s="91"/>
+      <c r="N3" s="91"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="91"/>
+      <c r="B4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="F4"/>
+      <c r="L4" s="91"/>
+      <c r="N4" s="91"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="9" t="s">
+    <row r="6" spans="1:14">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J6" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>36</v>
+        <v>146</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="F9" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
-        <v>14</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>148</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5">
+        <v>14</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>12</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="24" t="s">
+    <row r="15" spans="1:14">
+      <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F15" s="27">
         <v>10</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27">
         <v>11</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="F14"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="I15" s="6"/>
-    </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="F16" s="36" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="N16" s="91"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="B17" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="F17"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="91"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="91"/>
+      <c r="B19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="91"/>
+      <c r="B20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="N20" s="91"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="91"/>
+      <c r="B21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="91"/>
+      <c r="B22" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="91"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="91"/>
+      <c r="B23" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="91"/>
+      <c r="B24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" s="91"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="91"/>
+      <c r="B25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="5">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <v>14</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="91"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="91"/>
+      <c r="B26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="5">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <v>12</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="91"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="91"/>
+      <c r="B28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="27">
+        <v>10</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27">
+        <v>11</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="91"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="F29"/>
+      <c r="I29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="N29" s="91"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="C30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="F31" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="2:12" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="F17" s="45" t="s">
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A32"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="F32" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G32" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H32" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I32" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J32" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48" t="s">
+      <c r="K32" s="47"/>
+      <c r="L32" s="48" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" customFormat="1" ht="14.25" thickTop="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="F18" s="44" t="s">
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" ht="14.25" thickTop="1">
+      <c r="A33"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="F33" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G33" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H33" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I33" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J33" s="44">
         <v>1010100</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K33" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="42" t="str">
-        <f>BIN2HEX(J18,2)</f>
+      <c r="L33" s="42" t="str">
+        <f>BIN2HEX(J33,2)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" customFormat="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="F19" s="34" t="s">
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G34" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H34" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I34" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J34" s="34">
         <v>1010101</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K34" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="38" t="str">
-        <f>BIN2HEX(J19,2)</f>
+      <c r="L34" s="38" t="str">
+        <f>BIN2HEX(J34,2)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="F20" s="34" t="s">
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="F35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G35" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J35" s="34">
         <v>1010110</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K35" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="38" t="str">
-        <f>BIN2HEX(J20,2)</f>
+      <c r="L35" s="38" t="str">
+        <f>BIN2HEX(J35,2)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
-      <c r="F21" s="34" t="s">
+    <row r="36" spans="1:14">
+      <c r="F36" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G36" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H36" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I36" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J36" s="34">
         <v>1010111</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K36" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="38" t="str">
-        <f>BIN2HEX(J21,2)</f>
+      <c r="L36" s="38" t="str">
+        <f>BIN2HEX(J36,2)</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2297,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2434,71 +2925,77 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="81">
-      <c r="B10" s="50" t="s">
+    <row r="10" spans="2:8" ht="67.5">
+      <c r="B10" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="81">
+      <c r="B11" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C11" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D11" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E11" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F11" s="49" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="81">
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="34" t="s">
+    <row r="12" spans="2:8" ht="81">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F12" s="49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="55" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C13" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D13" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E13" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F13" s="62" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="58"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="58"/>
       <c r="C14" s="60"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -2506,10 +3003,10 @@
       <c r="C15" s="60"/>
       <c r="D15" s="58"/>
       <c r="E15" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -2517,20 +3014,31 @@
       <c r="C16" s="60"/>
       <c r="D16" s="58"/>
       <c r="E16" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F17" s="63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="59"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="56" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="59"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F18" s="59" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2544,7 +3052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:BL116"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="67" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="BZ19" sqref="BZ19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <cols>
@@ -2563,22 +3073,22 @@
       <c r="I4" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100" t="s">
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="98" t="s">
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
     </row>
     <row r="5" spans="3:64">
       <c r="C5" s="71" t="s">
@@ -2586,124 +3096,124 @@
       </c>
     </row>
     <row r="6" spans="3:64">
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97">
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92">
         <v>1</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97">
+      <c r="H6" s="92"/>
+      <c r="I6" s="92">
         <v>2</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92">
         <v>3</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97">
+      <c r="L6" s="92"/>
+      <c r="M6" s="92">
         <v>4</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97">
+      <c r="N6" s="92"/>
+      <c r="O6" s="92">
         <v>5</v>
       </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97">
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92">
         <v>6</v>
       </c>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97">
+      <c r="R6" s="92"/>
+      <c r="S6" s="92">
         <v>7</v>
       </c>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97">
+      <c r="T6" s="92"/>
+      <c r="U6" s="92">
         <v>8</v>
       </c>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97" t="s">
+      <c r="V6" s="92"/>
+      <c r="W6" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97">
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92">
         <v>1</v>
       </c>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97">
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92">
         <v>2</v>
       </c>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97">
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92">
         <v>3</v>
       </c>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97">
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92">
         <v>4</v>
       </c>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97">
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92">
         <v>5</v>
       </c>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97">
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92">
         <v>6</v>
       </c>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97">
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92">
         <v>7</v>
       </c>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97">
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="92">
         <v>8</v>
       </c>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97" t="s">
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97">
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="92">
         <v>1</v>
       </c>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97">
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92">
         <v>2</v>
       </c>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97">
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92">
         <v>3</v>
       </c>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="97">
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="92">
         <v>4</v>
       </c>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97">
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92">
         <v>5</v>
       </c>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="97">
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="92">
         <v>6</v>
       </c>
-      <c r="BB6" s="97"/>
-      <c r="BC6" s="97">
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92">
         <v>7</v>
       </c>
-      <c r="BD6" s="97"/>
-      <c r="BE6" s="97">
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="92">
         <v>8</v>
       </c>
-      <c r="BF6" s="97"/>
-      <c r="BG6" s="97" t="s">
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="BH6" s="97"/>
-      <c r="BJ6" s="97" t="s">
+      <c r="BH6" s="92"/>
+      <c r="BJ6" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="BK6" s="97"/>
-      <c r="BL6" s="97"/>
+      <c r="BK6" s="92"/>
+      <c r="BL6" s="92"/>
     </row>
     <row r="8" spans="3:64">
       <c r="C8" t="s">
@@ -2778,72 +3288,72 @@
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="79"/>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="91" t="s">
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="91" t="s">
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="V10" s="93"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="101" t="s">
         <v>106</v>
       </c>
       <c r="X10" s="102"/>
-      <c r="Y10" s="91" t="s">
+      <c r="Y10" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="93"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="98"/>
       <c r="AO10" s="101" t="s">
         <v>106</v>
       </c>
       <c r="AP10" s="102"/>
-      <c r="AQ10" s="91" t="s">
+      <c r="AQ10" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="93"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="97"/>
+      <c r="AU10" s="97"/>
+      <c r="AV10" s="97"/>
+      <c r="AW10" s="97"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="97"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="97"/>
+      <c r="BB10" s="97"/>
+      <c r="BC10" s="97"/>
+      <c r="BD10" s="97"/>
+      <c r="BE10" s="97"/>
+      <c r="BF10" s="98"/>
       <c r="BG10" s="101" t="s">
         <v>106</v>
       </c>
@@ -2989,75 +3499,75 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="94">
         <v>0</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="94" t="s">
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="96"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="95"/>
       <c r="AR16" s="77"/>
-      <c r="AS16" s="94" t="s">
+      <c r="AS16" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="96"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="94"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="94"/>
+      <c r="BH16" s="94"/>
+      <c r="BI16" s="95"/>
       <c r="BJ16" s="77"/>
-      <c r="BK16" s="94">
+      <c r="BK16" s="93">
         <v>0</v>
       </c>
-      <c r="BL16" s="95"/>
+      <c r="BL16" s="94"/>
     </row>
     <row r="18" spans="3:64">
       <c r="C18" t="s">
@@ -3086,45 +3596,45 @@
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
-      <c r="AA18" s="91" t="s">
+      <c r="AA18" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="92"/>
-      <c r="AO18" s="92"/>
-      <c r="AP18" s="92"/>
-      <c r="AQ18" s="93"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
+      <c r="AI18" s="97"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="97"/>
+      <c r="AO18" s="97"/>
+      <c r="AP18" s="97"/>
+      <c r="AQ18" s="98"/>
       <c r="AR18" s="74"/>
-      <c r="AS18" s="91" t="s">
+      <c r="AS18" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="AT18" s="92"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="92"/>
-      <c r="AW18" s="92"/>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="92"/>
-      <c r="AZ18" s="92"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="92"/>
-      <c r="BD18" s="92"/>
-      <c r="BE18" s="92"/>
-      <c r="BF18" s="92"/>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="92"/>
-      <c r="BI18" s="93"/>
+      <c r="AT18" s="97"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="97"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="97"/>
+      <c r="AY18" s="97"/>
+      <c r="AZ18" s="97"/>
+      <c r="BA18" s="97"/>
+      <c r="BB18" s="97"/>
+      <c r="BC18" s="97"/>
+      <c r="BD18" s="97"/>
+      <c r="BE18" s="97"/>
+      <c r="BF18" s="97"/>
+      <c r="BG18" s="97"/>
+      <c r="BH18" s="97"/>
+      <c r="BI18" s="98"/>
       <c r="BJ18" s="74"/>
       <c r="BK18" s="89"/>
       <c r="BL18" s="88"/>
@@ -3133,67 +3643,67 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="80"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
-      <c r="BD20" s="78"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
-      <c r="BG20" s="78"/>
-      <c r="BH20" s="78"/>
-      <c r="BI20" s="78"/>
-      <c r="BJ20" s="78"/>
-      <c r="BK20" s="79"/>
-      <c r="BL20" s="82"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="86"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="83"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="83"/>
+      <c r="BA20" s="83"/>
+      <c r="BB20" s="83"/>
+      <c r="BC20" s="83"/>
+      <c r="BD20" s="83"/>
+      <c r="BE20" s="83"/>
+      <c r="BF20" s="83"/>
+      <c r="BG20" s="83"/>
+      <c r="BH20" s="83"/>
+      <c r="BI20" s="83"/>
+      <c r="BJ20" s="83"/>
+      <c r="BK20" s="84"/>
+      <c r="BL20" s="85"/>
     </row>
     <row r="23" spans="3:64">
       <c r="C23" s="71" t="s">
@@ -3201,102 +3711,102 @@
       </c>
     </row>
     <row r="24" spans="3:64">
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97">
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92">
         <v>1</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97">
+      <c r="H24" s="92"/>
+      <c r="I24" s="92">
         <v>2</v>
       </c>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97">
+      <c r="J24" s="92"/>
+      <c r="K24" s="92">
         <v>3</v>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97">
+      <c r="L24" s="92"/>
+      <c r="M24" s="92">
         <v>4</v>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97">
+      <c r="N24" s="92"/>
+      <c r="O24" s="92">
         <v>5</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97">
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92">
         <v>6</v>
       </c>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97">
+      <c r="R24" s="92"/>
+      <c r="S24" s="92">
         <v>7</v>
       </c>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97">
+      <c r="T24" s="92"/>
+      <c r="U24" s="92">
         <v>8</v>
       </c>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97" t="s">
+      <c r="V24" s="92"/>
+      <c r="W24" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97">
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92">
         <v>1</v>
       </c>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97">
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92">
         <v>2</v>
       </c>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97">
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92">
         <v>3</v>
       </c>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97">
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92">
         <v>4</v>
       </c>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="97">
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92">
         <v>5</v>
       </c>
-      <c r="AH24" s="97"/>
-      <c r="AI24" s="97">
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92">
         <v>6</v>
       </c>
-      <c r="AJ24" s="97"/>
-      <c r="AK24" s="97">
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92">
         <v>7</v>
       </c>
-      <c r="AL24" s="97"/>
-      <c r="AM24" s="97">
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="92">
         <v>8</v>
       </c>
-      <c r="AN24" s="97"/>
-      <c r="AO24" s="97" t="s">
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="AP24" s="97"/>
-      <c r="AQ24" s="97" t="s">
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="AR24" s="97"/>
-      <c r="AS24" s="97"/>
-      <c r="AU24" s="97"/>
-      <c r="AV24" s="97"/>
-      <c r="AW24" s="97"/>
-      <c r="AX24" s="97"/>
-      <c r="AY24" s="97"/>
-      <c r="AZ24" s="97"/>
-      <c r="BA24" s="97"/>
-      <c r="BB24" s="97"/>
-      <c r="BC24" s="97"/>
-      <c r="BD24" s="97"/>
-      <c r="BE24" s="97"/>
-      <c r="BF24" s="97"/>
-      <c r="BG24" s="97"/>
-      <c r="BH24" s="97"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="92"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="92"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="92"/>
     </row>
     <row r="26" spans="3:64">
       <c r="C26" t="s">
@@ -3352,50 +3862,50 @@
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="91" t="s">
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="91" t="s">
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="V28" s="93"/>
+      <c r="V28" s="98"/>
       <c r="W28" s="101" t="s">
         <v>106</v>
       </c>
       <c r="X28" s="102"/>
-      <c r="Y28" s="91" t="s">
+      <c r="Y28" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="92"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="93"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="97"/>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="97"/>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="97"/>
+      <c r="AL28" s="97"/>
+      <c r="AM28" s="97"/>
+      <c r="AN28" s="98"/>
       <c r="AO28" s="101" t="s">
         <v>106</v>
       </c>
@@ -3502,54 +4012,54 @@
       <c r="C34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="95">
+      <c r="D34" s="94">
         <v>0</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="94" t="s">
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="96"/>
-      <c r="AR34" s="94">
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="94"/>
+      <c r="AI34" s="94"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="94"/>
+      <c r="AQ34" s="95"/>
+      <c r="AR34" s="93">
         <v>0</v>
       </c>
-      <c r="AS34" s="95"/>
+      <c r="AS34" s="94"/>
     </row>
     <row r="36" spans="3:64">
       <c r="C36" t="s">
@@ -3578,25 +4088,25 @@
       <c r="X36" s="74"/>
       <c r="Y36" s="74"/>
       <c r="Z36" s="74"/>
-      <c r="AA36" s="91" t="s">
+      <c r="AA36" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="AB36" s="92"/>
-      <c r="AC36" s="92"/>
-      <c r="AD36" s="92"/>
-      <c r="AE36" s="92"/>
-      <c r="AF36" s="92"/>
-      <c r="AG36" s="92"/>
-      <c r="AH36" s="92"/>
-      <c r="AI36" s="92"/>
-      <c r="AJ36" s="92"/>
-      <c r="AK36" s="92"/>
-      <c r="AL36" s="92"/>
-      <c r="AM36" s="92"/>
-      <c r="AN36" s="92"/>
-      <c r="AO36" s="92"/>
-      <c r="AP36" s="92"/>
-      <c r="AQ36" s="93"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="97"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="97"/>
+      <c r="AL36" s="97"/>
+      <c r="AM36" s="97"/>
+      <c r="AN36" s="97"/>
+      <c r="AO36" s="97"/>
+      <c r="AP36" s="97"/>
+      <c r="AQ36" s="98"/>
       <c r="AR36" s="74"/>
       <c r="AS36" s="74"/>
     </row>
@@ -3648,119 +4158,119 @@
       <c r="AS38" s="83"/>
     </row>
     <row r="41" spans="3:64">
-      <c r="G41" s="97">
+      <c r="G41" s="92">
         <v>1</v>
       </c>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97">
+      <c r="H41" s="92"/>
+      <c r="I41" s="92">
         <v>2</v>
       </c>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97">
+      <c r="J41" s="92"/>
+      <c r="K41" s="92">
         <v>3</v>
       </c>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97">
+      <c r="L41" s="92"/>
+      <c r="M41" s="92">
         <v>4</v>
       </c>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97">
+      <c r="N41" s="92"/>
+      <c r="O41" s="92">
         <v>5</v>
       </c>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97">
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92">
         <v>6</v>
       </c>
-      <c r="R41" s="97"/>
-      <c r="S41" s="97">
+      <c r="R41" s="92"/>
+      <c r="S41" s="92">
         <v>7</v>
       </c>
-      <c r="T41" s="97"/>
-      <c r="U41" s="97">
+      <c r="T41" s="92"/>
+      <c r="U41" s="92">
         <v>8</v>
       </c>
-      <c r="V41" s="97"/>
-      <c r="W41" s="97" t="s">
+      <c r="V41" s="92"/>
+      <c r="W41" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="97">
+      <c r="X41" s="92"/>
+      <c r="Y41" s="92">
         <v>1</v>
       </c>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="97">
+      <c r="Z41" s="92"/>
+      <c r="AA41" s="92">
         <v>2</v>
       </c>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97">
+      <c r="AB41" s="92"/>
+      <c r="AC41" s="92">
         <v>3</v>
       </c>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97">
+      <c r="AD41" s="92"/>
+      <c r="AE41" s="92">
         <v>4</v>
       </c>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="97">
+      <c r="AF41" s="92"/>
+      <c r="AG41" s="92">
         <v>5</v>
       </c>
-      <c r="AH41" s="97"/>
-      <c r="AI41" s="97">
+      <c r="AH41" s="92"/>
+      <c r="AI41" s="92">
         <v>6</v>
       </c>
-      <c r="AJ41" s="97"/>
-      <c r="AK41" s="97">
+      <c r="AJ41" s="92"/>
+      <c r="AK41" s="92">
         <v>7</v>
       </c>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97">
+      <c r="AL41" s="92"/>
+      <c r="AM41" s="92">
         <v>8</v>
       </c>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="97" t="s">
+      <c r="AN41" s="92"/>
+      <c r="AO41" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="AP41" s="97"/>
-      <c r="AQ41" s="97">
+      <c r="AP41" s="92"/>
+      <c r="AQ41" s="92">
         <v>1</v>
       </c>
-      <c r="AR41" s="97"/>
-      <c r="AS41" s="97">
+      <c r="AR41" s="92"/>
+      <c r="AS41" s="92">
         <v>2</v>
       </c>
-      <c r="AT41" s="97"/>
-      <c r="AU41" s="97">
+      <c r="AT41" s="92"/>
+      <c r="AU41" s="92">
         <v>3</v>
       </c>
-      <c r="AV41" s="97"/>
-      <c r="AW41" s="97">
+      <c r="AV41" s="92"/>
+      <c r="AW41" s="92">
         <v>4</v>
       </c>
-      <c r="AX41" s="97"/>
-      <c r="AY41" s="97">
+      <c r="AX41" s="92"/>
+      <c r="AY41" s="92">
         <v>5</v>
       </c>
-      <c r="AZ41" s="97"/>
-      <c r="BA41" s="97">
+      <c r="AZ41" s="92"/>
+      <c r="BA41" s="92">
         <v>6</v>
       </c>
-      <c r="BB41" s="97"/>
-      <c r="BC41" s="97">
+      <c r="BB41" s="92"/>
+      <c r="BC41" s="92">
         <v>7</v>
       </c>
-      <c r="BD41" s="97"/>
-      <c r="BE41" s="97">
+      <c r="BD41" s="92"/>
+      <c r="BE41" s="92">
         <v>8</v>
       </c>
-      <c r="BF41" s="97"/>
-      <c r="BG41" s="97" t="s">
+      <c r="BF41" s="92"/>
+      <c r="BG41" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="BH41" s="97"/>
-      <c r="BI41" s="97" t="s">
+      <c r="BH41" s="92"/>
+      <c r="BI41" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="BJ41" s="97"/>
-      <c r="BK41" s="97"/>
+      <c r="BJ41" s="92"/>
+      <c r="BK41" s="92"/>
       <c r="BL41" s="72"/>
     </row>
     <row r="43" spans="3:64">
@@ -3827,76 +4337,76 @@
     <row r="45" spans="3:64">
       <c r="E45" s="1"/>
       <c r="F45" s="81"/>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="91" t="s">
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="91" t="s">
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="98"/>
+      <c r="U45" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="V45" s="93"/>
+      <c r="V45" s="98"/>
       <c r="W45" s="101" t="s">
         <v>106</v>
       </c>
       <c r="X45" s="102"/>
-      <c r="Y45" s="94" t="s">
+      <c r="Y45" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
-      <c r="AH45" s="95"/>
-      <c r="AI45" s="95"/>
-      <c r="AJ45" s="95"/>
-      <c r="AK45" s="95"/>
-      <c r="AL45" s="95"/>
-      <c r="AM45" s="95"/>
-      <c r="AN45" s="96"/>
+      <c r="Z45" s="94"/>
+      <c r="AA45" s="94"/>
+      <c r="AB45" s="94"/>
+      <c r="AC45" s="94"/>
+      <c r="AD45" s="94"/>
+      <c r="AE45" s="94"/>
+      <c r="AF45" s="94"/>
+      <c r="AG45" s="94"/>
+      <c r="AH45" s="94"/>
+      <c r="AI45" s="94"/>
+      <c r="AJ45" s="94"/>
+      <c r="AK45" s="94"/>
+      <c r="AL45" s="94"/>
+      <c r="AM45" s="94"/>
+      <c r="AN45" s="95"/>
       <c r="AO45" s="103" t="s">
         <v>106</v>
       </c>
       <c r="AP45" s="104"/>
-      <c r="AQ45" s="94" t="s">
+      <c r="AQ45" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="95"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="95"/>
-      <c r="AW45" s="95"/>
-      <c r="AX45" s="95"/>
-      <c r="AY45" s="95"/>
-      <c r="AZ45" s="95"/>
-      <c r="BA45" s="95"/>
-      <c r="BB45" s="95"/>
-      <c r="BC45" s="95"/>
-      <c r="BD45" s="95"/>
-      <c r="BE45" s="95"/>
-      <c r="BF45" s="96"/>
-      <c r="BG45" s="106" t="s">
+      <c r="AR45" s="94"/>
+      <c r="AS45" s="94"/>
+      <c r="AT45" s="94"/>
+      <c r="AU45" s="94"/>
+      <c r="AV45" s="94"/>
+      <c r="AW45" s="94"/>
+      <c r="AX45" s="94"/>
+      <c r="AY45" s="94"/>
+      <c r="AZ45" s="94"/>
+      <c r="BA45" s="94"/>
+      <c r="BB45" s="94"/>
+      <c r="BC45" s="94"/>
+      <c r="BD45" s="94"/>
+      <c r="BE45" s="94"/>
+      <c r="BF45" s="95"/>
+      <c r="BG45" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="BH45" s="107"/>
+      <c r="BH45" s="100"/>
       <c r="BI45" s="82"/>
       <c r="BJ45" s="81"/>
       <c r="BK45" s="80"/>
@@ -4025,27 +4535,27 @@
       <c r="BL49" s="85"/>
     </row>
     <row r="51" spans="3:64">
-      <c r="F51" s="95">
+      <c r="F51" s="94">
         <v>0</v>
       </c>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="95"/>
-      <c r="U51" s="95"/>
-      <c r="V51" s="95"/>
-      <c r="W51" s="95"/>
-      <c r="X51" s="96"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="94"/>
+      <c r="U51" s="94"/>
+      <c r="V51" s="94"/>
+      <c r="W51" s="94"/>
+      <c r="X51" s="95"/>
       <c r="Y51" s="90"/>
       <c r="Z51" s="88"/>
       <c r="AA51" s="88"/>
@@ -4084,10 +4594,10 @@
       <c r="BH51" s="88"/>
       <c r="BI51" s="88"/>
       <c r="BJ51" s="88"/>
-      <c r="BK51" s="94">
+      <c r="BK51" s="93">
         <v>0</v>
       </c>
-      <c r="BL51" s="95"/>
+      <c r="BL51" s="94"/>
     </row>
     <row r="53" spans="3:64">
       <c r="F53" s="73"/>
@@ -4111,45 +4621,45 @@
       <c r="X53" s="74"/>
       <c r="Y53" s="74"/>
       <c r="Z53" s="74"/>
-      <c r="AA53" s="91" t="s">
+      <c r="AA53" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="AB53" s="92"/>
-      <c r="AC53" s="92"/>
-      <c r="AD53" s="92"/>
-      <c r="AE53" s="92"/>
-      <c r="AF53" s="92"/>
-      <c r="AG53" s="92"/>
-      <c r="AH53" s="92"/>
-      <c r="AI53" s="92"/>
-      <c r="AJ53" s="92"/>
-      <c r="AK53" s="92"/>
-      <c r="AL53" s="92"/>
-      <c r="AM53" s="92"/>
-      <c r="AN53" s="92"/>
-      <c r="AO53" s="92"/>
-      <c r="AP53" s="92"/>
-      <c r="AQ53" s="93"/>
+      <c r="AB53" s="97"/>
+      <c r="AC53" s="97"/>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="97"/>
+      <c r="AF53" s="97"/>
+      <c r="AG53" s="97"/>
+      <c r="AH53" s="97"/>
+      <c r="AI53" s="97"/>
+      <c r="AJ53" s="97"/>
+      <c r="AK53" s="97"/>
+      <c r="AL53" s="97"/>
+      <c r="AM53" s="97"/>
+      <c r="AN53" s="97"/>
+      <c r="AO53" s="97"/>
+      <c r="AP53" s="97"/>
+      <c r="AQ53" s="98"/>
       <c r="AR53" s="74"/>
-      <c r="AS53" s="91" t="s">
+      <c r="AS53" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="AT53" s="92"/>
-      <c r="AU53" s="92"/>
-      <c r="AV53" s="92"/>
-      <c r="AW53" s="92"/>
-      <c r="AX53" s="92"/>
-      <c r="AY53" s="92"/>
-      <c r="AZ53" s="92"/>
-      <c r="BA53" s="92"/>
-      <c r="BB53" s="92"/>
-      <c r="BC53" s="92"/>
-      <c r="BD53" s="92"/>
-      <c r="BE53" s="92"/>
-      <c r="BF53" s="92"/>
-      <c r="BG53" s="92"/>
-      <c r="BH53" s="92"/>
-      <c r="BI53" s="93"/>
+      <c r="AT53" s="97"/>
+      <c r="AU53" s="97"/>
+      <c r="AV53" s="97"/>
+      <c r="AW53" s="97"/>
+      <c r="AX53" s="97"/>
+      <c r="AY53" s="97"/>
+      <c r="AZ53" s="97"/>
+      <c r="BA53" s="97"/>
+      <c r="BB53" s="97"/>
+      <c r="BC53" s="97"/>
+      <c r="BD53" s="97"/>
+      <c r="BE53" s="97"/>
+      <c r="BF53" s="97"/>
+      <c r="BG53" s="97"/>
+      <c r="BH53" s="97"/>
+      <c r="BI53" s="98"/>
       <c r="BJ53" s="75"/>
       <c r="BK53" s="88"/>
       <c r="BL53" s="88"/>
@@ -4230,124 +4740,124 @@
       </c>
     </row>
     <row r="58" spans="3:64">
-      <c r="D58" s="97" t="s">
+      <c r="D58" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97">
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92">
         <v>1</v>
       </c>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97">
+      <c r="H58" s="92"/>
+      <c r="I58" s="92">
         <v>2</v>
       </c>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97">
+      <c r="J58" s="92"/>
+      <c r="K58" s="92">
         <v>3</v>
       </c>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97">
+      <c r="L58" s="92"/>
+      <c r="M58" s="92">
         <v>4</v>
       </c>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97">
+      <c r="N58" s="92"/>
+      <c r="O58" s="92">
         <v>5</v>
       </c>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97">
+      <c r="P58" s="92"/>
+      <c r="Q58" s="92">
         <v>6</v>
       </c>
-      <c r="R58" s="97"/>
-      <c r="S58" s="97">
+      <c r="R58" s="92"/>
+      <c r="S58" s="92">
         <v>7</v>
       </c>
-      <c r="T58" s="97"/>
-      <c r="U58" s="97">
+      <c r="T58" s="92"/>
+      <c r="U58" s="92">
         <v>8</v>
       </c>
-      <c r="V58" s="97"/>
-      <c r="W58" s="97" t="s">
+      <c r="V58" s="92"/>
+      <c r="W58" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="X58" s="97"/>
-      <c r="Y58" s="97">
+      <c r="X58" s="92"/>
+      <c r="Y58" s="92">
         <v>1</v>
       </c>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="97">
+      <c r="Z58" s="92"/>
+      <c r="AA58" s="92">
         <v>2</v>
       </c>
-      <c r="AB58" s="97"/>
-      <c r="AC58" s="97">
+      <c r="AB58" s="92"/>
+      <c r="AC58" s="92">
         <v>3</v>
       </c>
-      <c r="AD58" s="97"/>
-      <c r="AE58" s="97">
+      <c r="AD58" s="92"/>
+      <c r="AE58" s="92">
         <v>4</v>
       </c>
-      <c r="AF58" s="97"/>
-      <c r="AG58" s="97">
+      <c r="AF58" s="92"/>
+      <c r="AG58" s="92">
         <v>5</v>
       </c>
-      <c r="AH58" s="97"/>
-      <c r="AI58" s="97">
+      <c r="AH58" s="92"/>
+      <c r="AI58" s="92">
         <v>6</v>
       </c>
-      <c r="AJ58" s="97"/>
-      <c r="AK58" s="97">
+      <c r="AJ58" s="92"/>
+      <c r="AK58" s="92">
         <v>7</v>
       </c>
-      <c r="AL58" s="97"/>
-      <c r="AM58" s="97">
+      <c r="AL58" s="92"/>
+      <c r="AM58" s="92">
         <v>8</v>
       </c>
-      <c r="AN58" s="97"/>
-      <c r="AO58" s="97" t="s">
+      <c r="AN58" s="92"/>
+      <c r="AO58" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="AP58" s="97"/>
-      <c r="AQ58" s="97">
+      <c r="AP58" s="92"/>
+      <c r="AQ58" s="92">
         <v>1</v>
       </c>
-      <c r="AR58" s="97"/>
-      <c r="AS58" s="97">
+      <c r="AR58" s="92"/>
+      <c r="AS58" s="92">
         <v>2</v>
       </c>
-      <c r="AT58" s="97"/>
-      <c r="AU58" s="97">
+      <c r="AT58" s="92"/>
+      <c r="AU58" s="92">
         <v>3</v>
       </c>
-      <c r="AV58" s="97"/>
-      <c r="AW58" s="97">
+      <c r="AV58" s="92"/>
+      <c r="AW58" s="92">
         <v>4</v>
       </c>
-      <c r="AX58" s="97"/>
-      <c r="AY58" s="97">
+      <c r="AX58" s="92"/>
+      <c r="AY58" s="92">
         <v>5</v>
       </c>
-      <c r="AZ58" s="97"/>
-      <c r="BA58" s="97">
+      <c r="AZ58" s="92"/>
+      <c r="BA58" s="92">
         <v>6</v>
       </c>
-      <c r="BB58" s="97"/>
-      <c r="BC58" s="97">
+      <c r="BB58" s="92"/>
+      <c r="BC58" s="92">
         <v>7</v>
       </c>
-      <c r="BD58" s="97"/>
-      <c r="BE58" s="97">
+      <c r="BD58" s="92"/>
+      <c r="BE58" s="92">
         <v>8</v>
       </c>
-      <c r="BF58" s="97"/>
-      <c r="BG58" s="97" t="s">
+      <c r="BF58" s="92"/>
+      <c r="BG58" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="BH58" s="97"/>
-      <c r="BI58" s="97" t="s">
+      <c r="BH58" s="92"/>
+      <c r="BI58" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="BJ58" s="97"/>
-      <c r="BK58" s="97"/>
+      <c r="BJ58" s="92"/>
+      <c r="BK58" s="92"/>
       <c r="BL58" s="72"/>
     </row>
     <row r="60" spans="3:64">
@@ -4423,76 +4933,76 @@
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
       <c r="F62" s="79"/>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
-      <c r="K62" s="92"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="92"/>
-      <c r="N62" s="92"/>
-      <c r="O62" s="92"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="91" t="s">
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="97"/>
+      <c r="N62" s="97"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="R62" s="92"/>
-      <c r="S62" s="92"/>
-      <c r="T62" s="93"/>
-      <c r="U62" s="91" t="s">
+      <c r="R62" s="97"/>
+      <c r="S62" s="97"/>
+      <c r="T62" s="98"/>
+      <c r="U62" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="V62" s="93"/>
+      <c r="V62" s="98"/>
       <c r="W62" s="101" t="s">
         <v>106</v>
       </c>
       <c r="X62" s="102"/>
-      <c r="Y62" s="94" t="s">
+      <c r="Y62" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="Z62" s="95"/>
-      <c r="AA62" s="95"/>
-      <c r="AB62" s="95"/>
-      <c r="AC62" s="95"/>
-      <c r="AD62" s="95"/>
-      <c r="AE62" s="95"/>
-      <c r="AF62" s="95"/>
-      <c r="AG62" s="95"/>
-      <c r="AH62" s="95"/>
-      <c r="AI62" s="95"/>
-      <c r="AJ62" s="95"/>
-      <c r="AK62" s="95"/>
-      <c r="AL62" s="95"/>
-      <c r="AM62" s="95"/>
-      <c r="AN62" s="96"/>
+      <c r="Z62" s="94"/>
+      <c r="AA62" s="94"/>
+      <c r="AB62" s="94"/>
+      <c r="AC62" s="94"/>
+      <c r="AD62" s="94"/>
+      <c r="AE62" s="94"/>
+      <c r="AF62" s="94"/>
+      <c r="AG62" s="94"/>
+      <c r="AH62" s="94"/>
+      <c r="AI62" s="94"/>
+      <c r="AJ62" s="94"/>
+      <c r="AK62" s="94"/>
+      <c r="AL62" s="94"/>
+      <c r="AM62" s="94"/>
+      <c r="AN62" s="95"/>
       <c r="AO62" s="103" t="s">
         <v>106</v>
       </c>
       <c r="AP62" s="104"/>
-      <c r="AQ62" s="94" t="s">
+      <c r="AQ62" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="AR62" s="95"/>
-      <c r="AS62" s="95"/>
-      <c r="AT62" s="95"/>
-      <c r="AU62" s="95"/>
-      <c r="AV62" s="95"/>
-      <c r="AW62" s="95"/>
-      <c r="AX62" s="95"/>
-      <c r="AY62" s="95"/>
-      <c r="AZ62" s="95"/>
-      <c r="BA62" s="95"/>
-      <c r="BB62" s="95"/>
-      <c r="BC62" s="95"/>
-      <c r="BD62" s="95"/>
-      <c r="BE62" s="95"/>
-      <c r="BF62" s="96"/>
-      <c r="BG62" s="106" t="s">
+      <c r="AR62" s="94"/>
+      <c r="AS62" s="94"/>
+      <c r="AT62" s="94"/>
+      <c r="AU62" s="94"/>
+      <c r="AV62" s="94"/>
+      <c r="AW62" s="94"/>
+      <c r="AX62" s="94"/>
+      <c r="AY62" s="94"/>
+      <c r="AZ62" s="94"/>
+      <c r="BA62" s="94"/>
+      <c r="BB62" s="94"/>
+      <c r="BC62" s="94"/>
+      <c r="BD62" s="94"/>
+      <c r="BE62" s="94"/>
+      <c r="BF62" s="95"/>
+      <c r="BG62" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="BH62" s="107"/>
+      <c r="BH62" s="100"/>
       <c r="BI62" s="82"/>
       <c r="BJ62" s="81"/>
       <c r="BK62" s="80"/>
@@ -4634,29 +5144,29 @@
       <c r="C68" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="95">
+      <c r="D68" s="94">
         <v>0</v>
       </c>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
-      <c r="R68" s="95"/>
-      <c r="S68" s="95"/>
-      <c r="T68" s="95"/>
-      <c r="U68" s="95"/>
-      <c r="V68" s="95"/>
-      <c r="W68" s="95"/>
-      <c r="X68" s="96"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="94"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="94"/>
+      <c r="I68" s="94"/>
+      <c r="J68" s="94"/>
+      <c r="K68" s="94"/>
+      <c r="L68" s="94"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="94"/>
+      <c r="O68" s="94"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="94"/>
+      <c r="T68" s="94"/>
+      <c r="U68" s="94"/>
+      <c r="V68" s="94"/>
+      <c r="W68" s="94"/>
+      <c r="X68" s="95"/>
       <c r="Y68" s="90"/>
       <c r="Z68" s="88"/>
       <c r="AA68" s="88"/>
@@ -4695,10 +5205,10 @@
       <c r="BH68" s="88"/>
       <c r="BI68" s="88"/>
       <c r="BJ68" s="88"/>
-      <c r="BK68" s="94">
+      <c r="BK68" s="93">
         <v>0</v>
       </c>
-      <c r="BL68" s="95"/>
+      <c r="BL68" s="94"/>
     </row>
     <row r="70" spans="3:64">
       <c r="C70" t="s">
@@ -4727,45 +5237,45 @@
       <c r="X70" s="74"/>
       <c r="Y70" s="74"/>
       <c r="Z70" s="74"/>
-      <c r="AA70" s="91" t="s">
+      <c r="AA70" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="AB70" s="92"/>
-      <c r="AC70" s="92"/>
-      <c r="AD70" s="92"/>
-      <c r="AE70" s="92"/>
-      <c r="AF70" s="92"/>
-      <c r="AG70" s="92"/>
-      <c r="AH70" s="92"/>
-      <c r="AI70" s="92"/>
-      <c r="AJ70" s="92"/>
-      <c r="AK70" s="92"/>
-      <c r="AL70" s="92"/>
-      <c r="AM70" s="92"/>
-      <c r="AN70" s="92"/>
-      <c r="AO70" s="92"/>
-      <c r="AP70" s="92"/>
-      <c r="AQ70" s="93"/>
+      <c r="AB70" s="97"/>
+      <c r="AC70" s="97"/>
+      <c r="AD70" s="97"/>
+      <c r="AE70" s="97"/>
+      <c r="AF70" s="97"/>
+      <c r="AG70" s="97"/>
+      <c r="AH70" s="97"/>
+      <c r="AI70" s="97"/>
+      <c r="AJ70" s="97"/>
+      <c r="AK70" s="97"/>
+      <c r="AL70" s="97"/>
+      <c r="AM70" s="97"/>
+      <c r="AN70" s="97"/>
+      <c r="AO70" s="97"/>
+      <c r="AP70" s="97"/>
+      <c r="AQ70" s="98"/>
       <c r="AR70" s="74"/>
-      <c r="AS70" s="91" t="s">
+      <c r="AS70" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="AT70" s="92"/>
-      <c r="AU70" s="92"/>
-      <c r="AV70" s="92"/>
-      <c r="AW70" s="92"/>
-      <c r="AX70" s="92"/>
-      <c r="AY70" s="92"/>
-      <c r="AZ70" s="92"/>
-      <c r="BA70" s="92"/>
-      <c r="BB70" s="92"/>
-      <c r="BC70" s="92"/>
-      <c r="BD70" s="92"/>
-      <c r="BE70" s="92"/>
-      <c r="BF70" s="92"/>
-      <c r="BG70" s="92"/>
-      <c r="BH70" s="92"/>
-      <c r="BI70" s="93"/>
+      <c r="AT70" s="97"/>
+      <c r="AU70" s="97"/>
+      <c r="AV70" s="97"/>
+      <c r="AW70" s="97"/>
+      <c r="AX70" s="97"/>
+      <c r="AY70" s="97"/>
+      <c r="AZ70" s="97"/>
+      <c r="BA70" s="97"/>
+      <c r="BB70" s="97"/>
+      <c r="BC70" s="97"/>
+      <c r="BD70" s="97"/>
+      <c r="BE70" s="97"/>
+      <c r="BF70" s="97"/>
+      <c r="BG70" s="97"/>
+      <c r="BH70" s="97"/>
+      <c r="BI70" s="98"/>
       <c r="BJ70" s="75"/>
       <c r="BK70" s="88"/>
       <c r="BL70" s="88"/>
@@ -4988,72 +5498,72 @@
       <c r="D81" s="69"/>
       <c r="E81" s="69"/>
       <c r="F81" s="69"/>
-      <c r="G81" s="94">
+      <c r="G81" s="93">
         <v>7</v>
       </c>
-      <c r="H81" s="96"/>
-      <c r="I81" s="94">
+      <c r="H81" s="95"/>
+      <c r="I81" s="93">
         <v>6</v>
       </c>
-      <c r="J81" s="96"/>
-      <c r="K81" s="94">
+      <c r="J81" s="95"/>
+      <c r="K81" s="93">
         <v>5</v>
       </c>
-      <c r="L81" s="96"/>
-      <c r="M81" s="94">
+      <c r="L81" s="95"/>
+      <c r="M81" s="93">
         <v>4</v>
       </c>
-      <c r="N81" s="96"/>
-      <c r="O81" s="94">
+      <c r="N81" s="95"/>
+      <c r="O81" s="93">
         <v>3</v>
       </c>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="94">
+      <c r="P81" s="95"/>
+      <c r="Q81" s="93">
         <v>2</v>
       </c>
-      <c r="R81" s="96"/>
-      <c r="S81" s="94">
+      <c r="R81" s="95"/>
+      <c r="S81" s="93">
         <v>1</v>
       </c>
-      <c r="T81" s="96"/>
-      <c r="U81" s="94">
+      <c r="T81" s="95"/>
+      <c r="U81" s="93">
         <v>0</v>
       </c>
-      <c r="V81" s="96"/>
+      <c r="V81" s="95"/>
       <c r="W81" s="69"/>
       <c r="X81" s="69"/>
-      <c r="Y81" s="94">
+      <c r="Y81" s="93">
         <v>7</v>
       </c>
-      <c r="Z81" s="96"/>
-      <c r="AA81" s="94">
+      <c r="Z81" s="95"/>
+      <c r="AA81" s="93">
         <v>6</v>
       </c>
-      <c r="AB81" s="96"/>
-      <c r="AC81" s="94">
+      <c r="AB81" s="95"/>
+      <c r="AC81" s="93">
         <v>5</v>
       </c>
-      <c r="AD81" s="96"/>
-      <c r="AE81" s="94">
+      <c r="AD81" s="95"/>
+      <c r="AE81" s="93">
         <v>4</v>
       </c>
-      <c r="AF81" s="96"/>
-      <c r="AG81" s="94">
+      <c r="AF81" s="95"/>
+      <c r="AG81" s="93">
         <v>3</v>
       </c>
-      <c r="AH81" s="96"/>
-      <c r="AI81" s="94">
+      <c r="AH81" s="95"/>
+      <c r="AI81" s="93">
         <v>2</v>
       </c>
-      <c r="AJ81" s="96"/>
-      <c r="AK81" s="94">
+      <c r="AJ81" s="95"/>
+      <c r="AK81" s="93">
         <v>1</v>
       </c>
-      <c r="AL81" s="96"/>
-      <c r="AM81" s="94">
+      <c r="AL81" s="95"/>
+      <c r="AM81" s="93">
         <v>0</v>
       </c>
-      <c r="AN81" s="96"/>
+      <c r="AN81" s="95"/>
       <c r="AO81" s="69"/>
       <c r="AP81" s="69"/>
       <c r="AQ81" s="69"/>
@@ -5069,72 +5579,72 @@
       <c r="E83" s="69"/>
       <c r="F83" s="69"/>
       <c r="G83" s="69"/>
-      <c r="H83" s="91">
+      <c r="H83" s="96">
         <v>7</v>
       </c>
-      <c r="I83" s="93"/>
-      <c r="J83" s="91">
+      <c r="I83" s="98"/>
+      <c r="J83" s="96">
         <v>6</v>
       </c>
-      <c r="K83" s="93"/>
-      <c r="L83" s="91">
+      <c r="K83" s="98"/>
+      <c r="L83" s="96">
         <v>5</v>
       </c>
-      <c r="M83" s="93"/>
-      <c r="N83" s="91">
+      <c r="M83" s="98"/>
+      <c r="N83" s="96">
         <v>4</v>
       </c>
-      <c r="O83" s="93"/>
-      <c r="P83" s="91">
+      <c r="O83" s="98"/>
+      <c r="P83" s="96">
         <v>3</v>
       </c>
-      <c r="Q83" s="93"/>
-      <c r="R83" s="91">
+      <c r="Q83" s="98"/>
+      <c r="R83" s="96">
         <v>2</v>
       </c>
-      <c r="S83" s="93"/>
-      <c r="T83" s="91">
+      <c r="S83" s="98"/>
+      <c r="T83" s="96">
         <v>1</v>
       </c>
-      <c r="U83" s="93"/>
-      <c r="V83" s="91">
+      <c r="U83" s="98"/>
+      <c r="V83" s="96">
         <v>0</v>
       </c>
-      <c r="W83" s="93"/>
+      <c r="W83" s="98"/>
       <c r="X83" s="69"/>
       <c r="Y83" s="69"/>
-      <c r="Z83" s="91">
+      <c r="Z83" s="96">
         <v>7</v>
       </c>
-      <c r="AA83" s="93"/>
-      <c r="AB83" s="91">
+      <c r="AA83" s="98"/>
+      <c r="AB83" s="96">
         <v>6</v>
       </c>
-      <c r="AC83" s="93"/>
-      <c r="AD83" s="91">
+      <c r="AC83" s="98"/>
+      <c r="AD83" s="96">
         <v>5</v>
       </c>
-      <c r="AE83" s="93"/>
-      <c r="AF83" s="91">
+      <c r="AE83" s="98"/>
+      <c r="AF83" s="96">
         <v>4</v>
       </c>
-      <c r="AG83" s="93"/>
-      <c r="AH83" s="91">
+      <c r="AG83" s="98"/>
+      <c r="AH83" s="96">
         <v>3</v>
       </c>
-      <c r="AI83" s="93"/>
-      <c r="AJ83" s="91">
+      <c r="AI83" s="98"/>
+      <c r="AJ83" s="96">
         <v>2</v>
       </c>
-      <c r="AK83" s="93"/>
-      <c r="AL83" s="91">
+      <c r="AK83" s="98"/>
+      <c r="AL83" s="96">
         <v>1</v>
       </c>
-      <c r="AM83" s="93"/>
-      <c r="AN83" s="91">
+      <c r="AM83" s="98"/>
+      <c r="AN83" s="96">
         <v>0</v>
       </c>
-      <c r="AO83" s="93"/>
+      <c r="AO83" s="98"/>
       <c r="AP83" s="69"/>
       <c r="AQ83" s="69"/>
       <c r="AR83" s="69"/>
@@ -5310,72 +5820,72 @@
       <c r="E92" s="69"/>
       <c r="F92" s="69"/>
       <c r="G92" s="69"/>
-      <c r="H92" s="94">
+      <c r="H92" s="93">
         <v>7</v>
       </c>
-      <c r="I92" s="96"/>
-      <c r="J92" s="94">
+      <c r="I92" s="95"/>
+      <c r="J92" s="93">
         <v>6</v>
       </c>
-      <c r="K92" s="96"/>
-      <c r="L92" s="94">
+      <c r="K92" s="95"/>
+      <c r="L92" s="93">
         <v>5</v>
       </c>
-      <c r="M92" s="96"/>
-      <c r="N92" s="94">
+      <c r="M92" s="95"/>
+      <c r="N92" s="93">
         <v>4</v>
       </c>
-      <c r="O92" s="96"/>
-      <c r="P92" s="94">
+      <c r="O92" s="95"/>
+      <c r="P92" s="93">
         <v>3</v>
       </c>
-      <c r="Q92" s="96"/>
-      <c r="R92" s="94">
+      <c r="Q92" s="95"/>
+      <c r="R92" s="93">
         <v>2</v>
       </c>
-      <c r="S92" s="96"/>
-      <c r="T92" s="94">
+      <c r="S92" s="95"/>
+      <c r="T92" s="93">
         <v>1</v>
       </c>
-      <c r="U92" s="96"/>
-      <c r="V92" s="94">
+      <c r="U92" s="95"/>
+      <c r="V92" s="93">
         <v>0</v>
       </c>
-      <c r="W92" s="96"/>
+      <c r="W92" s="95"/>
       <c r="X92" s="69"/>
       <c r="Y92" s="69"/>
-      <c r="Z92" s="94">
+      <c r="Z92" s="93">
         <v>7</v>
       </c>
-      <c r="AA92" s="96"/>
-      <c r="AB92" s="94">
+      <c r="AA92" s="95"/>
+      <c r="AB92" s="93">
         <v>6</v>
       </c>
-      <c r="AC92" s="96"/>
-      <c r="AD92" s="94">
+      <c r="AC92" s="95"/>
+      <c r="AD92" s="93">
         <v>5</v>
       </c>
-      <c r="AE92" s="96"/>
-      <c r="AF92" s="94">
+      <c r="AE92" s="95"/>
+      <c r="AF92" s="93">
         <v>4</v>
       </c>
-      <c r="AG92" s="96"/>
-      <c r="AH92" s="94">
+      <c r="AG92" s="95"/>
+      <c r="AH92" s="93">
         <v>3</v>
       </c>
-      <c r="AI92" s="96"/>
-      <c r="AJ92" s="94">
+      <c r="AI92" s="95"/>
+      <c r="AJ92" s="93">
         <v>2</v>
       </c>
-      <c r="AK92" s="96"/>
-      <c r="AL92" s="94">
+      <c r="AK92" s="95"/>
+      <c r="AL92" s="93">
         <v>1</v>
       </c>
-      <c r="AM92" s="96"/>
-      <c r="AN92" s="94">
+      <c r="AM92" s="95"/>
+      <c r="AN92" s="93">
         <v>0</v>
       </c>
-      <c r="AO92" s="96"/>
+      <c r="AO92" s="95"/>
       <c r="AP92" s="69"/>
       <c r="AQ92" s="69"/>
       <c r="AR92" s="69"/>
@@ -5389,72 +5899,72 @@
       <c r="D94" s="69"/>
       <c r="E94" s="69"/>
       <c r="F94" s="69"/>
-      <c r="G94" s="91">
+      <c r="G94" s="96">
         <v>7</v>
       </c>
-      <c r="H94" s="93"/>
-      <c r="I94" s="91">
+      <c r="H94" s="98"/>
+      <c r="I94" s="96">
         <v>6</v>
       </c>
-      <c r="J94" s="93"/>
-      <c r="K94" s="91">
+      <c r="J94" s="98"/>
+      <c r="K94" s="96">
         <v>5</v>
       </c>
-      <c r="L94" s="93"/>
-      <c r="M94" s="91">
+      <c r="L94" s="98"/>
+      <c r="M94" s="96">
         <v>4</v>
       </c>
-      <c r="N94" s="93"/>
-      <c r="O94" s="91">
+      <c r="N94" s="98"/>
+      <c r="O94" s="96">
         <v>3</v>
       </c>
-      <c r="P94" s="93"/>
-      <c r="Q94" s="91">
+      <c r="P94" s="98"/>
+      <c r="Q94" s="96">
         <v>2</v>
       </c>
-      <c r="R94" s="93"/>
-      <c r="S94" s="91">
+      <c r="R94" s="98"/>
+      <c r="S94" s="96">
         <v>1</v>
       </c>
-      <c r="T94" s="93"/>
-      <c r="U94" s="91">
+      <c r="T94" s="98"/>
+      <c r="U94" s="96">
         <v>0</v>
       </c>
-      <c r="V94" s="93"/>
+      <c r="V94" s="98"/>
       <c r="W94" s="69"/>
       <c r="X94" s="69"/>
-      <c r="Y94" s="91">
+      <c r="Y94" s="96">
         <v>7</v>
       </c>
-      <c r="Z94" s="93"/>
-      <c r="AA94" s="91">
+      <c r="Z94" s="98"/>
+      <c r="AA94" s="96">
         <v>6</v>
       </c>
-      <c r="AB94" s="93"/>
-      <c r="AC94" s="91">
+      <c r="AB94" s="98"/>
+      <c r="AC94" s="96">
         <v>5</v>
       </c>
-      <c r="AD94" s="93"/>
-      <c r="AE94" s="91">
+      <c r="AD94" s="98"/>
+      <c r="AE94" s="96">
         <v>4</v>
       </c>
-      <c r="AF94" s="93"/>
-      <c r="AG94" s="91">
+      <c r="AF94" s="98"/>
+      <c r="AG94" s="96">
         <v>3</v>
       </c>
-      <c r="AH94" s="93"/>
-      <c r="AI94" s="91">
+      <c r="AH94" s="98"/>
+      <c r="AI94" s="96">
         <v>2</v>
       </c>
-      <c r="AJ94" s="93"/>
-      <c r="AK94" s="91">
+      <c r="AJ94" s="98"/>
+      <c r="AK94" s="96">
         <v>1</v>
       </c>
-      <c r="AL94" s="93"/>
-      <c r="AM94" s="91">
+      <c r="AL94" s="98"/>
+      <c r="AM94" s="96">
         <v>0</v>
       </c>
-      <c r="AN94" s="93"/>
+      <c r="AN94" s="98"/>
       <c r="AO94" s="69"/>
       <c r="AP94" s="69"/>
       <c r="AQ94" s="69"/>
@@ -5629,72 +6139,72 @@
       <c r="D103" s="69"/>
       <c r="E103" s="69"/>
       <c r="F103" s="69"/>
-      <c r="G103" s="94">
+      <c r="G103" s="93">
         <v>7</v>
       </c>
-      <c r="H103" s="96"/>
-      <c r="I103" s="94">
+      <c r="H103" s="95"/>
+      <c r="I103" s="93">
         <v>6</v>
       </c>
-      <c r="J103" s="96"/>
-      <c r="K103" s="94">
+      <c r="J103" s="95"/>
+      <c r="K103" s="93">
         <v>5</v>
       </c>
-      <c r="L103" s="96"/>
-      <c r="M103" s="94">
+      <c r="L103" s="95"/>
+      <c r="M103" s="93">
         <v>4</v>
       </c>
-      <c r="N103" s="96"/>
-      <c r="O103" s="94">
+      <c r="N103" s="95"/>
+      <c r="O103" s="93">
         <v>3</v>
       </c>
-      <c r="P103" s="96"/>
-      <c r="Q103" s="94">
+      <c r="P103" s="95"/>
+      <c r="Q103" s="93">
         <v>2</v>
       </c>
-      <c r="R103" s="96"/>
-      <c r="S103" s="94">
+      <c r="R103" s="95"/>
+      <c r="S103" s="93">
         <v>1</v>
       </c>
-      <c r="T103" s="96"/>
-      <c r="U103" s="94">
+      <c r="T103" s="95"/>
+      <c r="U103" s="93">
         <v>0</v>
       </c>
-      <c r="V103" s="96"/>
+      <c r="V103" s="95"/>
       <c r="W103" s="69"/>
       <c r="X103" s="69"/>
-      <c r="Y103" s="94">
+      <c r="Y103" s="93">
         <v>7</v>
       </c>
-      <c r="Z103" s="96"/>
-      <c r="AA103" s="94">
+      <c r="Z103" s="95"/>
+      <c r="AA103" s="93">
         <v>6</v>
       </c>
-      <c r="AB103" s="96"/>
-      <c r="AC103" s="94">
+      <c r="AB103" s="95"/>
+      <c r="AC103" s="93">
         <v>5</v>
       </c>
-      <c r="AD103" s="96"/>
-      <c r="AE103" s="94">
+      <c r="AD103" s="95"/>
+      <c r="AE103" s="93">
         <v>4</v>
       </c>
-      <c r="AF103" s="96"/>
-      <c r="AG103" s="94">
+      <c r="AF103" s="95"/>
+      <c r="AG103" s="93">
         <v>3</v>
       </c>
-      <c r="AH103" s="96"/>
-      <c r="AI103" s="94">
+      <c r="AH103" s="95"/>
+      <c r="AI103" s="93">
         <v>2</v>
       </c>
-      <c r="AJ103" s="96"/>
-      <c r="AK103" s="94">
+      <c r="AJ103" s="95"/>
+      <c r="AK103" s="93">
         <v>1</v>
       </c>
-      <c r="AL103" s="96"/>
-      <c r="AM103" s="94">
+      <c r="AL103" s="95"/>
+      <c r="AM103" s="93">
         <v>0</v>
       </c>
-      <c r="AN103" s="96"/>
+      <c r="AN103" s="95"/>
       <c r="AO103" s="69"/>
       <c r="AP103" s="69"/>
       <c r="AQ103" s="69"/>
@@ -5710,72 +6220,72 @@
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
       <c r="G105" s="69"/>
-      <c r="H105" s="91">
+      <c r="H105" s="96">
         <v>7</v>
       </c>
-      <c r="I105" s="93"/>
-      <c r="J105" s="91">
+      <c r="I105" s="98"/>
+      <c r="J105" s="96">
         <v>6</v>
       </c>
-      <c r="K105" s="93"/>
-      <c r="L105" s="91">
+      <c r="K105" s="98"/>
+      <c r="L105" s="96">
         <v>5</v>
       </c>
-      <c r="M105" s="93"/>
-      <c r="N105" s="91">
+      <c r="M105" s="98"/>
+      <c r="N105" s="96">
         <v>4</v>
       </c>
-      <c r="O105" s="93"/>
-      <c r="P105" s="91">
+      <c r="O105" s="98"/>
+      <c r="P105" s="96">
         <v>3</v>
       </c>
-      <c r="Q105" s="93"/>
-      <c r="R105" s="91">
+      <c r="Q105" s="98"/>
+      <c r="R105" s="96">
         <v>2</v>
       </c>
-      <c r="S105" s="93"/>
-      <c r="T105" s="91">
+      <c r="S105" s="98"/>
+      <c r="T105" s="96">
         <v>1</v>
       </c>
-      <c r="U105" s="93"/>
-      <c r="V105" s="91">
+      <c r="U105" s="98"/>
+      <c r="V105" s="96">
         <v>0</v>
       </c>
-      <c r="W105" s="93"/>
+      <c r="W105" s="98"/>
       <c r="X105" s="69"/>
       <c r="Y105" s="69"/>
-      <c r="Z105" s="91">
+      <c r="Z105" s="96">
         <v>7</v>
       </c>
-      <c r="AA105" s="93"/>
-      <c r="AB105" s="91">
+      <c r="AA105" s="98"/>
+      <c r="AB105" s="96">
         <v>6</v>
       </c>
-      <c r="AC105" s="93"/>
-      <c r="AD105" s="91">
+      <c r="AC105" s="98"/>
+      <c r="AD105" s="96">
         <v>5</v>
       </c>
-      <c r="AE105" s="93"/>
-      <c r="AF105" s="91">
+      <c r="AE105" s="98"/>
+      <c r="AF105" s="96">
         <v>4</v>
       </c>
-      <c r="AG105" s="93"/>
-      <c r="AH105" s="91">
+      <c r="AG105" s="98"/>
+      <c r="AH105" s="96">
         <v>3</v>
       </c>
-      <c r="AI105" s="93"/>
-      <c r="AJ105" s="91">
+      <c r="AI105" s="98"/>
+      <c r="AJ105" s="96">
         <v>2</v>
       </c>
-      <c r="AK105" s="93"/>
-      <c r="AL105" s="91">
+      <c r="AK105" s="98"/>
+      <c r="AL105" s="96">
         <v>1</v>
       </c>
-      <c r="AM105" s="93"/>
-      <c r="AN105" s="91">
+      <c r="AM105" s="98"/>
+      <c r="AN105" s="96">
         <v>0</v>
       </c>
-      <c r="AO105" s="93"/>
+      <c r="AO105" s="98"/>
       <c r="AP105" s="69"/>
       <c r="AQ105" s="69"/>
       <c r="AR105" s="69"/>
@@ -5954,72 +6464,72 @@
       <c r="E114" s="69"/>
       <c r="F114" s="69"/>
       <c r="G114" s="69"/>
-      <c r="H114" s="94">
+      <c r="H114" s="93">
         <v>7</v>
       </c>
-      <c r="I114" s="96"/>
-      <c r="J114" s="94">
+      <c r="I114" s="95"/>
+      <c r="J114" s="93">
         <v>6</v>
       </c>
-      <c r="K114" s="96"/>
-      <c r="L114" s="94">
+      <c r="K114" s="95"/>
+      <c r="L114" s="93">
         <v>5</v>
       </c>
-      <c r="M114" s="96"/>
-      <c r="N114" s="94">
+      <c r="M114" s="95"/>
+      <c r="N114" s="93">
         <v>4</v>
       </c>
-      <c r="O114" s="96"/>
-      <c r="P114" s="94">
+      <c r="O114" s="95"/>
+      <c r="P114" s="93">
         <v>3</v>
       </c>
-      <c r="Q114" s="96"/>
-      <c r="R114" s="94">
+      <c r="Q114" s="95"/>
+      <c r="R114" s="93">
         <v>2</v>
       </c>
-      <c r="S114" s="96"/>
-      <c r="T114" s="94">
+      <c r="S114" s="95"/>
+      <c r="T114" s="93">
         <v>1</v>
       </c>
-      <c r="U114" s="96"/>
-      <c r="V114" s="94">
+      <c r="U114" s="95"/>
+      <c r="V114" s="93">
         <v>0</v>
       </c>
-      <c r="W114" s="96"/>
+      <c r="W114" s="95"/>
       <c r="X114" s="69"/>
       <c r="Y114" s="69"/>
-      <c r="Z114" s="94">
+      <c r="Z114" s="93">
         <v>7</v>
       </c>
-      <c r="AA114" s="96"/>
-      <c r="AB114" s="94">
+      <c r="AA114" s="95"/>
+      <c r="AB114" s="93">
         <v>6</v>
       </c>
-      <c r="AC114" s="96"/>
-      <c r="AD114" s="94">
+      <c r="AC114" s="95"/>
+      <c r="AD114" s="93">
         <v>5</v>
       </c>
-      <c r="AE114" s="96"/>
-      <c r="AF114" s="94">
+      <c r="AE114" s="95"/>
+      <c r="AF114" s="93">
         <v>4</v>
       </c>
-      <c r="AG114" s="96"/>
-      <c r="AH114" s="94">
+      <c r="AG114" s="95"/>
+      <c r="AH114" s="93">
         <v>3</v>
       </c>
-      <c r="AI114" s="96"/>
-      <c r="AJ114" s="94">
+      <c r="AI114" s="95"/>
+      <c r="AJ114" s="93">
         <v>2</v>
       </c>
-      <c r="AK114" s="96"/>
-      <c r="AL114" s="94">
+      <c r="AK114" s="95"/>
+      <c r="AL114" s="93">
         <v>1</v>
       </c>
-      <c r="AM114" s="96"/>
-      <c r="AN114" s="94">
+      <c r="AM114" s="95"/>
+      <c r="AN114" s="93">
         <v>0</v>
       </c>
-      <c r="AO114" s="96"/>
+      <c r="AO114" s="95"/>
       <c r="AP114" s="69"/>
       <c r="AQ114" s="69"/>
       <c r="AR114" s="69"/>
@@ -6033,72 +6543,72 @@
       <c r="D116" s="69"/>
       <c r="E116" s="69"/>
       <c r="F116" s="69"/>
-      <c r="G116" s="91">
+      <c r="G116" s="96">
         <v>7</v>
       </c>
-      <c r="H116" s="93"/>
-      <c r="I116" s="91">
+      <c r="H116" s="98"/>
+      <c r="I116" s="96">
         <v>6</v>
       </c>
-      <c r="J116" s="93"/>
-      <c r="K116" s="91">
+      <c r="J116" s="98"/>
+      <c r="K116" s="96">
         <v>5</v>
       </c>
-      <c r="L116" s="93"/>
-      <c r="M116" s="91">
+      <c r="L116" s="98"/>
+      <c r="M116" s="96">
         <v>4</v>
       </c>
-      <c r="N116" s="93"/>
-      <c r="O116" s="91">
+      <c r="N116" s="98"/>
+      <c r="O116" s="96">
         <v>3</v>
       </c>
-      <c r="P116" s="93"/>
-      <c r="Q116" s="91">
+      <c r="P116" s="98"/>
+      <c r="Q116" s="96">
         <v>2</v>
       </c>
-      <c r="R116" s="93"/>
-      <c r="S116" s="91">
+      <c r="R116" s="98"/>
+      <c r="S116" s="96">
         <v>1</v>
       </c>
-      <c r="T116" s="93"/>
-      <c r="U116" s="91">
+      <c r="T116" s="98"/>
+      <c r="U116" s="96">
         <v>0</v>
       </c>
-      <c r="V116" s="93"/>
+      <c r="V116" s="98"/>
       <c r="W116" s="69"/>
       <c r="X116" s="69"/>
-      <c r="Y116" s="91">
+      <c r="Y116" s="96">
         <v>7</v>
       </c>
-      <c r="Z116" s="93"/>
-      <c r="AA116" s="91">
+      <c r="Z116" s="98"/>
+      <c r="AA116" s="96">
         <v>6</v>
       </c>
-      <c r="AB116" s="93"/>
-      <c r="AC116" s="91">
+      <c r="AB116" s="98"/>
+      <c r="AC116" s="96">
         <v>5</v>
       </c>
-      <c r="AD116" s="93"/>
-      <c r="AE116" s="91">
+      <c r="AD116" s="98"/>
+      <c r="AE116" s="96">
         <v>4</v>
       </c>
-      <c r="AF116" s="93"/>
-      <c r="AG116" s="91">
+      <c r="AF116" s="98"/>
+      <c r="AG116" s="96">
         <v>3</v>
       </c>
-      <c r="AH116" s="93"/>
-      <c r="AI116" s="91">
+      <c r="AH116" s="98"/>
+      <c r="AI116" s="96">
         <v>2</v>
       </c>
-      <c r="AJ116" s="93"/>
-      <c r="AK116" s="91">
+      <c r="AJ116" s="98"/>
+      <c r="AK116" s="96">
         <v>1</v>
       </c>
-      <c r="AL116" s="93"/>
-      <c r="AM116" s="91">
+      <c r="AL116" s="98"/>
+      <c r="AM116" s="96">
         <v>0</v>
       </c>
-      <c r="AN116" s="93"/>
+      <c r="AN116" s="98"/>
       <c r="AO116" s="69"/>
       <c r="AP116" s="69"/>
       <c r="AQ116" s="69"/>
@@ -6108,17 +6618,263 @@
     </row>
   </sheetData>
   <mergeCells count="292">
-    <mergeCell ref="BG24:BH24"/>
-    <mergeCell ref="BE24:BF24"/>
-    <mergeCell ref="BC24:BD24"/>
-    <mergeCell ref="AS16:BI16"/>
-    <mergeCell ref="AA34:AQ34"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AS53:BI53"/>
+    <mergeCell ref="Y62:AN62"/>
+    <mergeCell ref="BK16:BL16"/>
+    <mergeCell ref="BK51:BL51"/>
+    <mergeCell ref="BK68:BL68"/>
+    <mergeCell ref="D68:X68"/>
+    <mergeCell ref="D34:Z34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="F51:X51"/>
+    <mergeCell ref="D16:Z16"/>
+    <mergeCell ref="BE41:BF41"/>
+    <mergeCell ref="BG41:BH41"/>
+    <mergeCell ref="AY41:AZ41"/>
+    <mergeCell ref="BA41:BB41"/>
+    <mergeCell ref="BC41:BD41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="AY58:AZ58"/>
+    <mergeCell ref="BA58:BB58"/>
+    <mergeCell ref="BC58:BD58"/>
+    <mergeCell ref="BE58:BF58"/>
+    <mergeCell ref="BG58:BH58"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="AI116:AJ116"/>
+    <mergeCell ref="AK116:AL116"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="Y116:Z116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AE116:AF116"/>
+    <mergeCell ref="AG116:AH116"/>
+    <mergeCell ref="AJ105:AK105"/>
+    <mergeCell ref="AL105:AM105"/>
+    <mergeCell ref="AN105:AO105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AF105:AG105"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AI94:AJ94"/>
+    <mergeCell ref="AK94:AL94"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="AA53:AQ53"/>
+    <mergeCell ref="AN83:AO83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="V105:W105"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="AN114:AO114"/>
+    <mergeCell ref="T114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="Z114:AA114"/>
+    <mergeCell ref="AB114:AC114"/>
+    <mergeCell ref="AD114:AE114"/>
+    <mergeCell ref="AF114:AG114"/>
+    <mergeCell ref="AH92:AI92"/>
+    <mergeCell ref="AJ92:AK92"/>
+    <mergeCell ref="AL92:AM92"/>
+    <mergeCell ref="AN92:AO92"/>
+    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="AG94:AH94"/>
+    <mergeCell ref="AI103:AJ103"/>
+    <mergeCell ref="AK103:AL103"/>
+    <mergeCell ref="AH114:AI114"/>
+    <mergeCell ref="AJ114:AK114"/>
+    <mergeCell ref="AL114:AM114"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="Y103:Z103"/>
+    <mergeCell ref="AA103:AB103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="AE103:AF103"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AG103:AH103"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AH83:AI83"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AK81:AL81"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AE81:AF81"/>
+    <mergeCell ref="AM103:AN103"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AW41:AX41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AQ58:AR58"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="BI41:BK41"/>
+    <mergeCell ref="G45:P45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:AN45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AQ45:BF45"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AN28"/>
+    <mergeCell ref="AO28:AP28"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="Y10:AN10"/>
+    <mergeCell ref="AQ10:BF10"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G62:P62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="AA70:AQ70"/>
     <mergeCell ref="AS70:BI70"/>
     <mergeCell ref="AA36:AQ36"/>
@@ -6143,263 +6899,17 @@
     <mergeCell ref="AY24:AZ24"/>
     <mergeCell ref="AW24:AX24"/>
     <mergeCell ref="AU24:AV24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="G62:P62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="Y10:AN10"/>
-    <mergeCell ref="AQ10:BF10"/>
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA16:AQ16"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AO58:AP58"/>
-    <mergeCell ref="AQ58:AR58"/>
-    <mergeCell ref="AS58:AT58"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="BI41:BK41"/>
-    <mergeCell ref="G45:P45"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:AN45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AQ45:BF45"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AN28"/>
-    <mergeCell ref="AO28:AP28"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AU41:AV41"/>
-    <mergeCell ref="AW41:AX41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AP41"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AK81:AL81"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="Y81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AE81:AF81"/>
-    <mergeCell ref="AM103:AN103"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="U103:V103"/>
-    <mergeCell ref="Y103:Z103"/>
-    <mergeCell ref="AA103:AB103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="AE103:AF103"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AG103:AH103"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AH83:AI83"/>
-    <mergeCell ref="AJ83:AK83"/>
-    <mergeCell ref="AN114:AO114"/>
-    <mergeCell ref="T114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="Z114:AA114"/>
-    <mergeCell ref="AB114:AC114"/>
-    <mergeCell ref="AD114:AE114"/>
-    <mergeCell ref="AF114:AG114"/>
-    <mergeCell ref="AH92:AI92"/>
-    <mergeCell ref="AJ92:AK92"/>
-    <mergeCell ref="AL92:AM92"/>
-    <mergeCell ref="AN92:AO92"/>
-    <mergeCell ref="Y94:Z94"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="AG94:AH94"/>
-    <mergeCell ref="AI103:AJ103"/>
-    <mergeCell ref="AK103:AL103"/>
-    <mergeCell ref="AH114:AI114"/>
-    <mergeCell ref="AJ114:AK114"/>
-    <mergeCell ref="AL114:AM114"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:T116"/>
-    <mergeCell ref="V105:W105"/>
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="R114:S114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="AI116:AJ116"/>
-    <mergeCell ref="AK116:AL116"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="U116:V116"/>
-    <mergeCell ref="Y116:Z116"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AE116:AF116"/>
-    <mergeCell ref="AG116:AH116"/>
-    <mergeCell ref="AJ105:AK105"/>
-    <mergeCell ref="AL105:AM105"/>
-    <mergeCell ref="AN105:AO105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="AD105:AE105"/>
-    <mergeCell ref="AF105:AG105"/>
-    <mergeCell ref="AH105:AI105"/>
-    <mergeCell ref="AI94:AJ94"/>
-    <mergeCell ref="AK94:AL94"/>
-    <mergeCell ref="AM94:AN94"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="AA53:AQ53"/>
-    <mergeCell ref="AN83:AO83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="AS53:BI53"/>
-    <mergeCell ref="Y62:AN62"/>
-    <mergeCell ref="BK16:BL16"/>
-    <mergeCell ref="BK51:BL51"/>
-    <mergeCell ref="BK68:BL68"/>
-    <mergeCell ref="D68:X68"/>
-    <mergeCell ref="D34:Z34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="F51:X51"/>
-    <mergeCell ref="D16:Z16"/>
-    <mergeCell ref="BE41:BF41"/>
-    <mergeCell ref="BG41:BH41"/>
-    <mergeCell ref="AY41:AZ41"/>
-    <mergeCell ref="BA41:BB41"/>
-    <mergeCell ref="BC41:BD41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="AY58:AZ58"/>
-    <mergeCell ref="BA58:BB58"/>
-    <mergeCell ref="BC58:BD58"/>
-    <mergeCell ref="BE58:BF58"/>
-    <mergeCell ref="BG58:BH58"/>
+    <mergeCell ref="BG24:BH24"/>
+    <mergeCell ref="BE24:BF24"/>
+    <mergeCell ref="BC24:BD24"/>
+    <mergeCell ref="AS16:BI16"/>
+    <mergeCell ref="AA34:AQ34"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AO24:AP24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/I2C2SPI.xlsx
+++ b/I2C2SPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-15" windowWidth="13785" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="345" yWindow="-15" windowWidth="13785" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pin assign" sheetId="3" r:id="rId1"/>
@@ -585,19 +585,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Slave address[6] for SPI function</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[4:1]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[7:5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slave address[5:2] for SPI function</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -647,11 +639,6 @@
   </si>
   <si>
     <t>0x58</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SO timing
-0x58: SPI mode 0 or 2, 0x78: SPI mode 1 or 3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -685,11 +672,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bidirectional SO support for reading
-0x85:read by SI, 0x75:read by SO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>W</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -747,6 +729,24 @@
   </si>
   <si>
     <t>GPIO3/SS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bidirectional SDO support for reading
+0x85:read by SDI, 0x75:read by SDO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C address[6] for SPI function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDO timing
+0x58: SPI mode 0 or 2, 0x78: SPI mode 1 or 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C address[5:2] for SPI function</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1443,25 +1443,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,33 +1496,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1853,7 +1853,7 @@
     <row r="4" spans="1:14">
       <c r="A4" s="91"/>
       <c r="B4" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
@@ -1913,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>77</v>
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>77</v>
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>77</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>77</v>
@@ -2084,13 +2084,13 @@
         <v>18</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2146,13 +2146,13 @@
         <v>22</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2299,13 +2299,13 @@
         <v>3</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>77</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="15"/>
@@ -2335,13 +2335,13 @@
         <v>2</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N20" s="91"/>
     </row>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>77</v>
@@ -2384,13 +2384,13 @@
     <row r="22" spans="1:14">
       <c r="A22" s="91"/>
       <c r="B22" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>5</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>77</v>
@@ -2419,13 +2419,13 @@
     <row r="23" spans="1:14">
       <c r="A23" s="91"/>
       <c r="B23" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>4</v>
@@ -2477,13 +2477,13 @@
         <v>18</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N24" s="91"/>
     </row>
@@ -2543,13 +2543,13 @@
         <v>22</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
@@ -2790,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2825,10 +2825,10 @@
         <v>81</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>72</v>
@@ -2839,10 +2839,10 @@
       <c r="C4" s="54"/>
       <c r="D4" s="51"/>
       <c r="E4" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2853,24 +2853,24 @@
         <v>138</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="27">
       <c r="B6" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27">
@@ -2881,13 +2881,13 @@
         <v>82</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H7" s="57"/>
     </row>
@@ -2905,7 +2905,7 @@
         <v>74</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="27">
@@ -2926,20 +2926,20 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="67.5">
-      <c r="B10" s="109" t="s">
-        <v>165</v>
+      <c r="B10" s="92" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="53" t="s">
         <v>162</v>
-      </c>
-      <c r="D10" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="81">
@@ -2950,13 +2950,13 @@
         <v>81</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="81">
@@ -2964,10 +2964,10 @@
       <c r="C12" s="54"/>
       <c r="D12" s="44"/>
       <c r="E12" s="34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -3052,7 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:BL116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="BZ19" sqref="BZ19"/>
     </sheetView>
   </sheetViews>
@@ -3073,22 +3073,22 @@
       <c r="I4" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="107" t="s">
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
     </row>
     <row r="5" spans="3:64">
       <c r="C5" s="71" t="s">
@@ -3096,124 +3096,124 @@
       </c>
     </row>
     <row r="6" spans="3:64">
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92">
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99">
         <v>1</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92">
+      <c r="H6" s="99"/>
+      <c r="I6" s="99">
         <v>2</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92">
+      <c r="J6" s="99"/>
+      <c r="K6" s="99">
         <v>3</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92">
+      <c r="L6" s="99"/>
+      <c r="M6" s="99">
         <v>4</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92">
+      <c r="N6" s="99"/>
+      <c r="O6" s="99">
         <v>5</v>
       </c>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92">
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99">
         <v>6</v>
       </c>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92">
+      <c r="R6" s="99"/>
+      <c r="S6" s="99">
         <v>7</v>
       </c>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92">
+      <c r="T6" s="99"/>
+      <c r="U6" s="99">
         <v>8</v>
       </c>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92" t="s">
+      <c r="V6" s="99"/>
+      <c r="W6" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92">
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99">
         <v>1</v>
       </c>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92">
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99">
         <v>2</v>
       </c>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92">
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="99">
         <v>3</v>
       </c>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92">
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99">
         <v>4</v>
       </c>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="92">
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99">
         <v>5</v>
       </c>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92">
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99">
         <v>6</v>
       </c>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="92">
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99">
         <v>7</v>
       </c>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="92">
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99">
         <v>8</v>
       </c>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92" t="s">
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="AP6" s="92"/>
-      <c r="AQ6" s="92">
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="99">
         <v>1</v>
       </c>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92">
+      <c r="AR6" s="99"/>
+      <c r="AS6" s="99">
         <v>2</v>
       </c>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92">
+      <c r="AT6" s="99"/>
+      <c r="AU6" s="99">
         <v>3</v>
       </c>
-      <c r="AV6" s="92"/>
-      <c r="AW6" s="92">
+      <c r="AV6" s="99"/>
+      <c r="AW6" s="99">
         <v>4</v>
       </c>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92">
+      <c r="AX6" s="99"/>
+      <c r="AY6" s="99">
         <v>5</v>
       </c>
-      <c r="AZ6" s="92"/>
-      <c r="BA6" s="92">
+      <c r="AZ6" s="99"/>
+      <c r="BA6" s="99">
         <v>6</v>
       </c>
-      <c r="BB6" s="92"/>
-      <c r="BC6" s="92">
+      <c r="BB6" s="99"/>
+      <c r="BC6" s="99">
         <v>7</v>
       </c>
-      <c r="BD6" s="92"/>
-      <c r="BE6" s="92">
+      <c r="BD6" s="99"/>
+      <c r="BE6" s="99">
         <v>8</v>
       </c>
-      <c r="BF6" s="92"/>
-      <c r="BG6" s="92" t="s">
+      <c r="BF6" s="99"/>
+      <c r="BG6" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="BH6" s="92"/>
-      <c r="BJ6" s="92" t="s">
+      <c r="BH6" s="99"/>
+      <c r="BJ6" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="BK6" s="92"/>
-      <c r="BL6" s="92"/>
+      <c r="BK6" s="99"/>
+      <c r="BL6" s="99"/>
     </row>
     <row r="8" spans="3:64">
       <c r="C8" t="s">
@@ -3288,76 +3288,76 @@
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
       <c r="F10" s="79"/>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="96" t="s">
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="96" t="s">
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="V10" s="98"/>
-      <c r="W10" s="101" t="s">
+      <c r="V10" s="95"/>
+      <c r="W10" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="96" t="s">
+      <c r="X10" s="104"/>
+      <c r="Y10" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="101" t="s">
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="96" t="s">
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="97"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="97"/>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="97"/>
-      <c r="AY10" s="97"/>
-      <c r="AZ10" s="97"/>
-      <c r="BA10" s="97"/>
-      <c r="BB10" s="97"/>
-      <c r="BC10" s="97"/>
-      <c r="BD10" s="97"/>
-      <c r="BE10" s="97"/>
-      <c r="BF10" s="98"/>
-      <c r="BG10" s="101" t="s">
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="95"/>
+      <c r="BG10" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="BH10" s="105"/>
+      <c r="BH10" s="107"/>
       <c r="BI10" s="82"/>
       <c r="BJ10" s="81"/>
       <c r="BK10" s="80"/>
@@ -3499,75 +3499,75 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="97">
         <v>0</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="93" t="s">
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="94"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="95"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="98"/>
       <c r="AR16" s="77"/>
-      <c r="AS16" s="93" t="s">
+      <c r="AS16" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="94"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="94"/>
-      <c r="AX16" s="94"/>
-      <c r="AY16" s="94"/>
-      <c r="AZ16" s="94"/>
-      <c r="BA16" s="94"/>
-      <c r="BB16" s="94"/>
-      <c r="BC16" s="94"/>
-      <c r="BD16" s="94"/>
-      <c r="BE16" s="94"/>
-      <c r="BF16" s="94"/>
-      <c r="BG16" s="94"/>
-      <c r="BH16" s="94"/>
-      <c r="BI16" s="95"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="97"/>
+      <c r="AY16" s="97"/>
+      <c r="AZ16" s="97"/>
+      <c r="BA16" s="97"/>
+      <c r="BB16" s="97"/>
+      <c r="BC16" s="97"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="97"/>
+      <c r="BF16" s="97"/>
+      <c r="BG16" s="97"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="98"/>
       <c r="BJ16" s="77"/>
-      <c r="BK16" s="93">
+      <c r="BK16" s="96">
         <v>0</v>
       </c>
-      <c r="BL16" s="94"/>
+      <c r="BL16" s="97"/>
     </row>
     <row r="18" spans="3:64">
       <c r="C18" t="s">
@@ -3596,45 +3596,45 @@
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
-      <c r="AA18" s="96" t="s">
+      <c r="AA18" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="97"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="97"/>
-      <c r="AP18" s="97"/>
-      <c r="AQ18" s="98"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="94"/>
+      <c r="AI18" s="94"/>
+      <c r="AJ18" s="94"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="95"/>
       <c r="AR18" s="74"/>
-      <c r="AS18" s="96" t="s">
+      <c r="AS18" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="AT18" s="97"/>
-      <c r="AU18" s="97"/>
-      <c r="AV18" s="97"/>
-      <c r="AW18" s="97"/>
-      <c r="AX18" s="97"/>
-      <c r="AY18" s="97"/>
-      <c r="AZ18" s="97"/>
-      <c r="BA18" s="97"/>
-      <c r="BB18" s="97"/>
-      <c r="BC18" s="97"/>
-      <c r="BD18" s="97"/>
-      <c r="BE18" s="97"/>
-      <c r="BF18" s="97"/>
-      <c r="BG18" s="97"/>
-      <c r="BH18" s="97"/>
-      <c r="BI18" s="98"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="94"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="94"/>
+      <c r="AX18" s="94"/>
+      <c r="AY18" s="94"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="94"/>
+      <c r="BB18" s="94"/>
+      <c r="BC18" s="94"/>
+      <c r="BD18" s="94"/>
+      <c r="BE18" s="94"/>
+      <c r="BF18" s="94"/>
+      <c r="BG18" s="94"/>
+      <c r="BH18" s="94"/>
+      <c r="BI18" s="95"/>
       <c r="BJ18" s="74"/>
       <c r="BK18" s="89"/>
       <c r="BL18" s="88"/>
@@ -3711,102 +3711,102 @@
       </c>
     </row>
     <row r="24" spans="3:64">
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99">
         <v>1</v>
       </c>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92">
+      <c r="H24" s="99"/>
+      <c r="I24" s="99">
         <v>2</v>
       </c>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92">
+      <c r="J24" s="99"/>
+      <c r="K24" s="99">
         <v>3</v>
       </c>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92">
+      <c r="L24" s="99"/>
+      <c r="M24" s="99">
         <v>4</v>
       </c>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92">
+      <c r="N24" s="99"/>
+      <c r="O24" s="99">
         <v>5</v>
       </c>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92">
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99">
         <v>6</v>
       </c>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92">
+      <c r="R24" s="99"/>
+      <c r="S24" s="99">
         <v>7</v>
       </c>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92">
+      <c r="T24" s="99"/>
+      <c r="U24" s="99">
         <v>8</v>
       </c>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92" t="s">
+      <c r="V24" s="99"/>
+      <c r="W24" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92">
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99">
         <v>1</v>
       </c>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92">
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99">
         <v>2</v>
       </c>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92">
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99">
         <v>3</v>
       </c>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92">
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99">
         <v>4</v>
       </c>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92">
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99">
         <v>5</v>
       </c>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92">
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99">
         <v>6</v>
       </c>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92">
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99">
         <v>7</v>
       </c>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92">
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99">
         <v>8</v>
       </c>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92" t="s">
+      <c r="AN24" s="99"/>
+      <c r="AO24" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92" t="s">
+      <c r="AP24" s="99"/>
+      <c r="AQ24" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="92"/>
-      <c r="BA24" s="92"/>
-      <c r="BB24" s="92"/>
-      <c r="BC24" s="92"/>
-      <c r="BD24" s="92"/>
-      <c r="BE24" s="92"/>
-      <c r="BF24" s="92"/>
-      <c r="BG24" s="92"/>
-      <c r="BH24" s="92"/>
+      <c r="AR24" s="99"/>
+      <c r="AS24" s="99"/>
+      <c r="AU24" s="99"/>
+      <c r="AV24" s="99"/>
+      <c r="AW24" s="99"/>
+      <c r="AX24" s="99"/>
+      <c r="AY24" s="99"/>
+      <c r="AZ24" s="99"/>
+      <c r="BA24" s="99"/>
+      <c r="BB24" s="99"/>
+      <c r="BC24" s="99"/>
+      <c r="BD24" s="99"/>
+      <c r="BE24" s="99"/>
+      <c r="BF24" s="99"/>
+      <c r="BG24" s="99"/>
+      <c r="BH24" s="99"/>
     </row>
     <row r="26" spans="3:64">
       <c r="C26" t="s">
@@ -3862,54 +3862,54 @@
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
       <c r="F28" s="79"/>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="96" t="s">
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="96" t="s">
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="V28" s="98"/>
-      <c r="W28" s="101" t="s">
+      <c r="V28" s="95"/>
+      <c r="W28" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="96" t="s">
+      <c r="X28" s="104"/>
+      <c r="Y28" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="97"/>
-      <c r="AH28" s="97"/>
-      <c r="AI28" s="97"/>
-      <c r="AJ28" s="97"/>
-      <c r="AK28" s="97"/>
-      <c r="AL28" s="97"/>
-      <c r="AM28" s="97"/>
-      <c r="AN28" s="98"/>
-      <c r="AO28" s="101" t="s">
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="94"/>
+      <c r="AJ28" s="94"/>
+      <c r="AK28" s="94"/>
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="94"/>
+      <c r="AN28" s="95"/>
+      <c r="AO28" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="AP28" s="102"/>
+      <c r="AP28" s="104"/>
       <c r="AQ28" s="80"/>
       <c r="AR28" s="78"/>
       <c r="AS28" s="79"/>
@@ -4012,54 +4012,54 @@
       <c r="C34" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="97">
         <v>0</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="93" t="s">
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="94"/>
-      <c r="AH34" s="94"/>
-      <c r="AI34" s="94"/>
-      <c r="AJ34" s="94"/>
-      <c r="AK34" s="94"/>
-      <c r="AL34" s="94"/>
-      <c r="AM34" s="94"/>
-      <c r="AN34" s="94"/>
-      <c r="AO34" s="94"/>
-      <c r="AP34" s="94"/>
-      <c r="AQ34" s="95"/>
-      <c r="AR34" s="93">
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="97"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="97"/>
+      <c r="AN34" s="97"/>
+      <c r="AO34" s="97"/>
+      <c r="AP34" s="97"/>
+      <c r="AQ34" s="98"/>
+      <c r="AR34" s="96">
         <v>0</v>
       </c>
-      <c r="AS34" s="94"/>
+      <c r="AS34" s="97"/>
     </row>
     <row r="36" spans="3:64">
       <c r="C36" t="s">
@@ -4088,25 +4088,25 @@
       <c r="X36" s="74"/>
       <c r="Y36" s="74"/>
       <c r="Z36" s="74"/>
-      <c r="AA36" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="97"/>
-      <c r="AN36" s="97"/>
-      <c r="AO36" s="97"/>
-      <c r="AP36" s="97"/>
-      <c r="AQ36" s="98"/>
+      <c r="AA36" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB36" s="94"/>
+      <c r="AC36" s="94"/>
+      <c r="AD36" s="94"/>
+      <c r="AE36" s="94"/>
+      <c r="AF36" s="94"/>
+      <c r="AG36" s="94"/>
+      <c r="AH36" s="94"/>
+      <c r="AI36" s="94"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="95"/>
       <c r="AR36" s="74"/>
       <c r="AS36" s="74"/>
     </row>
@@ -4158,119 +4158,119 @@
       <c r="AS38" s="83"/>
     </row>
     <row r="41" spans="3:64">
-      <c r="G41" s="92">
+      <c r="G41" s="99">
         <v>1</v>
       </c>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92">
+      <c r="H41" s="99"/>
+      <c r="I41" s="99">
         <v>2</v>
       </c>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92">
+      <c r="J41" s="99"/>
+      <c r="K41" s="99">
         <v>3</v>
       </c>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92">
+      <c r="L41" s="99"/>
+      <c r="M41" s="99">
         <v>4</v>
       </c>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92">
+      <c r="N41" s="99"/>
+      <c r="O41" s="99">
         <v>5</v>
       </c>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92">
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99">
         <v>6</v>
       </c>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92">
+      <c r="R41" s="99"/>
+      <c r="S41" s="99">
         <v>7</v>
       </c>
-      <c r="T41" s="92"/>
-      <c r="U41" s="92">
+      <c r="T41" s="99"/>
+      <c r="U41" s="99">
         <v>8</v>
       </c>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92" t="s">
+      <c r="V41" s="99"/>
+      <c r="W41" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="X41" s="92"/>
-      <c r="Y41" s="92">
+      <c r="X41" s="99"/>
+      <c r="Y41" s="99">
         <v>1</v>
       </c>
-      <c r="Z41" s="92"/>
-      <c r="AA41" s="92">
+      <c r="Z41" s="99"/>
+      <c r="AA41" s="99">
         <v>2</v>
       </c>
-      <c r="AB41" s="92"/>
-      <c r="AC41" s="92">
+      <c r="AB41" s="99"/>
+      <c r="AC41" s="99">
         <v>3</v>
       </c>
-      <c r="AD41" s="92"/>
-      <c r="AE41" s="92">
+      <c r="AD41" s="99"/>
+      <c r="AE41" s="99">
         <v>4</v>
       </c>
-      <c r="AF41" s="92"/>
-      <c r="AG41" s="92">
+      <c r="AF41" s="99"/>
+      <c r="AG41" s="99">
         <v>5</v>
       </c>
-      <c r="AH41" s="92"/>
-      <c r="AI41" s="92">
+      <c r="AH41" s="99"/>
+      <c r="AI41" s="99">
         <v>6</v>
       </c>
-      <c r="AJ41" s="92"/>
-      <c r="AK41" s="92">
+      <c r="AJ41" s="99"/>
+      <c r="AK41" s="99">
         <v>7</v>
       </c>
-      <c r="AL41" s="92"/>
-      <c r="AM41" s="92">
+      <c r="AL41" s="99"/>
+      <c r="AM41" s="99">
         <v>8</v>
       </c>
-      <c r="AN41" s="92"/>
-      <c r="AO41" s="92" t="s">
+      <c r="AN41" s="99"/>
+      <c r="AO41" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="AP41" s="92"/>
-      <c r="AQ41" s="92">
+      <c r="AP41" s="99"/>
+      <c r="AQ41" s="99">
         <v>1</v>
       </c>
-      <c r="AR41" s="92"/>
-      <c r="AS41" s="92">
+      <c r="AR41" s="99"/>
+      <c r="AS41" s="99">
         <v>2</v>
       </c>
-      <c r="AT41" s="92"/>
-      <c r="AU41" s="92">
+      <c r="AT41" s="99"/>
+      <c r="AU41" s="99">
         <v>3</v>
       </c>
-      <c r="AV41" s="92"/>
-      <c r="AW41" s="92">
+      <c r="AV41" s="99"/>
+      <c r="AW41" s="99">
         <v>4</v>
       </c>
-      <c r="AX41" s="92"/>
-      <c r="AY41" s="92">
+      <c r="AX41" s="99"/>
+      <c r="AY41" s="99">
         <v>5</v>
       </c>
-      <c r="AZ41" s="92"/>
-      <c r="BA41" s="92">
+      <c r="AZ41" s="99"/>
+      <c r="BA41" s="99">
         <v>6</v>
       </c>
-      <c r="BB41" s="92"/>
-      <c r="BC41" s="92">
+      <c r="BB41" s="99"/>
+      <c r="BC41" s="99">
         <v>7</v>
       </c>
-      <c r="BD41" s="92"/>
-      <c r="BE41" s="92">
+      <c r="BD41" s="99"/>
+      <c r="BE41" s="99">
         <v>8</v>
       </c>
-      <c r="BF41" s="92"/>
-      <c r="BG41" s="92" t="s">
+      <c r="BF41" s="99"/>
+      <c r="BG41" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="BH41" s="92"/>
-      <c r="BI41" s="92" t="s">
+      <c r="BH41" s="99"/>
+      <c r="BI41" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="BJ41" s="92"/>
-      <c r="BK41" s="92"/>
+      <c r="BJ41" s="99"/>
+      <c r="BK41" s="99"/>
       <c r="BL41" s="72"/>
     </row>
     <row r="43" spans="3:64">
@@ -4337,76 +4337,76 @@
     <row r="45" spans="3:64">
       <c r="E45" s="1"/>
       <c r="F45" s="81"/>
-      <c r="G45" s="96" t="s">
+      <c r="G45" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="96" t="s">
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="96" t="s">
+      <c r="R45" s="94"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="V45" s="98"/>
-      <c r="W45" s="101" t="s">
+      <c r="V45" s="95"/>
+      <c r="W45" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="X45" s="102"/>
-      <c r="Y45" s="93" t="s">
+      <c r="X45" s="104"/>
+      <c r="Y45" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="Z45" s="94"/>
-      <c r="AA45" s="94"/>
-      <c r="AB45" s="94"/>
-      <c r="AC45" s="94"/>
-      <c r="AD45" s="94"/>
-      <c r="AE45" s="94"/>
-      <c r="AF45" s="94"/>
-      <c r="AG45" s="94"/>
-      <c r="AH45" s="94"/>
-      <c r="AI45" s="94"/>
-      <c r="AJ45" s="94"/>
-      <c r="AK45" s="94"/>
-      <c r="AL45" s="94"/>
-      <c r="AM45" s="94"/>
-      <c r="AN45" s="95"/>
-      <c r="AO45" s="103" t="s">
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="97"/>
+      <c r="AK45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="97"/>
+      <c r="AN45" s="98"/>
+      <c r="AO45" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="AP45" s="104"/>
-      <c r="AQ45" s="93" t="s">
+      <c r="AP45" s="106"/>
+      <c r="AQ45" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="AR45" s="94"/>
-      <c r="AS45" s="94"/>
-      <c r="AT45" s="94"/>
-      <c r="AU45" s="94"/>
-      <c r="AV45" s="94"/>
-      <c r="AW45" s="94"/>
-      <c r="AX45" s="94"/>
-      <c r="AY45" s="94"/>
-      <c r="AZ45" s="94"/>
-      <c r="BA45" s="94"/>
-      <c r="BB45" s="94"/>
-      <c r="BC45" s="94"/>
-      <c r="BD45" s="94"/>
-      <c r="BE45" s="94"/>
-      <c r="BF45" s="95"/>
-      <c r="BG45" s="99" t="s">
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="97"/>
+      <c r="AX45" s="97"/>
+      <c r="AY45" s="97"/>
+      <c r="AZ45" s="97"/>
+      <c r="BA45" s="97"/>
+      <c r="BB45" s="97"/>
+      <c r="BC45" s="97"/>
+      <c r="BD45" s="97"/>
+      <c r="BE45" s="97"/>
+      <c r="BF45" s="98"/>
+      <c r="BG45" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="BH45" s="100"/>
+      <c r="BH45" s="109"/>
       <c r="BI45" s="82"/>
       <c r="BJ45" s="81"/>
       <c r="BK45" s="80"/>
@@ -4535,27 +4535,27 @@
       <c r="BL49" s="85"/>
     </row>
     <row r="51" spans="3:64">
-      <c r="F51" s="94">
+      <c r="F51" s="97">
         <v>0</v>
       </c>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="95"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="97"/>
+      <c r="M51" s="97"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="97"/>
+      <c r="P51" s="97"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="97"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="97"/>
+      <c r="U51" s="97"/>
+      <c r="V51" s="97"/>
+      <c r="W51" s="97"/>
+      <c r="X51" s="98"/>
       <c r="Y51" s="90"/>
       <c r="Z51" s="88"/>
       <c r="AA51" s="88"/>
@@ -4594,10 +4594,10 @@
       <c r="BH51" s="88"/>
       <c r="BI51" s="88"/>
       <c r="BJ51" s="88"/>
-      <c r="BK51" s="93">
+      <c r="BK51" s="96">
         <v>0</v>
       </c>
-      <c r="BL51" s="94"/>
+      <c r="BL51" s="97"/>
     </row>
     <row r="53" spans="3:64">
       <c r="F53" s="73"/>
@@ -4621,45 +4621,45 @@
       <c r="X53" s="74"/>
       <c r="Y53" s="74"/>
       <c r="Z53" s="74"/>
-      <c r="AA53" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB53" s="97"/>
-      <c r="AC53" s="97"/>
-      <c r="AD53" s="97"/>
-      <c r="AE53" s="97"/>
-      <c r="AF53" s="97"/>
-      <c r="AG53" s="97"/>
-      <c r="AH53" s="97"/>
-      <c r="AI53" s="97"/>
-      <c r="AJ53" s="97"/>
-      <c r="AK53" s="97"/>
-      <c r="AL53" s="97"/>
-      <c r="AM53" s="97"/>
-      <c r="AN53" s="97"/>
-      <c r="AO53" s="97"/>
-      <c r="AP53" s="97"/>
-      <c r="AQ53" s="98"/>
+      <c r="AA53" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB53" s="94"/>
+      <c r="AC53" s="94"/>
+      <c r="AD53" s="94"/>
+      <c r="AE53" s="94"/>
+      <c r="AF53" s="94"/>
+      <c r="AG53" s="94"/>
+      <c r="AH53" s="94"/>
+      <c r="AI53" s="94"/>
+      <c r="AJ53" s="94"/>
+      <c r="AK53" s="94"/>
+      <c r="AL53" s="94"/>
+      <c r="AM53" s="94"/>
+      <c r="AN53" s="94"/>
+      <c r="AO53" s="94"/>
+      <c r="AP53" s="94"/>
+      <c r="AQ53" s="95"/>
       <c r="AR53" s="74"/>
-      <c r="AS53" s="96" t="s">
+      <c r="AS53" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="AT53" s="97"/>
-      <c r="AU53" s="97"/>
-      <c r="AV53" s="97"/>
-      <c r="AW53" s="97"/>
-      <c r="AX53" s="97"/>
-      <c r="AY53" s="97"/>
-      <c r="AZ53" s="97"/>
-      <c r="BA53" s="97"/>
-      <c r="BB53" s="97"/>
-      <c r="BC53" s="97"/>
-      <c r="BD53" s="97"/>
-      <c r="BE53" s="97"/>
-      <c r="BF53" s="97"/>
-      <c r="BG53" s="97"/>
-      <c r="BH53" s="97"/>
-      <c r="BI53" s="98"/>
+      <c r="AT53" s="94"/>
+      <c r="AU53" s="94"/>
+      <c r="AV53" s="94"/>
+      <c r="AW53" s="94"/>
+      <c r="AX53" s="94"/>
+      <c r="AY53" s="94"/>
+      <c r="AZ53" s="94"/>
+      <c r="BA53" s="94"/>
+      <c r="BB53" s="94"/>
+      <c r="BC53" s="94"/>
+      <c r="BD53" s="94"/>
+      <c r="BE53" s="94"/>
+      <c r="BF53" s="94"/>
+      <c r="BG53" s="94"/>
+      <c r="BH53" s="94"/>
+      <c r="BI53" s="95"/>
       <c r="BJ53" s="75"/>
       <c r="BK53" s="88"/>
       <c r="BL53" s="88"/>
@@ -4740,124 +4740,124 @@
       </c>
     </row>
     <row r="58" spans="3:64">
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92">
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99">
         <v>1</v>
       </c>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92">
+      <c r="H58" s="99"/>
+      <c r="I58" s="99">
         <v>2</v>
       </c>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92">
+      <c r="J58" s="99"/>
+      <c r="K58" s="99">
         <v>3</v>
       </c>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92">
+      <c r="L58" s="99"/>
+      <c r="M58" s="99">
         <v>4</v>
       </c>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92">
+      <c r="N58" s="99"/>
+      <c r="O58" s="99">
         <v>5</v>
       </c>
-      <c r="P58" s="92"/>
-      <c r="Q58" s="92">
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99">
         <v>6</v>
       </c>
-      <c r="R58" s="92"/>
-      <c r="S58" s="92">
+      <c r="R58" s="99"/>
+      <c r="S58" s="99">
         <v>7</v>
       </c>
-      <c r="T58" s="92"/>
-      <c r="U58" s="92">
+      <c r="T58" s="99"/>
+      <c r="U58" s="99">
         <v>8</v>
       </c>
-      <c r="V58" s="92"/>
-      <c r="W58" s="92" t="s">
+      <c r="V58" s="99"/>
+      <c r="W58" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="X58" s="92"/>
-      <c r="Y58" s="92">
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99">
         <v>1</v>
       </c>
-      <c r="Z58" s="92"/>
-      <c r="AA58" s="92">
+      <c r="Z58" s="99"/>
+      <c r="AA58" s="99">
         <v>2</v>
       </c>
-      <c r="AB58" s="92"/>
-      <c r="AC58" s="92">
+      <c r="AB58" s="99"/>
+      <c r="AC58" s="99">
         <v>3</v>
       </c>
-      <c r="AD58" s="92"/>
-      <c r="AE58" s="92">
+      <c r="AD58" s="99"/>
+      <c r="AE58" s="99">
         <v>4</v>
       </c>
-      <c r="AF58" s="92"/>
-      <c r="AG58" s="92">
+      <c r="AF58" s="99"/>
+      <c r="AG58" s="99">
         <v>5</v>
       </c>
-      <c r="AH58" s="92"/>
-      <c r="AI58" s="92">
+      <c r="AH58" s="99"/>
+      <c r="AI58" s="99">
         <v>6</v>
       </c>
-      <c r="AJ58" s="92"/>
-      <c r="AK58" s="92">
+      <c r="AJ58" s="99"/>
+      <c r="AK58" s="99">
         <v>7</v>
       </c>
-      <c r="AL58" s="92"/>
-      <c r="AM58" s="92">
+      <c r="AL58" s="99"/>
+      <c r="AM58" s="99">
         <v>8</v>
       </c>
-      <c r="AN58" s="92"/>
-      <c r="AO58" s="92" t="s">
+      <c r="AN58" s="99"/>
+      <c r="AO58" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="AP58" s="92"/>
-      <c r="AQ58" s="92">
+      <c r="AP58" s="99"/>
+      <c r="AQ58" s="99">
         <v>1</v>
       </c>
-      <c r="AR58" s="92"/>
-      <c r="AS58" s="92">
+      <c r="AR58" s="99"/>
+      <c r="AS58" s="99">
         <v>2</v>
       </c>
-      <c r="AT58" s="92"/>
-      <c r="AU58" s="92">
+      <c r="AT58" s="99"/>
+      <c r="AU58" s="99">
         <v>3</v>
       </c>
-      <c r="AV58" s="92"/>
-      <c r="AW58" s="92">
+      <c r="AV58" s="99"/>
+      <c r="AW58" s="99">
         <v>4</v>
       </c>
-      <c r="AX58" s="92"/>
-      <c r="AY58" s="92">
+      <c r="AX58" s="99"/>
+      <c r="AY58" s="99">
         <v>5</v>
       </c>
-      <c r="AZ58" s="92"/>
-      <c r="BA58" s="92">
+      <c r="AZ58" s="99"/>
+      <c r="BA58" s="99">
         <v>6</v>
       </c>
-      <c r="BB58" s="92"/>
-      <c r="BC58" s="92">
+      <c r="BB58" s="99"/>
+      <c r="BC58" s="99">
         <v>7</v>
       </c>
-      <c r="BD58" s="92"/>
-      <c r="BE58" s="92">
+      <c r="BD58" s="99"/>
+      <c r="BE58" s="99">
         <v>8</v>
       </c>
-      <c r="BF58" s="92"/>
-      <c r="BG58" s="92" t="s">
+      <c r="BF58" s="99"/>
+      <c r="BG58" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="BH58" s="92"/>
-      <c r="BI58" s="92" t="s">
+      <c r="BH58" s="99"/>
+      <c r="BI58" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="BJ58" s="92"/>
-      <c r="BK58" s="92"/>
+      <c r="BJ58" s="99"/>
+      <c r="BK58" s="99"/>
       <c r="BL58" s="72"/>
     </row>
     <row r="60" spans="3:64">
@@ -4933,76 +4933,76 @@
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
       <c r="F62" s="79"/>
-      <c r="G62" s="96" t="s">
+      <c r="G62" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="98"/>
-      <c r="Q62" s="96" t="s">
+      <c r="H62" s="94"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="94"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="94"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="R62" s="97"/>
-      <c r="S62" s="97"/>
-      <c r="T62" s="98"/>
-      <c r="U62" s="96" t="s">
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
+      <c r="T62" s="95"/>
+      <c r="U62" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="V62" s="98"/>
-      <c r="W62" s="101" t="s">
+      <c r="V62" s="95"/>
+      <c r="W62" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="X62" s="102"/>
-      <c r="Y62" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z62" s="94"/>
-      <c r="AA62" s="94"/>
-      <c r="AB62" s="94"/>
-      <c r="AC62" s="94"/>
-      <c r="AD62" s="94"/>
-      <c r="AE62" s="94"/>
-      <c r="AF62" s="94"/>
-      <c r="AG62" s="94"/>
-      <c r="AH62" s="94"/>
-      <c r="AI62" s="94"/>
-      <c r="AJ62" s="94"/>
-      <c r="AK62" s="94"/>
-      <c r="AL62" s="94"/>
-      <c r="AM62" s="94"/>
-      <c r="AN62" s="95"/>
-      <c r="AO62" s="103" t="s">
+      <c r="X62" s="104"/>
+      <c r="Y62" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z62" s="97"/>
+      <c r="AA62" s="97"/>
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="97"/>
+      <c r="AD62" s="97"/>
+      <c r="AE62" s="97"/>
+      <c r="AF62" s="97"/>
+      <c r="AG62" s="97"/>
+      <c r="AH62" s="97"/>
+      <c r="AI62" s="97"/>
+      <c r="AJ62" s="97"/>
+      <c r="AK62" s="97"/>
+      <c r="AL62" s="97"/>
+      <c r="AM62" s="97"/>
+      <c r="AN62" s="98"/>
+      <c r="AO62" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="AP62" s="104"/>
-      <c r="AQ62" s="93" t="s">
+      <c r="AP62" s="106"/>
+      <c r="AQ62" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="AR62" s="94"/>
-      <c r="AS62" s="94"/>
-      <c r="AT62" s="94"/>
-      <c r="AU62" s="94"/>
-      <c r="AV62" s="94"/>
-      <c r="AW62" s="94"/>
-      <c r="AX62" s="94"/>
-      <c r="AY62" s="94"/>
-      <c r="AZ62" s="94"/>
-      <c r="BA62" s="94"/>
-      <c r="BB62" s="94"/>
-      <c r="BC62" s="94"/>
-      <c r="BD62" s="94"/>
-      <c r="BE62" s="94"/>
-      <c r="BF62" s="95"/>
-      <c r="BG62" s="99" t="s">
+      <c r="AR62" s="97"/>
+      <c r="AS62" s="97"/>
+      <c r="AT62" s="97"/>
+      <c r="AU62" s="97"/>
+      <c r="AV62" s="97"/>
+      <c r="AW62" s="97"/>
+      <c r="AX62" s="97"/>
+      <c r="AY62" s="97"/>
+      <c r="AZ62" s="97"/>
+      <c r="BA62" s="97"/>
+      <c r="BB62" s="97"/>
+      <c r="BC62" s="97"/>
+      <c r="BD62" s="97"/>
+      <c r="BE62" s="97"/>
+      <c r="BF62" s="98"/>
+      <c r="BG62" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="BH62" s="100"/>
+      <c r="BH62" s="109"/>
       <c r="BI62" s="82"/>
       <c r="BJ62" s="81"/>
       <c r="BK62" s="80"/>
@@ -5144,29 +5144,29 @@
       <c r="C68" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="94">
+      <c r="D68" s="97">
         <v>0</v>
       </c>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="94"/>
-      <c r="L68" s="94"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="94"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="94"/>
-      <c r="Q68" s="94"/>
-      <c r="R68" s="94"/>
-      <c r="S68" s="94"/>
-      <c r="T68" s="94"/>
-      <c r="U68" s="94"/>
-      <c r="V68" s="94"/>
-      <c r="W68" s="94"/>
-      <c r="X68" s="95"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="97"/>
+      <c r="O68" s="97"/>
+      <c r="P68" s="97"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="97"/>
+      <c r="S68" s="97"/>
+      <c r="T68" s="97"/>
+      <c r="U68" s="97"/>
+      <c r="V68" s="97"/>
+      <c r="W68" s="97"/>
+      <c r="X68" s="98"/>
       <c r="Y68" s="90"/>
       <c r="Z68" s="88"/>
       <c r="AA68" s="88"/>
@@ -5205,10 +5205,10 @@
       <c r="BH68" s="88"/>
       <c r="BI68" s="88"/>
       <c r="BJ68" s="88"/>
-      <c r="BK68" s="93">
+      <c r="BK68" s="96">
         <v>0</v>
       </c>
-      <c r="BL68" s="94"/>
+      <c r="BL68" s="97"/>
     </row>
     <row r="70" spans="3:64">
       <c r="C70" t="s">
@@ -5237,45 +5237,45 @@
       <c r="X70" s="74"/>
       <c r="Y70" s="74"/>
       <c r="Z70" s="74"/>
-      <c r="AA70" s="96" t="s">
+      <c r="AA70" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="AB70" s="97"/>
-      <c r="AC70" s="97"/>
-      <c r="AD70" s="97"/>
-      <c r="AE70" s="97"/>
-      <c r="AF70" s="97"/>
-      <c r="AG70" s="97"/>
-      <c r="AH70" s="97"/>
-      <c r="AI70" s="97"/>
-      <c r="AJ70" s="97"/>
-      <c r="AK70" s="97"/>
-      <c r="AL70" s="97"/>
-      <c r="AM70" s="97"/>
-      <c r="AN70" s="97"/>
-      <c r="AO70" s="97"/>
-      <c r="AP70" s="97"/>
-      <c r="AQ70" s="98"/>
+      <c r="AB70" s="94"/>
+      <c r="AC70" s="94"/>
+      <c r="AD70" s="94"/>
+      <c r="AE70" s="94"/>
+      <c r="AF70" s="94"/>
+      <c r="AG70" s="94"/>
+      <c r="AH70" s="94"/>
+      <c r="AI70" s="94"/>
+      <c r="AJ70" s="94"/>
+      <c r="AK70" s="94"/>
+      <c r="AL70" s="94"/>
+      <c r="AM70" s="94"/>
+      <c r="AN70" s="94"/>
+      <c r="AO70" s="94"/>
+      <c r="AP70" s="94"/>
+      <c r="AQ70" s="95"/>
       <c r="AR70" s="74"/>
-      <c r="AS70" s="96" t="s">
+      <c r="AS70" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="AT70" s="97"/>
-      <c r="AU70" s="97"/>
-      <c r="AV70" s="97"/>
-      <c r="AW70" s="97"/>
-      <c r="AX70" s="97"/>
-      <c r="AY70" s="97"/>
-      <c r="AZ70" s="97"/>
-      <c r="BA70" s="97"/>
-      <c r="BB70" s="97"/>
-      <c r="BC70" s="97"/>
-      <c r="BD70" s="97"/>
-      <c r="BE70" s="97"/>
-      <c r="BF70" s="97"/>
-      <c r="BG70" s="97"/>
-      <c r="BH70" s="97"/>
-      <c r="BI70" s="98"/>
+      <c r="AT70" s="94"/>
+      <c r="AU70" s="94"/>
+      <c r="AV70" s="94"/>
+      <c r="AW70" s="94"/>
+      <c r="AX70" s="94"/>
+      <c r="AY70" s="94"/>
+      <c r="AZ70" s="94"/>
+      <c r="BA70" s="94"/>
+      <c r="BB70" s="94"/>
+      <c r="BC70" s="94"/>
+      <c r="BD70" s="94"/>
+      <c r="BE70" s="94"/>
+      <c r="BF70" s="94"/>
+      <c r="BG70" s="94"/>
+      <c r="BH70" s="94"/>
+      <c r="BI70" s="95"/>
       <c r="BJ70" s="75"/>
       <c r="BK70" s="88"/>
       <c r="BL70" s="88"/>
@@ -5498,72 +5498,72 @@
       <c r="D81" s="69"/>
       <c r="E81" s="69"/>
       <c r="F81" s="69"/>
-      <c r="G81" s="93">
+      <c r="G81" s="96">
         <v>7</v>
       </c>
-      <c r="H81" s="95"/>
-      <c r="I81" s="93">
+      <c r="H81" s="98"/>
+      <c r="I81" s="96">
         <v>6</v>
       </c>
-      <c r="J81" s="95"/>
-      <c r="K81" s="93">
+      <c r="J81" s="98"/>
+      <c r="K81" s="96">
         <v>5</v>
       </c>
-      <c r="L81" s="95"/>
-      <c r="M81" s="93">
+      <c r="L81" s="98"/>
+      <c r="M81" s="96">
         <v>4</v>
       </c>
-      <c r="N81" s="95"/>
-      <c r="O81" s="93">
+      <c r="N81" s="98"/>
+      <c r="O81" s="96">
         <v>3</v>
       </c>
-      <c r="P81" s="95"/>
-      <c r="Q81" s="93">
+      <c r="P81" s="98"/>
+      <c r="Q81" s="96">
         <v>2</v>
       </c>
-      <c r="R81" s="95"/>
-      <c r="S81" s="93">
+      <c r="R81" s="98"/>
+      <c r="S81" s="96">
         <v>1</v>
       </c>
-      <c r="T81" s="95"/>
-      <c r="U81" s="93">
+      <c r="T81" s="98"/>
+      <c r="U81" s="96">
         <v>0</v>
       </c>
-      <c r="V81" s="95"/>
+      <c r="V81" s="98"/>
       <c r="W81" s="69"/>
       <c r="X81" s="69"/>
-      <c r="Y81" s="93">
+      <c r="Y81" s="96">
         <v>7</v>
       </c>
-      <c r="Z81" s="95"/>
-      <c r="AA81" s="93">
+      <c r="Z81" s="98"/>
+      <c r="AA81" s="96">
         <v>6</v>
       </c>
-      <c r="AB81" s="95"/>
-      <c r="AC81" s="93">
+      <c r="AB81" s="98"/>
+      <c r="AC81" s="96">
         <v>5</v>
       </c>
-      <c r="AD81" s="95"/>
-      <c r="AE81" s="93">
+      <c r="AD81" s="98"/>
+      <c r="AE81" s="96">
         <v>4</v>
       </c>
-      <c r="AF81" s="95"/>
-      <c r="AG81" s="93">
+      <c r="AF81" s="98"/>
+      <c r="AG81" s="96">
         <v>3</v>
       </c>
-      <c r="AH81" s="95"/>
-      <c r="AI81" s="93">
+      <c r="AH81" s="98"/>
+      <c r="AI81" s="96">
         <v>2</v>
       </c>
-      <c r="AJ81" s="95"/>
-      <c r="AK81" s="93">
+      <c r="AJ81" s="98"/>
+      <c r="AK81" s="96">
         <v>1</v>
       </c>
-      <c r="AL81" s="95"/>
-      <c r="AM81" s="93">
+      <c r="AL81" s="98"/>
+      <c r="AM81" s="96">
         <v>0</v>
       </c>
-      <c r="AN81" s="95"/>
+      <c r="AN81" s="98"/>
       <c r="AO81" s="69"/>
       <c r="AP81" s="69"/>
       <c r="AQ81" s="69"/>
@@ -5579,72 +5579,72 @@
       <c r="E83" s="69"/>
       <c r="F83" s="69"/>
       <c r="G83" s="69"/>
-      <c r="H83" s="96">
+      <c r="H83" s="93">
         <v>7</v>
       </c>
-      <c r="I83" s="98"/>
-      <c r="J83" s="96">
+      <c r="I83" s="95"/>
+      <c r="J83" s="93">
         <v>6</v>
       </c>
-      <c r="K83" s="98"/>
-      <c r="L83" s="96">
+      <c r="K83" s="95"/>
+      <c r="L83" s="93">
         <v>5</v>
       </c>
-      <c r="M83" s="98"/>
-      <c r="N83" s="96">
+      <c r="M83" s="95"/>
+      <c r="N83" s="93">
         <v>4</v>
       </c>
-      <c r="O83" s="98"/>
-      <c r="P83" s="96">
+      <c r="O83" s="95"/>
+      <c r="P83" s="93">
         <v>3</v>
       </c>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="96">
+      <c r="Q83" s="95"/>
+      <c r="R83" s="93">
         <v>2</v>
       </c>
-      <c r="S83" s="98"/>
-      <c r="T83" s="96">
+      <c r="S83" s="95"/>
+      <c r="T83" s="93">
         <v>1</v>
       </c>
-      <c r="U83" s="98"/>
-      <c r="V83" s="96">
+      <c r="U83" s="95"/>
+      <c r="V83" s="93">
         <v>0</v>
       </c>
-      <c r="W83" s="98"/>
+      <c r="W83" s="95"/>
       <c r="X83" s="69"/>
       <c r="Y83" s="69"/>
-      <c r="Z83" s="96">
+      <c r="Z83" s="93">
         <v>7</v>
       </c>
-      <c r="AA83" s="98"/>
-      <c r="AB83" s="96">
+      <c r="AA83" s="95"/>
+      <c r="AB83" s="93">
         <v>6</v>
       </c>
-      <c r="AC83" s="98"/>
-      <c r="AD83" s="96">
+      <c r="AC83" s="95"/>
+      <c r="AD83" s="93">
         <v>5</v>
       </c>
-      <c r="AE83" s="98"/>
-      <c r="AF83" s="96">
+      <c r="AE83" s="95"/>
+      <c r="AF83" s="93">
         <v>4</v>
       </c>
-      <c r="AG83" s="98"/>
-      <c r="AH83" s="96">
+      <c r="AG83" s="95"/>
+      <c r="AH83" s="93">
         <v>3</v>
       </c>
-      <c r="AI83" s="98"/>
-      <c r="AJ83" s="96">
+      <c r="AI83" s="95"/>
+      <c r="AJ83" s="93">
         <v>2</v>
       </c>
-      <c r="AK83" s="98"/>
-      <c r="AL83" s="96">
+      <c r="AK83" s="95"/>
+      <c r="AL83" s="93">
         <v>1</v>
       </c>
-      <c r="AM83" s="98"/>
-      <c r="AN83" s="96">
+      <c r="AM83" s="95"/>
+      <c r="AN83" s="93">
         <v>0</v>
       </c>
-      <c r="AO83" s="98"/>
+      <c r="AO83" s="95"/>
       <c r="AP83" s="69"/>
       <c r="AQ83" s="69"/>
       <c r="AR83" s="69"/>
@@ -5820,72 +5820,72 @@
       <c r="E92" s="69"/>
       <c r="F92" s="69"/>
       <c r="G92" s="69"/>
-      <c r="H92" s="93">
+      <c r="H92" s="96">
         <v>7</v>
       </c>
-      <c r="I92" s="95"/>
-      <c r="J92" s="93">
+      <c r="I92" s="98"/>
+      <c r="J92" s="96">
         <v>6</v>
       </c>
-      <c r="K92" s="95"/>
-      <c r="L92" s="93">
+      <c r="K92" s="98"/>
+      <c r="L92" s="96">
         <v>5</v>
       </c>
-      <c r="M92" s="95"/>
-      <c r="N92" s="93">
+      <c r="M92" s="98"/>
+      <c r="N92" s="96">
         <v>4</v>
       </c>
-      <c r="O92" s="95"/>
-      <c r="P92" s="93">
+      <c r="O92" s="98"/>
+      <c r="P92" s="96">
         <v>3</v>
       </c>
-      <c r="Q92" s="95"/>
-      <c r="R92" s="93">
+      <c r="Q92" s="98"/>
+      <c r="R92" s="96">
         <v>2</v>
       </c>
-      <c r="S92" s="95"/>
-      <c r="T92" s="93">
+      <c r="S92" s="98"/>
+      <c r="T92" s="96">
         <v>1</v>
       </c>
-      <c r="U92" s="95"/>
-      <c r="V92" s="93">
+      <c r="U92" s="98"/>
+      <c r="V92" s="96">
         <v>0</v>
       </c>
-      <c r="W92" s="95"/>
+      <c r="W92" s="98"/>
       <c r="X92" s="69"/>
       <c r="Y92" s="69"/>
-      <c r="Z92" s="93">
+      <c r="Z92" s="96">
         <v>7</v>
       </c>
-      <c r="AA92" s="95"/>
-      <c r="AB92" s="93">
+      <c r="AA92" s="98"/>
+      <c r="AB92" s="96">
         <v>6</v>
       </c>
-      <c r="AC92" s="95"/>
-      <c r="AD92" s="93">
+      <c r="AC92" s="98"/>
+      <c r="AD92" s="96">
         <v>5</v>
       </c>
-      <c r="AE92" s="95"/>
-      <c r="AF92" s="93">
+      <c r="AE92" s="98"/>
+      <c r="AF92" s="96">
         <v>4</v>
       </c>
-      <c r="AG92" s="95"/>
-      <c r="AH92" s="93">
+      <c r="AG92" s="98"/>
+      <c r="AH92" s="96">
         <v>3</v>
       </c>
-      <c r="AI92" s="95"/>
-      <c r="AJ92" s="93">
+      <c r="AI92" s="98"/>
+      <c r="AJ92" s="96">
         <v>2</v>
       </c>
-      <c r="AK92" s="95"/>
-      <c r="AL92" s="93">
+      <c r="AK92" s="98"/>
+      <c r="AL92" s="96">
         <v>1</v>
       </c>
-      <c r="AM92" s="95"/>
-      <c r="AN92" s="93">
+      <c r="AM92" s="98"/>
+      <c r="AN92" s="96">
         <v>0</v>
       </c>
-      <c r="AO92" s="95"/>
+      <c r="AO92" s="98"/>
       <c r="AP92" s="69"/>
       <c r="AQ92" s="69"/>
       <c r="AR92" s="69"/>
@@ -5899,72 +5899,72 @@
       <c r="D94" s="69"/>
       <c r="E94" s="69"/>
       <c r="F94" s="69"/>
-      <c r="G94" s="96">
+      <c r="G94" s="93">
         <v>7</v>
       </c>
-      <c r="H94" s="98"/>
-      <c r="I94" s="96">
+      <c r="H94" s="95"/>
+      <c r="I94" s="93">
         <v>6</v>
       </c>
-      <c r="J94" s="98"/>
-      <c r="K94" s="96">
+      <c r="J94" s="95"/>
+      <c r="K94" s="93">
         <v>5</v>
       </c>
-      <c r="L94" s="98"/>
-      <c r="M94" s="96">
+      <c r="L94" s="95"/>
+      <c r="M94" s="93">
         <v>4</v>
       </c>
-      <c r="N94" s="98"/>
-      <c r="O94" s="96">
+      <c r="N94" s="95"/>
+      <c r="O94" s="93">
         <v>3</v>
       </c>
-      <c r="P94" s="98"/>
-      <c r="Q94" s="96">
+      <c r="P94" s="95"/>
+      <c r="Q94" s="93">
         <v>2</v>
       </c>
-      <c r="R94" s="98"/>
-      <c r="S94" s="96">
+      <c r="R94" s="95"/>
+      <c r="S94" s="93">
         <v>1</v>
       </c>
-      <c r="T94" s="98"/>
-      <c r="U94" s="96">
+      <c r="T94" s="95"/>
+      <c r="U94" s="93">
         <v>0</v>
       </c>
-      <c r="V94" s="98"/>
+      <c r="V94" s="95"/>
       <c r="W94" s="69"/>
       <c r="X94" s="69"/>
-      <c r="Y94" s="96">
+      <c r="Y94" s="93">
         <v>7</v>
       </c>
-      <c r="Z94" s="98"/>
-      <c r="AA94" s="96">
+      <c r="Z94" s="95"/>
+      <c r="AA94" s="93">
         <v>6</v>
       </c>
-      <c r="AB94" s="98"/>
-      <c r="AC94" s="96">
+      <c r="AB94" s="95"/>
+      <c r="AC94" s="93">
         <v>5</v>
       </c>
-      <c r="AD94" s="98"/>
-      <c r="AE94" s="96">
+      <c r="AD94" s="95"/>
+      <c r="AE94" s="93">
         <v>4</v>
       </c>
-      <c r="AF94" s="98"/>
-      <c r="AG94" s="96">
+      <c r="AF94" s="95"/>
+      <c r="AG94" s="93">
         <v>3</v>
       </c>
-      <c r="AH94" s="98"/>
-      <c r="AI94" s="96">
+      <c r="AH94" s="95"/>
+      <c r="AI94" s="93">
         <v>2</v>
       </c>
-      <c r="AJ94" s="98"/>
-      <c r="AK94" s="96">
+      <c r="AJ94" s="95"/>
+      <c r="AK94" s="93">
         <v>1</v>
       </c>
-      <c r="AL94" s="98"/>
-      <c r="AM94" s="96">
+      <c r="AL94" s="95"/>
+      <c r="AM94" s="93">
         <v>0</v>
       </c>
-      <c r="AN94" s="98"/>
+      <c r="AN94" s="95"/>
       <c r="AO94" s="69"/>
       <c r="AP94" s="69"/>
       <c r="AQ94" s="69"/>
@@ -6139,72 +6139,72 @@
       <c r="D103" s="69"/>
       <c r="E103" s="69"/>
       <c r="F103" s="69"/>
-      <c r="G103" s="93">
+      <c r="G103" s="96">
         <v>7</v>
       </c>
-      <c r="H103" s="95"/>
-      <c r="I103" s="93">
+      <c r="H103" s="98"/>
+      <c r="I103" s="96">
         <v>6</v>
       </c>
-      <c r="J103" s="95"/>
-      <c r="K103" s="93">
+      <c r="J103" s="98"/>
+      <c r="K103" s="96">
         <v>5</v>
       </c>
-      <c r="L103" s="95"/>
-      <c r="M103" s="93">
+      <c r="L103" s="98"/>
+      <c r="M103" s="96">
         <v>4</v>
       </c>
-      <c r="N103" s="95"/>
-      <c r="O103" s="93">
+      <c r="N103" s="98"/>
+      <c r="O103" s="96">
         <v>3</v>
       </c>
-      <c r="P103" s="95"/>
-      <c r="Q103" s="93">
+      <c r="P103" s="98"/>
+      <c r="Q103" s="96">
         <v>2</v>
       </c>
-      <c r="R103" s="95"/>
-      <c r="S103" s="93">
+      <c r="R103" s="98"/>
+      <c r="S103" s="96">
         <v>1</v>
       </c>
-      <c r="T103" s="95"/>
-      <c r="U103" s="93">
+      <c r="T103" s="98"/>
+      <c r="U103" s="96">
         <v>0</v>
       </c>
-      <c r="V103" s="95"/>
+      <c r="V103" s="98"/>
       <c r="W103" s="69"/>
       <c r="X103" s="69"/>
-      <c r="Y103" s="93">
+      <c r="Y103" s="96">
         <v>7</v>
       </c>
-      <c r="Z103" s="95"/>
-      <c r="AA103" s="93">
+      <c r="Z103" s="98"/>
+      <c r="AA103" s="96">
         <v>6</v>
       </c>
-      <c r="AB103" s="95"/>
-      <c r="AC103" s="93">
+      <c r="AB103" s="98"/>
+      <c r="AC103" s="96">
         <v>5</v>
       </c>
-      <c r="AD103" s="95"/>
-      <c r="AE103" s="93">
+      <c r="AD103" s="98"/>
+      <c r="AE103" s="96">
         <v>4</v>
       </c>
-      <c r="AF103" s="95"/>
-      <c r="AG103" s="93">
+      <c r="AF103" s="98"/>
+      <c r="AG103" s="96">
         <v>3</v>
       </c>
-      <c r="AH103" s="95"/>
-      <c r="AI103" s="93">
+      <c r="AH103" s="98"/>
+      <c r="AI103" s="96">
         <v>2</v>
       </c>
-      <c r="AJ103" s="95"/>
-      <c r="AK103" s="93">
+      <c r="AJ103" s="98"/>
+      <c r="AK103" s="96">
         <v>1</v>
       </c>
-      <c r="AL103" s="95"/>
-      <c r="AM103" s="93">
+      <c r="AL103" s="98"/>
+      <c r="AM103" s="96">
         <v>0</v>
       </c>
-      <c r="AN103" s="95"/>
+      <c r="AN103" s="98"/>
       <c r="AO103" s="69"/>
       <c r="AP103" s="69"/>
       <c r="AQ103" s="69"/>
@@ -6220,72 +6220,72 @@
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
       <c r="G105" s="69"/>
-      <c r="H105" s="96">
+      <c r="H105" s="93">
         <v>7</v>
       </c>
-      <c r="I105" s="98"/>
-      <c r="J105" s="96">
+      <c r="I105" s="95"/>
+      <c r="J105" s="93">
         <v>6</v>
       </c>
-      <c r="K105" s="98"/>
-      <c r="L105" s="96">
+      <c r="K105" s="95"/>
+      <c r="L105" s="93">
         <v>5</v>
       </c>
-      <c r="M105" s="98"/>
-      <c r="N105" s="96">
+      <c r="M105" s="95"/>
+      <c r="N105" s="93">
         <v>4</v>
       </c>
-      <c r="O105" s="98"/>
-      <c r="P105" s="96">
+      <c r="O105" s="95"/>
+      <c r="P105" s="93">
         <v>3</v>
       </c>
-      <c r="Q105" s="98"/>
-      <c r="R105" s="96">
+      <c r="Q105" s="95"/>
+      <c r="R105" s="93">
         <v>2</v>
       </c>
-      <c r="S105" s="98"/>
-      <c r="T105" s="96">
+      <c r="S105" s="95"/>
+      <c r="T105" s="93">
         <v>1</v>
       </c>
-      <c r="U105" s="98"/>
-      <c r="V105" s="96">
+      <c r="U105" s="95"/>
+      <c r="V105" s="93">
         <v>0</v>
       </c>
-      <c r="W105" s="98"/>
+      <c r="W105" s="95"/>
       <c r="X105" s="69"/>
       <c r="Y105" s="69"/>
-      <c r="Z105" s="96">
+      <c r="Z105" s="93">
         <v>7</v>
       </c>
-      <c r="AA105" s="98"/>
-      <c r="AB105" s="96">
+      <c r="AA105" s="95"/>
+      <c r="AB105" s="93">
         <v>6</v>
       </c>
-      <c r="AC105" s="98"/>
-      <c r="AD105" s="96">
+      <c r="AC105" s="95"/>
+      <c r="AD105" s="93">
         <v>5</v>
       </c>
-      <c r="AE105" s="98"/>
-      <c r="AF105" s="96">
+      <c r="AE105" s="95"/>
+      <c r="AF105" s="93">
         <v>4</v>
       </c>
-      <c r="AG105" s="98"/>
-      <c r="AH105" s="96">
+      <c r="AG105" s="95"/>
+      <c r="AH105" s="93">
         <v>3</v>
       </c>
-      <c r="AI105" s="98"/>
-      <c r="AJ105" s="96">
+      <c r="AI105" s="95"/>
+      <c r="AJ105" s="93">
         <v>2</v>
       </c>
-      <c r="AK105" s="98"/>
-      <c r="AL105" s="96">
+      <c r="AK105" s="95"/>
+      <c r="AL105" s="93">
         <v>1</v>
       </c>
-      <c r="AM105" s="98"/>
-      <c r="AN105" s="96">
+      <c r="AM105" s="95"/>
+      <c r="AN105" s="93">
         <v>0</v>
       </c>
-      <c r="AO105" s="98"/>
+      <c r="AO105" s="95"/>
       <c r="AP105" s="69"/>
       <c r="AQ105" s="69"/>
       <c r="AR105" s="69"/>
@@ -6464,72 +6464,72 @@
       <c r="E114" s="69"/>
       <c r="F114" s="69"/>
       <c r="G114" s="69"/>
-      <c r="H114" s="93">
+      <c r="H114" s="96">
         <v>7</v>
       </c>
-      <c r="I114" s="95"/>
-      <c r="J114" s="93">
+      <c r="I114" s="98"/>
+      <c r="J114" s="96">
         <v>6</v>
       </c>
-      <c r="K114" s="95"/>
-      <c r="L114" s="93">
+      <c r="K114" s="98"/>
+      <c r="L114" s="96">
         <v>5</v>
       </c>
-      <c r="M114" s="95"/>
-      <c r="N114" s="93">
+      <c r="M114" s="98"/>
+      <c r="N114" s="96">
         <v>4</v>
       </c>
-      <c r="O114" s="95"/>
-      <c r="P114" s="93">
+      <c r="O114" s="98"/>
+      <c r="P114" s="96">
         <v>3</v>
       </c>
-      <c r="Q114" s="95"/>
-      <c r="R114" s="93">
+      <c r="Q114" s="98"/>
+      <c r="R114" s="96">
         <v>2</v>
       </c>
-      <c r="S114" s="95"/>
-      <c r="T114" s="93">
+      <c r="S114" s="98"/>
+      <c r="T114" s="96">
         <v>1</v>
       </c>
-      <c r="U114" s="95"/>
-      <c r="V114" s="93">
+      <c r="U114" s="98"/>
+      <c r="V114" s="96">
         <v>0</v>
       </c>
-      <c r="W114" s="95"/>
+      <c r="W114" s="98"/>
       <c r="X114" s="69"/>
       <c r="Y114" s="69"/>
-      <c r="Z114" s="93">
+      <c r="Z114" s="96">
         <v>7</v>
       </c>
-      <c r="AA114" s="95"/>
-      <c r="AB114" s="93">
+      <c r="AA114" s="98"/>
+      <c r="AB114" s="96">
         <v>6</v>
       </c>
-      <c r="AC114" s="95"/>
-      <c r="AD114" s="93">
+      <c r="AC114" s="98"/>
+      <c r="AD114" s="96">
         <v>5</v>
       </c>
-      <c r="AE114" s="95"/>
-      <c r="AF114" s="93">
+      <c r="AE114" s="98"/>
+      <c r="AF114" s="96">
         <v>4</v>
       </c>
-      <c r="AG114" s="95"/>
-      <c r="AH114" s="93">
+      <c r="AG114" s="98"/>
+      <c r="AH114" s="96">
         <v>3</v>
       </c>
-      <c r="AI114" s="95"/>
-      <c r="AJ114" s="93">
+      <c r="AI114" s="98"/>
+      <c r="AJ114" s="96">
         <v>2</v>
       </c>
-      <c r="AK114" s="95"/>
-      <c r="AL114" s="93">
+      <c r="AK114" s="98"/>
+      <c r="AL114" s="96">
         <v>1</v>
       </c>
-      <c r="AM114" s="95"/>
-      <c r="AN114" s="93">
+      <c r="AM114" s="98"/>
+      <c r="AN114" s="96">
         <v>0</v>
       </c>
-      <c r="AO114" s="95"/>
+      <c r="AO114" s="98"/>
       <c r="AP114" s="69"/>
       <c r="AQ114" s="69"/>
       <c r="AR114" s="69"/>
@@ -6543,72 +6543,72 @@
       <c r="D116" s="69"/>
       <c r="E116" s="69"/>
       <c r="F116" s="69"/>
-      <c r="G116" s="96">
+      <c r="G116" s="93">
         <v>7</v>
       </c>
-      <c r="H116" s="98"/>
-      <c r="I116" s="96">
+      <c r="H116" s="95"/>
+      <c r="I116" s="93">
         <v>6</v>
       </c>
-      <c r="J116" s="98"/>
-      <c r="K116" s="96">
+      <c r="J116" s="95"/>
+      <c r="K116" s="93">
         <v>5</v>
       </c>
-      <c r="L116" s="98"/>
-      <c r="M116" s="96">
+      <c r="L116" s="95"/>
+      <c r="M116" s="93">
         <v>4</v>
       </c>
-      <c r="N116" s="98"/>
-      <c r="O116" s="96">
+      <c r="N116" s="95"/>
+      <c r="O116" s="93">
         <v>3</v>
       </c>
-      <c r="P116" s="98"/>
-      <c r="Q116" s="96">
+      <c r="P116" s="95"/>
+      <c r="Q116" s="93">
         <v>2</v>
       </c>
-      <c r="R116" s="98"/>
-      <c r="S116" s="96">
+      <c r="R116" s="95"/>
+      <c r="S116" s="93">
         <v>1</v>
       </c>
-      <c r="T116" s="98"/>
-      <c r="U116" s="96">
+      <c r="T116" s="95"/>
+      <c r="U116" s="93">
         <v>0</v>
       </c>
-      <c r="V116" s="98"/>
+      <c r="V116" s="95"/>
       <c r="W116" s="69"/>
       <c r="X116" s="69"/>
-      <c r="Y116" s="96">
+      <c r="Y116" s="93">
         <v>7</v>
       </c>
-      <c r="Z116" s="98"/>
-      <c r="AA116" s="96">
+      <c r="Z116" s="95"/>
+      <c r="AA116" s="93">
         <v>6</v>
       </c>
-      <c r="AB116" s="98"/>
-      <c r="AC116" s="96">
+      <c r="AB116" s="95"/>
+      <c r="AC116" s="93">
         <v>5</v>
       </c>
-      <c r="AD116" s="98"/>
-      <c r="AE116" s="96">
+      <c r="AD116" s="95"/>
+      <c r="AE116" s="93">
         <v>4</v>
       </c>
-      <c r="AF116" s="98"/>
-      <c r="AG116" s="96">
+      <c r="AF116" s="95"/>
+      <c r="AG116" s="93">
         <v>3</v>
       </c>
-      <c r="AH116" s="98"/>
-      <c r="AI116" s="96">
+      <c r="AH116" s="95"/>
+      <c r="AI116" s="93">
         <v>2</v>
       </c>
-      <c r="AJ116" s="98"/>
-      <c r="AK116" s="96">
+      <c r="AJ116" s="95"/>
+      <c r="AK116" s="93">
         <v>1</v>
       </c>
-      <c r="AL116" s="98"/>
-      <c r="AM116" s="96">
+      <c r="AL116" s="95"/>
+      <c r="AM116" s="93">
         <v>0</v>
       </c>
-      <c r="AN116" s="98"/>
+      <c r="AN116" s="95"/>
       <c r="AO116" s="69"/>
       <c r="AP116" s="69"/>
       <c r="AQ116" s="69"/>
@@ -6618,6 +6618,274 @@
     </row>
   </sheetData>
   <mergeCells count="292">
+    <mergeCell ref="BG24:BH24"/>
+    <mergeCell ref="BE24:BF24"/>
+    <mergeCell ref="BC24:BD24"/>
+    <mergeCell ref="AS16:BI16"/>
+    <mergeCell ref="AA34:AQ34"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AO24:AP24"/>
+    <mergeCell ref="AA70:AQ70"/>
+    <mergeCell ref="AS70:BI70"/>
+    <mergeCell ref="AA36:AQ36"/>
+    <mergeCell ref="AA18:AQ18"/>
+    <mergeCell ref="AS18:BI18"/>
+    <mergeCell ref="AQ24:AS24"/>
+    <mergeCell ref="AQ62:BF62"/>
+    <mergeCell ref="BG62:BH62"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="AO62:AP62"/>
+    <mergeCell ref="BG45:BH45"/>
+    <mergeCell ref="BI58:BK58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="AA58:AB58"/>
+    <mergeCell ref="AC58:AD58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="AW58:AX58"/>
+    <mergeCell ref="BA24:BB24"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="AW24:AX24"/>
+    <mergeCell ref="AU24:AV24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="G62:P62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="Y10:AN10"/>
+    <mergeCell ref="AQ10:BF10"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA16:AQ16"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="AQ58:AR58"/>
+    <mergeCell ref="AS58:AT58"/>
+    <mergeCell ref="AU58:AV58"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="BI41:BK41"/>
+    <mergeCell ref="G45:P45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:AN45"/>
+    <mergeCell ref="AO45:AP45"/>
+    <mergeCell ref="AQ45:BF45"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AN28"/>
+    <mergeCell ref="AO28:AP28"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="AS41:AT41"/>
+    <mergeCell ref="AU41:AV41"/>
+    <mergeCell ref="AW41:AX41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AP41"/>
+    <mergeCell ref="AQ41:AR41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="AG81:AH81"/>
+    <mergeCell ref="AI81:AJ81"/>
+    <mergeCell ref="AK81:AL81"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AE81:AF81"/>
+    <mergeCell ref="AM103:AN103"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="U103:V103"/>
+    <mergeCell ref="Y103:Z103"/>
+    <mergeCell ref="AA103:AB103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="AE103:AF103"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AF92:AG92"/>
+    <mergeCell ref="AG103:AH103"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AH83:AI83"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AN114:AO114"/>
+    <mergeCell ref="T114:U114"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="Z114:AA114"/>
+    <mergeCell ref="AB114:AC114"/>
+    <mergeCell ref="AD114:AE114"/>
+    <mergeCell ref="AF114:AG114"/>
+    <mergeCell ref="AH92:AI92"/>
+    <mergeCell ref="AJ92:AK92"/>
+    <mergeCell ref="AL92:AM92"/>
+    <mergeCell ref="AN92:AO92"/>
+    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AE94:AF94"/>
+    <mergeCell ref="AG94:AH94"/>
+    <mergeCell ref="AI103:AJ103"/>
+    <mergeCell ref="AK103:AL103"/>
+    <mergeCell ref="AH114:AI114"/>
+    <mergeCell ref="AJ114:AK114"/>
+    <mergeCell ref="AL114:AM114"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="V105:W105"/>
+    <mergeCell ref="Z105:AA105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="AI116:AJ116"/>
+    <mergeCell ref="AK116:AL116"/>
+    <mergeCell ref="AM116:AN116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="Y116:Z116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AE116:AF116"/>
+    <mergeCell ref="AG116:AH116"/>
+    <mergeCell ref="AJ105:AK105"/>
+    <mergeCell ref="AL105:AM105"/>
+    <mergeCell ref="AN105:AO105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="AD105:AE105"/>
+    <mergeCell ref="AF105:AG105"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AI94:AJ94"/>
+    <mergeCell ref="AK94:AL94"/>
+    <mergeCell ref="AM94:AN94"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="AA53:AQ53"/>
+    <mergeCell ref="AN83:AO83"/>
+    <mergeCell ref="V83:W83"/>
     <mergeCell ref="AS53:BI53"/>
     <mergeCell ref="Y62:AN62"/>
     <mergeCell ref="BK16:BL16"/>
@@ -6642,274 +6910,6 @@
     <mergeCell ref="BC58:BD58"/>
     <mergeCell ref="BE58:BF58"/>
     <mergeCell ref="BG58:BH58"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="AI116:AJ116"/>
-    <mergeCell ref="AK116:AL116"/>
-    <mergeCell ref="AM116:AN116"/>
-    <mergeCell ref="U116:V116"/>
-    <mergeCell ref="Y116:Z116"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AE116:AF116"/>
-    <mergeCell ref="AG116:AH116"/>
-    <mergeCell ref="AJ105:AK105"/>
-    <mergeCell ref="AL105:AM105"/>
-    <mergeCell ref="AN105:AO105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="AD105:AE105"/>
-    <mergeCell ref="AF105:AG105"/>
-    <mergeCell ref="AH105:AI105"/>
-    <mergeCell ref="AI94:AJ94"/>
-    <mergeCell ref="AK94:AL94"/>
-    <mergeCell ref="AM94:AN94"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="AA53:AQ53"/>
-    <mergeCell ref="AN83:AO83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="S116:T116"/>
-    <mergeCell ref="V105:W105"/>
-    <mergeCell ref="Z105:AA105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="R114:S114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="AN114:AO114"/>
-    <mergeCell ref="T114:U114"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="Z114:AA114"/>
-    <mergeCell ref="AB114:AC114"/>
-    <mergeCell ref="AD114:AE114"/>
-    <mergeCell ref="AF114:AG114"/>
-    <mergeCell ref="AH92:AI92"/>
-    <mergeCell ref="AJ92:AK92"/>
-    <mergeCell ref="AL92:AM92"/>
-    <mergeCell ref="AN92:AO92"/>
-    <mergeCell ref="Y94:Z94"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="AE94:AF94"/>
-    <mergeCell ref="AG94:AH94"/>
-    <mergeCell ref="AI103:AJ103"/>
-    <mergeCell ref="AK103:AL103"/>
-    <mergeCell ref="AH114:AI114"/>
-    <mergeCell ref="AJ114:AK114"/>
-    <mergeCell ref="AL114:AM114"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="U103:V103"/>
-    <mergeCell ref="Y103:Z103"/>
-    <mergeCell ref="AA103:AB103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="AE103:AF103"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AF92:AG92"/>
-    <mergeCell ref="AG103:AH103"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AH83:AI83"/>
-    <mergeCell ref="AJ83:AK83"/>
-    <mergeCell ref="AG81:AH81"/>
-    <mergeCell ref="AI81:AJ81"/>
-    <mergeCell ref="AK81:AL81"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="U81:V81"/>
-    <mergeCell ref="Y81:Z81"/>
-    <mergeCell ref="AA81:AB81"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AE81:AF81"/>
-    <mergeCell ref="AM103:AN103"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="AS41:AT41"/>
-    <mergeCell ref="AU41:AV41"/>
-    <mergeCell ref="AW41:AX41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AP41"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AO58:AP58"/>
-    <mergeCell ref="AQ58:AR58"/>
-    <mergeCell ref="AS58:AT58"/>
-    <mergeCell ref="AU58:AV58"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="BI41:BK41"/>
-    <mergeCell ref="G45:P45"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:AN45"/>
-    <mergeCell ref="AO45:AP45"/>
-    <mergeCell ref="AQ45:BF45"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AN28"/>
-    <mergeCell ref="AO28:AP28"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="Y10:AN10"/>
-    <mergeCell ref="AQ10:BF10"/>
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA16:AQ16"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="G62:P62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="AA70:AQ70"/>
-    <mergeCell ref="AS70:BI70"/>
-    <mergeCell ref="AA36:AQ36"/>
-    <mergeCell ref="AA18:AQ18"/>
-    <mergeCell ref="AS18:BI18"/>
-    <mergeCell ref="AQ24:AS24"/>
-    <mergeCell ref="AQ62:BF62"/>
-    <mergeCell ref="BG62:BH62"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="AO62:AP62"/>
-    <mergeCell ref="BG45:BH45"/>
-    <mergeCell ref="BI58:BK58"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="AA58:AB58"/>
-    <mergeCell ref="AC58:AD58"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="AW58:AX58"/>
-    <mergeCell ref="BA24:BB24"/>
-    <mergeCell ref="AY24:AZ24"/>
-    <mergeCell ref="AW24:AX24"/>
-    <mergeCell ref="AU24:AV24"/>
-    <mergeCell ref="BG24:BH24"/>
-    <mergeCell ref="BE24:BF24"/>
-    <mergeCell ref="BC24:BD24"/>
-    <mergeCell ref="AS16:BI16"/>
-    <mergeCell ref="AA34:AQ34"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AO24:AP24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
